--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P210"/>
+  <dimension ref="A1:X260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,6 +526,46 @@
           <t>high_confidence_pump</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>price_usd</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap_usd</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>volume_usd_24h</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>price_change_24h</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>price_change_7d</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>radar_score</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>radar_bucket</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>momentum_days</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -10205,6 +10245,3706 @@
         <v>0</v>
       </c>
       <c r="P210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Nzn8vsoshVehdiWbvBvgeTL3M1yWNhz1DF8A2AXLV7y</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
+      <c r="S211" t="n">
+        <v>0</v>
+      </c>
+      <c r="T211" t="n">
+        <v>0</v>
+      </c>
+      <c r="U211" t="n">
+        <v>0</v>
+      </c>
+      <c r="V211" t="n">
+        <v>0</v>
+      </c>
+      <c r="W211" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>EaEVXxVALRvgD3zFcsXZYkz4WTiCWBfpmakXwddDLive</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
+      <c r="S212" t="n">
+        <v>0</v>
+      </c>
+      <c r="T212" t="n">
+        <v>0</v>
+      </c>
+      <c r="U212" t="n">
+        <v>0</v>
+      </c>
+      <c r="V212" t="n">
+        <v>0</v>
+      </c>
+      <c r="W212" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>BDRLQzYHn7pypXWwg2zFXy4as5Km28iSTruGJxuQpump</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0</v>
+      </c>
+      <c r="O213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
+      <c r="S213" t="n">
+        <v>0</v>
+      </c>
+      <c r="T213" t="n">
+        <v>0</v>
+      </c>
+      <c r="U213" t="n">
+        <v>0</v>
+      </c>
+      <c r="V213" t="n">
+        <v>0</v>
+      </c>
+      <c r="W213" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>6V4QLouv2HTbae34hBjLgW5Qc3kdquqFLBsDS3scR1CH</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
+      <c r="S214" t="n">
+        <v>0</v>
+      </c>
+      <c r="T214" t="n">
+        <v>0</v>
+      </c>
+      <c r="U214" t="n">
+        <v>0</v>
+      </c>
+      <c r="V214" t="n">
+        <v>0</v>
+      </c>
+      <c r="W214" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>q29umWshmh2fmm1CdRb4cBKhqtW9xX25ezNQi7Bpump</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
+      <c r="S215" t="n">
+        <v>0</v>
+      </c>
+      <c r="T215" t="n">
+        <v>0</v>
+      </c>
+      <c r="U215" t="n">
+        <v>0</v>
+      </c>
+      <c r="V215" t="n">
+        <v>0</v>
+      </c>
+      <c r="W215" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>C93Xk7zeJEYwqmWeJJCnWVsSR3Nog7SC7LHW2ZTxvREV</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
+      <c r="S216" t="n">
+        <v>0</v>
+      </c>
+      <c r="T216" t="n">
+        <v>0</v>
+      </c>
+      <c r="U216" t="n">
+        <v>0</v>
+      </c>
+      <c r="V216" t="n">
+        <v>0</v>
+      </c>
+      <c r="W216" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>4KUCN58TeExp9qrap64yuBPTmGmToV7R9h1p7HCZpump</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
+      <c r="S217" t="n">
+        <v>0</v>
+      </c>
+      <c r="T217" t="n">
+        <v>0</v>
+      </c>
+      <c r="U217" t="n">
+        <v>0</v>
+      </c>
+      <c r="V217" t="n">
+        <v>0</v>
+      </c>
+      <c r="W217" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>3sLSDYfmbu5ZdmC7wbBUzvwRFE6S1dtrTUafuhhApump</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
+      <c r="S218" t="n">
+        <v>0</v>
+      </c>
+      <c r="T218" t="n">
+        <v>0</v>
+      </c>
+      <c r="U218" t="n">
+        <v>0</v>
+      </c>
+      <c r="V218" t="n">
+        <v>0</v>
+      </c>
+      <c r="W218" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>34AeqX5MQGyrey2VnZdkeZCfM4qinp4F3X7pGxtipump</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
+      <c r="S219" t="n">
+        <v>0</v>
+      </c>
+      <c r="T219" t="n">
+        <v>0</v>
+      </c>
+      <c r="U219" t="n">
+        <v>0</v>
+      </c>
+      <c r="V219" t="n">
+        <v>0</v>
+      </c>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>9DVgoPhCJkmS9C1tVCRyz4Ectu5MNsph9nwiQZAPmoon</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
+      <c r="S220" t="n">
+        <v>0</v>
+      </c>
+      <c r="T220" t="n">
+        <v>0</v>
+      </c>
+      <c r="U220" t="n">
+        <v>0</v>
+      </c>
+      <c r="V220" t="n">
+        <v>0</v>
+      </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
+      <c r="S221" t="n">
+        <v>0</v>
+      </c>
+      <c r="T221" t="n">
+        <v>0</v>
+      </c>
+      <c r="U221" t="n">
+        <v>0</v>
+      </c>
+      <c r="V221" t="n">
+        <v>0</v>
+      </c>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
+      <c r="S222" t="n">
+        <v>0</v>
+      </c>
+      <c r="T222" t="n">
+        <v>0</v>
+      </c>
+      <c r="U222" t="n">
+        <v>0</v>
+      </c>
+      <c r="V222" t="n">
+        <v>0</v>
+      </c>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>4NGbC4RRrUjS78ooSN53Up7gSg4dGrj6F6dxpMWHbonk</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
+      <c r="S223" t="n">
+        <v>0</v>
+      </c>
+      <c r="T223" t="n">
+        <v>0</v>
+      </c>
+      <c r="U223" t="n">
+        <v>0</v>
+      </c>
+      <c r="V223" t="n">
+        <v>0</v>
+      </c>
+      <c r="W223" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>31ovHdpQJTMrmxwiSRWpZQ6oY3AP9wu8RWZh8adepump</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
+      <c r="S224" t="n">
+        <v>0</v>
+      </c>
+      <c r="T224" t="n">
+        <v>0</v>
+      </c>
+      <c r="U224" t="n">
+        <v>0</v>
+      </c>
+      <c r="V224" t="n">
+        <v>0</v>
+      </c>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
+      <c r="S225" t="n">
+        <v>0</v>
+      </c>
+      <c r="T225" t="n">
+        <v>0</v>
+      </c>
+      <c r="U225" t="n">
+        <v>0</v>
+      </c>
+      <c r="V225" t="n">
+        <v>0</v>
+      </c>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>CB9dDufT3ZuQXqqSfa1c5kY935TEreyBw9XJXxHKpump</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
+      <c r="S226" t="n">
+        <v>0</v>
+      </c>
+      <c r="T226" t="n">
+        <v>0</v>
+      </c>
+      <c r="U226" t="n">
+        <v>0</v>
+      </c>
+      <c r="V226" t="n">
+        <v>0</v>
+      </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>BVvywU1wt4FaLDfZe7y11yrVnHbJpAU7YirmsuW3pump</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
+      <c r="S227" t="n">
+        <v>0</v>
+      </c>
+      <c r="T227" t="n">
+        <v>0</v>
+      </c>
+      <c r="U227" t="n">
+        <v>0</v>
+      </c>
+      <c r="V227" t="n">
+        <v>0</v>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>3rSKhRtrjHnSZhRsgoAtrWRVM8rcf8DYv8Quea1epump</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
+      <c r="S228" t="n">
+        <v>0</v>
+      </c>
+      <c r="T228" t="n">
+        <v>0</v>
+      </c>
+      <c r="U228" t="n">
+        <v>0</v>
+      </c>
+      <c r="V228" t="n">
+        <v>0</v>
+      </c>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>BPcEmH1Amv1ZAJhBpTxnTpkMg1bbkbrM7RwKycWipump</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
+      <c r="S229" t="n">
+        <v>0</v>
+      </c>
+      <c r="T229" t="n">
+        <v>0</v>
+      </c>
+      <c r="U229" t="n">
+        <v>0</v>
+      </c>
+      <c r="V229" t="n">
+        <v>0</v>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>HGwdb6RQsMTqXpjBiy5BEAXHcpanmJr3c1Dj84r5pump</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
+      <c r="S230" t="n">
+        <v>0</v>
+      </c>
+      <c r="T230" t="n">
+        <v>0</v>
+      </c>
+      <c r="U230" t="n">
+        <v>0</v>
+      </c>
+      <c r="V230" t="n">
+        <v>0</v>
+      </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>wCtiCRJz69a5Mqkk2nHmvQwBGQCrUvM8fELoFGqpump</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
+      <c r="S231" t="n">
+        <v>0</v>
+      </c>
+      <c r="T231" t="n">
+        <v>0</v>
+      </c>
+      <c r="U231" t="n">
+        <v>0</v>
+      </c>
+      <c r="V231" t="n">
+        <v>0</v>
+      </c>
+      <c r="W231" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>H9iZggMWYP8G6DxKRaDoRW8ZkE4miWVuqpKYLrAspump</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
+      <c r="S232" t="n">
+        <v>0</v>
+      </c>
+      <c r="T232" t="n">
+        <v>0</v>
+      </c>
+      <c r="U232" t="n">
+        <v>0</v>
+      </c>
+      <c r="V232" t="n">
+        <v>0</v>
+      </c>
+      <c r="W232" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
+      <c r="S233" t="n">
+        <v>0</v>
+      </c>
+      <c r="T233" t="n">
+        <v>0</v>
+      </c>
+      <c r="U233" t="n">
+        <v>0</v>
+      </c>
+      <c r="V233" t="n">
+        <v>0</v>
+      </c>
+      <c r="W233" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>41m33JPaG3qGJjkJY1uMpLCiNXccaNxSm1wJyYjQ2LPR</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
+      <c r="S234" t="n">
+        <v>0</v>
+      </c>
+      <c r="T234" t="n">
+        <v>0</v>
+      </c>
+      <c r="U234" t="n">
+        <v>0</v>
+      </c>
+      <c r="V234" t="n">
+        <v>0</v>
+      </c>
+      <c r="W234" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>AjgSvYmJLhvt3FteiyTqQf8XBj1SVs6T6AmSUfkHpump</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
+      <c r="S235" t="n">
+        <v>0</v>
+      </c>
+      <c r="T235" t="n">
+        <v>0</v>
+      </c>
+      <c r="U235" t="n">
+        <v>0</v>
+      </c>
+      <c r="V235" t="n">
+        <v>0</v>
+      </c>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>BdDB5AH7azG8BQGC9bSobh6ER33VdB7ZZ97jGn2Npump</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
+      <c r="S236" t="n">
+        <v>0</v>
+      </c>
+      <c r="T236" t="n">
+        <v>0</v>
+      </c>
+      <c r="U236" t="n">
+        <v>0</v>
+      </c>
+      <c r="V236" t="n">
+        <v>0</v>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>5t3TrtpDm1P8pRVYXcJ6MmngNsv2Ty3H5cimDve2pump</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
+      <c r="S237" t="n">
+        <v>0</v>
+      </c>
+      <c r="T237" t="n">
+        <v>0</v>
+      </c>
+      <c r="U237" t="n">
+        <v>0</v>
+      </c>
+      <c r="V237" t="n">
+        <v>0</v>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2ASXv4uqTmJq3nfkmaBCyCiGuytFaki6CJQhJ7MUpump</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
+      <c r="S238" t="n">
+        <v>0</v>
+      </c>
+      <c r="T238" t="n">
+        <v>0</v>
+      </c>
+      <c r="U238" t="n">
+        <v>0</v>
+      </c>
+      <c r="V238" t="n">
+        <v>0</v>
+      </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2wKTkGQjG9E2wohcYAiJ8EgD3YfpdYaQheJRQ41zpump</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
+      <c r="S239" t="n">
+        <v>0</v>
+      </c>
+      <c r="T239" t="n">
+        <v>0</v>
+      </c>
+      <c r="U239" t="n">
+        <v>0</v>
+      </c>
+      <c r="V239" t="n">
+        <v>0</v>
+      </c>
+      <c r="W239" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>5hLq2RBNaxv5cT9fK4J7oXsKXLkrPXSFzFSwBBjNpump</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
+      <c r="S240" t="n">
+        <v>0</v>
+      </c>
+      <c r="T240" t="n">
+        <v>0</v>
+      </c>
+      <c r="U240" t="n">
+        <v>0</v>
+      </c>
+      <c r="V240" t="n">
+        <v>0</v>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>52na8Ux7ir91V1v3ziNWkPK3Zx16dFpwa8fStfRzpump</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
+      <c r="S241" t="n">
+        <v>0</v>
+      </c>
+      <c r="T241" t="n">
+        <v>0</v>
+      </c>
+      <c r="U241" t="n">
+        <v>0</v>
+      </c>
+      <c r="V241" t="n">
+        <v>0</v>
+      </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>CFdm8UxTsTs14zEbyHvmLUjnp2LBUnK4AoQqSkCwpump</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
+      <c r="S242" t="n">
+        <v>0</v>
+      </c>
+      <c r="T242" t="n">
+        <v>0</v>
+      </c>
+      <c r="U242" t="n">
+        <v>0</v>
+      </c>
+      <c r="V242" t="n">
+        <v>0</v>
+      </c>
+      <c r="W242" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>3nCkzXUKY5eqbeJ3RAx3rmqqbnJHqMc2WFhvXqSJjRQi</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
+      <c r="S243" t="n">
+        <v>0</v>
+      </c>
+      <c r="T243" t="n">
+        <v>0</v>
+      </c>
+      <c r="U243" t="n">
+        <v>0</v>
+      </c>
+      <c r="V243" t="n">
+        <v>0</v>
+      </c>
+      <c r="W243" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>9FKZKjcBqMDNk7qFLTZJJZcni2j4ttb7CeFXNc6Npump</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
+      <c r="S244" t="n">
+        <v>0</v>
+      </c>
+      <c r="T244" t="n">
+        <v>0</v>
+      </c>
+      <c r="U244" t="n">
+        <v>0</v>
+      </c>
+      <c r="V244" t="n">
+        <v>0</v>
+      </c>
+      <c r="W244" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>8wMLunYiViYiPyiLXmL6BRhv1PkbBe9reZ8Q1bVWpump</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
+      <c r="S245" t="n">
+        <v>0</v>
+      </c>
+      <c r="T245" t="n">
+        <v>0</v>
+      </c>
+      <c r="U245" t="n">
+        <v>0</v>
+      </c>
+      <c r="V245" t="n">
+        <v>0</v>
+      </c>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>8vEMeenH81xTMDKJcuAE3Mvk9yKoo5E7YkwhjhN4pump</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
+      <c r="S246" t="n">
+        <v>0</v>
+      </c>
+      <c r="T246" t="n">
+        <v>0</v>
+      </c>
+      <c r="U246" t="n">
+        <v>0</v>
+      </c>
+      <c r="V246" t="n">
+        <v>0</v>
+      </c>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>DBdWfTToJcg7XfKwsNpV1VG8ZN7XpxrPp9rChkHcpump</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
+      <c r="S247" t="n">
+        <v>0</v>
+      </c>
+      <c r="T247" t="n">
+        <v>0</v>
+      </c>
+      <c r="U247" t="n">
+        <v>0</v>
+      </c>
+      <c r="V247" t="n">
+        <v>0</v>
+      </c>
+      <c r="W247" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>EA2eKDU7hpjgRiW6xUtEReoGcD23KmugthyZCTbTpump</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
+      <c r="S248" t="n">
+        <v>0</v>
+      </c>
+      <c r="T248" t="n">
+        <v>0</v>
+      </c>
+      <c r="U248" t="n">
+        <v>0</v>
+      </c>
+      <c r="V248" t="n">
+        <v>0</v>
+      </c>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>5kNbJHK3TyUTF4ra8JSfj1NJYt26bjqDoocJCoyks5aN</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
+      <c r="S249" t="n">
+        <v>0</v>
+      </c>
+      <c r="T249" t="n">
+        <v>0</v>
+      </c>
+      <c r="U249" t="n">
+        <v>0</v>
+      </c>
+      <c r="V249" t="n">
+        <v>0</v>
+      </c>
+      <c r="W249" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>DS4XQ4KNTLBzZLw7bsEcNJfjhohrmgWaGE8rTtuypump</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
+      <c r="S250" t="n">
+        <v>0</v>
+      </c>
+      <c r="T250" t="n">
+        <v>0</v>
+      </c>
+      <c r="U250" t="n">
+        <v>0</v>
+      </c>
+      <c r="V250" t="n">
+        <v>0</v>
+      </c>
+      <c r="W250" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>8baLMqCkFeSe7FCAfSguQurPjqfbhaU7sa74ShLsP1j7</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
+      <c r="S251" t="n">
+        <v>0</v>
+      </c>
+      <c r="T251" t="n">
+        <v>0</v>
+      </c>
+      <c r="U251" t="n">
+        <v>0</v>
+      </c>
+      <c r="V251" t="n">
+        <v>0</v>
+      </c>
+      <c r="W251" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>EY3dLhAt59kgQtjBGxeu9AVWigLawz5KBLXDcynKpump</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
+      <c r="S252" t="n">
+        <v>0</v>
+      </c>
+      <c r="T252" t="n">
+        <v>0</v>
+      </c>
+      <c r="U252" t="n">
+        <v>0</v>
+      </c>
+      <c r="V252" t="n">
+        <v>0</v>
+      </c>
+      <c r="W252" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>9AUEQCPHjMg9T9VTR7Yfcon57vkwQfEMnFyHCqCJpump</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
+      <c r="S253" t="n">
+        <v>0</v>
+      </c>
+      <c r="T253" t="n">
+        <v>0</v>
+      </c>
+      <c r="U253" t="n">
+        <v>0</v>
+      </c>
+      <c r="V253" t="n">
+        <v>0</v>
+      </c>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>ELusVXzUPHyAuPB3M7qemr2Y2KshiWnGXauK17XYpump</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
+      <c r="S254" t="n">
+        <v>0</v>
+      </c>
+      <c r="T254" t="n">
+        <v>0</v>
+      </c>
+      <c r="U254" t="n">
+        <v>0</v>
+      </c>
+      <c r="V254" t="n">
+        <v>0</v>
+      </c>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>AHyRdt9xRMKnppx3Hxb1kNYXvfzdmkPQsybcJuU9pump</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
+      <c r="S255" t="n">
+        <v>0</v>
+      </c>
+      <c r="T255" t="n">
+        <v>0</v>
+      </c>
+      <c r="U255" t="n">
+        <v>0</v>
+      </c>
+      <c r="V255" t="n">
+        <v>0</v>
+      </c>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Geakz9ViTntF8K9X6SjCEH9ZXGTUucideFVvU7Tvpump</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
+      <c r="S256" t="n">
+        <v>0</v>
+      </c>
+      <c r="T256" t="n">
+        <v>0</v>
+      </c>
+      <c r="U256" t="n">
+        <v>0</v>
+      </c>
+      <c r="V256" t="n">
+        <v>0</v>
+      </c>
+      <c r="W256" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>7crUi3HvVkcB7t8FhHfZH6foyv1Wtozc2hYcmVyJpump</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
+      <c r="S257" t="n">
+        <v>0</v>
+      </c>
+      <c r="T257" t="n">
+        <v>0</v>
+      </c>
+      <c r="U257" t="n">
+        <v>0</v>
+      </c>
+      <c r="V257" t="n">
+        <v>0</v>
+      </c>
+      <c r="W257" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>BS3GAr3ww1X8zgASXvx2rxbsrkF895GRdnaYmPtcpump</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
+      <c r="S258" t="n">
+        <v>0</v>
+      </c>
+      <c r="T258" t="n">
+        <v>0</v>
+      </c>
+      <c r="U258" t="n">
+        <v>0</v>
+      </c>
+      <c r="V258" t="n">
+        <v>0</v>
+      </c>
+      <c r="W258" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>7ziiLugERop4FHLBNS4pmZJ9mKQCSDUuqE7tLq6G4bwB</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
+      <c r="S259" t="n">
+        <v>0</v>
+      </c>
+      <c r="T259" t="n">
+        <v>0</v>
+      </c>
+      <c r="U259" t="n">
+        <v>0</v>
+      </c>
+      <c r="V259" t="n">
+        <v>0</v>
+      </c>
+      <c r="W259" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
+      <c r="S260" t="n">
+        <v>0</v>
+      </c>
+      <c r="T260" t="n">
+        <v>0</v>
+      </c>
+      <c r="U260" t="n">
+        <v>0</v>
+      </c>
+      <c r="V260" t="n">
+        <v>0</v>
+      </c>
+      <c r="W260" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="X260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10660,7 +14400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14737,6 +18477,1006 @@
       <c r="F201" t="inlineStr">
         <is>
           <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Nzn8vsoshVehdiWbvBvgeTL3M1yWNhz1DF8A2AXLV7y</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>EaEVXxVALRvgD3zFcsXZYkz4WTiCWBfpmakXwddDLive</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>3</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>BDRLQzYHn7pypXWwg2zFXy4as5Km28iSTruGJxuQpump</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>4</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>6V4QLouv2HTbae34hBjLgW5Qc3kdquqFLBsDS3scR1CH</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>5</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>q29umWshmh2fmm1CdRb4cBKhqtW9xX25ezNQi7Bpump</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>6</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>C93Xk7zeJEYwqmWeJJCnWVsSR3Nog7SC7LHW2ZTxvREV</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>7</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>4KUCN58TeExp9qrap64yuBPTmGmToV7R9h1p7HCZpump</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>8</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>3sLSDYfmbu5ZdmC7wbBUzvwRFE6S1dtrTUafuhhApump</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>9</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>34AeqX5MQGyrey2VnZdkeZCfM4qinp4F3X7pGxtipump</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>10</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>9DVgoPhCJkmS9C1tVCRyz4Ectu5MNsph9nwiQZAPmoon</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>11</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>12</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>13</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4NGbC4RRrUjS78ooSN53Up7gSg4dGrj6F6dxpMWHbonk</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>14</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>31ovHdpQJTMrmxwiSRWpZQ6oY3AP9wu8RWZh8adepump</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>15</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>16</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>CB9dDufT3ZuQXqqSfa1c5kY935TEreyBw9XJXxHKpump</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>17</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>BVvywU1wt4FaLDfZe7y11yrVnHbJpAU7YirmsuW3pump</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>18</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>3rSKhRtrjHnSZhRsgoAtrWRVM8rcf8DYv8Quea1epump</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>19</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>BPcEmH1Amv1ZAJhBpTxnTpkMg1bbkbrM7RwKycWipump</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>20</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>HGwdb6RQsMTqXpjBiy5BEAXHcpanmJr3c1Dj84r5pump</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>21</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>wCtiCRJz69a5Mqkk2nHmvQwBGQCrUvM8fELoFGqpump</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>22</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>H9iZggMWYP8G6DxKRaDoRW8ZkE4miWVuqpKYLrAspump</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>23</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>24</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>41m33JPaG3qGJjkJY1uMpLCiNXccaNxSm1wJyYjQ2LPR</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>25</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>AjgSvYmJLhvt3FteiyTqQf8XBj1SVs6T6AmSUfkHpump</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>26</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>BdDB5AH7azG8BQGC9bSobh6ER33VdB7ZZ97jGn2Npump</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>27</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>5t3TrtpDm1P8pRVYXcJ6MmngNsv2Ty3H5cimDve2pump</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>DexBoostsTop</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>28</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2ASXv4uqTmJq3nfkmaBCyCiGuytFaki6CJQhJ7MUpump</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>29</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2wKTkGQjG9E2wohcYAiJ8EgD3YfpdYaQheJRQ41zpump</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>30</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>5hLq2RBNaxv5cT9fK4J7oXsKXLkrPXSFzFSwBBjNpump</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>31</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>52na8Ux7ir91V1v3ziNWkPK3Zx16dFpwa8fStfRzpump</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>32</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>CFdm8UxTsTs14zEbyHvmLUjnp2LBUnK4AoQqSkCwpump</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>33</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>3nCkzXUKY5eqbeJ3RAx3rmqqbnJHqMc2WFhvXqSJjRQi</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>34</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>9FKZKjcBqMDNk7qFLTZJJZcni2j4ttb7CeFXNc6Npump</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>35</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>8wMLunYiViYiPyiLXmL6BRhv1PkbBe9reZ8Q1bVWpump</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>36</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>8vEMeenH81xTMDKJcuAE3Mvk9yKoo5E7YkwhjhN4pump</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>37</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>DBdWfTToJcg7XfKwsNpV1VG8ZN7XpxrPp9rChkHcpump</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>38</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>EA2eKDU7hpjgRiW6xUtEReoGcD23KmugthyZCTbTpump</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>39</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>5kNbJHK3TyUTF4ra8JSfj1NJYt26bjqDoocJCoyks5aN</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>40</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>DS4XQ4KNTLBzZLw7bsEcNJfjhohrmgWaGE8rTtuypump</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>41</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>8baLMqCkFeSe7FCAfSguQurPjqfbhaU7sa74ShLsP1j7</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>42</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>EY3dLhAt59kgQtjBGxeu9AVWigLawz5KBLXDcynKpump</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>43</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>9AUEQCPHjMg9T9VTR7Yfcon57vkwQfEMnFyHCqCJpump</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>44</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>ELusVXzUPHyAuPB3M7qemr2Y2KshiWnGXauK17XYpump</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>45</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>AHyRdt9xRMKnppx3Hxb1kNYXvfzdmkPQsybcJuU9pump</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>46</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Geakz9ViTntF8K9X6SjCEH9ZXGTUucideFVvU7Tvpump</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>47</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>7crUi3HvVkcB7t8FhHfZH6foyv1Wtozc2hYcmVyJpump</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>48</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>BS3GAr3ww1X8zgASXvx2rxbsrkF895GRdnaYmPtcpump</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>49</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>7ziiLugERop4FHLBNS4pmZJ9mKQCSDUuqE7tLq6G4bwB</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>DexProfilesLatest</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>50</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Fallback:Master</t>
         </is>
       </c>
     </row>
@@ -14751,7 +19491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14814,12 +19554,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DHSZ2zaQ2mNtTJFXH3iNUG1oWXr6ZFj4TyfqVdexpump</t>
+          <t>Nzn8vsoshVehdiWbvBvgeTL3M1yWNhz1DF8A2AXLV7y</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -14832,12 +19572,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>EaEVXxVALRvgD3zFcsXZYkz4WTiCWBfpmakXwddDLive</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -14850,12 +19590,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7Rw4dgDuwESJEcCAbhxAghLcmkXM5QotupWq8PPc1UeC</t>
+          <t>BDRLQzYHn7pypXWwg2zFXy4as5Km28iSTruGJxuQpump</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -14868,12 +19608,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BMdxkiQTJbLjZF4on3ivYDibWVCMsriEHra469zM49hV</t>
+          <t>6V4QLouv2HTbae34hBjLgW5Qc3kdquqFLBsDS3scR1CH</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -14886,12 +19626,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+          <t>q29umWshmh2fmm1CdRb4cBKhqtW9xX25ezNQi7Bpump</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -14904,12 +19644,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+          <t>C93Xk7zeJEYwqmWeJJCnWVsSR3Nog7SC7LHW2ZTxvREV</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -14922,12 +19662,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EFRoRp8wJsLy5kUZYSL95Tqp6ijVPsejWYMCn7ZjcG8L</t>
+          <t>4KUCN58TeExp9qrap64yuBPTmGmToV7R9h1p7HCZpump</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -14940,12 +19680,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
+          <t>3sLSDYfmbu5ZdmC7wbBUzvwRFE6S1dtrTUafuhhApump</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -14958,12 +19698,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+          <t>34AeqX5MQGyrey2VnZdkeZCfM4qinp4F3X7pGxtipump</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -14976,12 +19716,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>9DVgoPhCJkmS9C1tVCRyz4Ectu5MNsph9nwiQZAPmoon</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -14994,12 +19734,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -15012,12 +19752,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -15030,12 +19770,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+          <t>4NGbC4RRrUjS78ooSN53Up7gSg4dGrj6F6dxpMWHbonk</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -15048,12 +19788,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2JaJ353mgRVrGbrxsvHr17hseGtf1kD4ixErXGcNP1LL</t>
+          <t>31ovHdpQJTMrmxwiSRWpZQ6oY3AP9wu8RWZh8adepump</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -15066,7 +19806,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -15084,12 +19824,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>CB9dDufT3ZuQXqqSfa1c5kY935TEreyBw9XJXxHKpump</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -15102,12 +19842,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LGiKAMtb4BuPdhpThjEbNWbDddqdM5FnxMMHqtzpump</t>
+          <t>BVvywU1wt4FaLDfZe7y11yrVnHbJpAU7YirmsuW3pump</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -15120,12 +19860,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
+          <t>3rSKhRtrjHnSZhRsgoAtrWRVM8rcf8DYv8Quea1epump</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -15138,12 +19878,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
+          <t>BPcEmH1Amv1ZAJhBpTxnTpkMg1bbkbrM7RwKycWipump</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -15156,12 +19896,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>HGwdb6RQsMTqXpjBiy5BEAXHcpanmJr3c1Dj84r5pump</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -15174,12 +19914,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
+          <t>wCtiCRJz69a5Mqkk2nHmvQwBGQCrUvM8fELoFGqpump</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -15192,12 +19932,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+          <t>H9iZggMWYP8G6DxKRaDoRW8ZkE4miWVuqpKYLrAspump</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -15210,12 +19950,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7gdDoYLX33ZMh66Ut2teMgxqTeVYD5wYa29AHeHhQt9a</t>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -15228,12 +19968,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+          <t>41m33JPaG3qGJjkJY1uMpLCiNXccaNxSm1wJyYjQ2LPR</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -15246,12 +19986,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2Jz5Wf6PGs4x1dJH4FvfMcgEERTmPadLBDsFmtyCpump</t>
+          <t>AjgSvYmJLhvt3FteiyTqQf8XBj1SVs6T6AmSUfkHpump</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -15264,12 +20004,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
+          <t>BdDB5AH7azG8BQGC9bSobh6ER33VdB7ZZ97jGn2Npump</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -15282,12 +20022,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5YsAgujq8omt58Acn94WNLqFuywBDy4JgW635xJspump</t>
+          <t>5t3TrtpDm1P8pRVYXcJ6MmngNsv2Ty3H5cimDve2pump</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -15300,12 +20040,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mDJpLmXubnSYmesFYSeYck9AxmA76rpn6nnAs9ppump</t>
+          <t>2ASXv4uqTmJq3nfkmaBCyCiGuytFaki6CJQhJ7MUpump</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -15318,12 +20058,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hcz9pkmcmxW4DWkz9CxDFz5Q2Kswkq1jTkjB9hVgJ4Kp</t>
+          <t>2wKTkGQjG9E2wohcYAiJ8EgD3YfpdYaQheJRQ41zpump</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -15336,12 +20076,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8AgJibpuXYU79bMSzhBv9BCUioxYkoeRVDYz3Tjopump</t>
+          <t>5hLq2RBNaxv5cT9fK4J7oXsKXLkrPXSFzFSwBBjNpump</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -15354,12 +20094,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
+          <t>52na8Ux7ir91V1v3ziNWkPK3Zx16dFpwa8fStfRzpump</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -15372,12 +20112,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6EPZ1REL6fdby6GwbCJsFoU5EvHMaQJ9zjvwVYVpump</t>
+          <t>CFdm8UxTsTs14zEbyHvmLUjnp2LBUnK4AoQqSkCwpump</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -15390,12 +20130,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4Wt3BgMs8m1qiCcMXwSf2SC5gnJW6Adi7uq7cZTCpump</t>
+          <t>3nCkzXUKY5eqbeJ3RAx3rmqqbnJHqMc2WFhvXqSJjRQi</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -15408,12 +20148,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>YzHXweqcZUNDko66bJpfqXyx7aPfiQnHGNiLCM8pump</t>
+          <t>9FKZKjcBqMDNk7qFLTZJJZcni2j4ttb7CeFXNc6Npump</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -15426,12 +20166,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3hiutVNCbwCY1vmoPKdXtMtuzg4epn1WzuU1jgpHpump</t>
+          <t>8wMLunYiViYiPyiLXmL6BRhv1PkbBe9reZ8Q1bVWpump</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -15444,12 +20184,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+          <t>8vEMeenH81xTMDKJcuAE3Mvk9yKoo5E7YkwhjhN4pump</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -15462,12 +20202,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6rhFUUZsUbjD4tSHrLetmCuvuM3L2ASTLEAgemZtpump</t>
+          <t>DBdWfTToJcg7XfKwsNpV1VG8ZN7XpxrPp9rChkHcpump</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -15480,12 +20220,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7gxdgFPkUQWL2FXJ4ThUPmRkzavB5PqBQHwAFKVYbonk</t>
+          <t>EA2eKDU7hpjgRiW6xUtEReoGcD23KmugthyZCTbTpump</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -15498,12 +20238,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HnhYV3WnVV5CMyJXLYWtPAmeYtCZHsdn8YCwyCCjpump</t>
+          <t>5kNbJHK3TyUTF4ra8JSfj1NJYt26bjqDoocJCoyks5aN</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -15516,12 +20256,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TarDAwtsqWLJ213YunSa1Samp3QPuvvU9FXsLSEpump</t>
+          <t>DS4XQ4KNTLBzZLw7bsEcNJfjhohrmgWaGE8rTtuypump</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -15534,12 +20274,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
+          <t>8baLMqCkFeSe7FCAfSguQurPjqfbhaU7sa74ShLsP1j7</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -15552,12 +20292,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>EY3dLhAt59kgQtjBGxeu9AVWigLawz5KBLXDcynKpump</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -15570,12 +20310,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7oBcd1aAkUjUTcfZsR3rQvnG5oMPDzjX9uDnRVn6pump</t>
+          <t>9AUEQCPHjMg9T9VTR7Yfcon57vkwQfEMnFyHCqCJpump</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -15588,12 +20328,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4w4Kj3PmKjJWpsBVCNPeziC2ySdJ6A7cPfqnhyXxpump</t>
+          <t>ELusVXzUPHyAuPB3M7qemr2Y2KshiWnGXauK17XYpump</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -15606,12 +20346,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+          <t>AHyRdt9xRMKnppx3Hxb1kNYXvfzdmkPQsybcJuU9pump</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -15624,18 +20364,90 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>iD9FqgeKmp58a4pTvh45MtKkHkudKNptFRdR8m6pump</t>
+          <t>Geakz9ViTntF8K9X6SjCEH9ZXGTUucideFVvU7Tvpump</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7crUi3HvVkcB7t8FhHfZH6foyv1Wtozc2hYcmVyJpump</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BS3GAr3ww1X8zgASXvx2rxbsrkF895GRdnaYmPtcpump</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>7ziiLugERop4FHLBNS4pmZJ9mKQCSDUuqE7tLq6G4bwB</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15650,7 +20462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15749,6 +20561,18 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
+        <is>
+          <t>AutoTop=50</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-09-24T09:03:46.590625</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>AutoTop=50</t>
         </is>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Nzn8vsoshVehdiWbvBvgeTL3M1yWNhz1DF8A2AXLV7y</t>
+          <t>2FSn3q2gFFLvmsV4njXRc3z9ig9ypwY6TFVcBLLepump</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>EaEVXxVALRvgD3zFcsXZYkz4WTiCWBfpmakXwddDLive</t>
+          <t>Nzn8vsoshVehdiWbvBvgeTL3M1yWNhz1DF8A2AXLV7y</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>BDRLQzYHn7pypXWwg2zFXy4as5Km28iSTruGJxuQpump</t>
+          <t>EaEVXxVALRvgD3zFcsXZYkz4WTiCWBfpmakXwddDLive</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -10478,7 +10478,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>6V4QLouv2HTbae34hBjLgW5Qc3kdquqFLBsDS3scR1CH</t>
+          <t>BDRLQzYHn7pypXWwg2zFXy4as5Km28iSTruGJxuQpump</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>q29umWshmh2fmm1CdRb4cBKhqtW9xX25ezNQi7Bpump</t>
+          <t>6V4QLouv2HTbae34hBjLgW5Qc3kdquqFLBsDS3scR1CH</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -10626,7 +10626,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>C93Xk7zeJEYwqmWeJJCnWVsSR3Nog7SC7LHW2ZTxvREV</t>
+          <t>q29umWshmh2fmm1CdRb4cBKhqtW9xX25ezNQi7Bpump</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -10700,7 +10700,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>4KUCN58TeExp9qrap64yuBPTmGmToV7R9h1p7HCZpump</t>
+          <t>C93Xk7zeJEYwqmWeJJCnWVsSR3Nog7SC7LHW2ZTxvREV</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -10774,7 +10774,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>3sLSDYfmbu5ZdmC7wbBUzvwRFE6S1dtrTUafuhhApump</t>
+          <t>4KUCN58TeExp9qrap64yuBPTmGmToV7R9h1p7HCZpump</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>9DVgoPhCJkmS9C1tVCRyz4Ectu5MNsph9nwiQZAPmoon</t>
+          <t>3sLSDYfmbu5ZdmC7wbBUzvwRFE6S1dtrTUafuhhApump</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -10996,7 +10996,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
+          <t>9DVgoPhCJkmS9C1tVCRyz4Ectu5MNsph9nwiQZAPmoon</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -11070,7 +11070,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -11144,7 +11144,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>4NGbC4RRrUjS78ooSN53Up7gSg4dGrj6F6dxpMWHbonk</t>
+          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -11218,7 +11218,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>31ovHdpQJTMrmxwiSRWpZQ6oY3AP9wu8RWZh8adepump</t>
+          <t>4NGbC4RRrUjS78ooSN53Up7gSg4dGrj6F6dxpMWHbonk</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -11292,7 +11292,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>31ovHdpQJTMrmxwiSRWpZQ6oY3AP9wu8RWZh8adepump</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>CB9dDufT3ZuQXqqSfa1c5kY935TEreyBw9XJXxHKpump</t>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>BVvywU1wt4FaLDfZe7y11yrVnHbJpAU7YirmsuW3pump</t>
+          <t>CB9dDufT3ZuQXqqSfa1c5kY935TEreyBw9XJXxHKpump</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -11514,7 +11514,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>3rSKhRtrjHnSZhRsgoAtrWRVM8rcf8DYv8Quea1epump</t>
+          <t>BVvywU1wt4FaLDfZe7y11yrVnHbJpAU7YirmsuW3pump</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -11588,7 +11588,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>BPcEmH1Amv1ZAJhBpTxnTpkMg1bbkbrM7RwKycWipump</t>
+          <t>3rSKhRtrjHnSZhRsgoAtrWRVM8rcf8DYv8Quea1epump</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>HGwdb6RQsMTqXpjBiy5BEAXHcpanmJr3c1Dj84r5pump</t>
+          <t>BPcEmH1Amv1ZAJhBpTxnTpkMg1bbkbrM7RwKycWipump</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -11736,7 +11736,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>wCtiCRJz69a5Mqkk2nHmvQwBGQCrUvM8fELoFGqpump</t>
+          <t>HGwdb6RQsMTqXpjBiy5BEAXHcpanmJr3c1Dj84r5pump</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -11810,7 +11810,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>H9iZggMWYP8G6DxKRaDoRW8ZkE4miWVuqpKYLrAspump</t>
+          <t>wCtiCRJz69a5Mqkk2nHmvQwBGQCrUvM8fELoFGqpump</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+          <t>41m33JPaG3qGJjkJY1uMpLCiNXccaNxSm1wJyYjQ2LPR</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>41m33JPaG3qGJjkJY1uMpLCiNXccaNxSm1wJyYjQ2LPR</t>
+          <t>H9iZggMWYP8G6DxKRaDoRW8ZkE4miWVuqpKYLrAspump</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -12032,7 +12032,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>AjgSvYmJLhvt3FteiyTqQf8XBj1SVs6T6AmSUfkHpump</t>
+          <t>BdDB5AH7azG8BQGC9bSobh6ER33VdB7ZZ97jGn2Npump</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -12106,7 +12106,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>BdDB5AH7azG8BQGC9bSobh6ER33VdB7ZZ97jGn2Npump</t>
+          <t>AjgSvYmJLhvt3FteiyTqQf8XBj1SVs6T6AmSUfkHpump</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -12254,7 +12254,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2ASXv4uqTmJq3nfkmaBCyCiGuytFaki6CJQhJ7MUpump</t>
+          <t>BoPBfkKgWGSDApzBjLi1RPwxvSoiN4ECTSPBH2qFpump</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2wKTkGQjG9E2wohcYAiJ8EgD3YfpdYaQheJRQ41zpump</t>
+          <t>3SfAaAK5eFx4Q23VySQq35AESmHQoBjVJnG2CrXbpump</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -12402,7 +12402,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>5hLq2RBNaxv5cT9fK4J7oXsKXLkrPXSFzFSwBBjNpump</t>
+          <t>CMHHKQAvfQZWEtxgWqLmhwrCqzzYikZqbTWPkEcCpump</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -12476,7 +12476,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>52na8Ux7ir91V1v3ziNWkPK3Zx16dFpwa8fStfRzpump</t>
+          <t>xmcjcN35cwPheUALX7v3fczpJcCtAtZ2jgPPJkNYUFA</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -12550,7 +12550,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>CFdm8UxTsTs14zEbyHvmLUjnp2LBUnK4AoQqSkCwpump</t>
+          <t>5BuA8VT8rfUM428FWThNNPE9MYYoZvv7ZtL89dB3pump</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -12624,7 +12624,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>3nCkzXUKY5eqbeJ3RAx3rmqqbnJHqMc2WFhvXqSJjRQi</t>
+          <t>J5FsJhyV5HTneY9PP4J6fkhiNnQaNQ4BzH4hAbDqeRNL</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -12698,7 +12698,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>9FKZKjcBqMDNk7qFLTZJJZcni2j4ttb7CeFXNc6Npump</t>
+          <t>9FWysHuSHNrQnyJoC7qMbm2cLxjT9ttjqBKFp8tzpump</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -12772,7 +12772,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>8wMLunYiViYiPyiLXmL6BRhv1PkbBe9reZ8Q1bVWpump</t>
+          <t>GWJcHRz6EZ2igjXfSWc7cz7PaJHfu8yMu4SL2Jqxpump</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -12846,7 +12846,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>8vEMeenH81xTMDKJcuAE3Mvk9yKoo5E7YkwhjhN4pump</t>
+          <t>CBhmj8ZUTMwDmWatE5Y3QHVzo3C5UXNpDg8YcGJMpump</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>DBdWfTToJcg7XfKwsNpV1VG8ZN7XpxrPp9rChkHcpump</t>
+          <t>EWdgTzAvBZwchg89f8CaJvtvc1dVish2Fa38jPGgpump</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -12994,7 +12994,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>EA2eKDU7hpjgRiW6xUtEReoGcD23KmugthyZCTbTpump</t>
+          <t>6ChfYhYQqZ2AfQbf4NMJUqJFGoNa26Y92hS7Ao9mpump</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -13068,7 +13068,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>5kNbJHK3TyUTF4ra8JSfj1NJYt26bjqDoocJCoyks5aN</t>
+          <t>CDzCp6fTS7K9pYZ1JEDb4ZpQ4B85BTqke9Kcmwpp5q3S</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -13142,7 +13142,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>DS4XQ4KNTLBzZLw7bsEcNJfjhohrmgWaGE8rTtuypump</t>
+          <t>DD8TeSw8y7Q2D8MKSt47cTbAnAcHTFs6viov48PMFQQG</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -13216,7 +13216,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>8baLMqCkFeSe7FCAfSguQurPjqfbhaU7sa74ShLsP1j7</t>
+          <t>EpWd13A6dwnE8a4KEQx8XPDtaj7qViKZhhDCkmB7pump</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -13290,7 +13290,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>EY3dLhAt59kgQtjBGxeu9AVWigLawz5KBLXDcynKpump</t>
+          <t>2ps5iWYb4PW353wiGKb36EmieYGQKnBFjxEueenu2bPw</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -13364,7 +13364,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>9AUEQCPHjMg9T9VTR7Yfcon57vkwQfEMnFyHCqCJpump</t>
+          <t>G9c3H8Hed4ZNnXvw2t9P1uJeXcQDmdn57Qi5UtGGpump</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ELusVXzUPHyAuPB3M7qemr2Y2KshiWnGXauK17XYpump</t>
+          <t>2BLuupGDF6GWVJYZWB6fyJ75dWXjMzKGWVeN2TGppump</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -13512,7 +13512,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>AHyRdt9xRMKnppx3Hxb1kNYXvfzdmkPQsybcJuU9pump</t>
+          <t>G114LVxZdHtsCfDuYjqP3u3RgmVTjKS6s8qHsHuKpump</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -13586,7 +13586,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Geakz9ViTntF8K9X6SjCEH9ZXGTUucideFVvU7Tvpump</t>
+          <t>B9z8cEWFmc7LvQtjKsaLoKqW5MJmGRCWqs1DPKupCfkk</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>7crUi3HvVkcB7t8FhHfZH6foyv1Wtozc2hYcmVyJpump</t>
+          <t>AYMwf7uvzTMnnDrw64zcMjLBGaqrVcSGP8eNKXtdpump</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -13734,7 +13734,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>BS3GAr3ww1X8zgASXvx2rxbsrkF895GRdnaYmPtcpump</t>
+          <t>4NWHUsqene63s56idLAchHC85MgvCucBgCsMjkiZpump</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -13808,7 +13808,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>7ziiLugERop4FHLBNS4pmZJ9mKQCSDUuqE7tLq6G4bwB</t>
+          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -13882,7 +13882,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -18491,7 +18491,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Nzn8vsoshVehdiWbvBvgeTL3M1yWNhz1DF8A2AXLV7y</t>
+          <t>2FSn3q2gFFLvmsV4njXRc3z9ig9ypwY6TFVcBLLepump</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -18511,7 +18511,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>EaEVXxVALRvgD3zFcsXZYkz4WTiCWBfpmakXwddDLive</t>
+          <t>Nzn8vsoshVehdiWbvBvgeTL3M1yWNhz1DF8A2AXLV7y</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -18531,7 +18531,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>BDRLQzYHn7pypXWwg2zFXy4as5Km28iSTruGJxuQpump</t>
+          <t>EaEVXxVALRvgD3zFcsXZYkz4WTiCWBfpmakXwddDLive</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -18551,7 +18551,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>6V4QLouv2HTbae34hBjLgW5Qc3kdquqFLBsDS3scR1CH</t>
+          <t>BDRLQzYHn7pypXWwg2zFXy4as5Km28iSTruGJxuQpump</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -18571,7 +18571,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>q29umWshmh2fmm1CdRb4cBKhqtW9xX25ezNQi7Bpump</t>
+          <t>6V4QLouv2HTbae34hBjLgW5Qc3kdquqFLBsDS3scR1CH</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -18591,7 +18591,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>C93Xk7zeJEYwqmWeJJCnWVsSR3Nog7SC7LHW2ZTxvREV</t>
+          <t>q29umWshmh2fmm1CdRb4cBKhqtW9xX25ezNQi7Bpump</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -18611,7 +18611,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>4KUCN58TeExp9qrap64yuBPTmGmToV7R9h1p7HCZpump</t>
+          <t>C93Xk7zeJEYwqmWeJJCnWVsSR3Nog7SC7LHW2ZTxvREV</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>3sLSDYfmbu5ZdmC7wbBUzvwRFE6S1dtrTUafuhhApump</t>
+          <t>4KUCN58TeExp9qrap64yuBPTmGmToV7R9h1p7HCZpump</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -18671,7 +18671,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>9DVgoPhCJkmS9C1tVCRyz4Ectu5MNsph9nwiQZAPmoon</t>
+          <t>3sLSDYfmbu5ZdmC7wbBUzvwRFE6S1dtrTUafuhhApump</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -18691,7 +18691,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
+          <t>9DVgoPhCJkmS9C1tVCRyz4Ectu5MNsph9nwiQZAPmoon</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -18711,7 +18711,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -18731,7 +18731,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>4NGbC4RRrUjS78ooSN53Up7gSg4dGrj6F6dxpMWHbonk</t>
+          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -18751,7 +18751,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>31ovHdpQJTMrmxwiSRWpZQ6oY3AP9wu8RWZh8adepump</t>
+          <t>4NGbC4RRrUjS78ooSN53Up7gSg4dGrj6F6dxpMWHbonk</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -18771,7 +18771,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>31ovHdpQJTMrmxwiSRWpZQ6oY3AP9wu8RWZh8adepump</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -18791,7 +18791,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>CB9dDufT3ZuQXqqSfa1c5kY935TEreyBw9XJXxHKpump</t>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -18811,7 +18811,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>BVvywU1wt4FaLDfZe7y11yrVnHbJpAU7YirmsuW3pump</t>
+          <t>CB9dDufT3ZuQXqqSfa1c5kY935TEreyBw9XJXxHKpump</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -18831,7 +18831,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>3rSKhRtrjHnSZhRsgoAtrWRVM8rcf8DYv8Quea1epump</t>
+          <t>BVvywU1wt4FaLDfZe7y11yrVnHbJpAU7YirmsuW3pump</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>BPcEmH1Amv1ZAJhBpTxnTpkMg1bbkbrM7RwKycWipump</t>
+          <t>3rSKhRtrjHnSZhRsgoAtrWRVM8rcf8DYv8Quea1epump</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -18871,7 +18871,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>HGwdb6RQsMTqXpjBiy5BEAXHcpanmJr3c1Dj84r5pump</t>
+          <t>BPcEmH1Amv1ZAJhBpTxnTpkMg1bbkbrM7RwKycWipump</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -18891,7 +18891,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>wCtiCRJz69a5Mqkk2nHmvQwBGQCrUvM8fELoFGqpump</t>
+          <t>HGwdb6RQsMTqXpjBiy5BEAXHcpanmJr3c1Dj84r5pump</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -18911,7 +18911,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>H9iZggMWYP8G6DxKRaDoRW8ZkE4miWVuqpKYLrAspump</t>
+          <t>wCtiCRJz69a5Mqkk2nHmvQwBGQCrUvM8fELoFGqpump</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -18931,7 +18931,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+          <t>41m33JPaG3qGJjkJY1uMpLCiNXccaNxSm1wJyYjQ2LPR</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -18951,7 +18951,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>41m33JPaG3qGJjkJY1uMpLCiNXccaNxSm1wJyYjQ2LPR</t>
+          <t>H9iZggMWYP8G6DxKRaDoRW8ZkE4miWVuqpKYLrAspump</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -18971,7 +18971,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>AjgSvYmJLhvt3FteiyTqQf8XBj1SVs6T6AmSUfkHpump</t>
+          <t>BdDB5AH7azG8BQGC9bSobh6ER33VdB7ZZ97jGn2Npump</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -18991,7 +18991,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>BdDB5AH7azG8BQGC9bSobh6ER33VdB7ZZ97jGn2Npump</t>
+          <t>AjgSvYmJLhvt3FteiyTqQf8XBj1SVs6T6AmSUfkHpump</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -19031,7 +19031,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2ASXv4uqTmJq3nfkmaBCyCiGuytFaki6CJQhJ7MUpump</t>
+          <t>BoPBfkKgWGSDApzBjLi1RPwxvSoiN4ECTSPBH2qFpump</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -19051,7 +19051,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2wKTkGQjG9E2wohcYAiJ8EgD3YfpdYaQheJRQ41zpump</t>
+          <t>3SfAaAK5eFx4Q23VySQq35AESmHQoBjVJnG2CrXbpump</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -19071,7 +19071,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>5hLq2RBNaxv5cT9fK4J7oXsKXLkrPXSFzFSwBBjNpump</t>
+          <t>CMHHKQAvfQZWEtxgWqLmhwrCqzzYikZqbTWPkEcCpump</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>52na8Ux7ir91V1v3ziNWkPK3Zx16dFpwa8fStfRzpump</t>
+          <t>xmcjcN35cwPheUALX7v3fczpJcCtAtZ2jgPPJkNYUFA</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -19111,7 +19111,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>CFdm8UxTsTs14zEbyHvmLUjnp2LBUnK4AoQqSkCwpump</t>
+          <t>5BuA8VT8rfUM428FWThNNPE9MYYoZvv7ZtL89dB3pump</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>3nCkzXUKY5eqbeJ3RAx3rmqqbnJHqMc2WFhvXqSJjRQi</t>
+          <t>J5FsJhyV5HTneY9PP4J6fkhiNnQaNQ4BzH4hAbDqeRNL</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>9FKZKjcBqMDNk7qFLTZJJZcni2j4ttb7CeFXNc6Npump</t>
+          <t>9FWysHuSHNrQnyJoC7qMbm2cLxjT9ttjqBKFp8tzpump</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -19171,7 +19171,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>8wMLunYiViYiPyiLXmL6BRhv1PkbBe9reZ8Q1bVWpump</t>
+          <t>GWJcHRz6EZ2igjXfSWc7cz7PaJHfu8yMu4SL2Jqxpump</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -19191,7 +19191,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>8vEMeenH81xTMDKJcuAE3Mvk9yKoo5E7YkwhjhN4pump</t>
+          <t>CBhmj8ZUTMwDmWatE5Y3QHVzo3C5UXNpDg8YcGJMpump</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -19211,7 +19211,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>DBdWfTToJcg7XfKwsNpV1VG8ZN7XpxrPp9rChkHcpump</t>
+          <t>EWdgTzAvBZwchg89f8CaJvtvc1dVish2Fa38jPGgpump</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -19231,7 +19231,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>EA2eKDU7hpjgRiW6xUtEReoGcD23KmugthyZCTbTpump</t>
+          <t>6ChfYhYQqZ2AfQbf4NMJUqJFGoNa26Y92hS7Ao9mpump</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -19251,7 +19251,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>5kNbJHK3TyUTF4ra8JSfj1NJYt26bjqDoocJCoyks5aN</t>
+          <t>CDzCp6fTS7K9pYZ1JEDb4ZpQ4B85BTqke9Kcmwpp5q3S</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>DS4XQ4KNTLBzZLw7bsEcNJfjhohrmgWaGE8rTtuypump</t>
+          <t>DD8TeSw8y7Q2D8MKSt47cTbAnAcHTFs6viov48PMFQQG</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -19291,7 +19291,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>8baLMqCkFeSe7FCAfSguQurPjqfbhaU7sa74ShLsP1j7</t>
+          <t>EpWd13A6dwnE8a4KEQx8XPDtaj7qViKZhhDCkmB7pump</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -19311,7 +19311,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>EY3dLhAt59kgQtjBGxeu9AVWigLawz5KBLXDcynKpump</t>
+          <t>2ps5iWYb4PW353wiGKb36EmieYGQKnBFjxEueenu2bPw</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -19331,7 +19331,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>9AUEQCPHjMg9T9VTR7Yfcon57vkwQfEMnFyHCqCJpump</t>
+          <t>G9c3H8Hed4ZNnXvw2t9P1uJeXcQDmdn57Qi5UtGGpump</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -19351,7 +19351,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>ELusVXzUPHyAuPB3M7qemr2Y2KshiWnGXauK17XYpump</t>
+          <t>2BLuupGDF6GWVJYZWB6fyJ75dWXjMzKGWVeN2TGppump</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -19371,7 +19371,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>AHyRdt9xRMKnppx3Hxb1kNYXvfzdmkPQsybcJuU9pump</t>
+          <t>G114LVxZdHtsCfDuYjqP3u3RgmVTjKS6s8qHsHuKpump</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -19391,7 +19391,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Geakz9ViTntF8K9X6SjCEH9ZXGTUucideFVvU7Tvpump</t>
+          <t>B9z8cEWFmc7LvQtjKsaLoKqW5MJmGRCWqs1DPKupCfkk</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -19411,7 +19411,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>7crUi3HvVkcB7t8FhHfZH6foyv1Wtozc2hYcmVyJpump</t>
+          <t>AYMwf7uvzTMnnDrw64zcMjLBGaqrVcSGP8eNKXtdpump</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -19431,7 +19431,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>BS3GAr3ww1X8zgASXvx2rxbsrkF895GRdnaYmPtcpump</t>
+          <t>4NWHUsqene63s56idLAchHC85MgvCucBgCsMjkiZpump</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -19451,12 +19451,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>7ziiLugERop4FHLBNS4pmZJ9mKQCSDUuqE7tLq6G4bwB</t>
+          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>DexProfilesLatest</t>
+          <t>Fallback:Master</t>
         </is>
       </c>
     </row>
@@ -19471,7 +19471,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -19554,7 +19554,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nzn8vsoshVehdiWbvBvgeTL3M1yWNhz1DF8A2AXLV7y</t>
+          <t>2FSn3q2gFFLvmsV4njXRc3z9ig9ypwY6TFVcBLLepump</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -19572,7 +19572,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EaEVXxVALRvgD3zFcsXZYkz4WTiCWBfpmakXwddDLive</t>
+          <t>Nzn8vsoshVehdiWbvBvgeTL3M1yWNhz1DF8A2AXLV7y</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -19590,7 +19590,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BDRLQzYHn7pypXWwg2zFXy4as5Km28iSTruGJxuQpump</t>
+          <t>EaEVXxVALRvgD3zFcsXZYkz4WTiCWBfpmakXwddDLive</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -19608,7 +19608,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6V4QLouv2HTbae34hBjLgW5Qc3kdquqFLBsDS3scR1CH</t>
+          <t>BDRLQzYHn7pypXWwg2zFXy4as5Km28iSTruGJxuQpump</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -19626,7 +19626,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>q29umWshmh2fmm1CdRb4cBKhqtW9xX25ezNQi7Bpump</t>
+          <t>6V4QLouv2HTbae34hBjLgW5Qc3kdquqFLBsDS3scR1CH</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -19644,7 +19644,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C93Xk7zeJEYwqmWeJJCnWVsSR3Nog7SC7LHW2ZTxvREV</t>
+          <t>q29umWshmh2fmm1CdRb4cBKhqtW9xX25ezNQi7Bpump</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -19662,7 +19662,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4KUCN58TeExp9qrap64yuBPTmGmToV7R9h1p7HCZpump</t>
+          <t>C93Xk7zeJEYwqmWeJJCnWVsSR3Nog7SC7LHW2ZTxvREV</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -19680,7 +19680,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3sLSDYfmbu5ZdmC7wbBUzvwRFE6S1dtrTUafuhhApump</t>
+          <t>4KUCN58TeExp9qrap64yuBPTmGmToV7R9h1p7HCZpump</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -19716,7 +19716,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9DVgoPhCJkmS9C1tVCRyz4Ectu5MNsph9nwiQZAPmoon</t>
+          <t>3sLSDYfmbu5ZdmC7wbBUzvwRFE6S1dtrTUafuhhApump</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -19734,7 +19734,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
+          <t>9DVgoPhCJkmS9C1tVCRyz4Ectu5MNsph9nwiQZAPmoon</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -19752,7 +19752,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -19770,7 +19770,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4NGbC4RRrUjS78ooSN53Up7gSg4dGrj6F6dxpMWHbonk</t>
+          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -19788,7 +19788,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>31ovHdpQJTMrmxwiSRWpZQ6oY3AP9wu8RWZh8adepump</t>
+          <t>4NGbC4RRrUjS78ooSN53Up7gSg4dGrj6F6dxpMWHbonk</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -19806,12 +19806,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>31ovHdpQJTMrmxwiSRWpZQ6oY3AP9wu8RWZh8adepump</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -19824,12 +19824,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CB9dDufT3ZuQXqqSfa1c5kY935TEreyBw9XJXxHKpump</t>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -19842,7 +19842,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BVvywU1wt4FaLDfZe7y11yrVnHbJpAU7YirmsuW3pump</t>
+          <t>CB9dDufT3ZuQXqqSfa1c5kY935TEreyBw9XJXxHKpump</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -19860,7 +19860,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3rSKhRtrjHnSZhRsgoAtrWRVM8rcf8DYv8Quea1epump</t>
+          <t>BVvywU1wt4FaLDfZe7y11yrVnHbJpAU7YirmsuW3pump</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -19878,7 +19878,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BPcEmH1Amv1ZAJhBpTxnTpkMg1bbkbrM7RwKycWipump</t>
+          <t>3rSKhRtrjHnSZhRsgoAtrWRVM8rcf8DYv8Quea1epump</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -19896,7 +19896,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HGwdb6RQsMTqXpjBiy5BEAXHcpanmJr3c1Dj84r5pump</t>
+          <t>BPcEmH1Amv1ZAJhBpTxnTpkMg1bbkbrM7RwKycWipump</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -19914,7 +19914,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>wCtiCRJz69a5Mqkk2nHmvQwBGQCrUvM8fELoFGqpump</t>
+          <t>HGwdb6RQsMTqXpjBiy5BEAXHcpanmJr3c1Dj84r5pump</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -19932,7 +19932,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>H9iZggMWYP8G6DxKRaDoRW8ZkE4miWVuqpKYLrAspump</t>
+          <t>wCtiCRJz69a5Mqkk2nHmvQwBGQCrUvM8fELoFGqpump</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -19950,7 +19950,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+          <t>41m33JPaG3qGJjkJY1uMpLCiNXccaNxSm1wJyYjQ2LPR</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -19968,7 +19968,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>41m33JPaG3qGJjkJY1uMpLCiNXccaNxSm1wJyYjQ2LPR</t>
+          <t>H9iZggMWYP8G6DxKRaDoRW8ZkE4miWVuqpKYLrAspump</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -19986,7 +19986,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AjgSvYmJLhvt3FteiyTqQf8XBj1SVs6T6AmSUfkHpump</t>
+          <t>BdDB5AH7azG8BQGC9bSobh6ER33VdB7ZZ97jGn2Npump</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -20004,7 +20004,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BdDB5AH7azG8BQGC9bSobh6ER33VdB7ZZ97jGn2Npump</t>
+          <t>AjgSvYmJLhvt3FteiyTqQf8XBj1SVs6T6AmSUfkHpump</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -20040,7 +20040,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2ASXv4uqTmJq3nfkmaBCyCiGuytFaki6CJQhJ7MUpump</t>
+          <t>BoPBfkKgWGSDApzBjLi1RPwxvSoiN4ECTSPBH2qFpump</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -20058,7 +20058,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2wKTkGQjG9E2wohcYAiJ8EgD3YfpdYaQheJRQ41zpump</t>
+          <t>3SfAaAK5eFx4Q23VySQq35AESmHQoBjVJnG2CrXbpump</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -20076,7 +20076,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5hLq2RBNaxv5cT9fK4J7oXsKXLkrPXSFzFSwBBjNpump</t>
+          <t>CMHHKQAvfQZWEtxgWqLmhwrCqzzYikZqbTWPkEcCpump</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -20094,7 +20094,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>52na8Ux7ir91V1v3ziNWkPK3Zx16dFpwa8fStfRzpump</t>
+          <t>xmcjcN35cwPheUALX7v3fczpJcCtAtZ2jgPPJkNYUFA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -20112,7 +20112,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CFdm8UxTsTs14zEbyHvmLUjnp2LBUnK4AoQqSkCwpump</t>
+          <t>5BuA8VT8rfUM428FWThNNPE9MYYoZvv7ZtL89dB3pump</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -20130,7 +20130,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3nCkzXUKY5eqbeJ3RAx3rmqqbnJHqMc2WFhvXqSJjRQi</t>
+          <t>J5FsJhyV5HTneY9PP4J6fkhiNnQaNQ4BzH4hAbDqeRNL</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -20148,7 +20148,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9FKZKjcBqMDNk7qFLTZJJZcni2j4ttb7CeFXNc6Npump</t>
+          <t>9FWysHuSHNrQnyJoC7qMbm2cLxjT9ttjqBKFp8tzpump</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -20166,7 +20166,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8wMLunYiViYiPyiLXmL6BRhv1PkbBe9reZ8Q1bVWpump</t>
+          <t>GWJcHRz6EZ2igjXfSWc7cz7PaJHfu8yMu4SL2Jqxpump</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -20184,7 +20184,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8vEMeenH81xTMDKJcuAE3Mvk9yKoo5E7YkwhjhN4pump</t>
+          <t>CBhmj8ZUTMwDmWatE5Y3QHVzo3C5UXNpDg8YcGJMpump</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -20202,7 +20202,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DBdWfTToJcg7XfKwsNpV1VG8ZN7XpxrPp9rChkHcpump</t>
+          <t>EWdgTzAvBZwchg89f8CaJvtvc1dVish2Fa38jPGgpump</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -20220,7 +20220,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EA2eKDU7hpjgRiW6xUtEReoGcD23KmugthyZCTbTpump</t>
+          <t>6ChfYhYQqZ2AfQbf4NMJUqJFGoNa26Y92hS7Ao9mpump</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -20238,7 +20238,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5kNbJHK3TyUTF4ra8JSfj1NJYt26bjqDoocJCoyks5aN</t>
+          <t>CDzCp6fTS7K9pYZ1JEDb4ZpQ4B85BTqke9Kcmwpp5q3S</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -20256,7 +20256,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DS4XQ4KNTLBzZLw7bsEcNJfjhohrmgWaGE8rTtuypump</t>
+          <t>DD8TeSw8y7Q2D8MKSt47cTbAnAcHTFs6viov48PMFQQG</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -20274,7 +20274,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8baLMqCkFeSe7FCAfSguQurPjqfbhaU7sa74ShLsP1j7</t>
+          <t>EpWd13A6dwnE8a4KEQx8XPDtaj7qViKZhhDCkmB7pump</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -20292,7 +20292,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EY3dLhAt59kgQtjBGxeu9AVWigLawz5KBLXDcynKpump</t>
+          <t>2ps5iWYb4PW353wiGKb36EmieYGQKnBFjxEueenu2bPw</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -20310,7 +20310,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>9AUEQCPHjMg9T9VTR7Yfcon57vkwQfEMnFyHCqCJpump</t>
+          <t>G9c3H8Hed4ZNnXvw2t9P1uJeXcQDmdn57Qi5UtGGpump</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -20328,7 +20328,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ELusVXzUPHyAuPB3M7qemr2Y2KshiWnGXauK17XYpump</t>
+          <t>2BLuupGDF6GWVJYZWB6fyJ75dWXjMzKGWVeN2TGppump</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -20346,7 +20346,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AHyRdt9xRMKnppx3Hxb1kNYXvfzdmkPQsybcJuU9pump</t>
+          <t>G114LVxZdHtsCfDuYjqP3u3RgmVTjKS6s8qHsHuKpump</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -20364,7 +20364,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Geakz9ViTntF8K9X6SjCEH9ZXGTUucideFVvU7Tvpump</t>
+          <t>B9z8cEWFmc7LvQtjKsaLoKqW5MJmGRCWqs1DPKupCfkk</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -20382,7 +20382,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7crUi3HvVkcB7t8FhHfZH6foyv1Wtozc2hYcmVyJpump</t>
+          <t>AYMwf7uvzTMnnDrw64zcMjLBGaqrVcSGP8eNKXtdpump</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -20400,7 +20400,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BS3GAr3ww1X8zgASXvx2rxbsrkF895GRdnaYmPtcpump</t>
+          <t>4NWHUsqene63s56idLAchHC85MgvCucBgCsMjkiZpump</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -20418,7 +20418,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7ziiLugERop4FHLBNS4pmZJ9mKQCSDUuqE7tLq6G4bwB</t>
+          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -20436,7 +20436,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -20569,7 +20569,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-09-24T09:03:46.590625</t>
+          <t>2025-09-24T12:29:00.461557</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -10251,12 +10251,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2FSn3q2gFFLvmsV4njXRc3z9ig9ypwY6TFVcBLLepump</t>
+          <t>2Mk8vAfersJgfeT5Pwpfe7y4sQ769GZPhRrnwSdhpump</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -10325,12 +10325,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Nzn8vsoshVehdiWbvBvgeTL3M1yWNhz1DF8A2AXLV7y</t>
+          <t>BuTM2tXzmuM6TcS9cTQhL1VaxjDfYtSHgKHkYQsFpRsX</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -10399,12 +10399,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>EaEVXxVALRvgD3zFcsXZYkz4WTiCWBfpmakXwddDLive</t>
+          <t>BqndqeBCNSEftBKmbTbLVx1RX5zd5J3AGL9sG55Jpump</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -10473,12 +10473,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>BDRLQzYHn7pypXWwg2zFXy4as5Km28iSTruGJxuQpump</t>
+          <t>6NdUMfsuyGENe98VPVMRxNZnbQgTUaKxLuiLszS5pump</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -10547,12 +10547,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>6V4QLouv2HTbae34hBjLgW5Qc3kdquqFLBsDS3scR1CH</t>
+          <t>oxynABVJXUEc9PLNx4m1XVdiFtRhStzRXG1G6qosni1</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -10621,12 +10621,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>q29umWshmh2fmm1CdRb4cBKhqtW9xX25ezNQi7Bpump</t>
+          <t>EMg2QkFZ6pLvgckVGj8X6nmyrkiuoamYnTdoxXN8pump</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -10695,12 +10695,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>C93Xk7zeJEYwqmWeJJCnWVsSR3Nog7SC7LHW2ZTxvREV</t>
+          <t>AufjSxXopMZn7EeX21ifncGPKQ2BH6FaiRpFu6gDpump</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -10769,12 +10769,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>4KUCN58TeExp9qrap64yuBPTmGmToV7R9h1p7HCZpump</t>
+          <t>HBukB9DLbdTM6nNHQQ6JvVmjx7UmuMpDJAU9oX8tpump</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -10843,12 +10843,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>34AeqX5MQGyrey2VnZdkeZCfM4qinp4F3X7pGxtipump</t>
+          <t>xxxgjrRmEtAeik3fpkftHA6ncHjfDWWN4T1zUYQPm3z</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -10917,12 +10917,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>3sLSDYfmbu5ZdmC7wbBUzvwRFE6S1dtrTUafuhhApump</t>
+          <t>2t2sKsaGpRG3jWV22y9eAVp7qfRRaytDiS1kkMpCqREV</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -10991,12 +10991,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>9DVgoPhCJkmS9C1tVCRyz4Ectu5MNsph9nwiQZAPmoon</t>
+          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -11065,12 +11065,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
+          <t>CKVZPWFPaJArEaPnk16CXpFtFXjuCxCh95vBcS3Ppump</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -11139,12 +11139,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -11213,12 +11213,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>4NGbC4RRrUjS78ooSN53Up7gSg4dGrj6F6dxpMWHbonk</t>
+          <t>6NqgJiWQLVznisyn1ytHEtQkC52sQf4t1b732Qvvpump</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -11287,12 +11287,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>31ovHdpQJTMrmxwiSRWpZQ6oY3AP9wu8RWZh8adepump</t>
+          <t>EfFvS8CXAJ89Y3hP8cMpmtW1kDWTg4PnhLMkrW29pump</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -11361,12 +11361,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>3d3suDtLDqnXyA454EYCkAnhz33P55FAMCEk37Gppump</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -11435,12 +11435,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>CB9dDufT3ZuQXqqSfa1c5kY935TEreyBw9XJXxHKpump</t>
+          <t>FjXD9UWJaG6iVhExBR9SC6HjPmFA3czPGLeSbxurpump</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -11509,12 +11509,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>BVvywU1wt4FaLDfZe7y11yrVnHbJpAU7YirmsuW3pump</t>
+          <t>irSdJ3vRioPxMmN3ZFrG6Y7ECJtyyJBnUcLKMauA6tR</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -11583,12 +11583,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>3rSKhRtrjHnSZhRsgoAtrWRVM8rcf8DYv8Quea1epump</t>
+          <t>919MM61rJb1KairDkbNoH8iCVkX1fGFn7w4Dj6Mapump</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -11657,12 +11657,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>BPcEmH1Amv1ZAJhBpTxnTpkMg1bbkbrM7RwKycWipump</t>
+          <t>GEHJx1yb83BDdjWp6UJWWann9aAkVKwvzU49Qp7jpump</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -11731,12 +11731,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>HGwdb6RQsMTqXpjBiy5BEAXHcpanmJr3c1Dj84r5pump</t>
+          <t>4Ds7cxJ82gm34gV22zo2LjPdX3nFbQk9PXK7mjX4pump</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -11805,12 +11805,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>wCtiCRJz69a5Mqkk2nHmvQwBGQCrUvM8fELoFGqpump</t>
+          <t>3d1qHSAkQhoN7kN1C6tvpAArCkXWxwYdBng6taXCDM6u</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -11879,12 +11879,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>41m33JPaG3qGJjkJY1uMpLCiNXccaNxSm1wJyYjQ2LPR</t>
+          <t>CWVuqZzGfrXD5i1dJYyvpLaQW6yzPqaPC7UemZFUpump</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -11953,12 +11953,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>H9iZggMWYP8G6DxKRaDoRW8ZkE4miWVuqpKYLrAspump</t>
+          <t>8MWLo9PmNiunLFhCZsXBsHqmvKrxTjt3qffFJF81pump</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -12027,12 +12027,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>BdDB5AH7azG8BQGC9bSobh6ER33VdB7ZZ97jGn2Npump</t>
+          <t>GaPbGp23pPuY9QBLPUjUEBn2MKEroTe9Q3M3f2Xpump</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -12101,12 +12101,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>AjgSvYmJLhvt3FteiyTqQf8XBj1SVs6T6AmSUfkHpump</t>
+          <t>7UgmCpkZMMQBUajCfhrtiJXZ1wPuMidEB4DnA6aUpump</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -12175,12 +12175,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>5t3TrtpDm1P8pRVYXcJ6MmngNsv2Ty3H5cimDve2pump</t>
+          <t>5YesRCpnjAR396xDy1xenHahfogjevCH4c46TH6wPray</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -12249,12 +12249,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>BoPBfkKgWGSDApzBjLi1RPwxvSoiN4ECTSPBH2qFpump</t>
+          <t>A6ec7AMvx7oH96sNYELiF5i3vw3YxCuN6Qb8fDMMpump</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -12323,12 +12323,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>3SfAaAK5eFx4Q23VySQq35AESmHQoBjVJnG2CrXbpump</t>
+          <t>34wfgAa6JzKxN1TGCneRk3LY1xetvnF8q5n6H7fzf2TY</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -12397,12 +12397,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>CMHHKQAvfQZWEtxgWqLmhwrCqzzYikZqbTWPkEcCpump</t>
+          <t>ByC7sCHFL4s96JnwhbnC27dyY9iTzsjYDvx3XGgopump</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -12471,12 +12471,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>xmcjcN35cwPheUALX7v3fczpJcCtAtZ2jgPPJkNYUFA</t>
+          <t>CWdRtpnFWVgTASioj6ZWPwca3j7i3Ya1hPF4QVL6bonk</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -12545,12 +12545,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>5BuA8VT8rfUM428FWThNNPE9MYYoZvv7ZtL89dB3pump</t>
+          <t>AS5DW5dHY9V46Mrz3VJAA2MsewkahDnHvv9tzNcnpump</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -12619,12 +12619,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>J5FsJhyV5HTneY9PP4J6fkhiNnQaNQ4BzH4hAbDqeRNL</t>
+          <t>G9mRRd16qLYzbp7trdj7DFSZyLePM9DepaWnJJLwCUDF</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -12693,12 +12693,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>9FWysHuSHNrQnyJoC7qMbm2cLxjT9ttjqBKFp8tzpump</t>
+          <t>879iULwrP3VoPF7Ce2yxkMagpwecQLKkNtsY7DJrpump</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -12767,12 +12767,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>GWJcHRz6EZ2igjXfSWc7cz7PaJHfu8yMu4SL2Jqxpump</t>
+          <t>62GnkrYtLJBXoQWsCBHZVugkCDZzpBonAWX6CHmSpump</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -12841,12 +12841,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>CBhmj8ZUTMwDmWatE5Y3QHVzo3C5UXNpDg8YcGJMpump</t>
+          <t>3H9TNBGGh3jdBC76VdTJCB5QSSsKBKFnhM7164VnjpkM</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -12915,12 +12915,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>EWdgTzAvBZwchg89f8CaJvtvc1dVish2Fa38jPGgpump</t>
+          <t>BSmKbyHpyWVamsGv6Ja7xEqAyMwNn4TRsyX4hFxEpump</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -12989,12 +12989,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>6ChfYhYQqZ2AfQbf4NMJUqJFGoNa26Y92hS7Ao9mpump</t>
+          <t>C8aogMqASuurkwKDzd6VZPNRqUTbVoDJH7GMiRYUpump</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -13063,12 +13063,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>CDzCp6fTS7K9pYZ1JEDb4ZpQ4B85BTqke9Kcmwpp5q3S</t>
+          <t>DrJnnTuBDLRZTQmtKgcBkFH3taLbGCNh9DBhWMkhpump</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -13137,12 +13137,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>DD8TeSw8y7Q2D8MKSt47cTbAnAcHTFs6viov48PMFQQG</t>
+          <t>4uVEktQLeYdZHKVJP5FXzZLnzetwhfeyP8vyKXurpump</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -13211,12 +13211,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>EpWd13A6dwnE8a4KEQx8XPDtaj7qViKZhhDCkmB7pump</t>
+          <t>8oCqyRtFXjYbeC7fhxQMAqu6eAMEoibjyJCQcLnopump</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -13285,12 +13285,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2ps5iWYb4PW353wiGKb36EmieYGQKnBFjxEueenu2bPw</t>
+          <t>APbFhZNhR4goT1JbCFiTrw2N5rPckj5kWZLVzRtnBWLc</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -13359,12 +13359,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>G9c3H8Hed4ZNnXvw2t9P1uJeXcQDmdn57Qi5UtGGpump</t>
+          <t>6hKgCdFex2tTevTNokEmwovtGqtSYK2ps4AigmFwbonk</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -13433,12 +13433,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2BLuupGDF6GWVJYZWB6fyJ75dWXjMzKGWVeN2TGppump</t>
+          <t>gkz69isayhx176GYZDE333gPyKoiAtMF2TGTNZwpump</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -13507,12 +13507,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>G114LVxZdHtsCfDuYjqP3u3RgmVTjKS6s8qHsHuKpump</t>
+          <t>8GRd7Eg6kFJZTvDdRQpRBX7w71s8R1wkQvMV3HWDT9PT</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -13581,12 +13581,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>B9z8cEWFmc7LvQtjKsaLoKqW5MJmGRCWqs1DPKupCfkk</t>
+          <t>FSyuCSheYUgtaSDa9iJVdVjgVf24XwipMLgWmjEbpump</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -13655,12 +13655,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>AYMwf7uvzTMnnDrw64zcMjLBGaqrVcSGP8eNKXtdpump</t>
+          <t>Dde3kgfE97FSCuYLpQHpJNLRcaFWXt6rnPcTc165pump</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -13729,12 +13729,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>4NWHUsqene63s56idLAchHC85MgvCucBgCsMjkiZpump</t>
+          <t>8PMg4GeyHCY1AWctg4ByowPSq35Pu9ZJHfNR4nAcbonk</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -13803,12 +13803,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
+          <t>3KuSj5VbdUCaSRXCXiUThNaJYjx4NPBbNNo4zmKzpump</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -13877,12 +13877,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+          <t>8RwSa8i6sVhdU4KmXatE6syDgSDUEmKiZC6C4KCTpump</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -18483,7 +18483,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -18491,7 +18491,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2FSn3q2gFFLvmsV4njXRc3z9ig9ypwY6TFVcBLLepump</t>
+          <t>2Mk8vAfersJgfeT5Pwpfe7y4sQ769GZPhRrnwSdhpump</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -18503,7 +18503,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -18511,7 +18511,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Nzn8vsoshVehdiWbvBvgeTL3M1yWNhz1DF8A2AXLV7y</t>
+          <t>BuTM2tXzmuM6TcS9cTQhL1VaxjDfYtSHgKHkYQsFpRsX</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -18523,7 +18523,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -18531,7 +18531,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>EaEVXxVALRvgD3zFcsXZYkz4WTiCWBfpmakXwddDLive</t>
+          <t>BqndqeBCNSEftBKmbTbLVx1RX5zd5J3AGL9sG55Jpump</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -18543,7 +18543,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -18551,7 +18551,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>BDRLQzYHn7pypXWwg2zFXy4as5Km28iSTruGJxuQpump</t>
+          <t>6NdUMfsuyGENe98VPVMRxNZnbQgTUaKxLuiLszS5pump</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -18563,7 +18563,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -18571,7 +18571,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>6V4QLouv2HTbae34hBjLgW5Qc3kdquqFLBsDS3scR1CH</t>
+          <t>oxynABVJXUEc9PLNx4m1XVdiFtRhStzRXG1G6qosni1</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -18583,7 +18583,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -18591,7 +18591,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>q29umWshmh2fmm1CdRb4cBKhqtW9xX25ezNQi7Bpump</t>
+          <t>EMg2QkFZ6pLvgckVGj8X6nmyrkiuoamYnTdoxXN8pump</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -18603,7 +18603,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -18611,7 +18611,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>C93Xk7zeJEYwqmWeJJCnWVsSR3Nog7SC7LHW2ZTxvREV</t>
+          <t>AufjSxXopMZn7EeX21ifncGPKQ2BH6FaiRpFu6gDpump</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -18623,7 +18623,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>4KUCN58TeExp9qrap64yuBPTmGmToV7R9h1p7HCZpump</t>
+          <t>HBukB9DLbdTM6nNHQQ6JvVmjx7UmuMpDJAU9oX8tpump</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -18643,7 +18643,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -18651,7 +18651,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>34AeqX5MQGyrey2VnZdkeZCfM4qinp4F3X7pGxtipump</t>
+          <t>xxxgjrRmEtAeik3fpkftHA6ncHjfDWWN4T1zUYQPm3z</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -18663,7 +18663,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -18671,7 +18671,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>3sLSDYfmbu5ZdmC7wbBUzvwRFE6S1dtrTUafuhhApump</t>
+          <t>2t2sKsaGpRG3jWV22y9eAVp7qfRRaytDiS1kkMpCqREV</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -18683,7 +18683,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -18691,7 +18691,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>9DVgoPhCJkmS9C1tVCRyz4Ectu5MNsph9nwiQZAPmoon</t>
+          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -18703,7 +18703,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -18711,7 +18711,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
+          <t>CKVZPWFPaJArEaPnk16CXpFtFXjuCxCh95vBcS3Ppump</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -18723,7 +18723,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -18731,7 +18731,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -18743,7 +18743,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -18751,7 +18751,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>4NGbC4RRrUjS78ooSN53Up7gSg4dGrj6F6dxpMWHbonk</t>
+          <t>6NqgJiWQLVznisyn1ytHEtQkC52sQf4t1b732Qvvpump</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -18763,7 +18763,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -18771,7 +18771,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>31ovHdpQJTMrmxwiSRWpZQ6oY3AP9wu8RWZh8adepump</t>
+          <t>EfFvS8CXAJ89Y3hP8cMpmtW1kDWTg4PnhLMkrW29pump</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -18783,7 +18783,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -18791,7 +18791,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>3d3suDtLDqnXyA454EYCkAnhz33P55FAMCEk37Gppump</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -18803,7 +18803,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -18811,7 +18811,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>CB9dDufT3ZuQXqqSfa1c5kY935TEreyBw9XJXxHKpump</t>
+          <t>FjXD9UWJaG6iVhExBR9SC6HjPmFA3czPGLeSbxurpump</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -18823,7 +18823,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -18831,7 +18831,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>BVvywU1wt4FaLDfZe7y11yrVnHbJpAU7YirmsuW3pump</t>
+          <t>irSdJ3vRioPxMmN3ZFrG6Y7ECJtyyJBnUcLKMauA6tR</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -18843,7 +18843,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>3rSKhRtrjHnSZhRsgoAtrWRVM8rcf8DYv8Quea1epump</t>
+          <t>919MM61rJb1KairDkbNoH8iCVkX1fGFn7w4Dj6Mapump</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -18863,7 +18863,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -18871,7 +18871,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>BPcEmH1Amv1ZAJhBpTxnTpkMg1bbkbrM7RwKycWipump</t>
+          <t>GEHJx1yb83BDdjWp6UJWWann9aAkVKwvzU49Qp7jpump</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -18883,7 +18883,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -18891,7 +18891,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>HGwdb6RQsMTqXpjBiy5BEAXHcpanmJr3c1Dj84r5pump</t>
+          <t>4Ds7cxJ82gm34gV22zo2LjPdX3nFbQk9PXK7mjX4pump</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -18903,7 +18903,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -18911,7 +18911,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>wCtiCRJz69a5Mqkk2nHmvQwBGQCrUvM8fELoFGqpump</t>
+          <t>3d1qHSAkQhoN7kN1C6tvpAArCkXWxwYdBng6taXCDM6u</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -18923,7 +18923,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -18931,7 +18931,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>41m33JPaG3qGJjkJY1uMpLCiNXccaNxSm1wJyYjQ2LPR</t>
+          <t>CWVuqZzGfrXD5i1dJYyvpLaQW6yzPqaPC7UemZFUpump</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -18943,7 +18943,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -18951,7 +18951,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>H9iZggMWYP8G6DxKRaDoRW8ZkE4miWVuqpKYLrAspump</t>
+          <t>8MWLo9PmNiunLFhCZsXBsHqmvKrxTjt3qffFJF81pump</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -18963,7 +18963,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -18971,7 +18971,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>BdDB5AH7azG8BQGC9bSobh6ER33VdB7ZZ97jGn2Npump</t>
+          <t>GaPbGp23pPuY9QBLPUjUEBn2MKEroTe9Q3M3f2Xpump</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -18983,7 +18983,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -18991,7 +18991,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>AjgSvYmJLhvt3FteiyTqQf8XBj1SVs6T6AmSUfkHpump</t>
+          <t>7UgmCpkZMMQBUajCfhrtiJXZ1wPuMidEB4DnA6aUpump</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -19003,7 +19003,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -19011,7 +19011,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>5t3TrtpDm1P8pRVYXcJ6MmngNsv2Ty3H5cimDve2pump</t>
+          <t>5YesRCpnjAR396xDy1xenHahfogjevCH4c46TH6wPray</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -19023,7 +19023,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -19031,7 +19031,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>BoPBfkKgWGSDApzBjLi1RPwxvSoiN4ECTSPBH2qFpump</t>
+          <t>A6ec7AMvx7oH96sNYELiF5i3vw3YxCuN6Qb8fDMMpump</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -19043,7 +19043,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -19051,7 +19051,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>3SfAaAK5eFx4Q23VySQq35AESmHQoBjVJnG2CrXbpump</t>
+          <t>34wfgAa6JzKxN1TGCneRk3LY1xetvnF8q5n6H7fzf2TY</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -19063,7 +19063,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -19071,7 +19071,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>CMHHKQAvfQZWEtxgWqLmhwrCqzzYikZqbTWPkEcCpump</t>
+          <t>ByC7sCHFL4s96JnwhbnC27dyY9iTzsjYDvx3XGgopump</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -19083,7 +19083,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>xmcjcN35cwPheUALX7v3fczpJcCtAtZ2jgPPJkNYUFA</t>
+          <t>CWdRtpnFWVgTASioj6ZWPwca3j7i3Ya1hPF4QVL6bonk</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -19103,7 +19103,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -19111,7 +19111,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>5BuA8VT8rfUM428FWThNNPE9MYYoZvv7ZtL89dB3pump</t>
+          <t>AS5DW5dHY9V46Mrz3VJAA2MsewkahDnHvv9tzNcnpump</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -19123,7 +19123,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>J5FsJhyV5HTneY9PP4J6fkhiNnQaNQ4BzH4hAbDqeRNL</t>
+          <t>G9mRRd16qLYzbp7trdj7DFSZyLePM9DepaWnJJLwCUDF</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -19143,7 +19143,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>9FWysHuSHNrQnyJoC7qMbm2cLxjT9ttjqBKFp8tzpump</t>
+          <t>879iULwrP3VoPF7Ce2yxkMagpwecQLKkNtsY7DJrpump</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -19163,7 +19163,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -19171,7 +19171,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>GWJcHRz6EZ2igjXfSWc7cz7PaJHfu8yMu4SL2Jqxpump</t>
+          <t>62GnkrYtLJBXoQWsCBHZVugkCDZzpBonAWX6CHmSpump</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -19183,7 +19183,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -19191,7 +19191,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>CBhmj8ZUTMwDmWatE5Y3QHVzo3C5UXNpDg8YcGJMpump</t>
+          <t>3H9TNBGGh3jdBC76VdTJCB5QSSsKBKFnhM7164VnjpkM</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -19203,7 +19203,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -19211,7 +19211,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>EWdgTzAvBZwchg89f8CaJvtvc1dVish2Fa38jPGgpump</t>
+          <t>BSmKbyHpyWVamsGv6Ja7xEqAyMwNn4TRsyX4hFxEpump</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -19223,7 +19223,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -19231,7 +19231,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>6ChfYhYQqZ2AfQbf4NMJUqJFGoNa26Y92hS7Ao9mpump</t>
+          <t>C8aogMqASuurkwKDzd6VZPNRqUTbVoDJH7GMiRYUpump</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -19243,7 +19243,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -19251,7 +19251,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>CDzCp6fTS7K9pYZ1JEDb4ZpQ4B85BTqke9Kcmwpp5q3S</t>
+          <t>DrJnnTuBDLRZTQmtKgcBkFH3taLbGCNh9DBhWMkhpump</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -19263,7 +19263,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>DD8TeSw8y7Q2D8MKSt47cTbAnAcHTFs6viov48PMFQQG</t>
+          <t>4uVEktQLeYdZHKVJP5FXzZLnzetwhfeyP8vyKXurpump</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -19283,7 +19283,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -19291,7 +19291,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>EpWd13A6dwnE8a4KEQx8XPDtaj7qViKZhhDCkmB7pump</t>
+          <t>8oCqyRtFXjYbeC7fhxQMAqu6eAMEoibjyJCQcLnopump</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -19303,7 +19303,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -19311,7 +19311,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2ps5iWYb4PW353wiGKb36EmieYGQKnBFjxEueenu2bPw</t>
+          <t>APbFhZNhR4goT1JbCFiTrw2N5rPckj5kWZLVzRtnBWLc</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -19323,7 +19323,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -19331,7 +19331,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>G9c3H8Hed4ZNnXvw2t9P1uJeXcQDmdn57Qi5UtGGpump</t>
+          <t>6hKgCdFex2tTevTNokEmwovtGqtSYK2ps4AigmFwbonk</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -19343,7 +19343,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -19351,7 +19351,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2BLuupGDF6GWVJYZWB6fyJ75dWXjMzKGWVeN2TGppump</t>
+          <t>gkz69isayhx176GYZDE333gPyKoiAtMF2TGTNZwpump</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -19363,7 +19363,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -19371,7 +19371,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>G114LVxZdHtsCfDuYjqP3u3RgmVTjKS6s8qHsHuKpump</t>
+          <t>8GRd7Eg6kFJZTvDdRQpRBX7w71s8R1wkQvMV3HWDT9PT</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -19383,7 +19383,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -19391,7 +19391,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>B9z8cEWFmc7LvQtjKsaLoKqW5MJmGRCWqs1DPKupCfkk</t>
+          <t>FSyuCSheYUgtaSDa9iJVdVjgVf24XwipMLgWmjEbpump</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -19403,7 +19403,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -19411,7 +19411,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>AYMwf7uvzTMnnDrw64zcMjLBGaqrVcSGP8eNKXtdpump</t>
+          <t>Dde3kgfE97FSCuYLpQHpJNLRcaFWXt6rnPcTc165pump</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -19423,7 +19423,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -19431,7 +19431,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>4NWHUsqene63s56idLAchHC85MgvCucBgCsMjkiZpump</t>
+          <t>8PMg4GeyHCY1AWctg4ByowPSq35Pu9ZJHfNR4nAcbonk</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -19443,7 +19443,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -19451,19 +19451,19 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
+          <t>3KuSj5VbdUCaSRXCXiUThNaJYjx4NPBbNNo4zmKzpump</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Fallback:Master</t>
+          <t>DexProfilesLatest</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -19471,12 +19471,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+          <t>8RwSa8i6sVhdU4KmXatE6syDgSDUEmKiZC6C4KCTpump</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Fallback:Master</t>
+          <t>DexProfilesLatest</t>
         </is>
       </c>
     </row>
@@ -19554,12 +19554,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2FSn3q2gFFLvmsV4njXRc3z9ig9ypwY6TFVcBLLepump</t>
+          <t>2Mk8vAfersJgfeT5Pwpfe7y4sQ769GZPhRrnwSdhpump</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -19572,12 +19572,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nzn8vsoshVehdiWbvBvgeTL3M1yWNhz1DF8A2AXLV7y</t>
+          <t>BuTM2tXzmuM6TcS9cTQhL1VaxjDfYtSHgKHkYQsFpRsX</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -19590,12 +19590,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EaEVXxVALRvgD3zFcsXZYkz4WTiCWBfpmakXwddDLive</t>
+          <t>BqndqeBCNSEftBKmbTbLVx1RX5zd5J3AGL9sG55Jpump</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -19608,12 +19608,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BDRLQzYHn7pypXWwg2zFXy4as5Km28iSTruGJxuQpump</t>
+          <t>6NdUMfsuyGENe98VPVMRxNZnbQgTUaKxLuiLszS5pump</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -19626,12 +19626,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6V4QLouv2HTbae34hBjLgW5Qc3kdquqFLBsDS3scR1CH</t>
+          <t>oxynABVJXUEc9PLNx4m1XVdiFtRhStzRXG1G6qosni1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -19644,12 +19644,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>q29umWshmh2fmm1CdRb4cBKhqtW9xX25ezNQi7Bpump</t>
+          <t>EMg2QkFZ6pLvgckVGj8X6nmyrkiuoamYnTdoxXN8pump</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -19662,12 +19662,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C93Xk7zeJEYwqmWeJJCnWVsSR3Nog7SC7LHW2ZTxvREV</t>
+          <t>AufjSxXopMZn7EeX21ifncGPKQ2BH6FaiRpFu6gDpump</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -19680,12 +19680,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4KUCN58TeExp9qrap64yuBPTmGmToV7R9h1p7HCZpump</t>
+          <t>HBukB9DLbdTM6nNHQQ6JvVmjx7UmuMpDJAU9oX8tpump</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -19698,12 +19698,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>34AeqX5MQGyrey2VnZdkeZCfM4qinp4F3X7pGxtipump</t>
+          <t>xxxgjrRmEtAeik3fpkftHA6ncHjfDWWN4T1zUYQPm3z</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -19716,12 +19716,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3sLSDYfmbu5ZdmC7wbBUzvwRFE6S1dtrTUafuhhApump</t>
+          <t>2t2sKsaGpRG3jWV22y9eAVp7qfRRaytDiS1kkMpCqREV</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -19734,12 +19734,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9DVgoPhCJkmS9C1tVCRyz4Ectu5MNsph9nwiQZAPmoon</t>
+          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -19752,12 +19752,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
+          <t>CKVZPWFPaJArEaPnk16CXpFtFXjuCxCh95vBcS3Ppump</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -19770,12 +19770,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+          <t>UbNX69Ng8TiE84rc5x4aLY6mcmbPbyZ2BJ2nfhupump</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -19788,12 +19788,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4NGbC4RRrUjS78ooSN53Up7gSg4dGrj6F6dxpMWHbonk</t>
+          <t>6NqgJiWQLVznisyn1ytHEtQkC52sQf4t1b732Qvvpump</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -19806,12 +19806,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>31ovHdpQJTMrmxwiSRWpZQ6oY3AP9wu8RWZh8adepump</t>
+          <t>EfFvS8CXAJ89Y3hP8cMpmtW1kDWTg4PnhLMkrW29pump</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -19824,12 +19824,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>3d3suDtLDqnXyA454EYCkAnhz33P55FAMCEk37Gppump</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -19842,12 +19842,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CB9dDufT3ZuQXqqSfa1c5kY935TEreyBw9XJXxHKpump</t>
+          <t>FjXD9UWJaG6iVhExBR9SC6HjPmFA3czPGLeSbxurpump</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -19860,12 +19860,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BVvywU1wt4FaLDfZe7y11yrVnHbJpAU7YirmsuW3pump</t>
+          <t>irSdJ3vRioPxMmN3ZFrG6Y7ECJtyyJBnUcLKMauA6tR</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -19878,12 +19878,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3rSKhRtrjHnSZhRsgoAtrWRVM8rcf8DYv8Quea1epump</t>
+          <t>919MM61rJb1KairDkbNoH8iCVkX1fGFn7w4Dj6Mapump</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -19896,12 +19896,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BPcEmH1Amv1ZAJhBpTxnTpkMg1bbkbrM7RwKycWipump</t>
+          <t>GEHJx1yb83BDdjWp6UJWWann9aAkVKwvzU49Qp7jpump</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -19914,12 +19914,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HGwdb6RQsMTqXpjBiy5BEAXHcpanmJr3c1Dj84r5pump</t>
+          <t>4Ds7cxJ82gm34gV22zo2LjPdX3nFbQk9PXK7mjX4pump</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -19932,12 +19932,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>wCtiCRJz69a5Mqkk2nHmvQwBGQCrUvM8fELoFGqpump</t>
+          <t>3d1qHSAkQhoN7kN1C6tvpAArCkXWxwYdBng6taXCDM6u</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -19950,12 +19950,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>41m33JPaG3qGJjkJY1uMpLCiNXccaNxSm1wJyYjQ2LPR</t>
+          <t>CWVuqZzGfrXD5i1dJYyvpLaQW6yzPqaPC7UemZFUpump</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -19968,12 +19968,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>H9iZggMWYP8G6DxKRaDoRW8ZkE4miWVuqpKYLrAspump</t>
+          <t>8MWLo9PmNiunLFhCZsXBsHqmvKrxTjt3qffFJF81pump</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -19986,12 +19986,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BdDB5AH7azG8BQGC9bSobh6ER33VdB7ZZ97jGn2Npump</t>
+          <t>GaPbGp23pPuY9QBLPUjUEBn2MKEroTe9Q3M3f2Xpump</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -20004,12 +20004,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AjgSvYmJLhvt3FteiyTqQf8XBj1SVs6T6AmSUfkHpump</t>
+          <t>7UgmCpkZMMQBUajCfhrtiJXZ1wPuMidEB4DnA6aUpump</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -20022,12 +20022,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5t3TrtpDm1P8pRVYXcJ6MmngNsv2Ty3H5cimDve2pump</t>
+          <t>5YesRCpnjAR396xDy1xenHahfogjevCH4c46TH6wPray</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -20040,12 +20040,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BoPBfkKgWGSDApzBjLi1RPwxvSoiN4ECTSPBH2qFpump</t>
+          <t>A6ec7AMvx7oH96sNYELiF5i3vw3YxCuN6Qb8fDMMpump</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -20058,12 +20058,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3SfAaAK5eFx4Q23VySQq35AESmHQoBjVJnG2CrXbpump</t>
+          <t>34wfgAa6JzKxN1TGCneRk3LY1xetvnF8q5n6H7fzf2TY</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -20076,12 +20076,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CMHHKQAvfQZWEtxgWqLmhwrCqzzYikZqbTWPkEcCpump</t>
+          <t>ByC7sCHFL4s96JnwhbnC27dyY9iTzsjYDvx3XGgopump</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -20094,12 +20094,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>xmcjcN35cwPheUALX7v3fczpJcCtAtZ2jgPPJkNYUFA</t>
+          <t>CWdRtpnFWVgTASioj6ZWPwca3j7i3Ya1hPF4QVL6bonk</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -20112,12 +20112,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5BuA8VT8rfUM428FWThNNPE9MYYoZvv7ZtL89dB3pump</t>
+          <t>AS5DW5dHY9V46Mrz3VJAA2MsewkahDnHvv9tzNcnpump</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -20130,12 +20130,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>J5FsJhyV5HTneY9PP4J6fkhiNnQaNQ4BzH4hAbDqeRNL</t>
+          <t>G9mRRd16qLYzbp7trdj7DFSZyLePM9DepaWnJJLwCUDF</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -20148,12 +20148,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9FWysHuSHNrQnyJoC7qMbm2cLxjT9ttjqBKFp8tzpump</t>
+          <t>879iULwrP3VoPF7Ce2yxkMagpwecQLKkNtsY7DJrpump</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -20166,12 +20166,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GWJcHRz6EZ2igjXfSWc7cz7PaJHfu8yMu4SL2Jqxpump</t>
+          <t>62GnkrYtLJBXoQWsCBHZVugkCDZzpBonAWX6CHmSpump</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -20184,12 +20184,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CBhmj8ZUTMwDmWatE5Y3QHVzo3C5UXNpDg8YcGJMpump</t>
+          <t>3H9TNBGGh3jdBC76VdTJCB5QSSsKBKFnhM7164VnjpkM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -20202,12 +20202,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EWdgTzAvBZwchg89f8CaJvtvc1dVish2Fa38jPGgpump</t>
+          <t>BSmKbyHpyWVamsGv6Ja7xEqAyMwNn4TRsyX4hFxEpump</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -20220,12 +20220,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6ChfYhYQqZ2AfQbf4NMJUqJFGoNa26Y92hS7Ao9mpump</t>
+          <t>C8aogMqASuurkwKDzd6VZPNRqUTbVoDJH7GMiRYUpump</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -20238,12 +20238,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CDzCp6fTS7K9pYZ1JEDb4ZpQ4B85BTqke9Kcmwpp5q3S</t>
+          <t>DrJnnTuBDLRZTQmtKgcBkFH3taLbGCNh9DBhWMkhpump</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -20256,12 +20256,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DD8TeSw8y7Q2D8MKSt47cTbAnAcHTFs6viov48PMFQQG</t>
+          <t>4uVEktQLeYdZHKVJP5FXzZLnzetwhfeyP8vyKXurpump</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -20274,12 +20274,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EpWd13A6dwnE8a4KEQx8XPDtaj7qViKZhhDCkmB7pump</t>
+          <t>8oCqyRtFXjYbeC7fhxQMAqu6eAMEoibjyJCQcLnopump</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -20292,12 +20292,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2ps5iWYb4PW353wiGKb36EmieYGQKnBFjxEueenu2bPw</t>
+          <t>APbFhZNhR4goT1JbCFiTrw2N5rPckj5kWZLVzRtnBWLc</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -20310,12 +20310,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>G9c3H8Hed4ZNnXvw2t9P1uJeXcQDmdn57Qi5UtGGpump</t>
+          <t>6hKgCdFex2tTevTNokEmwovtGqtSYK2ps4AigmFwbonk</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -20328,12 +20328,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2BLuupGDF6GWVJYZWB6fyJ75dWXjMzKGWVeN2TGppump</t>
+          <t>gkz69isayhx176GYZDE333gPyKoiAtMF2TGTNZwpump</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -20346,12 +20346,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>G114LVxZdHtsCfDuYjqP3u3RgmVTjKS6s8qHsHuKpump</t>
+          <t>8GRd7Eg6kFJZTvDdRQpRBX7w71s8R1wkQvMV3HWDT9PT</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -20364,12 +20364,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B9z8cEWFmc7LvQtjKsaLoKqW5MJmGRCWqs1DPKupCfkk</t>
+          <t>FSyuCSheYUgtaSDa9iJVdVjgVf24XwipMLgWmjEbpump</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -20382,12 +20382,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AYMwf7uvzTMnnDrw64zcMjLBGaqrVcSGP8eNKXtdpump</t>
+          <t>Dde3kgfE97FSCuYLpQHpJNLRcaFWXt6rnPcTc165pump</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -20400,12 +20400,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4NWHUsqene63s56idLAchHC85MgvCucBgCsMjkiZpump</t>
+          <t>8PMg4GeyHCY1AWctg4ByowPSq35Pu9ZJHfNR4nAcbonk</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -20418,12 +20418,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
+          <t>3KuSj5VbdUCaSRXCXiUThNaJYjx4NPBbNNo4zmKzpump</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -20436,12 +20436,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+          <t>8RwSa8i6sVhdU4KmXatE6syDgSDUEmKiZC6C4KCTpump</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -20569,7 +20569,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-09-24T12:29:00.461557</t>
+          <t>2025-09-26T07:39:24.205222</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -553,20 +553,20 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.821163797101284e-05</v>
+        <v>1.818508201919917e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1029.87</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>24043.95</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>18178</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
         <v>6.836423046302206e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>19.89</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1923.56</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6723</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -634,17 +634,17 @@
         <v>4.355542120354827e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>8409.379999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4352</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -673,17 +673,17 @@
         <v>7.361831910819658e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>90.34</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>10174.38</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>7357</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -712,17 +712,17 @@
         <v>5.828254274417993e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>674.76</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>9226.719999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>5845</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -751,17 +751,17 @@
         <v>8.696337810615279e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3955</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -787,20 +787,20 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.003423466934393264</v>
+        <v>0.003510355912808702</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11677.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>514188.91</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3495460</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -826,20 +826,20 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.01528687131869075</v>
+        <v>0.01537829320688672</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>91869.55</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1952154.91</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>76697882</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -865,20 +865,20 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.0005509634421448987</v>
+        <v>0.0005536202697617656</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6495.02</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>88236.27</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>395147</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -907,17 +907,17 @@
         <v>7.701442721282724e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>431.3</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>5823.81</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>8637</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -943,20 +943,20 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.148465858585789e-05</v>
+        <v>1.207059878738106e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>5174.09</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>14268.95</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12059</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -982,20 +982,20 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.176840687303782e-05</v>
+        <v>3.958040674331303e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>13509.99</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>28740.42</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>48562</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1021,20 +1021,20 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.599983468360434e-06</v>
+        <v>6.578109103936881e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>338.45</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>9872.629999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>6040</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1060,20 +1060,20 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.453298347199778e-05</v>
+        <v>2.674050303350143e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>9426.5</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>20028.81</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>26743</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1099,20 +1099,20 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.489951531644105e-05</v>
+        <v>2.521040568204287e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>4847.23</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>22796.88</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>25208</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1138,20 +1138,20 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.822593298611409e-05</v>
+        <v>1.735706369428714e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>38005.17</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>17560.92</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>17362</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1177,20 +1177,20 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.002247693671306345</v>
+        <v>0.002239814938514295</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>89451.89</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>200002.29</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2245579</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1216,20 +1216,20 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.001203451592002566</v>
+        <v>0.001437085663608197</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>140640.75</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>179424.91</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1455154</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1255,20 +1255,20 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.0004383910806498052</v>
+        <v>0.0004443919122091529</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>140198.26</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>119127.3</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>444397</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1294,20 +1294,20 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.002095541386686586</v>
+        <v>0.002126391574257524</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>6642578.46</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>233646.77</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1650762</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1336,17 +1336,17 @@
         <v>1.623775665897155e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2553.93</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>17600.77</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>15953</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1375,17 +1375,17 @@
         <v>1.505544749935503e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2738.48</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1528</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1411,20 +1411,20 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.0008921109797809897</v>
+        <v>0.0008866355440867244</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>200479.54</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>190652.84</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>887376</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1453,17 +1453,17 @@
         <v>3.649919466916757e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>117.76</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7149.44</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3646</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1489,20 +1489,20 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>9.374014848892411e-05</v>
+        <v>9.593709874871964e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>14493.18</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>47376.83</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>95811</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1531,17 +1531,17 @@
         <v>5.546854970348866e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>5543.11</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1609,17 +1609,17 @@
         <v>5.586094122672058e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5585.2</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
         <v>4.083532992249412e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>68.26000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7588.53</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4081</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1687,17 +1687,17 @@
         <v>1.111372346912996</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1975431.38</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2502580.03</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>23334274</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -1879,20 +1879,20 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.695133843760942e-05</v>
+        <v>1.724266574118691e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>6831.4</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>16179.26</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>17144</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -2077,17 +2077,17 @@
         <v>5.54450923731753e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>4.02</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>8660.870000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>5463</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -2113,20 +2113,20 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.236296881932893e-05</v>
+        <v>4.472085265828266e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>11977.08</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>27687.21</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>44688</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -2155,17 +2155,17 @@
         <v>5.977165642249016e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5975.02</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -2194,17 +2194,17 @@
         <v>3.720810955744517e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>10.66</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>7134.75</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3718</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -2230,20 +2230,20 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.492812398352304e-05</v>
+        <v>3.477246146462202e-05</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>9718.93</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>22081.4</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>34760</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -2272,17 +2272,17 @@
         <v>4.553706742200089e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>18.63</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>8001.79</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>4552</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -2311,17 +2311,17 @@
         <v>5.366223109381761e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>15.52</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>8709.540000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>5363</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -2350,17 +2350,17 @@
         <v>5.311969760914955e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>160.63</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>8496.57</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>5305</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -2389,17 +2389,17 @@
         <v>4.606081665915663e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>10.89</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>8504.620000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>4594</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>
@@ -2428,17 +2428,17 @@
         <v>5.304346326630492e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>9.94</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>10132.37</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>5299</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>dexscreener+birdeye</t>
         </is>
       </c>
     </row>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -553,20 +553,20 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.818508201919917e-05</v>
+        <v>1.862e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>1029.87</v>
+        <v>1085.21</v>
       </c>
       <c r="G3" t="n">
-        <v>24043.95</v>
+        <v>24352.04</v>
       </c>
       <c r="H3" t="n">
-        <v>18178</v>
+        <v>18627</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.355542120354827e-06</v>
+        <v>4.353e-06</v>
       </c>
       <c r="F5" t="n">
         <v>10.56</v>
@@ -644,7 +644,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5.828254274417993e-06</v>
+        <v>5.844e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>674.76</v>
+        <v>607.9299999999999</v>
       </c>
       <c r="G7" t="n">
         <v>9226.719999999999</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -787,20 +787,20 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.003510355912808702</v>
+        <v>0.00343</v>
       </c>
       <c r="F9" t="n">
-        <v>11677.2</v>
+        <v>11811.92</v>
       </c>
       <c r="G9" t="n">
-        <v>514188.91</v>
+        <v>506141.89</v>
       </c>
       <c r="H9" t="n">
-        <v>3495460</v>
+        <v>3430724</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -826,16 +826,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.01537829320688672</v>
+        <v>0.0151740042472802</v>
       </c>
       <c r="F10" t="n">
-        <v>91869.55</v>
+        <v>90743.88</v>
       </c>
       <c r="G10" t="n">
-        <v>1952154.91</v>
+        <v>1924904.53</v>
       </c>
       <c r="H10" t="n">
-        <v>76697882</v>
+        <v>75607327</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -865,20 +865,20 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.0005536202697617656</v>
+        <v>0.0005505</v>
       </c>
       <c r="F11" t="n">
-        <v>6495.02</v>
+        <v>6313.41</v>
       </c>
       <c r="G11" t="n">
-        <v>88236.27</v>
+        <v>87938.64</v>
       </c>
       <c r="H11" t="n">
-        <v>395147</v>
+        <v>393147</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7.701442721282724e-06</v>
+        <v>7.593580296311352e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>431.3</v>
+        <v>443.43</v>
       </c>
       <c r="G12" t="n">
-        <v>5823.81</v>
+        <v>5738.96</v>
       </c>
       <c r="H12" t="n">
-        <v>8637</v>
+        <v>8475</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -943,20 +943,20 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.207059878738106e-05</v>
+        <v>1.11e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>5174.09</v>
+        <v>5367.66</v>
       </c>
       <c r="G13" t="n">
-        <v>14268.95</v>
+        <v>13646.44</v>
       </c>
       <c r="H13" t="n">
-        <v>12059</v>
+        <v>11104</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.958040674331303e-05</v>
+        <v>4.583838996334617e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>13509.99</v>
+        <v>13684.01</v>
       </c>
       <c r="G14" t="n">
-        <v>28740.42</v>
+        <v>30401.16</v>
       </c>
       <c r="H14" t="n">
-        <v>48562</v>
+        <v>54967</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.578109103936881e-06</v>
+        <v>6.556e-06</v>
       </c>
       <c r="F15" t="n">
         <v>338.45</v>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -1060,16 +1060,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.674050303350143e-05</v>
+        <v>2.669227773281133e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>9426.5</v>
+        <v>9418.15</v>
       </c>
       <c r="G16" t="n">
-        <v>20028.81</v>
+        <v>19956.76</v>
       </c>
       <c r="H16" t="n">
-        <v>26743</v>
+        <v>26669</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1099,20 +1099,20 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.521040568204287e-05</v>
+        <v>2.467e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>4847.23</v>
+        <v>4437.35</v>
       </c>
       <c r="G17" t="n">
-        <v>22796.88</v>
+        <v>22401.27</v>
       </c>
       <c r="H17" t="n">
-        <v>25208</v>
+        <v>24668</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -1138,16 +1138,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.735706369428714e-05</v>
+        <v>1.628157003570316e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>38005.17</v>
+        <v>38138.11</v>
       </c>
       <c r="G18" t="n">
-        <v>17560.92</v>
+        <v>17045.46</v>
       </c>
       <c r="H18" t="n">
-        <v>17362</v>
+        <v>16502</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1177,20 +1177,20 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.002239814938514295</v>
+        <v>0.002227</v>
       </c>
       <c r="F19" t="n">
-        <v>89451.89</v>
+        <v>89459.37</v>
       </c>
       <c r="G19" t="n">
-        <v>200002.29</v>
+        <v>198388.12</v>
       </c>
       <c r="H19" t="n">
-        <v>2245579</v>
+        <v>2227455</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -1216,16 +1216,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.001437085663608197</v>
+        <v>0.001451470253266603</v>
       </c>
       <c r="F20" t="n">
-        <v>140640.75</v>
+        <v>157597.64</v>
       </c>
       <c r="G20" t="n">
-        <v>179424.91</v>
+        <v>178245.8</v>
       </c>
       <c r="H20" t="n">
-        <v>1455154</v>
+        <v>1449819</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1255,20 +1255,20 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.0004443919122091529</v>
+        <v>0.0004406</v>
       </c>
       <c r="F21" t="n">
-        <v>140198.26</v>
+        <v>139092.77</v>
       </c>
       <c r="G21" t="n">
-        <v>119127.3</v>
+        <v>118204.19</v>
       </c>
       <c r="H21" t="n">
-        <v>444397</v>
+        <v>440573</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.002126391574257524</v>
+        <v>0.002214253718620511</v>
       </c>
       <c r="F22" t="n">
-        <v>6642578.46</v>
+        <v>6683461.67</v>
       </c>
       <c r="G22" t="n">
-        <v>233646.77</v>
+        <v>237475.42</v>
       </c>
       <c r="H22" t="n">
-        <v>1650762</v>
+        <v>1715862</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.623775665897155e-05</v>
+        <v>1.623e-05</v>
       </c>
       <c r="F23" t="n">
         <v>2553.93</v>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -1411,20 +1411,20 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.0008866355440867244</v>
+        <v>0.0008863</v>
       </c>
       <c r="F25" t="n">
-        <v>200479.54</v>
+        <v>189897.46</v>
       </c>
       <c r="G25" t="n">
-        <v>190652.84</v>
+        <v>189828.63</v>
       </c>
       <c r="H25" t="n">
-        <v>887376</v>
+        <v>886307</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -1489,20 +1489,20 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>9.593709874871964e-05</v>
+        <v>9.613e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>14493.18</v>
+        <v>14335.39</v>
       </c>
       <c r="G27" t="n">
-        <v>47376.83</v>
+        <v>47273.98</v>
       </c>
       <c r="H27" t="n">
-        <v>95811</v>
+        <v>96089</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.484821132022079e-06</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.083532992249412e-06</v>
+        <v>4.087e-06</v>
       </c>
       <c r="F31" t="n">
         <v>68.26000000000001</v>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
         <v>1.111372346912996</v>
       </c>
       <c r="F32" t="n">
-        <v>1975431.38</v>
+        <v>1587329.8</v>
       </c>
       <c r="G32" t="n">
         <v>2502580.03</v>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6.682786825735428e-06</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6.680658814575688e-06</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -1879,20 +1879,20 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.724266574118691e-05</v>
+        <v>1.799e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>6831.4</v>
+        <v>6313.01</v>
       </c>
       <c r="G37" t="n">
-        <v>16179.26</v>
+        <v>16500.7</v>
       </c>
       <c r="H37" t="n">
-        <v>17144</v>
+        <v>17896</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4.059831331105279e-06</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6.74414526806681e-06</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -2113,20 +2113,20 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.472085265828266e-05</v>
+        <v>4.406e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>11977.08</v>
+        <v>11897.48</v>
       </c>
       <c r="G43" t="n">
-        <v>27687.21</v>
+        <v>27293.03</v>
       </c>
       <c r="H43" t="n">
-        <v>44688</v>
+        <v>44067</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.720810955744517e-06</v>
+        <v>3.72e-06</v>
       </c>
       <c r="F45" t="n">
         <v>10.66</v>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -2230,16 +2230,16 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.477246146462202e-05</v>
+        <v>3.400529426019206e-05</v>
       </c>
       <c r="F46" t="n">
-        <v>9718.93</v>
+        <v>9736.51</v>
       </c>
       <c r="G46" t="n">
-        <v>22081.4</v>
+        <v>21632.46</v>
       </c>
       <c r="H46" t="n">
-        <v>34760</v>
+        <v>33987</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.553706742200089e-06</v>
+        <v>4.552e-06</v>
       </c>
       <c r="F47" t="n">
         <v>18.63</v>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
@@ -2308,16 +2308,16 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5.366223109381761e-06</v>
+        <v>5.453612762251914e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>15.52</v>
+        <v>27.78</v>
       </c>
       <c r="G48" t="n">
-        <v>8709.540000000001</v>
+        <v>8862</v>
       </c>
       <c r="H48" t="n">
-        <v>5363</v>
+        <v>5447</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.606081665915663e-06</v>
+        <v>4.594e-06</v>
       </c>
       <c r="F50" t="n">
         <v>10.89</v>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -495,7 +495,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.558875835164439e-06</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -527,14 +527,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.862e-05</v>
+        <v>1.902e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>1085.21</v>
+        <v>677.04</v>
       </c>
       <c r="G3" t="n">
-        <v>24352.04</v>
+        <v>24974</v>
       </c>
       <c r="H3" t="n">
-        <v>18627</v>
+        <v>19022</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -592,27 +592,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6.836423046302206e-06</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>19.89</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1923.56</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6723</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -631,27 +631,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.353e-06</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.56</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8409.379999999999</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>4352</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>dexscreener</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -670,27 +670,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7.361831910819658e-06</v>
+        <v>7.866999999999999e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>90.34</v>
+        <v>226.54</v>
       </c>
       <c r="G6" t="n">
-        <v>10174.38</v>
+        <v>10782.26</v>
       </c>
       <c r="H6" t="n">
-        <v>7357</v>
+        <v>7864</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -709,16 +709,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5.844e-06</v>
+        <v>6.564e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>607.9299999999999</v>
+        <v>784.97</v>
       </c>
       <c r="G7" t="n">
-        <v>9226.719999999999</v>
+        <v>10080.12</v>
       </c>
       <c r="H7" t="n">
-        <v>5845</v>
+        <v>6564</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -748,27 +748,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.696337810615279e-05</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3955</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -787,16 +787,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.00343</v>
+        <v>0.003726</v>
       </c>
       <c r="F9" t="n">
-        <v>11811.92</v>
+        <v>14194.93</v>
       </c>
       <c r="G9" t="n">
-        <v>506141.89</v>
+        <v>537626.26</v>
       </c>
       <c r="H9" t="n">
-        <v>3430724</v>
+        <v>3726039</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -826,27 +826,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0151740042472802</v>
+        <v>0.01555</v>
       </c>
       <c r="F10" t="n">
-        <v>90743.88</v>
+        <v>50695.03</v>
       </c>
       <c r="G10" t="n">
-        <v>1924904.53</v>
+        <v>1989078.44</v>
       </c>
       <c r="H10" t="n">
-        <v>75607327</v>
+        <v>77798794</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.0005505</v>
+        <v>0.0004736</v>
       </c>
       <c r="F11" t="n">
-        <v>6313.41</v>
+        <v>8526.07</v>
       </c>
       <c r="G11" t="n">
-        <v>87938.64</v>
+        <v>82711.64</v>
       </c>
       <c r="H11" t="n">
-        <v>393147</v>
+        <v>338214</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7.593580296311352e-06</v>
+        <v>8.111000000000001e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>443.43</v>
+        <v>376.17</v>
       </c>
       <c r="G12" t="n">
-        <v>5738.96</v>
+        <v>5714.17</v>
       </c>
       <c r="H12" t="n">
-        <v>8475</v>
+        <v>8112</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.11e-05</v>
+        <v>8.765e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>5367.66</v>
+        <v>4772.9</v>
       </c>
       <c r="G13" t="n">
-        <v>13646.44</v>
+        <v>12334.21</v>
       </c>
       <c r="H13" t="n">
-        <v>11104</v>
+        <v>8762</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -982,27 +982,27 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.583838996334617e-05</v>
+        <v>4.887e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>13684.01</v>
+        <v>23841.19</v>
       </c>
       <c r="G14" t="n">
-        <v>30401.16</v>
+        <v>28863.09</v>
       </c>
       <c r="H14" t="n">
-        <v>54967</v>
+        <v>48878</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1021,27 +1021,27 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.556e-06</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>338.45</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>9872.629999999999</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>6040</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>dexscreener</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1060,27 +1060,27 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.669227773281133e-05</v>
+        <v>3.199e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>9418.15</v>
+        <v>3394.76</v>
       </c>
       <c r="G16" t="n">
-        <v>19956.76</v>
+        <v>22140.32</v>
       </c>
       <c r="H16" t="n">
-        <v>26669</v>
+        <v>31993</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.467e-05</v>
+        <v>2.771e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>4437.35</v>
+        <v>3064.45</v>
       </c>
       <c r="G17" t="n">
-        <v>22401.27</v>
+        <v>24165.35</v>
       </c>
       <c r="H17" t="n">
-        <v>24668</v>
+        <v>27715</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1138,27 +1138,27 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.628157003570316e-05</v>
+        <v>1.315e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>38138.11</v>
+        <v>4511.17</v>
       </c>
       <c r="G18" t="n">
-        <v>17045.46</v>
+        <v>15481.35</v>
       </c>
       <c r="H18" t="n">
-        <v>16502</v>
+        <v>13150</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1177,16 +1177,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.002227</v>
+        <v>0.002219</v>
       </c>
       <c r="F19" t="n">
-        <v>89459.37</v>
+        <v>74296.28</v>
       </c>
       <c r="G19" t="n">
-        <v>198388.12</v>
+        <v>201654.09</v>
       </c>
       <c r="H19" t="n">
-        <v>2227455</v>
+        <v>2219839</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1216,27 +1216,27 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.001451470253266603</v>
+        <v>0.001564</v>
       </c>
       <c r="F20" t="n">
-        <v>157597.64</v>
+        <v>166574.4</v>
       </c>
       <c r="G20" t="n">
-        <v>178245.8</v>
+        <v>188886.87</v>
       </c>
       <c r="H20" t="n">
-        <v>1449819</v>
+        <v>1563775</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.0004406</v>
+        <v>0.0004767</v>
       </c>
       <c r="F21" t="n">
-        <v>139092.77</v>
+        <v>149256.84</v>
       </c>
       <c r="G21" t="n">
-        <v>118204.19</v>
+        <v>125385.97</v>
       </c>
       <c r="H21" t="n">
-        <v>440573</v>
+        <v>476700</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1294,27 +1294,27 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.002214253718620511</v>
+        <v>0.002063</v>
       </c>
       <c r="F22" t="n">
-        <v>6683461.67</v>
+        <v>1452578.39</v>
       </c>
       <c r="G22" t="n">
-        <v>237475.42</v>
+        <v>236056.27</v>
       </c>
       <c r="H22" t="n">
-        <v>1715862</v>
+        <v>1603514</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1333,16 +1333,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.623e-05</v>
+        <v>1.362e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>2553.93</v>
+        <v>1252.56</v>
       </c>
       <c r="G23" t="n">
-        <v>17600.77</v>
+        <v>16329.19</v>
       </c>
       <c r="H23" t="n">
-        <v>15953</v>
+        <v>13381</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1372,27 +1372,27 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.505544749935503e-06</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>20.7</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2738.48</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1528</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1411,16 +1411,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.0008863</v>
+        <v>0.0007838</v>
       </c>
       <c r="F25" t="n">
-        <v>189897.46</v>
+        <v>120914.05</v>
       </c>
       <c r="G25" t="n">
-        <v>189828.63</v>
+        <v>181844.76</v>
       </c>
       <c r="H25" t="n">
-        <v>886307</v>
+        <v>783870</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1450,27 +1450,27 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.649919466916757e-06</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>117.76</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7149.44</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3646</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1489,16 +1489,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>9.613e-05</v>
+        <v>0.0001214</v>
       </c>
       <c r="F27" t="n">
-        <v>14335.39</v>
+        <v>13882.23</v>
       </c>
       <c r="G27" t="n">
-        <v>47273.98</v>
+        <v>54055.4</v>
       </c>
       <c r="H27" t="n">
-        <v>96089</v>
+        <v>121363</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1528,27 +1528,27 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.546854970348866e-06</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5543.11</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1587,7 +1587,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1606,27 +1606,27 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5.586094122672058e-06</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>5585.2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1645,27 +1645,27 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.087e-06</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>7588.53</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>4081</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>dexscreener</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1684,27 +1684,27 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.111372346912996</v>
+        <v>1.15</v>
       </c>
       <c r="F32" t="n">
-        <v>1587329.8</v>
+        <v>148.72</v>
       </c>
       <c r="G32" t="n">
-        <v>2502580.03</v>
+        <v>2603982.57</v>
       </c>
       <c r="H32" t="n">
-        <v>23334274</v>
+        <v>24232529</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1743,7 +1743,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5.997298052119634e-06</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1775,14 +1775,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6.130100405371453e-06</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1853,14 +1853,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1879,16 +1879,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.799e-05</v>
+        <v>1.825e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>6313.01</v>
+        <v>3468.94</v>
       </c>
       <c r="G37" t="n">
-        <v>16500.7</v>
+        <v>16887.13</v>
       </c>
       <c r="H37" t="n">
-        <v>17896</v>
+        <v>18158</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6.219203669339925e-06</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1931,14 +1931,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6.020951632771035e-06</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2009,14 +2009,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>birdeye</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2055,7 +2055,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2074,27 +2074,27 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5.54450923731753e-06</v>
+        <v>5.68e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>4.02</v>
+        <v>17.3</v>
       </c>
       <c r="G42" t="n">
-        <v>8660.870000000001</v>
+        <v>9036.16</v>
       </c>
       <c r="H42" t="n">
-        <v>5463</v>
+        <v>5678</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2113,16 +2113,16 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.406e-05</v>
+        <v>3.924e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>11897.48</v>
+        <v>6888.29</v>
       </c>
       <c r="G43" t="n">
-        <v>27293.03</v>
+        <v>26239.13</v>
       </c>
       <c r="H43" t="n">
-        <v>44067</v>
+        <v>39242</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2152,27 +2152,27 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5.977165642249016e-06</v>
+        <v>6.142e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>0.79</v>
+        <v>1.31</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5975.02</v>
+        <v>6142.25</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2191,16 +2191,16 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.72e-06</v>
+        <v>3.886e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>10.66</v>
+        <v>6.25</v>
       </c>
       <c r="G45" t="n">
-        <v>7134.75</v>
+        <v>7466.77</v>
       </c>
       <c r="H45" t="n">
-        <v>3718</v>
+        <v>3884</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2230,27 +2230,27 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.400529426019206e-05</v>
+        <v>3.057e-05</v>
       </c>
       <c r="F46" t="n">
-        <v>9736.51</v>
+        <v>2793.7</v>
       </c>
       <c r="G46" t="n">
-        <v>21632.46</v>
+        <v>20937.82</v>
       </c>
       <c r="H46" t="n">
-        <v>33987</v>
+        <v>30575</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2269,16 +2269,16 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.552e-06</v>
+        <v>4.901e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>18.63</v>
+        <v>100.29</v>
       </c>
       <c r="G47" t="n">
-        <v>8001.79</v>
+        <v>8409.16</v>
       </c>
       <c r="H47" t="n">
-        <v>4552</v>
+        <v>4901</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2308,27 +2308,27 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5.453612762251914e-06</v>
+        <v>5.51e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>27.78</v>
+        <v>52.08</v>
       </c>
       <c r="G48" t="n">
-        <v>8862</v>
+        <v>9027.700000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>5447</v>
+        <v>5507</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2347,27 +2347,27 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5.311969760914955e-06</v>
+        <v>5.551e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>160.63</v>
+        <v>259.26</v>
       </c>
       <c r="G49" t="n">
-        <v>8496.57</v>
+        <v>8933.969999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>5305</v>
+        <v>5548</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.594e-06</v>
+        <v>4.762e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>10.89</v>
+        <v>0.11</v>
       </c>
       <c r="G50" t="n">
-        <v>8504.620000000001</v>
+        <v>8815.77</v>
       </c>
       <c r="H50" t="n">
-        <v>4594</v>
+        <v>4762</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2425,20 +2425,20 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5.304346326630492e-06</v>
+        <v>5.45e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>9.94</v>
+        <v>0.15</v>
       </c>
       <c r="G51" t="n">
-        <v>10132.37</v>
+        <v>10424.01</v>
       </c>
       <c r="H51" t="n">
-        <v>5299</v>
+        <v>5448</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>dexscreener+birdeye</t>
+          <t>dexscreener</t>
         </is>
       </c>
     </row>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,16 @@
           <t>source</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data_status</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>missing_streak</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -530,6 +540,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -553,21 +571,29 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.902e-05</v>
+        <v>1.91e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>677.04</v>
+        <v>285.32</v>
       </c>
       <c r="G3" t="n">
-        <v>24974</v>
+        <v>25043.61</v>
       </c>
       <c r="H3" t="n">
-        <v>19022</v>
+        <v>19104</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -608,6 +634,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -647,6 +681,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -670,21 +712,29 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7.866999999999999e-06</v>
+        <v>7.847e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>226.54</v>
+        <v>230.9</v>
       </c>
       <c r="G6" t="n">
-        <v>10782.26</v>
+        <v>10758.08</v>
       </c>
       <c r="H6" t="n">
-        <v>7864</v>
+        <v>7844</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -709,21 +759,29 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6.564e-06</v>
+        <v>6.119e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>784.97</v>
+        <v>381.75</v>
       </c>
       <c r="G7" t="n">
-        <v>10080.12</v>
+        <v>9677.5</v>
       </c>
       <c r="H7" t="n">
-        <v>6564</v>
+        <v>6119</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -764,6 +822,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -787,21 +853,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.003726</v>
+        <v>0.003749</v>
       </c>
       <c r="F9" t="n">
-        <v>14194.93</v>
+        <v>14477.15</v>
       </c>
       <c r="G9" t="n">
-        <v>537626.26</v>
+        <v>539354.4300000001</v>
       </c>
       <c r="H9" t="n">
-        <v>3726039</v>
+        <v>3749359</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -826,21 +900,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.01555</v>
+        <v>0.01548</v>
       </c>
       <c r="F10" t="n">
-        <v>50695.03</v>
+        <v>45159.33</v>
       </c>
       <c r="G10" t="n">
-        <v>1989078.44</v>
+        <v>1984584.19</v>
       </c>
       <c r="H10" t="n">
-        <v>77798794</v>
+        <v>77435322</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -865,21 +947,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.0004736</v>
+        <v>0.0004504</v>
       </c>
       <c r="F11" t="n">
-        <v>8526.07</v>
+        <v>7909.81</v>
       </c>
       <c r="G11" t="n">
-        <v>82711.64</v>
+        <v>80799.14</v>
       </c>
       <c r="H11" t="n">
-        <v>338214</v>
+        <v>321675</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -904,21 +994,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8.111000000000001e-06</v>
+        <v>8.094000000000001e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>376.17</v>
+        <v>612.83</v>
       </c>
       <c r="G12" t="n">
-        <v>5714.17</v>
+        <v>5716.02</v>
       </c>
       <c r="H12" t="n">
-        <v>8112</v>
+        <v>8095</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -943,21 +1041,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8.765e-06</v>
+        <v>1.032e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>4772.9</v>
+        <v>2975.67</v>
       </c>
       <c r="G13" t="n">
-        <v>12334.21</v>
+        <v>13374.02</v>
       </c>
       <c r="H13" t="n">
-        <v>8762</v>
+        <v>10317</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -982,21 +1088,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.887e-05</v>
+        <v>4.826e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>23841.19</v>
+        <v>8491.57</v>
       </c>
       <c r="G14" t="n">
-        <v>28863.09</v>
+        <v>28708.51</v>
       </c>
       <c r="H14" t="n">
-        <v>48878</v>
+        <v>48270</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1037,6 +1151,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1060,21 +1182,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3.199e-05</v>
+        <v>3.092e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>3394.76</v>
+        <v>2944.06</v>
       </c>
       <c r="G16" t="n">
-        <v>22140.32</v>
+        <v>21795.37</v>
       </c>
       <c r="H16" t="n">
-        <v>31993</v>
+        <v>30926</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1099,21 +1229,29 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.771e-05</v>
+        <v>2.979e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>3064.45</v>
+        <v>2595.08</v>
       </c>
       <c r="G17" t="n">
-        <v>24165.35</v>
+        <v>25072.56</v>
       </c>
       <c r="H17" t="n">
-        <v>27715</v>
+        <v>29789</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1138,21 +1276,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.315e-05</v>
+        <v>1.334e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>4511.17</v>
+        <v>8403.99</v>
       </c>
       <c r="G18" t="n">
-        <v>15481.35</v>
+        <v>15613.15</v>
       </c>
       <c r="H18" t="n">
-        <v>13150</v>
+        <v>13347</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1177,21 +1323,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.002219</v>
+        <v>0.002165</v>
       </c>
       <c r="F19" t="n">
-        <v>74296.28</v>
+        <v>54874.03</v>
       </c>
       <c r="G19" t="n">
-        <v>201654.09</v>
+        <v>199407.33</v>
       </c>
       <c r="H19" t="n">
-        <v>2219839</v>
+        <v>2165020</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1216,21 +1370,29 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.001564</v>
+        <v>0.001507</v>
       </c>
       <c r="F20" t="n">
-        <v>166574.4</v>
+        <v>116236.85</v>
       </c>
       <c r="G20" t="n">
-        <v>188886.87</v>
+        <v>185690.09</v>
       </c>
       <c r="H20" t="n">
-        <v>1563775</v>
+        <v>1507679</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1255,21 +1417,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.0004767</v>
+        <v>0.0004706</v>
       </c>
       <c r="F21" t="n">
-        <v>149256.84</v>
+        <v>148055.68</v>
       </c>
       <c r="G21" t="n">
-        <v>125385.97</v>
+        <v>124623.89</v>
       </c>
       <c r="H21" t="n">
-        <v>476700</v>
+        <v>470575</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1294,21 +1464,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.002063</v>
+        <v>0.001793</v>
       </c>
       <c r="F22" t="n">
-        <v>1452578.39</v>
+        <v>1302307.25</v>
       </c>
       <c r="G22" t="n">
-        <v>236056.27</v>
+        <v>220653.01</v>
       </c>
       <c r="H22" t="n">
-        <v>1603514</v>
+        <v>1393574</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1333,21 +1511,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.362e-05</v>
+        <v>1.349e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>1252.56</v>
+        <v>1228.65</v>
       </c>
       <c r="G23" t="n">
-        <v>16329.19</v>
+        <v>16268.16</v>
       </c>
       <c r="H23" t="n">
-        <v>13381</v>
+        <v>13253</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1388,6 +1574,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1411,21 +1605,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.0007838</v>
+        <v>0.0007527</v>
       </c>
       <c r="F25" t="n">
-        <v>120914.05</v>
+        <v>93663.34</v>
       </c>
       <c r="G25" t="n">
-        <v>181844.76</v>
+        <v>178403.94</v>
       </c>
       <c r="H25" t="n">
-        <v>783870</v>
+        <v>752703</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1466,6 +1668,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1489,21 +1699,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.0001214</v>
+        <v>0.0001293</v>
       </c>
       <c r="F27" t="n">
-        <v>13882.23</v>
+        <v>8314.889999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>54055.4</v>
+        <v>55861.6</v>
       </c>
       <c r="H27" t="n">
-        <v>121363</v>
+        <v>129242</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1544,6 +1762,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1583,6 +1809,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1622,6 +1856,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1661,6 +1903,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1684,21 +1934,29 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="F32" t="n">
-        <v>148.72</v>
+        <v>139.13</v>
       </c>
       <c r="G32" t="n">
-        <v>2603982.57</v>
+        <v>2638336.47</v>
       </c>
       <c r="H32" t="n">
-        <v>24232529</v>
+        <v>24550708</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1739,6 +1997,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1778,6 +2044,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1817,6 +2091,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1856,6 +2138,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1879,21 +2169,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.825e-05</v>
+        <v>1.893e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>3468.94</v>
+        <v>2336.62</v>
       </c>
       <c r="G37" t="n">
-        <v>16887.13</v>
+        <v>17244.39</v>
       </c>
       <c r="H37" t="n">
-        <v>18158</v>
+        <v>18837</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1934,6 +2232,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1973,6 +2279,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2012,6 +2326,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2051,6 +2373,14 @@
           <t>none</t>
         </is>
       </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2074,21 +2404,29 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5.68e-06</v>
+        <v>5.677e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>17.3</v>
+        <v>219.97</v>
       </c>
       <c r="G42" t="n">
-        <v>9036.16</v>
+        <v>9022.209999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>5678</v>
+        <v>5675</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2113,21 +2451,29 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.924e-05</v>
+        <v>3.639e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>6888.29</v>
+        <v>6711.65</v>
       </c>
       <c r="G43" t="n">
-        <v>26239.13</v>
+        <v>25290.56</v>
       </c>
       <c r="H43" t="n">
-        <v>39242</v>
+        <v>36397</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2168,6 +2514,14 @@
           <t>dexscreener</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2207,6 +2561,14 @@
           <t>dexscreener</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2230,21 +2592,29 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.057e-05</v>
+        <v>3.048e-05</v>
       </c>
       <c r="F46" t="n">
-        <v>2793.7</v>
+        <v>2157.62</v>
       </c>
       <c r="G46" t="n">
-        <v>20937.82</v>
+        <v>20919.23</v>
       </c>
       <c r="H46" t="n">
-        <v>30575</v>
+        <v>30483</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2269,21 +2639,29 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.901e-06</v>
+        <v>4.93e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>100.29</v>
+        <v>101.27</v>
       </c>
       <c r="G47" t="n">
-        <v>8409.16</v>
+        <v>8456.75</v>
       </c>
       <c r="H47" t="n">
-        <v>4901</v>
+        <v>4931</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2311,7 +2689,7 @@
         <v>5.51e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>52.08</v>
+        <v>12.9</v>
       </c>
       <c r="G48" t="n">
         <v>9027.700000000001</v>
@@ -2324,6 +2702,14 @@
           <t>dexscreener</t>
         </is>
       </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2350,7 +2736,7 @@
         <v>5.551e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>259.26</v>
+        <v>237.84</v>
       </c>
       <c r="G49" t="n">
         <v>8933.969999999999</v>
@@ -2363,6 +2749,14 @@
           <t>dexscreener</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2386,21 +2780,29 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.762e-06</v>
+        <v>4.7e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>0.11</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>8815.77</v>
+        <v>8700.27</v>
       </c>
       <c r="H50" t="n">
-        <v>4762</v>
+        <v>4699</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2425,21 +2827,29 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5.45e-06</v>
+        <v>5.496e-06</v>
       </c>
       <c r="F51" t="n">
         <v>0.15</v>
       </c>
       <c r="G51" t="n">
-        <v>10424.01</v>
+        <v>10512.12</v>
       </c>
       <c r="H51" t="n">
-        <v>5448</v>
+        <v>5494</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>dexscreener</t>
         </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -505,7 +505,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -571,16 +571,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.91e-05</v>
+        <v>1.826e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>285.32</v>
+        <v>283.83</v>
       </c>
       <c r="G3" t="n">
-        <v>25043.61</v>
+        <v>24436.1</v>
       </c>
       <c r="H3" t="n">
-        <v>19104</v>
+        <v>18266</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7.847e-06</v>
+        <v>7.776e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>230.9</v>
+        <v>11.81</v>
       </c>
       <c r="G6" t="n">
-        <v>10758.08</v>
+        <v>10734.17</v>
       </c>
       <c r="H6" t="n">
-        <v>7844</v>
+        <v>7773</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -759,16 +759,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6.119e-06</v>
+        <v>6.166e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>381.75</v>
+        <v>152.21</v>
       </c>
       <c r="G7" t="n">
-        <v>9677.5</v>
+        <v>9758.469999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>6119</v>
+        <v>6167</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.003749</v>
+        <v>0.003768</v>
       </c>
       <c r="F9" t="n">
-        <v>14477.15</v>
+        <v>7388.42</v>
       </c>
       <c r="G9" t="n">
-        <v>539354.4300000001</v>
+        <v>539325.08</v>
       </c>
       <c r="H9" t="n">
-        <v>3749359</v>
+        <v>3768217</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -900,16 +900,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.01548</v>
+        <v>0.01528</v>
       </c>
       <c r="F10" t="n">
-        <v>45159.33</v>
+        <v>12797.21</v>
       </c>
       <c r="G10" t="n">
-        <v>1984584.19</v>
+        <v>1959646.06</v>
       </c>
       <c r="H10" t="n">
-        <v>77435322</v>
+        <v>76409647</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -947,16 +947,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.0004504</v>
+        <v>0.0004327</v>
       </c>
       <c r="F11" t="n">
-        <v>7909.81</v>
+        <v>2108.61</v>
       </c>
       <c r="G11" t="n">
-        <v>80799.14</v>
+        <v>78771.32000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>321675</v>
+        <v>309020</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -994,16 +994,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8.094000000000001e-06</v>
+        <v>5.216e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>612.83</v>
+        <v>1177.07</v>
       </c>
       <c r="G12" t="n">
-        <v>5716.02</v>
+        <v>4591.41</v>
       </c>
       <c r="H12" t="n">
-        <v>8095</v>
+        <v>5216</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1041,16 +1041,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.032e-05</v>
+        <v>7.762e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>2975.67</v>
+        <v>2547.84</v>
       </c>
       <c r="G13" t="n">
-        <v>13374.02</v>
+        <v>11553.06</v>
       </c>
       <c r="H13" t="n">
-        <v>10317</v>
+        <v>7759</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.826e-05</v>
+        <v>4.95e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>8491.57</v>
+        <v>8327.969999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>28708.51</v>
+        <v>29049.01</v>
       </c>
       <c r="H14" t="n">
-        <v>48270</v>
+        <v>49503</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1163,7 +1163,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1182,16 +1182,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3.092e-05</v>
+        <v>2.98e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>2944.06</v>
+        <v>891.04</v>
       </c>
       <c r="G16" t="n">
-        <v>21795.37</v>
+        <v>21340.56</v>
       </c>
       <c r="H16" t="n">
-        <v>30926</v>
+        <v>29808</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1229,16 +1229,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.979e-05</v>
+        <v>2.644e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>2595.08</v>
+        <v>1869.97</v>
       </c>
       <c r="G17" t="n">
-        <v>25072.56</v>
+        <v>23493.4</v>
       </c>
       <c r="H17" t="n">
-        <v>29789</v>
+        <v>26442</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1276,16 +1276,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.334e-05</v>
+        <v>1.245e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>8403.99</v>
+        <v>7554.03</v>
       </c>
       <c r="G18" t="n">
-        <v>15613.15</v>
+        <v>15005</v>
       </c>
       <c r="H18" t="n">
-        <v>13347</v>
+        <v>12455</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.002165</v>
+        <v>0.001994</v>
       </c>
       <c r="F19" t="n">
-        <v>54874.03</v>
+        <v>35091.84</v>
       </c>
       <c r="G19" t="n">
-        <v>199407.33</v>
+        <v>190581.55</v>
       </c>
       <c r="H19" t="n">
-        <v>2165020</v>
+        <v>1994992</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1370,16 +1370,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.001507</v>
+        <v>0.00137</v>
       </c>
       <c r="F20" t="n">
-        <v>116236.85</v>
+        <v>69006.14999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>185690.09</v>
+        <v>176169.18</v>
       </c>
       <c r="H20" t="n">
-        <v>1507679</v>
+        <v>1369922</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.0004706</v>
+        <v>0.0004403</v>
       </c>
       <c r="F21" t="n">
-        <v>148055.68</v>
+        <v>93739.56</v>
       </c>
       <c r="G21" t="n">
-        <v>124623.89</v>
+        <v>120150.22</v>
       </c>
       <c r="H21" t="n">
-        <v>470575</v>
+        <v>440268</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1464,16 +1464,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.001793</v>
+        <v>0.001543</v>
       </c>
       <c r="F22" t="n">
-        <v>1302307.25</v>
+        <v>792802.78</v>
       </c>
       <c r="G22" t="n">
-        <v>220653.01</v>
+        <v>205059.58</v>
       </c>
       <c r="H22" t="n">
-        <v>1393574</v>
+        <v>1199692</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1511,16 +1511,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.349e-05</v>
+        <v>1.541e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>1228.65</v>
+        <v>726.77</v>
       </c>
       <c r="G23" t="n">
-        <v>16268.16</v>
+        <v>17293.73</v>
       </c>
       <c r="H23" t="n">
-        <v>13253</v>
+        <v>15148</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1586,7 +1586,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1605,16 +1605,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.0007527</v>
+        <v>0.0007231</v>
       </c>
       <c r="F25" t="n">
-        <v>93663.34</v>
+        <v>61989.1</v>
       </c>
       <c r="G25" t="n">
-        <v>178403.94</v>
+        <v>174071.69</v>
       </c>
       <c r="H25" t="n">
-        <v>752703</v>
+        <v>723103</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1680,7 +1680,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.0001293</v>
+        <v>0.0001181</v>
       </c>
       <c r="F27" t="n">
-        <v>8314.889999999999</v>
+        <v>13738.92</v>
       </c>
       <c r="G27" t="n">
-        <v>55861.6</v>
+        <v>53336.84</v>
       </c>
       <c r="H27" t="n">
-        <v>129242</v>
+        <v>118069</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1774,7 +1774,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1868,7 +1868,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1915,7 +1915,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1934,16 +1934,16 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="F32" t="n">
-        <v>139.13</v>
+        <v>629.65</v>
       </c>
       <c r="G32" t="n">
-        <v>2638336.47</v>
+        <v>2594056.05</v>
       </c>
       <c r="H32" t="n">
-        <v>24550708</v>
+        <v>24133304</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2009,7 +2009,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2103,7 +2103,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2150,7 +2150,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2169,16 +2169,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.893e-05</v>
+        <v>1.701e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>2336.62</v>
+        <v>1335.83</v>
       </c>
       <c r="G37" t="n">
-        <v>17244.39</v>
+        <v>16249.92</v>
       </c>
       <c r="H37" t="n">
-        <v>18837</v>
+        <v>16925</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2216,25 +2216,25 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>5.864e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5864.93</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K38" t="n">
@@ -2244,7 +2244,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2291,7 +2291,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2338,7 +2338,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5.677e-06</v>
+        <v>5.735e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>219.97</v>
+        <v>213.28</v>
       </c>
       <c r="G42" t="n">
-        <v>9022.209999999999</v>
+        <v>9065.77</v>
       </c>
       <c r="H42" t="n">
-        <v>5675</v>
+        <v>5733</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2451,16 +2451,16 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.639e-05</v>
+        <v>3.927e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>6711.65</v>
+        <v>4270.63</v>
       </c>
       <c r="G43" t="n">
-        <v>25290.56</v>
+        <v>26131</v>
       </c>
       <c r="H43" t="n">
-        <v>36397</v>
+        <v>39270</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2498,25 +2498,25 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6.142e-06</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6142.25</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>dexscreener</t>
+          <t>none</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -2526,7 +2526,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2545,25 +2545,25 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.886e-06</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>7466.77</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>3884</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>dexscreener</t>
+          <t>none</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -2573,7 +2573,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2592,16 +2592,16 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.048e-05</v>
+        <v>2.956e-05</v>
       </c>
       <c r="F46" t="n">
-        <v>2157.62</v>
+        <v>621.5700000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>20919.23</v>
+        <v>20488.98</v>
       </c>
       <c r="H46" t="n">
-        <v>30483</v>
+        <v>29561</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2639,16 +2639,16 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.93e-06</v>
+        <v>4.893e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>101.27</v>
+        <v>7.37</v>
       </c>
       <c r="G47" t="n">
-        <v>8456.75</v>
+        <v>8398.870000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>4931</v>
+        <v>4893</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2686,25 +2686,25 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5.51e-06</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>9027.700000000001</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>5507</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>dexscreener</t>
+          <t>none</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -2714,7 +2714,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2733,25 +2733,25 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5.551e-06</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>237.84</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>8933.969999999999</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>5548</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>dexscreener</t>
+          <t>none</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -2761,7 +2761,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2780,16 +2780,16 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.7e-06</v>
+        <v>4.764e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.37</v>
       </c>
       <c r="G50" t="n">
-        <v>8700.27</v>
+        <v>8823.639999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>4699</v>
+        <v>4763</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5.496e-06</v>
+        <v>5.466e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="G51" t="n">
-        <v>10512.12</v>
+        <v>10454.08</v>
       </c>
       <c r="H51" t="n">
-        <v>5494</v>
+        <v>5464</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -510,39 +510,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>wSOL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Wrapped SOL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DHSZ2zaQ2mNtTJFXH3iNUG1oWXr6ZFj4TyfqVdexpump</t>
+          <t>So11111111111111111111111111111111111111112</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>207.33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>131062021.31</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>53758573.26</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -567,20 +567,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.826e-05</v>
+        <v>0.001608</v>
       </c>
       <c r="F3" t="n">
-        <v>283.83</v>
+        <v>671185</v>
       </c>
       <c r="G3" t="n">
-        <v>24436.1</v>
+        <v>213678</v>
       </c>
       <c r="H3" t="n">
-        <v>18266</v>
+        <v>1250368</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -614,29 +614,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7Rw4dgDuwESJEcCAbhxAghLcmkXM5QotupWq8PPc1UeC</t>
+          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.002652</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>337560.81</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>483698.31</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2651433</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -661,29 +661,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BMdxkiQTJbLjZF4on3ivYDibWVCMsriEHra469zM49hV</t>
+          <t>3vz82EWYv8xnc7Cm7qSgERcpMeqw92PcX8PBz88npump</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.0007033</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241693.96</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>167930.48</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>703233</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -708,20 +708,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7.776e-06</v>
+        <v>0.0005832</v>
       </c>
       <c r="F6" t="n">
-        <v>11.81</v>
+        <v>139841.69</v>
       </c>
       <c r="G6" t="n">
-        <v>10734.17</v>
+        <v>151467.95</v>
       </c>
       <c r="H6" t="n">
-        <v>7773</v>
+        <v>583233</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -755,20 +755,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6.166e-06</v>
+        <v>0.0004219</v>
       </c>
       <c r="F7" t="n">
-        <v>152.21</v>
+        <v>107391.27</v>
       </c>
       <c r="G7" t="n">
-        <v>9758.469999999999</v>
+        <v>120011.08</v>
       </c>
       <c r="H7" t="n">
-        <v>6167</v>
+        <v>421889</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -802,29 +802,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EFRoRp8wJsLy5kUZYSL95Tqp6ijVPsejWYMCn7ZjcG8L</t>
+          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.001317</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>90504.58</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>176068.08</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1317317</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -849,20 +849,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
+          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.003768</v>
+        <v>0.0004153</v>
       </c>
       <c r="F9" t="n">
-        <v>7388.42</v>
+        <v>78089.16</v>
       </c>
       <c r="G9" t="n">
-        <v>539325.08</v>
+        <v>92259.53999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>3768217</v>
+        <v>413964</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -896,20 +896,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+          <t>2UfyNHveDrYDogW1LypkworjhYVEte8tLDqRTZbguPLx</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.01528</v>
+        <v>0.001629</v>
       </c>
       <c r="F10" t="n">
-        <v>12797.21</v>
+        <v>75248.77</v>
       </c>
       <c r="G10" t="n">
-        <v>1959646.06</v>
+        <v>190774.71</v>
       </c>
       <c r="H10" t="n">
-        <v>76409647</v>
+        <v>1629933</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -943,20 +943,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.0004327</v>
+        <v>0.001859</v>
       </c>
       <c r="F11" t="n">
-        <v>2108.61</v>
+        <v>64579.14</v>
       </c>
       <c r="G11" t="n">
-        <v>78771.32000000001</v>
+        <v>187418.09</v>
       </c>
       <c r="H11" t="n">
-        <v>309020</v>
+        <v>1859995</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -990,20 +990,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.216e-06</v>
+        <v>0.0007766</v>
       </c>
       <c r="F12" t="n">
-        <v>1177.07</v>
+        <v>52950.14</v>
       </c>
       <c r="G12" t="n">
-        <v>4591.41</v>
+        <v>183874.6</v>
       </c>
       <c r="H12" t="n">
-        <v>5216</v>
+        <v>776639</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1037,20 +1037,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.762e-06</v>
+        <v>0.0001597</v>
       </c>
       <c r="F13" t="n">
-        <v>2547.84</v>
+        <v>45360.26</v>
       </c>
       <c r="G13" t="n">
-        <v>11553.06</v>
+        <v>49491.33</v>
       </c>
       <c r="H13" t="n">
-        <v>7759</v>
+        <v>159742</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1084,20 +1084,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.95e-05</v>
+        <v>8.243e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>8327.969999999999</v>
+        <v>38818.7</v>
       </c>
       <c r="G14" t="n">
-        <v>29049.01</v>
+        <v>42450.9</v>
       </c>
       <c r="H14" t="n">
-        <v>49503</v>
+        <v>82433</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1131,29 +1131,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2JaJ353mgRVrGbrxsvHr17hseGtf1kD4ixErXGcNP1LL</t>
+          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.0001508</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>27705.51</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>52283.39</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>150892</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1178,20 +1178,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.98e-05</v>
+        <v>0.0001499</v>
       </c>
       <c r="F16" t="n">
-        <v>891.04</v>
+        <v>23210.15</v>
       </c>
       <c r="G16" t="n">
-        <v>21340.56</v>
+        <v>55457.22</v>
       </c>
       <c r="H16" t="n">
-        <v>29808</v>
+        <v>145463</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1225,20 +1225,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.644e-05</v>
+        <v>0.01565</v>
       </c>
       <c r="F17" t="n">
-        <v>1869.97</v>
+        <v>18786.54</v>
       </c>
       <c r="G17" t="n">
-        <v>23493.4</v>
+        <v>2021987.69</v>
       </c>
       <c r="H17" t="n">
-        <v>26442</v>
+        <v>78256305</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1272,20 +1272,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LGiKAMtb4BuPdhpThjEbNWbDddqdM5FnxMMHqtzpump</t>
+          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.245e-05</v>
+        <v>0.000106</v>
       </c>
       <c r="F18" t="n">
-        <v>7554.03</v>
+        <v>17896.18</v>
       </c>
       <c r="G18" t="n">
-        <v>15005</v>
+        <v>53626.37</v>
       </c>
       <c r="H18" t="n">
-        <v>12455</v>
+        <v>105888</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1319,20 +1319,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.001994</v>
+        <v>0.0005542</v>
       </c>
       <c r="F19" t="n">
-        <v>35091.84</v>
+        <v>17048.81</v>
       </c>
       <c r="G19" t="n">
-        <v>190581.55</v>
+        <v>185358.39</v>
       </c>
       <c r="H19" t="n">
-        <v>1994992</v>
+        <v>554249</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1366,20 +1366,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.00137</v>
+        <v>0.0003053</v>
       </c>
       <c r="F20" t="n">
-        <v>69006.14999999999</v>
+        <v>12210.02</v>
       </c>
       <c r="G20" t="n">
-        <v>176169.18</v>
+        <v>71075.64999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1369922</v>
+        <v>305263</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1413,20 +1413,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.0004403</v>
+        <v>0.0001277</v>
       </c>
       <c r="F21" t="n">
-        <v>93739.56</v>
+        <v>11719.55</v>
       </c>
       <c r="G21" t="n">
-        <v>120150.22</v>
+        <v>56183.12</v>
       </c>
       <c r="H21" t="n">
-        <v>440268</v>
+        <v>127726</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1460,20 +1460,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
+          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.001543</v>
+        <v>0.00385</v>
       </c>
       <c r="F22" t="n">
-        <v>792802.78</v>
+        <v>10509.39</v>
       </c>
       <c r="G22" t="n">
-        <v>205059.58</v>
+        <v>553995.47</v>
       </c>
       <c r="H22" t="n">
-        <v>1199692</v>
+        <v>3850348</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1507,20 +1507,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.541e-05</v>
+        <v>0.0001798</v>
       </c>
       <c r="F23" t="n">
-        <v>726.77</v>
+        <v>7314.19</v>
       </c>
       <c r="G23" t="n">
-        <v>17293.73</v>
+        <v>91774.27</v>
       </c>
       <c r="H23" t="n">
-        <v>15148</v>
+        <v>179832</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1554,29 +1554,29 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7gdDoYLX33ZMh66Ut2teMgxqTeVYD5wYa29AHeHhQt9a</t>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1.203e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>5844.94</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>14176.25</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>11996</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1601,20 +1601,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.0007231</v>
+        <v>0.0002742</v>
       </c>
       <c r="F25" t="n">
-        <v>61989.1</v>
+        <v>5555.54</v>
       </c>
       <c r="G25" t="n">
-        <v>174071.69</v>
+        <v>63945.79</v>
       </c>
       <c r="H25" t="n">
-        <v>723103</v>
+        <v>274285</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1648,29 +1648,29 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2Jz5Wf6PGs4x1dJH4FvfMcgEERTmPadLBDsFmtyCpump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.0004921</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>4374.56</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>85525.23</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>351482</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1695,20 +1695,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.0001181</v>
+        <v>4.497e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>13738.92</v>
+        <v>4154.15</v>
       </c>
       <c r="G27" t="n">
-        <v>53336.84</v>
+        <v>27831.28</v>
       </c>
       <c r="H27" t="n">
-        <v>118069</v>
+        <v>44978</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1742,29 +1742,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5YsAgujq8omt58Acn94WNLqFuywBDy4JgW635xJspump</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.183e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3872.16</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>11923.77</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>11840</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>mDJpLmXubnSYmesFYSeYck9AxmA76rpn6nnAs9ppump</t>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.879e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3709.02</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>26391.69</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>38789</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -1826,39 +1826,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hcz9pkmcmxW4DWkz9CxDFz5Q2Kswkq1jTkjB9hVgJ4Kp</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1529.97</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2990.61</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>20811.94</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>24709085</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -1883,29 +1883,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8AgJibpuXYU79bMSzhBv9BCUioxYkoeRVDYz3Tjopump</t>
+          <t>LGiKAMtb4BuPdhpThjEbNWbDddqdM5FnxMMHqtzpump</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.281e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1938.11</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>15475.67</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>12813</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -1930,20 +1930,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
+          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.14</v>
+        <v>2.658e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>629.65</v>
+        <v>1529.3</v>
       </c>
       <c r="G32" t="n">
-        <v>2594056.05</v>
+        <v>20795.82</v>
       </c>
       <c r="H32" t="n">
-        <v>24133304</v>
+        <v>26317</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1977,29 +1977,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6EPZ1REL6fdby6GwbCJsFoU5EvHMaQJ9zjvwVYVpump</t>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1.599e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1516.53</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>16044.6</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>15906</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2024,29 +2024,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4Wt3BgMs8m1qiCcMXwSf2SC5gnJW6Adi7uq7cZTCpump</t>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.364e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1426.58</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>16572.63</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>13405</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2071,29 +2071,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>YzHXweqcZUNDko66bJpfqXyx7aPfiQnHGNiLCM8pump</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2.702e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1187.47</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>24197.39</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>27022</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2118,29 +2118,29 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3hiutVNCbwCY1vmoPKdXtMtuzg4epn1WzuU1jgpHpump</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1.423e-07</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1165.6</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>10940.63</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>9824</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -2165,20 +2165,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.701e-05</v>
+        <v>2.829e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>1335.83</v>
+        <v>1152.29</v>
       </c>
       <c r="G37" t="n">
-        <v>16249.92</v>
+        <v>20418.95</v>
       </c>
       <c r="H37" t="n">
-        <v>16925</v>
+        <v>28292</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2212,20 +2212,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6rhFUUZsUbjD4tSHrLetmCuvuM3L2ASTLEAgemZtpump</t>
+          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5.864e-06</v>
+        <v>1.18</v>
       </c>
       <c r="F38" t="n">
-        <v>4.95</v>
+        <v>888.89</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2680592.35</v>
       </c>
       <c r="H38" t="n">
-        <v>5864.93</v>
+        <v>24926825</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2259,29 +2259,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7gxdgFPkUQWL2FXJ4ThUPmRkzavB5PqBQHwAFKVYbonk</t>
+          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>8.073e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>872.05</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>11981.52</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>8071</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -2306,29 +2306,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HnhYV3WnVV5CMyJXLYWtPAmeYtCZHsdn8YCwyCCjpump</t>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3.063e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>657.45</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>21986.51</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>30630</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -2353,29 +2353,29 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TarDAwtsqWLJ213YunSa1Samp3QPuvvU9FXsLSEpump</t>
+          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>4.61e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>542.4400000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>8256.75</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>4610</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -2400,20 +2400,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5.735e-06</v>
+        <v>1.883e-05</v>
       </c>
       <c r="F42" t="n">
-        <v>213.28</v>
+        <v>468.89</v>
       </c>
       <c r="G42" t="n">
-        <v>9065.77</v>
+        <v>25197.89</v>
       </c>
       <c r="H42" t="n">
-        <v>5733</v>
+        <v>18830</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2447,20 +2447,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.927e-05</v>
+        <v>1.009e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>4270.63</v>
+        <v>391.69</v>
       </c>
       <c r="G43" t="n">
-        <v>26131</v>
+        <v>12971.75</v>
       </c>
       <c r="H43" t="n">
-        <v>39270</v>
+        <v>10095</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2494,29 +2494,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7oBcd1aAkUjUTcfZsR3rQvnG5oMPDzjX9uDnRVn6pump</t>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>5.696e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>4860.64</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5697</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -2541,29 +2541,29 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4w4Kj3PmKjJWpsBVCNPeziC2ySdJ6A7cPfqnhyXxpump</t>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>7.547e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>142.24</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10674.86</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>7543</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -2588,20 +2588,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+          <t>8D7n3WYZxUkmhUPveQU4XZdqLfDe4XLEEpPToAk4pump</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2.956e-05</v>
+        <v>5.984e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>621.5700000000001</v>
+        <v>103.97</v>
       </c>
       <c r="G46" t="n">
-        <v>20488.98</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>29561</v>
+        <v>5984.88</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2635,20 +2635,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>iD9FqgeKmp58a4pTvh45MtKkHkudKNptFRdR8m6pump</t>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.893e-06</v>
+        <v>6.085e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>7.37</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>8398.870000000001</v>
+        <v>9748.07</v>
       </c>
       <c r="H47" t="n">
-        <v>4893</v>
+        <v>6085</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2682,29 +2682,29 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4Xs7RvaV3nbWBvb6yWjxvwPKkBxefXe1bPJcvnVspump</t>
+          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>5.64e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>29.82</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>8990.33</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>5638</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -2729,29 +2729,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
+          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>4.74e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>25.13</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>7226.09</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>4740</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>dexscreener</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -2776,20 +2776,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>94bmDAx9PQUZoLCG97h7kCtm1T9uzZCThuUW1cUqAXZy</t>
+          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.764e-06</v>
+        <v>0.01246</v>
       </c>
       <c r="F50" t="n">
-        <v>3.37</v>
+        <v>16.25</v>
       </c>
       <c r="G50" t="n">
-        <v>8823.639999999999</v>
+        <v>7386.82</v>
       </c>
       <c r="H50" t="n">
-        <v>4763</v>
+        <v>12462</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2823,20 +2823,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4Y6HDaV4374KstQX8qD1L35WiQDwHZaHLez8xs6GrKcf</t>
+          <t>iD9FqgeKmp58a4pTvh45MtKkHkudKNptFRdR8m6pump</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5.466e-06</v>
+        <v>4.777e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>0.27</v>
+        <v>16.09</v>
       </c>
       <c r="G51" t="n">
-        <v>10454.08</v>
+        <v>8261.280000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>5464</v>
+        <v>4777</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -505,7 +505,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>207.33</v>
+        <v>208.59</v>
       </c>
       <c r="F2" t="n">
-        <v>131062021.31</v>
+        <v>145041225.73</v>
       </c>
       <c r="G2" t="n">
-        <v>53758573.26</v>
+        <v>53724975.43</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -552,7 +552,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -571,16 +571,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.001608</v>
+        <v>0.001573</v>
       </c>
       <c r="F3" t="n">
-        <v>671185</v>
+        <v>552077.41</v>
       </c>
       <c r="G3" t="n">
-        <v>213678</v>
+        <v>212449.52</v>
       </c>
       <c r="H3" t="n">
-        <v>1250368</v>
+        <v>1222781</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.002652</v>
+        <v>0.002683</v>
       </c>
       <c r="F4" t="n">
-        <v>337560.81</v>
+        <v>313022.87</v>
       </c>
       <c r="G4" t="n">
-        <v>483698.31</v>
+        <v>488671.09</v>
       </c>
       <c r="H4" t="n">
-        <v>2651433</v>
+        <v>2681704</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -646,7 +646,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.0007033</v>
+        <v>0.0005575000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>241693.96</v>
+        <v>185559.73</v>
       </c>
       <c r="G5" t="n">
-        <v>167930.48</v>
+        <v>150199.19</v>
       </c>
       <c r="H5" t="n">
-        <v>703233</v>
+        <v>557424</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -708,20 +708,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0005832</v>
+        <v>0.0004107</v>
       </c>
       <c r="F6" t="n">
-        <v>139841.69</v>
+        <v>154696.01</v>
       </c>
       <c r="G6" t="n">
-        <v>151467.95</v>
+        <v>118973.11</v>
       </c>
       <c r="H6" t="n">
-        <v>583233</v>
+        <v>410736</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -755,20 +755,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0004219</v>
+        <v>0.0004882</v>
       </c>
       <c r="F7" t="n">
-        <v>107391.27</v>
+        <v>144287.41</v>
       </c>
       <c r="G7" t="n">
-        <v>120011.08</v>
+        <v>139281.36</v>
       </c>
       <c r="H7" t="n">
-        <v>421889</v>
+        <v>488204</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -806,16 +806,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.001317</v>
+        <v>0.001315</v>
       </c>
       <c r="F8" t="n">
-        <v>90504.58</v>
+        <v>142690.71</v>
       </c>
       <c r="G8" t="n">
-        <v>176068.08</v>
+        <v>176788.18</v>
       </c>
       <c r="H8" t="n">
-        <v>1317317</v>
+        <v>1315601</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -849,20 +849,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
+          <t>2UfyNHveDrYDogW1LypkworjhYVEte8tLDqRTZbguPLx</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.0004153</v>
+        <v>0.001819</v>
       </c>
       <c r="F9" t="n">
-        <v>78089.16</v>
+        <v>125795.2</v>
       </c>
       <c r="G9" t="n">
-        <v>92259.53999999999</v>
+        <v>202747.8</v>
       </c>
       <c r="H9" t="n">
-        <v>413964</v>
+        <v>1819061</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -896,20 +896,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2UfyNHveDrYDogW1LypkworjhYVEte8tLDqRTZbguPLx</t>
+          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.001629</v>
+        <v>0.0005583</v>
       </c>
       <c r="F10" t="n">
-        <v>75248.77</v>
+        <v>92276.99000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>190774.71</v>
+        <v>105245.65</v>
       </c>
       <c r="H10" t="n">
-        <v>1629933</v>
+        <v>556466</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -947,16 +947,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.001859</v>
+        <v>0.001802</v>
       </c>
       <c r="F11" t="n">
-        <v>64579.14</v>
+        <v>83971.47</v>
       </c>
       <c r="G11" t="n">
-        <v>187418.09</v>
+        <v>185287.23</v>
       </c>
       <c r="H11" t="n">
-        <v>1859995</v>
+        <v>1802224</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -994,16 +994,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.0007766</v>
+        <v>0.0008881</v>
       </c>
       <c r="F12" t="n">
-        <v>52950.14</v>
+        <v>79747.91</v>
       </c>
       <c r="G12" t="n">
-        <v>183874.6</v>
+        <v>197436.38</v>
       </c>
       <c r="H12" t="n">
-        <v>776639</v>
+        <v>888137</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1037,20 +1037,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
+          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.0001597</v>
+        <v>0.0001189</v>
       </c>
       <c r="F13" t="n">
-        <v>45360.26</v>
+        <v>48244.3</v>
       </c>
       <c r="G13" t="n">
-        <v>49491.33</v>
+        <v>57148.44</v>
       </c>
       <c r="H13" t="n">
-        <v>159742</v>
+        <v>118760</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1084,20 +1084,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.243e-05</v>
+        <v>0.0001899</v>
       </c>
       <c r="F14" t="n">
-        <v>38818.7</v>
+        <v>46254.95</v>
       </c>
       <c r="G14" t="n">
-        <v>42450.9</v>
+        <v>54033.63</v>
       </c>
       <c r="H14" t="n">
-        <v>82433</v>
+        <v>189928</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1131,20 +1131,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0001508</v>
+        <v>0.0003006</v>
       </c>
       <c r="F15" t="n">
-        <v>27705.51</v>
+        <v>34688.03</v>
       </c>
       <c r="G15" t="n">
-        <v>52283.39</v>
+        <v>70932.71000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>150892</v>
+        <v>300646</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1178,20 +1178,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.0001499</v>
+        <v>0.01561</v>
       </c>
       <c r="F16" t="n">
-        <v>23210.15</v>
+        <v>30869.5</v>
       </c>
       <c r="G16" t="n">
-        <v>55457.22</v>
+        <v>2028704.42</v>
       </c>
       <c r="H16" t="n">
-        <v>145463</v>
+        <v>78080891</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1225,20 +1225,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.01565</v>
+        <v>9.123000000000001e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>18786.54</v>
+        <v>28771.97</v>
       </c>
       <c r="G17" t="n">
-        <v>2021987.69</v>
+        <v>44882.57</v>
       </c>
       <c r="H17" t="n">
-        <v>78256305</v>
+        <v>91229</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1272,20 +1272,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
+          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.000106</v>
+        <v>0.0001402</v>
       </c>
       <c r="F18" t="n">
-        <v>17896.18</v>
+        <v>24955.71</v>
       </c>
       <c r="G18" t="n">
-        <v>53626.37</v>
+        <v>50653.6</v>
       </c>
       <c r="H18" t="n">
-        <v>105888</v>
+        <v>140227</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1319,20 +1319,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.0005542</v>
+        <v>0.0001485</v>
       </c>
       <c r="F19" t="n">
-        <v>17048.81</v>
+        <v>23400.49</v>
       </c>
       <c r="G19" t="n">
-        <v>185358.39</v>
+        <v>55513.89</v>
       </c>
       <c r="H19" t="n">
-        <v>554249</v>
+        <v>144087</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1366,20 +1366,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.0003053</v>
+        <v>0.0005196000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>12210.02</v>
+        <v>14611.99</v>
       </c>
       <c r="G20" t="n">
-        <v>71075.64999999999</v>
+        <v>180243.83</v>
       </c>
       <c r="H20" t="n">
-        <v>305263</v>
+        <v>519645</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1413,20 +1413,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
+          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.0001277</v>
+        <v>0.003843</v>
       </c>
       <c r="F21" t="n">
-        <v>11719.55</v>
+        <v>12245.11</v>
       </c>
       <c r="G21" t="n">
-        <v>56183.12</v>
+        <v>556084.9300000001</v>
       </c>
       <c r="H21" t="n">
-        <v>127726</v>
+        <v>3843154</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1460,20 +1460,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.00385</v>
+        <v>0.0001759</v>
       </c>
       <c r="F22" t="n">
-        <v>10509.39</v>
+        <v>10514.78</v>
       </c>
       <c r="G22" t="n">
-        <v>553995.47</v>
+        <v>91162.82000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>3850348</v>
+        <v>175918</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1507,20 +1507,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.0001798</v>
+        <v>4.228e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>7314.19</v>
+        <v>8639.709999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>91774.27</v>
+        <v>27091.54</v>
       </c>
       <c r="H23" t="n">
-        <v>179832</v>
+        <v>42287</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1554,20 +1554,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.203e-05</v>
+        <v>0.0002897</v>
       </c>
       <c r="F24" t="n">
-        <v>5844.94</v>
+        <v>7982.32</v>
       </c>
       <c r="G24" t="n">
-        <v>14176.25</v>
+        <v>65917.89999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>11996</v>
+        <v>289798</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1601,20 +1601,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.0002742</v>
+        <v>0.0005211</v>
       </c>
       <c r="F25" t="n">
-        <v>5555.54</v>
+        <v>5451.82</v>
       </c>
       <c r="G25" t="n">
-        <v>63945.79</v>
+        <v>88426.64999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>274285</v>
+        <v>372177</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1648,20 +1648,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.0004921</v>
+        <v>0.0001331</v>
       </c>
       <c r="F26" t="n">
-        <v>4374.56</v>
+        <v>4520.26</v>
       </c>
       <c r="G26" t="n">
-        <v>85525.23</v>
+        <v>57725.3</v>
       </c>
       <c r="H26" t="n">
-        <v>351482</v>
+        <v>133037</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1695,20 +1695,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4.497e-05</v>
+        <v>1.164e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>4154.15</v>
+        <v>3411.79</v>
       </c>
       <c r="G27" t="n">
-        <v>27831.28</v>
+        <v>14087.13</v>
       </c>
       <c r="H27" t="n">
-        <v>44978</v>
+        <v>11610</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1742,20 +1742,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.183e-05</v>
+        <v>3.652e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>3872.16</v>
+        <v>3069.02</v>
       </c>
       <c r="G28" t="n">
-        <v>11923.77</v>
+        <v>25783.4</v>
       </c>
       <c r="H28" t="n">
-        <v>11840</v>
+        <v>36523</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1774,35 +1774,35 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.879e-05</v>
+        <v>1534.13</v>
       </c>
       <c r="F29" t="n">
-        <v>3709.02</v>
+        <v>3052.89</v>
       </c>
       <c r="G29" t="n">
-        <v>26391.69</v>
+        <v>20927.71</v>
       </c>
       <c r="H29" t="n">
-        <v>38789</v>
+        <v>24776305</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1821,35 +1821,35 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>LGiKAMtb4BuPdhpThjEbNWbDddqdM5FnxMMHqtzpump</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1529.97</v>
+        <v>1.151e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>2990.61</v>
+        <v>2858.96</v>
       </c>
       <c r="G30" t="n">
-        <v>20811.94</v>
+        <v>14760.12</v>
       </c>
       <c r="H30" t="n">
-        <v>24709085</v>
+        <v>11513</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1883,20 +1883,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LGiKAMtb4BuPdhpThjEbNWbDddqdM5FnxMMHqtzpump</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.281e-05</v>
+        <v>2.743e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>1938.11</v>
+        <v>2720.45</v>
       </c>
       <c r="G31" t="n">
-        <v>15475.67</v>
+        <v>24490.89</v>
       </c>
       <c r="H31" t="n">
-        <v>12813</v>
+        <v>27434</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1930,20 +1930,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
+          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.658e-05</v>
+        <v>3.348e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>1529.3</v>
+        <v>2551.2</v>
       </c>
       <c r="G32" t="n">
-        <v>20795.82</v>
+        <v>22322.38</v>
       </c>
       <c r="H32" t="n">
-        <v>26317</v>
+        <v>33481</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1977,20 +1977,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.599e-05</v>
+        <v>1.189e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>1516.53</v>
+        <v>2302.48</v>
       </c>
       <c r="G33" t="n">
-        <v>16044.6</v>
+        <v>11951.64</v>
       </c>
       <c r="H33" t="n">
-        <v>15906</v>
+        <v>11894</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2024,20 +2024,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1.364e-05</v>
+        <v>2.641e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>1426.58</v>
+        <v>2104.89</v>
       </c>
       <c r="G34" t="n">
-        <v>16572.63</v>
+        <v>20890.58</v>
       </c>
       <c r="H34" t="n">
-        <v>13405</v>
+        <v>26143</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2071,20 +2071,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.702e-05</v>
+        <v>4.896e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>1187.47</v>
+        <v>1801.61</v>
       </c>
       <c r="G35" t="n">
-        <v>24197.39</v>
+        <v>8547.309999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>27022</v>
+        <v>4895</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2118,20 +2118,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.423e-07</v>
+        <v>1.862e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>1165.6</v>
+        <v>1790.89</v>
       </c>
       <c r="G36" t="n">
-        <v>10940.63</v>
+        <v>17391.74</v>
       </c>
       <c r="H36" t="n">
-        <v>9824</v>
+        <v>18528</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2165,20 +2165,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.829e-05</v>
+        <v>1.229e-07</v>
       </c>
       <c r="F37" t="n">
-        <v>1152.29</v>
+        <v>1575.01</v>
       </c>
       <c r="G37" t="n">
-        <v>20418.95</v>
+        <v>10193.12</v>
       </c>
       <c r="H37" t="n">
-        <v>28292</v>
+        <v>8487</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2212,20 +2212,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
+          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.18</v>
+        <v>8.355999999999999e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>888.89</v>
+        <v>1298.42</v>
       </c>
       <c r="G38" t="n">
-        <v>2680592.35</v>
+        <v>12263</v>
       </c>
       <c r="H38" t="n">
-        <v>24926825</v>
+        <v>8353</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2259,20 +2259,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>8.073e-06</v>
+        <v>1.21</v>
       </c>
       <c r="F39" t="n">
-        <v>872.05</v>
+        <v>1035.12</v>
       </c>
       <c r="G39" t="n">
-        <v>11981.52</v>
+        <v>2731801.19</v>
       </c>
       <c r="H39" t="n">
-        <v>8071</v>
+        <v>25451264</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3.063e-05</v>
+        <v>1.378e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>657.45</v>
+        <v>1029.84</v>
       </c>
       <c r="G40" t="n">
-        <v>21986.51</v>
+        <v>16734.48</v>
       </c>
       <c r="H40" t="n">
-        <v>30630</v>
+        <v>13541</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2353,20 +2353,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4.61e-06</v>
+        <v>3.081e-05</v>
       </c>
       <c r="F41" t="n">
-        <v>542.4400000000001</v>
+        <v>556.33</v>
       </c>
       <c r="G41" t="n">
-        <v>8256.75</v>
+        <v>22064.03</v>
       </c>
       <c r="H41" t="n">
-        <v>4610</v>
+        <v>30818</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.883e-05</v>
+        <v>1.845e-05</v>
       </c>
       <c r="F42" t="n">
-        <v>468.89</v>
+        <v>513.33</v>
       </c>
       <c r="G42" t="n">
-        <v>25197.89</v>
+        <v>25059.06</v>
       </c>
       <c r="H42" t="n">
-        <v>18830</v>
+        <v>18447</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2451,16 +2451,16 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.009e-05</v>
+        <v>9.305e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>391.69</v>
+        <v>417.55</v>
       </c>
       <c r="G43" t="n">
-        <v>12971.75</v>
+        <v>12510.17</v>
       </c>
       <c r="H43" t="n">
-        <v>10095</v>
+        <v>9305</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2498,16 +2498,16 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5.696e-06</v>
+        <v>5.189e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>361</v>
+        <v>234.89</v>
       </c>
       <c r="G44" t="n">
-        <v>4860.64</v>
+        <v>4669.96</v>
       </c>
       <c r="H44" t="n">
-        <v>5697</v>
+        <v>5190</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>7.547e-06</v>
+        <v>7.669999999999999e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>142.24</v>
+        <v>165.21</v>
       </c>
       <c r="G45" t="n">
-        <v>10674.86</v>
+        <v>10821.66</v>
       </c>
       <c r="H45" t="n">
-        <v>7543</v>
+        <v>7666</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2588,20 +2588,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8D7n3WYZxUkmhUPveQU4XZdqLfDe4XLEEpPToAk4pump</t>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.984e-06</v>
+        <v>6.143e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>103.97</v>
+        <v>94.36</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>9871.129999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>5984.88</v>
+        <v>6143</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2635,20 +2635,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.085e-06</v>
+        <v>9.095e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>87.95999999999999</v>
+        <v>48.16</v>
       </c>
       <c r="G47" t="n">
-        <v>9748.07</v>
+        <v>11995.44</v>
       </c>
       <c r="H47" t="n">
-        <v>6085</v>
+        <v>9093</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2682,20 +2682,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
+          <t>4bLnK5YuJaqkVX4uWtJ1Qtx3XoZ8eHH37STXSwujpump</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5.64e-06</v>
+        <v>9.004999999999999e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>29.82</v>
+        <v>48.09</v>
       </c>
       <c r="G48" t="n">
-        <v>8990.33</v>
+        <v>13248.38</v>
       </c>
       <c r="H48" t="n">
-        <v>5638</v>
+        <v>8916</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2729,20 +2729,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
+          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4.74e-06</v>
+        <v>5.782e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>25.13</v>
+        <v>29.95</v>
       </c>
       <c r="G49" t="n">
-        <v>7226.09</v>
+        <v>9246.780000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>4740</v>
+        <v>5780</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2780,16 +2780,16 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.01246</v>
+        <v>0.01293</v>
       </c>
       <c r="F50" t="n">
-        <v>16.25</v>
+        <v>25.78</v>
       </c>
       <c r="G50" t="n">
-        <v>7386.82</v>
+        <v>7645.7</v>
       </c>
       <c r="H50" t="n">
-        <v>12462</v>
+        <v>12932</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2823,20 +2823,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>iD9FqgeKmp58a4pTvh45MtKkHkudKNptFRdR8m6pump</t>
+          <t>8D7n3WYZxUkmhUPveQU4XZdqLfDe4XLEEpPToAk4pump</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4.777e-06</v>
+        <v>5.984e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>16.09</v>
+        <v>24.38</v>
       </c>
       <c r="G51" t="n">
-        <v>8261.280000000001</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>4777</v>
+        <v>5984.88</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>208.59</v>
+        <v>208.0059</v>
       </c>
       <c r="F2" t="n">
-        <v>145041225.73</v>
+        <v>143937363.5</v>
       </c>
       <c r="G2" t="n">
-        <v>53724975.43</v>
+        <v>53628766.63</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -571,16 +571,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.001573</v>
+        <v>0.001557</v>
       </c>
       <c r="F3" t="n">
-        <v>552077.41</v>
+        <v>539500.13</v>
       </c>
       <c r="G3" t="n">
-        <v>212449.52</v>
+        <v>211069.92</v>
       </c>
       <c r="H3" t="n">
-        <v>1222781</v>
+        <v>1210474</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.002683</v>
+        <v>0.002732</v>
       </c>
       <c r="F4" t="n">
-        <v>313022.87</v>
+        <v>312857.54</v>
       </c>
       <c r="G4" t="n">
-        <v>488671.09</v>
+        <v>492384.16</v>
       </c>
       <c r="H4" t="n">
-        <v>2681704</v>
+        <v>2731131</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.0005575000000000001</v>
+        <v>0.0005739</v>
       </c>
       <c r="F5" t="n">
-        <v>185559.73</v>
+        <v>173195.88</v>
       </c>
       <c r="G5" t="n">
-        <v>150199.19</v>
+        <v>152151.04</v>
       </c>
       <c r="H5" t="n">
-        <v>557424</v>
+        <v>573851</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0004107</v>
+        <v>0.0004066</v>
       </c>
       <c r="F6" t="n">
-        <v>154696.01</v>
+        <v>160096.31</v>
       </c>
       <c r="G6" t="n">
-        <v>118973.11</v>
+        <v>118202.66</v>
       </c>
       <c r="H6" t="n">
-        <v>410736</v>
+        <v>406644</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -759,16 +759,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0004882</v>
+        <v>0.0004851</v>
       </c>
       <c r="F7" t="n">
-        <v>144287.41</v>
+        <v>142894.43</v>
       </c>
       <c r="G7" t="n">
-        <v>139281.36</v>
+        <v>138566.22</v>
       </c>
       <c r="H7" t="n">
-        <v>488204</v>
+        <v>485164</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -806,16 +806,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.001315</v>
+        <v>0.001312</v>
       </c>
       <c r="F8" t="n">
-        <v>142690.71</v>
+        <v>141099.48</v>
       </c>
       <c r="G8" t="n">
-        <v>176788.18</v>
+        <v>176282.53</v>
       </c>
       <c r="H8" t="n">
-        <v>1315601</v>
+        <v>1311940</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.001819</v>
+        <v>0.001815</v>
       </c>
       <c r="F9" t="n">
-        <v>125795.2</v>
+        <v>128321.97</v>
       </c>
       <c r="G9" t="n">
-        <v>202747.8</v>
+        <v>201719.58</v>
       </c>
       <c r="H9" t="n">
-        <v>1819061</v>
+        <v>1815496</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -900,16 +900,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0005583</v>
+        <v>0.0005339</v>
       </c>
       <c r="F10" t="n">
-        <v>92276.99000000001</v>
+        <v>95971.5</v>
       </c>
       <c r="G10" t="n">
-        <v>105245.65</v>
+        <v>103190.58</v>
       </c>
       <c r="H10" t="n">
-        <v>556466</v>
+        <v>532134</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -943,20 +943,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.001802</v>
+        <v>0.0009149</v>
       </c>
       <c r="F11" t="n">
-        <v>83971.47</v>
+        <v>85218.3</v>
       </c>
       <c r="G11" t="n">
-        <v>185287.23</v>
+        <v>200026.47</v>
       </c>
       <c r="H11" t="n">
-        <v>1802224</v>
+        <v>914968</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -990,20 +990,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.0008881</v>
+        <v>0.001795</v>
       </c>
       <c r="F12" t="n">
-        <v>79747.91</v>
+        <v>83450.66</v>
       </c>
       <c r="G12" t="n">
-        <v>197436.38</v>
+        <v>184615.02</v>
       </c>
       <c r="H12" t="n">
-        <v>888137</v>
+        <v>1795685</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1041,16 +1041,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.0001189</v>
+        <v>0.0001143</v>
       </c>
       <c r="F13" t="n">
-        <v>48244.3</v>
+        <v>49400.95</v>
       </c>
       <c r="G13" t="n">
-        <v>57148.44</v>
+        <v>55914.66</v>
       </c>
       <c r="H13" t="n">
-        <v>118760</v>
+        <v>114196</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0001899</v>
+        <v>0.00019</v>
       </c>
       <c r="F14" t="n">
-        <v>46254.95</v>
+        <v>45998.17</v>
       </c>
       <c r="G14" t="n">
-        <v>54033.63</v>
+        <v>54055.75</v>
       </c>
       <c r="H14" t="n">
-        <v>189928</v>
+        <v>190079</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0003006</v>
+        <v>0.0003005</v>
       </c>
       <c r="F15" t="n">
-        <v>34688.03</v>
+        <v>35222.7</v>
       </c>
       <c r="G15" t="n">
-        <v>70932.71000000001</v>
+        <v>70760.28</v>
       </c>
       <c r="H15" t="n">
-        <v>300646</v>
+        <v>300452</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1182,16 +1182,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.01561</v>
+        <v>0.01559</v>
       </c>
       <c r="F16" t="n">
-        <v>30869.5</v>
+        <v>31933.39</v>
       </c>
       <c r="G16" t="n">
-        <v>2028704.42</v>
+        <v>2023203.66</v>
       </c>
       <c r="H16" t="n">
-        <v>78080891</v>
+        <v>77971114</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1229,16 +1229,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.123000000000001e-05</v>
+        <v>9.316e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>28771.97</v>
+        <v>28827.74</v>
       </c>
       <c r="G17" t="n">
-        <v>44882.57</v>
+        <v>45246.08</v>
       </c>
       <c r="H17" t="n">
-        <v>91229</v>
+        <v>93160</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>0.0001402</v>
       </c>
       <c r="F18" t="n">
-        <v>24955.71</v>
+        <v>24901.83</v>
       </c>
       <c r="G18" t="n">
         <v>50653.6</v>
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.0001485</v>
+        <v>0.0001436</v>
       </c>
       <c r="F19" t="n">
-        <v>23400.49</v>
+        <v>23829.8</v>
       </c>
       <c r="G19" t="n">
-        <v>55513.89</v>
+        <v>54474.71</v>
       </c>
       <c r="H19" t="n">
-        <v>144087</v>
+        <v>139349</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1370,16 +1370,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.0005196000000000001</v>
+        <v>0.0005204</v>
       </c>
       <c r="F20" t="n">
-        <v>14611.99</v>
+        <v>15132.28</v>
       </c>
       <c r="G20" t="n">
-        <v>180243.83</v>
+        <v>180016.01</v>
       </c>
       <c r="H20" t="n">
-        <v>519645</v>
+        <v>520417</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.003843</v>
+        <v>0.003822</v>
       </c>
       <c r="F21" t="n">
-        <v>12245.11</v>
+        <v>12626.93</v>
       </c>
       <c r="G21" t="n">
-        <v>556084.9300000001</v>
+        <v>553857.21</v>
       </c>
       <c r="H21" t="n">
-        <v>3843154</v>
+        <v>3822475</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1464,16 +1464,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.0001759</v>
+        <v>0.0001744</v>
       </c>
       <c r="F22" t="n">
-        <v>10514.78</v>
+        <v>10302.85</v>
       </c>
       <c r="G22" t="n">
-        <v>91162.82000000001</v>
+        <v>90539.23</v>
       </c>
       <c r="H22" t="n">
-        <v>175918</v>
+        <v>174373</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1511,16 +1511,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.228e-05</v>
+        <v>4.515e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>8639.709999999999</v>
+        <v>8700.93</v>
       </c>
       <c r="G23" t="n">
-        <v>27091.54</v>
+        <v>27901.09</v>
       </c>
       <c r="H23" t="n">
-        <v>42287</v>
+        <v>45159</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1554,20 +1554,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.0002897</v>
+        <v>0.0005791</v>
       </c>
       <c r="F24" t="n">
-        <v>7982.32</v>
+        <v>7931.15</v>
       </c>
       <c r="G24" t="n">
-        <v>65917.89999999999</v>
+        <v>93037.33</v>
       </c>
       <c r="H24" t="n">
-        <v>289798</v>
+        <v>413585</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1601,20 +1601,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.0005211</v>
+        <v>0.0002897</v>
       </c>
       <c r="F25" t="n">
-        <v>5451.82</v>
+        <v>7866.93</v>
       </c>
       <c r="G25" t="n">
-        <v>88426.64999999999</v>
+        <v>65917.89999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>372177</v>
+        <v>289798</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>0.0001331</v>
       </c>
       <c r="F26" t="n">
-        <v>4520.26</v>
+        <v>4422.08</v>
       </c>
       <c r="G26" t="n">
         <v>57725.3</v>
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.164e-05</v>
+        <v>1.185e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>3411.79</v>
+        <v>3529.2</v>
       </c>
       <c r="G27" t="n">
-        <v>14087.13</v>
+        <v>14171.44</v>
       </c>
       <c r="H27" t="n">
-        <v>11610</v>
+        <v>11813</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1732,30 +1732,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.652e-05</v>
+        <v>1534.13</v>
       </c>
       <c r="F28" t="n">
-        <v>3069.02</v>
+        <v>3052.89</v>
       </c>
       <c r="G28" t="n">
-        <v>25783.4</v>
+        <v>20927.71</v>
       </c>
       <c r="H28" t="n">
-        <v>36523</v>
+        <v>24776305</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1779,30 +1779,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1534.13</v>
+        <v>3.652e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>3052.89</v>
+        <v>3044.19</v>
       </c>
       <c r="G29" t="n">
-        <v>20927.71</v>
+        <v>25783.4</v>
       </c>
       <c r="H29" t="n">
-        <v>24776305</v>
+        <v>36523</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1836,20 +1836,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LGiKAMtb4BuPdhpThjEbNWbDddqdM5FnxMMHqtzpump</t>
+          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.151e-05</v>
+        <v>3.301e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>2858.96</v>
+        <v>2802.47</v>
       </c>
       <c r="G30" t="n">
-        <v>14760.12</v>
+        <v>22113.77</v>
       </c>
       <c r="H30" t="n">
-        <v>11513</v>
+        <v>33009</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1930,20 +1930,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.348e-05</v>
+        <v>1.229e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>2551.2</v>
+        <v>2381.44</v>
       </c>
       <c r="G32" t="n">
-        <v>22322.38</v>
+        <v>12150.69</v>
       </c>
       <c r="H32" t="n">
-        <v>33481</v>
+        <v>12293</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1977,20 +1977,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+          <t>LGiKAMtb4BuPdhpThjEbNWbDddqdM5FnxMMHqtzpump</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.189e-05</v>
+        <v>1.178e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>2302.48</v>
+        <v>2311.04</v>
       </c>
       <c r="G33" t="n">
-        <v>11951.64</v>
+        <v>14927.01</v>
       </c>
       <c r="H33" t="n">
-        <v>11894</v>
+        <v>11785</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>2.641e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>2104.89</v>
+        <v>1942.53</v>
       </c>
       <c r="G34" t="n">
         <v>20890.58</v>
@@ -2169,16 +2169,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.229e-07</v>
+        <v>1.221e-07</v>
       </c>
       <c r="F37" t="n">
-        <v>1575.01</v>
+        <v>1592.3</v>
       </c>
       <c r="G37" t="n">
-        <v>10193.12</v>
+        <v>10158.54</v>
       </c>
       <c r="H37" t="n">
-        <v>8487</v>
+        <v>8428</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>3.081e-05</v>
       </c>
       <c r="F41" t="n">
-        <v>556.33</v>
+        <v>556.26</v>
       </c>
       <c r="G41" t="n">
         <v>22064.03</v>
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>7.669999999999999e-06</v>
+        <v>7.649000000000001e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>165.21</v>
+        <v>166.2</v>
       </c>
       <c r="G45" t="n">
-        <v>10821.66</v>
+        <v>10795.57</v>
       </c>
       <c r="H45" t="n">
-        <v>7666</v>
+        <v>7646</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
+          <t>BiTXcnGHmSvX6pwhZPmhsctjG3NjzMbTXtM2b7h5nDZC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5.782e-06</v>
+        <v>1.442e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>29.95</v>
+        <v>31.3</v>
       </c>
       <c r="G49" t="n">
-        <v>9246.780000000001</v>
+        <v>2834.14</v>
       </c>
       <c r="H49" t="n">
-        <v>5780</v>
+        <v>1442</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2776,20 +2776,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
+          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.01293</v>
+        <v>5.782e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>25.78</v>
+        <v>29.95</v>
       </c>
       <c r="G50" t="n">
-        <v>7645.7</v>
+        <v>9246.780000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>12932</v>
+        <v>5780</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>208.0059</v>
+        <v>207.54</v>
       </c>
       <c r="F2" t="n">
-        <v>143937363.5</v>
+        <v>144506624.87</v>
       </c>
       <c r="G2" t="n">
-        <v>53628766.63</v>
+        <v>53344025.48</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -557,12 +557,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Just Elizabeth Cat</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -571,16 +571,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.001557</v>
+        <v>0.001568</v>
       </c>
       <c r="F3" t="n">
-        <v>539500.13</v>
+        <v>521067.28</v>
       </c>
       <c r="G3" t="n">
-        <v>211069.92</v>
+        <v>211696.44</v>
       </c>
       <c r="H3" t="n">
-        <v>1210474</v>
+        <v>1219193</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -604,12 +604,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>XBT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>XBT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.002732</v>
+        <v>0.002555</v>
       </c>
       <c r="F4" t="n">
-        <v>312857.54</v>
+        <v>283020.61</v>
       </c>
       <c r="G4" t="n">
-        <v>492384.16</v>
+        <v>475779.51</v>
       </c>
       <c r="H4" t="n">
-        <v>2731131</v>
+        <v>2554143</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -651,30 +651,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>AI4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>AI⁴</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3vz82EWYv8xnc7Cm7qSgERcpMeqw92PcX8PBz88npump</t>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.0005739</v>
+        <v>0.0004034</v>
       </c>
       <c r="F5" t="n">
-        <v>173195.88</v>
+        <v>173874.19</v>
       </c>
       <c r="G5" t="n">
-        <v>152151.04</v>
+        <v>117653.57</v>
       </c>
       <c r="H5" t="n">
-        <v>573851</v>
+        <v>403457</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -698,30 +698,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>T-2049</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Token 2049</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>2UfyNHveDrYDogW1LypkworjhYVEte8tLDqRTZbguPLx</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0004066</v>
+        <v>0.0019</v>
       </c>
       <c r="F6" t="n">
-        <v>160096.31</v>
+        <v>164467.21</v>
       </c>
       <c r="G6" t="n">
-        <v>118202.66</v>
+        <v>206230.09</v>
       </c>
       <c r="H6" t="n">
-        <v>406644</v>
+        <v>1900200</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -745,12 +745,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>CHARLIE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>RIP CHARLIE KIRK</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -759,16 +759,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0004851</v>
+        <v>0.0005004</v>
       </c>
       <c r="F7" t="n">
-        <v>142894.43</v>
+        <v>149764.64</v>
       </c>
       <c r="G7" t="n">
-        <v>138566.22</v>
+        <v>140573.37</v>
       </c>
       <c r="H7" t="n">
-        <v>485164</v>
+        <v>500416</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -792,12 +792,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>RAGEGUY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Rage Guy</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -806,16 +806,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.001312</v>
+        <v>0.00133</v>
       </c>
       <c r="F8" t="n">
-        <v>141099.48</v>
+        <v>142826.37</v>
       </c>
       <c r="G8" t="n">
-        <v>176282.53</v>
+        <v>177278.83</v>
       </c>
       <c r="H8" t="n">
-        <v>1311940</v>
+        <v>1330012</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -839,30 +839,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>USDUT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>unstable tether</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2UfyNHveDrYDogW1LypkworjhYVEte8tLDqRTZbguPLx</t>
+          <t>3vz82EWYv8xnc7Cm7qSgERcpMeqw92PcX8PBz88npump</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.001815</v>
+        <v>0.0005819</v>
       </c>
       <c r="F9" t="n">
-        <v>128321.97</v>
+        <v>141408.02</v>
       </c>
       <c r="G9" t="n">
-        <v>201719.58</v>
+        <v>152977.3</v>
       </c>
       <c r="H9" t="n">
-        <v>1815496</v>
+        <v>581787</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -886,12 +886,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>CRND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Crundle</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -900,16 +900,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0005339</v>
+        <v>0.0005435</v>
       </c>
       <c r="F10" t="n">
-        <v>95971.5</v>
+        <v>114461.75</v>
       </c>
       <c r="G10" t="n">
-        <v>103190.58</v>
+        <v>104000.44</v>
       </c>
       <c r="H10" t="n">
-        <v>532134</v>
+        <v>541704</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -933,12 +933,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FARTLESS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FARTLESS COIN</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -947,16 +947,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.0009149</v>
+        <v>0.0008816</v>
       </c>
       <c r="F11" t="n">
-        <v>85218.3</v>
+        <v>89874.60000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>200026.47</v>
+        <v>196176.19</v>
       </c>
       <c r="H11" t="n">
-        <v>914968</v>
+        <v>881691</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -980,12 +980,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>DREAM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Dreamsync</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -994,16 +994,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.001795</v>
+        <v>0.001718</v>
       </c>
       <c r="F12" t="n">
-        <v>83450.66</v>
+        <v>85212.24000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>184615.02</v>
+        <v>180439.13</v>
       </c>
       <c r="H12" t="n">
-        <v>1795685</v>
+        <v>1718936</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>67coin</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1041,16 +1041,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.0001143</v>
+        <v>0.0001142</v>
       </c>
       <c r="F13" t="n">
-        <v>49400.95</v>
+        <v>53436.39</v>
       </c>
       <c r="G13" t="n">
-        <v>55914.66</v>
+        <v>55833.12</v>
       </c>
       <c r="H13" t="n">
-        <v>114196</v>
+        <v>114079</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1074,12 +1074,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1nu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1nu</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.00019</v>
+        <v>0.0001659</v>
       </c>
       <c r="F14" t="n">
-        <v>45998.17</v>
+        <v>49258.45</v>
       </c>
       <c r="G14" t="n">
-        <v>54055.75</v>
+        <v>50516.97</v>
       </c>
       <c r="H14" t="n">
-        <v>190079</v>
+        <v>165909</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>early</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>not wrong just early</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0003005</v>
+        <v>0.0003064</v>
       </c>
       <c r="F15" t="n">
-        <v>35222.7</v>
+        <v>36584.49</v>
       </c>
       <c r="G15" t="n">
-        <v>70760.28</v>
+        <v>71373.13</v>
       </c>
       <c r="H15" t="n">
-        <v>300452</v>
+        <v>306377</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1168,12 +1168,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>LION</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Loaded Lions</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1182,16 +1182,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.01559</v>
+        <v>0.01551</v>
       </c>
       <c r="F16" t="n">
-        <v>31933.39</v>
+        <v>35170.11</v>
       </c>
       <c r="G16" t="n">
-        <v>2023203.66</v>
+        <v>2013161.17</v>
       </c>
       <c r="H16" t="n">
-        <v>77971114</v>
+        <v>77567107</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1215,12 +1215,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Useless</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Useless Coin</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1229,16 +1229,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.316e-05</v>
+        <v>8.499e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>28827.74</v>
+        <v>28755.78</v>
       </c>
       <c r="G17" t="n">
-        <v>45246.08</v>
+        <v>43110.84</v>
       </c>
       <c r="H17" t="n">
-        <v>93160</v>
+        <v>84988</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1262,12 +1262,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>walkusa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>WALKING ACROSS AMERICA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1276,16 +1276,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.0001402</v>
+        <v>0.00014</v>
       </c>
       <c r="F18" t="n">
-        <v>24901.83</v>
+        <v>25075.48</v>
       </c>
       <c r="G18" t="n">
-        <v>50653.6</v>
+        <v>50402.34</v>
       </c>
       <c r="H18" t="n">
-        <v>140227</v>
+        <v>140036</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1309,30 +1309,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.0001436</v>
+        <v>0.0005155</v>
       </c>
       <c r="F19" t="n">
-        <v>23829.8</v>
+        <v>17064.78</v>
       </c>
       <c r="G19" t="n">
-        <v>54474.71</v>
+        <v>178704.87</v>
       </c>
       <c r="H19" t="n">
-        <v>139349</v>
+        <v>515520</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1356,30 +1356,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>VIBECODER</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Vibe Coding Meta</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.0005204</v>
+        <v>0.0001356</v>
       </c>
       <c r="F20" t="n">
-        <v>15132.28</v>
+        <v>16166.26</v>
       </c>
       <c r="G20" t="n">
-        <v>180016.01</v>
+        <v>52796.41</v>
       </c>
       <c r="H20" t="n">
-        <v>520417</v>
+        <v>131600</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1403,12 +1403,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>HAROLD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Harold</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.003822</v>
+        <v>0.003819</v>
       </c>
       <c r="F21" t="n">
-        <v>12626.93</v>
+        <v>13436.62</v>
       </c>
       <c r="G21" t="n">
-        <v>553857.21</v>
+        <v>551984.9399999999</v>
       </c>
       <c r="H21" t="n">
-        <v>3822475</v>
+        <v>3819193</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1450,30 +1450,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>RUECAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Rue Cat</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.0001744</v>
+        <v>0.0006149</v>
       </c>
       <c r="F22" t="n">
-        <v>10302.85</v>
+        <v>11467.41</v>
       </c>
       <c r="G22" t="n">
-        <v>90539.23</v>
+        <v>95649.71000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>174373</v>
+        <v>439145</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1497,30 +1497,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>USEFUL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>USEFUL COIN</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.515e-05</v>
+        <v>0.0001647</v>
       </c>
       <c r="F23" t="n">
-        <v>8700.93</v>
+        <v>10141.25</v>
       </c>
       <c r="G23" t="n">
-        <v>27901.09</v>
+        <v>87796.50999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>45159</v>
+        <v>164703</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1544,30 +1544,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>BullArena</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.0005791</v>
+        <v>0.0002886</v>
       </c>
       <c r="F24" t="n">
-        <v>7931.15</v>
+        <v>9681.290000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>93037.33</v>
+        <v>65456</v>
       </c>
       <c r="H24" t="n">
-        <v>413585</v>
+        <v>288629</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1591,30 +1591,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SHITTER</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SHITTERCOIN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.0002897</v>
+        <v>4.177e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>7866.93</v>
+        <v>8924.6</v>
       </c>
       <c r="G25" t="n">
-        <v>65917.89999999999</v>
+        <v>26948.47</v>
       </c>
       <c r="H25" t="n">
-        <v>289798</v>
+        <v>41776</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1638,30 +1638,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.0001331</v>
+        <v>1.418e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>4422.08</v>
+        <v>6393.32</v>
       </c>
       <c r="G26" t="n">
-        <v>57725.3</v>
+        <v>13062.46</v>
       </c>
       <c r="H26" t="n">
-        <v>133037</v>
+        <v>14183</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1685,30 +1685,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>YAO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>YAO MING</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.185e-05</v>
+        <v>0.0001323</v>
       </c>
       <c r="F27" t="n">
-        <v>3529.2</v>
+        <v>4997.6</v>
       </c>
       <c r="G27" t="n">
-        <v>14171.44</v>
+        <v>57284.32</v>
       </c>
       <c r="H27" t="n">
-        <v>11813</v>
+        <v>132294</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1732,30 +1732,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1534.13</v>
+        <v>3.519e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>3052.89</v>
+        <v>3151.18</v>
       </c>
       <c r="G28" t="n">
-        <v>20927.71</v>
+        <v>25223.96</v>
       </c>
       <c r="H28" t="n">
-        <v>24776305</v>
+        <v>35195</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1779,30 +1779,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.652e-05</v>
+        <v>1509.043</v>
       </c>
       <c r="F29" t="n">
-        <v>3044.19</v>
+        <v>3146.31</v>
       </c>
       <c r="G29" t="n">
-        <v>25783.4</v>
+        <v>20661.17</v>
       </c>
       <c r="H29" t="n">
-        <v>36523</v>
+        <v>24371025</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1826,30 +1826,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1dog</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1 dog can change your life</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3.301e-05</v>
+        <v>1.19e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>2802.47</v>
+        <v>3100.19</v>
       </c>
       <c r="G30" t="n">
-        <v>22113.77</v>
+        <v>14163.28</v>
       </c>
       <c r="H30" t="n">
-        <v>33009</v>
+        <v>11864</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1873,30 +1873,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>$CrepSol</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Crepe on Solana</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.743e-05</v>
+        <v>3.236e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>2720.45</v>
+        <v>2868.72</v>
       </c>
       <c r="G31" t="n">
-        <v>24490.89</v>
+        <v>21843.2</v>
       </c>
       <c r="H31" t="n">
-        <v>27434</v>
+        <v>32361</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1920,30 +1920,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>AUSBAGWORK</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>AUSSIE BAG WORKERS</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.229e-05</v>
+        <v>2.636e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>2381.44</v>
+        <v>2390.09</v>
       </c>
       <c r="G32" t="n">
-        <v>12150.69</v>
+        <v>23880.75</v>
       </c>
       <c r="H32" t="n">
-        <v>12293</v>
+        <v>26365</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1967,12 +1967,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SUPRACOIN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>GIVING CAR AWAY AT 10MIL MC!</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1981,16 +1981,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.178e-05</v>
+        <v>1.184e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>2311.04</v>
+        <v>2240.92</v>
       </c>
       <c r="G33" t="n">
-        <v>14927.01</v>
+        <v>14911.27</v>
       </c>
       <c r="H33" t="n">
-        <v>11785</v>
+        <v>11848</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2014,30 +2014,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.641e-05</v>
+        <v>1.91e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>1942.53</v>
+        <v>2137.09</v>
       </c>
       <c r="G34" t="n">
-        <v>20890.58</v>
+        <v>17549.37</v>
       </c>
       <c r="H34" t="n">
-        <v>26143</v>
+        <v>18999</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1 pill can change your life</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2075,16 +2075,16 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4.896e-06</v>
+        <v>4.3e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>1801.61</v>
+        <v>1990.57</v>
       </c>
       <c r="G35" t="n">
-        <v>8547.309999999999</v>
+        <v>7967.92</v>
       </c>
       <c r="H35" t="n">
-        <v>4895</v>
+        <v>4299</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2108,30 +2108,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>DETECTIVE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Just can't prove it</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.862e-05</v>
+        <v>2.606e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>1790.89</v>
+        <v>1929.31</v>
       </c>
       <c r="G36" t="n">
-        <v>17391.74</v>
+        <v>20689.52</v>
       </c>
       <c r="H36" t="n">
-        <v>18528</v>
+        <v>25799</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2155,12 +2155,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Real World Asses</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2169,16 +2169,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.221e-07</v>
+        <v>1.237e-07</v>
       </c>
       <c r="F37" t="n">
-        <v>1592.3</v>
+        <v>1759.02</v>
       </c>
       <c r="G37" t="n">
-        <v>10158.54</v>
+        <v>10224.99</v>
       </c>
       <c r="H37" t="n">
-        <v>8428</v>
+        <v>8541</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2202,12 +2202,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1 pill can change your life</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2219,7 +2219,7 @@
         <v>8.355999999999999e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>1298.42</v>
+        <v>1292.32</v>
       </c>
       <c r="G38" t="n">
         <v>12263</v>
@@ -2249,30 +2249,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>101 Year Old Pumpfun Livestreamr</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.21</v>
+        <v>1.384e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>1035.12</v>
+        <v>1255.5</v>
       </c>
       <c r="G39" t="n">
-        <v>2731801.19</v>
+        <v>16702.05</v>
       </c>
       <c r="H39" t="n">
-        <v>25451264</v>
+        <v>13605</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2296,30 +2296,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>APOLLO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Apollo AI</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.378e-05</v>
+        <v>6.52e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>1029.84</v>
+        <v>595.9299999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>16734.48</v>
+        <v>5207.53</v>
       </c>
       <c r="H40" t="n">
-        <v>13541</v>
+        <v>6521</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2343,12 +2343,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1Bull</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>One bull run to change your life</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2357,16 +2357,16 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3.081e-05</v>
+        <v>3.02e-05</v>
       </c>
       <c r="F41" t="n">
-        <v>556.26</v>
+        <v>547.76</v>
       </c>
       <c r="G41" t="n">
-        <v>22064.03</v>
+        <v>21844.25</v>
       </c>
       <c r="H41" t="n">
-        <v>30818</v>
+        <v>30205</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2390,30 +2390,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>AI20X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Ai20x.ai</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.845e-05</v>
+        <v>1.21</v>
       </c>
       <c r="F42" t="n">
-        <v>513.33</v>
+        <v>460.81</v>
       </c>
       <c r="G42" t="n">
-        <v>25059.06</v>
+        <v>2731801.19</v>
       </c>
       <c r="H42" t="n">
-        <v>18447</v>
+        <v>25451264</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>MOON</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Moon Moon</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2451,16 +2451,16 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>9.305e-06</v>
+        <v>9.133999999999999e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>417.55</v>
+        <v>361.38</v>
       </c>
       <c r="G43" t="n">
-        <v>12510.17</v>
+        <v>12335.54</v>
       </c>
       <c r="H43" t="n">
-        <v>9305</v>
+        <v>9135</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2484,30 +2484,30 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>MOCHI CULT</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5.189e-06</v>
+        <v>1.836e-05</v>
       </c>
       <c r="F44" t="n">
-        <v>234.89</v>
+        <v>339.59</v>
       </c>
       <c r="G44" t="n">
-        <v>4669.96</v>
+        <v>24951.49</v>
       </c>
       <c r="H44" t="n">
-        <v>5190</v>
+        <v>18361</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>PILL</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>PumpFun Pill</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>7.649000000000001e-06</v>
+        <v>7.616e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>166.2</v>
+        <v>168.02</v>
       </c>
       <c r="G45" t="n">
-        <v>10795.57</v>
+        <v>10751.76</v>
       </c>
       <c r="H45" t="n">
-        <v>7646</v>
+        <v>7612</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2578,12 +2578,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2592,16 +2592,16 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6.143e-06</v>
+        <v>6.061e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>94.36</v>
+        <v>99.41</v>
       </c>
       <c r="G46" t="n">
-        <v>9871.129999999999</v>
+        <v>9749.82</v>
       </c>
       <c r="H46" t="n">
-        <v>6143</v>
+        <v>6062</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2625,12 +2625,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7 Coin</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2672,30 +2672,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>BITX</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Mega Bitminer X</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4bLnK5YuJaqkVX4uWtJ1Qtx3XoZ8eHH37STXSwujpump</t>
+          <t>BiTXcnGHmSvX6pwhZPmhsctjG3NjzMbTXtM2b7h5nDZC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>9.004999999999999e-06</v>
+        <v>1.429e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>48.09</v>
+        <v>33.27</v>
       </c>
       <c r="G48" t="n">
-        <v>13248.38</v>
+        <v>2812.02</v>
       </c>
       <c r="H48" t="n">
-        <v>8916</v>
+        <v>1429</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2719,30 +2719,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>obvious</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>in hindsight</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>BiTXcnGHmSvX6pwhZPmhsctjG3NjzMbTXtM2b7h5nDZC</t>
+          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.442e-06</v>
+        <v>5.75e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>31.3</v>
+        <v>30.32</v>
       </c>
       <c r="G49" t="n">
-        <v>2834.14</v>
+        <v>9204.780000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1442</v>
+        <v>5747</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2766,30 +2766,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>HOODIE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Hoodie</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
+          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.782e-06</v>
+        <v>0.0002907</v>
       </c>
       <c r="F50" t="n">
-        <v>29.95</v>
+        <v>30.02</v>
       </c>
       <c r="G50" t="n">
-        <v>9246.780000000001</v>
+        <v>64658.54</v>
       </c>
       <c r="H50" t="n">
-        <v>5780</v>
+        <v>290699</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2813,12 +2813,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1SOL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1 SOL and a dream</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>207.54</v>
+        <v>211.018</v>
       </c>
       <c r="F2" t="n">
-        <v>144506624.87</v>
+        <v>168818398.59</v>
       </c>
       <c r="G2" t="n">
-        <v>53344025.48</v>
+        <v>53937725.51</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -571,16 +571,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.001568</v>
+        <v>0.00176</v>
       </c>
       <c r="F3" t="n">
-        <v>521067.28</v>
+        <v>552872.98</v>
       </c>
       <c r="G3" t="n">
-        <v>211696.44</v>
+        <v>226119.16</v>
       </c>
       <c r="H3" t="n">
-        <v>1219193</v>
+        <v>1368154</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.002555</v>
+        <v>0.002686</v>
       </c>
       <c r="F4" t="n">
-        <v>283020.61</v>
+        <v>295082.92</v>
       </c>
       <c r="G4" t="n">
-        <v>475779.51</v>
+        <v>491844.83</v>
       </c>
       <c r="H4" t="n">
-        <v>2554143</v>
+        <v>2685270</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -651,30 +651,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AI4</t>
+          <t>T-2049</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AI⁴</t>
+          <t>Token 2049</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>2UfyNHveDrYDogW1LypkworjhYVEte8tLDqRTZbguPLx</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.0004034</v>
+        <v>0.001932</v>
       </c>
       <c r="F5" t="n">
-        <v>173874.19</v>
+        <v>190434.46</v>
       </c>
       <c r="G5" t="n">
-        <v>117653.57</v>
+        <v>209418.35</v>
       </c>
       <c r="H5" t="n">
-        <v>403457</v>
+        <v>1932211</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -698,30 +698,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T-2049</t>
+          <t>AI4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Token 2049</t>
+          <t>AI⁴</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2UfyNHveDrYDogW1LypkworjhYVEte8tLDqRTZbguPLx</t>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0019</v>
+        <v>0.0004093</v>
       </c>
       <c r="F6" t="n">
-        <v>164467.21</v>
+        <v>172645.27</v>
       </c>
       <c r="G6" t="n">
-        <v>206230.09</v>
+        <v>119439.78</v>
       </c>
       <c r="H6" t="n">
-        <v>1900200</v>
+        <v>409288</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -745,30 +745,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHARLIE</t>
+          <t>RAGEGUY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RIP CHARLIE KIRK</t>
+          <t>Rage Guy</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
+          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0005004</v>
+        <v>0.001243</v>
       </c>
       <c r="F7" t="n">
-        <v>149764.64</v>
+        <v>153919.38</v>
       </c>
       <c r="G7" t="n">
-        <v>140573.37</v>
+        <v>172725.9</v>
       </c>
       <c r="H7" t="n">
-        <v>500416</v>
+        <v>1242952</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -792,30 +792,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RAGEGUY</t>
+          <t>CHARLIE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rage Guy</t>
+          <t>RIP CHARLIE KIRK</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
+          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.00133</v>
+        <v>0.0004962</v>
       </c>
       <c r="F8" t="n">
-        <v>142826.37</v>
+        <v>144710.53</v>
       </c>
       <c r="G8" t="n">
-        <v>177278.83</v>
+        <v>141124.1</v>
       </c>
       <c r="H8" t="n">
-        <v>1330012</v>
+        <v>496281</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.0005819</v>
+        <v>0.0006115</v>
       </c>
       <c r="F9" t="n">
-        <v>141408.02</v>
+        <v>141267.59</v>
       </c>
       <c r="G9" t="n">
-        <v>152977.3</v>
+        <v>158140.02</v>
       </c>
       <c r="H9" t="n">
-        <v>581787</v>
+        <v>611452</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -900,16 +900,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0005435</v>
+        <v>0.0005063999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>114461.75</v>
+        <v>123924.18</v>
       </c>
       <c r="G10" t="n">
-        <v>104000.44</v>
+        <v>102180.54</v>
       </c>
       <c r="H10" t="n">
-        <v>541704</v>
+        <v>504710</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -947,16 +947,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.0008816</v>
+        <v>0.0008866</v>
       </c>
       <c r="F11" t="n">
-        <v>89874.60000000001</v>
+        <v>90085.71000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>196176.19</v>
+        <v>198197.89</v>
       </c>
       <c r="H11" t="n">
-        <v>881691</v>
+        <v>886632</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -994,16 +994,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.001718</v>
+        <v>0.001744</v>
       </c>
       <c r="F12" t="n">
-        <v>85212.24000000001</v>
+        <v>79376</v>
       </c>
       <c r="G12" t="n">
-        <v>180439.13</v>
+        <v>183163.05</v>
       </c>
       <c r="H12" t="n">
-        <v>1718936</v>
+        <v>1744885</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1041,16 +1041,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.0001142</v>
+        <v>0.000121</v>
       </c>
       <c r="F13" t="n">
-        <v>53436.39</v>
+        <v>54946.4</v>
       </c>
       <c r="G13" t="n">
-        <v>55833.12</v>
+        <v>57940.82</v>
       </c>
       <c r="H13" t="n">
-        <v>114079</v>
+        <v>120847</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0001659</v>
+        <v>0.0001592</v>
       </c>
       <c r="F14" t="n">
-        <v>49258.45</v>
+        <v>50769.22</v>
       </c>
       <c r="G14" t="n">
-        <v>50516.97</v>
+        <v>49508.89</v>
       </c>
       <c r="H14" t="n">
-        <v>165909</v>
+        <v>159288</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0003064</v>
+        <v>0.000335</v>
       </c>
       <c r="F15" t="n">
-        <v>36584.49</v>
+        <v>40910.88</v>
       </c>
       <c r="G15" t="n">
-        <v>71373.13</v>
+        <v>75224.28999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>306377</v>
+        <v>334994</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1182,16 +1182,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.01551</v>
+        <v>0.01577</v>
       </c>
       <c r="F16" t="n">
-        <v>35170.11</v>
+        <v>33431.05</v>
       </c>
       <c r="G16" t="n">
-        <v>2013161.17</v>
+        <v>2047536.42</v>
       </c>
       <c r="H16" t="n">
-        <v>77567107</v>
+        <v>78891310</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1229,16 +1229,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.499e-05</v>
+        <v>8.686000000000001e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>28755.78</v>
+        <v>28112.44</v>
       </c>
       <c r="G17" t="n">
-        <v>43110.84</v>
+        <v>43949.43</v>
       </c>
       <c r="H17" t="n">
-        <v>84988</v>
+        <v>86856</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1276,16 +1276,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.00014</v>
+        <v>0.0001487</v>
       </c>
       <c r="F18" t="n">
-        <v>25075.48</v>
+        <v>23048.13</v>
       </c>
       <c r="G18" t="n">
-        <v>50402.34</v>
+        <v>52387.74</v>
       </c>
       <c r="H18" t="n">
-        <v>140036</v>
+        <v>148773</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1309,30 +1309,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>HAROLD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>Harold</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.0005155</v>
+        <v>0.003771</v>
       </c>
       <c r="F19" t="n">
-        <v>17064.78</v>
+        <v>18250.4</v>
       </c>
       <c r="G19" t="n">
-        <v>178704.87</v>
+        <v>550864.03</v>
       </c>
       <c r="H19" t="n">
-        <v>515520</v>
+        <v>3771481</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1370,16 +1370,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.0001356</v>
+        <v>0.0001438</v>
       </c>
       <c r="F20" t="n">
-        <v>16166.26</v>
+        <v>17011.88</v>
       </c>
       <c r="G20" t="n">
-        <v>52796.41</v>
+        <v>54869.95</v>
       </c>
       <c r="H20" t="n">
-        <v>131600</v>
+        <v>139490</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1403,30 +1403,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HAROLD</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Harold</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.003819</v>
+        <v>0.0004933</v>
       </c>
       <c r="F21" t="n">
-        <v>13436.62</v>
+        <v>16893.4</v>
       </c>
       <c r="G21" t="n">
-        <v>551984.9399999999</v>
+        <v>176340.92</v>
       </c>
       <c r="H21" t="n">
-        <v>3819193</v>
+        <v>493383</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1450,30 +1450,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RUECAT</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Rue Cat</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.0006149</v>
+        <v>1.81e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>11467.41</v>
+        <v>15127.35</v>
       </c>
       <c r="G22" t="n">
-        <v>95649.71000000001</v>
+        <v>14783.63</v>
       </c>
       <c r="H22" t="n">
-        <v>439145</v>
+        <v>18105</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1497,30 +1497,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>USEFUL</t>
+          <t>RUECAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>USEFUL COIN</t>
+          <t>Rue Cat</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.0001647</v>
+        <v>0.000566</v>
       </c>
       <c r="F23" t="n">
-        <v>10141.25</v>
+        <v>11362.2</v>
       </c>
       <c r="G23" t="n">
-        <v>87796.50999999999</v>
+        <v>92607.42999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>164703</v>
+        <v>404243</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1544,30 +1544,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>USEFUL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BullArena</t>
+          <t>USEFUL COIN</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.0002886</v>
+        <v>0.0001646</v>
       </c>
       <c r="F24" t="n">
-        <v>9681.290000000001</v>
+        <v>10573.32</v>
       </c>
       <c r="G24" t="n">
-        <v>65456</v>
+        <v>88546.53</v>
       </c>
       <c r="H24" t="n">
-        <v>288629</v>
+        <v>164613</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1605,16 +1605,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4.177e-05</v>
+        <v>3.972e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>8924.6</v>
+        <v>8734.129999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>26948.47</v>
+        <v>26350.71</v>
       </c>
       <c r="H25" t="n">
-        <v>41776</v>
+        <v>39721</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1638,30 +1638,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>BullArena</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1.418e-05</v>
+        <v>0.0003093</v>
       </c>
       <c r="F26" t="n">
-        <v>6393.32</v>
+        <v>7262.78</v>
       </c>
       <c r="G26" t="n">
-        <v>13062.46</v>
+        <v>68473.94</v>
       </c>
       <c r="H26" t="n">
-        <v>14183</v>
+        <v>309341</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.0001323</v>
+        <v>0.0001312</v>
       </c>
       <c r="F27" t="n">
-        <v>4997.6</v>
+        <v>4843.89</v>
       </c>
       <c r="G27" t="n">
-        <v>57284.32</v>
+        <v>56955.64</v>
       </c>
       <c r="H27" t="n">
-        <v>132294</v>
+        <v>131197</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1746,16 +1746,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.519e-05</v>
+        <v>3.682e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>3151.18</v>
+        <v>3958.39</v>
       </c>
       <c r="G28" t="n">
-        <v>25223.96</v>
+        <v>26014.45</v>
       </c>
       <c r="H28" t="n">
-        <v>35195</v>
+        <v>36826</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1779,30 +1779,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>$CrepSol</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>Crepe on Solana</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1509.043</v>
+        <v>3.401e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>3146.31</v>
+        <v>3210.44</v>
       </c>
       <c r="G29" t="n">
-        <v>20661.17</v>
+        <v>22595.15</v>
       </c>
       <c r="H29" t="n">
-        <v>24371025</v>
+        <v>34009</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1826,30 +1826,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1dog</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1 dog can change your life</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.19e-05</v>
+        <v>1526.44</v>
       </c>
       <c r="F30" t="n">
-        <v>3100.19</v>
+        <v>3101.82</v>
       </c>
       <c r="G30" t="n">
-        <v>14163.28</v>
+        <v>20926.99</v>
       </c>
       <c r="H30" t="n">
-        <v>11864</v>
+        <v>24652110</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1873,30 +1873,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$CrepSol</t>
+          <t>AUSBAGWORK</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Crepe on Solana</t>
+          <t>AUSSIE BAG WORKERS</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.236e-05</v>
+        <v>2.644e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>2868.72</v>
+        <v>2433.35</v>
       </c>
       <c r="G31" t="n">
-        <v>21843.2</v>
+        <v>24061.66</v>
       </c>
       <c r="H31" t="n">
-        <v>32361</v>
+        <v>26441</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1920,30 +1920,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AUSBAGWORK</t>
+          <t>SUPRACOIN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AUSSIE BAG WORKERS</t>
+          <t>GIVING CAR AWAY AT 10MIL MC!</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>LGiKAMtb4BuPdhpThjEbNWbDddqdM5FnxMMHqtzpump</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.636e-05</v>
+        <v>1.097e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>2390.09</v>
+        <v>2372.02</v>
       </c>
       <c r="G32" t="n">
-        <v>23880.75</v>
+        <v>14423.49</v>
       </c>
       <c r="H32" t="n">
-        <v>26365</v>
+        <v>10979</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1967,30 +1967,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SUPRACOIN</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GIVING CAR AWAY AT 10MIL MC!</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LGiKAMtb4BuPdhpThjEbNWbDddqdM5FnxMMHqtzpump</t>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.184e-05</v>
+        <v>1.945e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>2240.92</v>
+        <v>2111.33</v>
       </c>
       <c r="G33" t="n">
-        <v>14911.27</v>
+        <v>17894.33</v>
       </c>
       <c r="H33" t="n">
-        <v>11848</v>
+        <v>19352</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2014,30 +2014,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>1 pill can change your life</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1.91e-05</v>
+        <v>4.3e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>2137.09</v>
+        <v>1990.57</v>
       </c>
       <c r="G34" t="n">
-        <v>17549.37</v>
+        <v>7967.92</v>
       </c>
       <c r="H34" t="n">
-        <v>18999</v>
+        <v>4299</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2061,30 +2061,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1 pill can change your life</t>
+          <t>Real World Asses</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4.3e-06</v>
+        <v>1.206e-07</v>
       </c>
       <c r="F35" t="n">
-        <v>1990.57</v>
+        <v>1805.92</v>
       </c>
       <c r="G35" t="n">
-        <v>7967.92</v>
+        <v>10097.96</v>
       </c>
       <c r="H35" t="n">
-        <v>4299</v>
+        <v>8323</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2108,30 +2108,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DETECTIVE</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Just can't prove it</t>
+          <t>1 pill can change your life</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
+          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2.606e-05</v>
+        <v>7.456e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>1929.31</v>
+        <v>1587.41</v>
       </c>
       <c r="G36" t="n">
-        <v>20689.52</v>
+        <v>11484.3</v>
       </c>
       <c r="H36" t="n">
-        <v>25799</v>
+        <v>7453</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2155,30 +2155,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>1dog</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Real World Asses</t>
+          <t>1 dog can change your life</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.237e-07</v>
+        <v>1.183e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>1759.02</v>
+        <v>1341.49</v>
       </c>
       <c r="G37" t="n">
-        <v>10224.99</v>
+        <v>14183.54</v>
       </c>
       <c r="H37" t="n">
-        <v>8541</v>
+        <v>11794</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2202,30 +2202,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>DETECTIVE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1 pill can change your life</t>
+          <t>Just can't prove it</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>8.355999999999999e-06</v>
+        <v>2.615e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>1292.32</v>
+        <v>1278.62</v>
       </c>
       <c r="G38" t="n">
-        <v>12263</v>
+        <v>20792.52</v>
       </c>
       <c r="H38" t="n">
-        <v>8353</v>
+        <v>25893</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2263,16 +2263,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.384e-05</v>
+        <v>1.396e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>1255.5</v>
+        <v>567.04</v>
       </c>
       <c r="G39" t="n">
-        <v>16702.05</v>
+        <v>16965.03</v>
       </c>
       <c r="H39" t="n">
-        <v>13605</v>
+        <v>13722</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2310,16 +2310,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6.52e-06</v>
+        <v>6.485e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>595.9299999999999</v>
+        <v>508.75</v>
       </c>
       <c r="G40" t="n">
-        <v>5207.53</v>
+        <v>5179.42</v>
       </c>
       <c r="H40" t="n">
-        <v>6521</v>
+        <v>6486</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>3.02e-05</v>
       </c>
       <c r="F41" t="n">
-        <v>547.76</v>
+        <v>507.4</v>
       </c>
       <c r="G41" t="n">
         <v>21844.25</v>
@@ -2390,30 +2390,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AI20X</t>
+          <t>MOON</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ai20x.ai</t>
+          <t>Moon Moon</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.21</v>
+        <v>9.177999999999999e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>460.81</v>
+        <v>362.3</v>
       </c>
       <c r="G42" t="n">
-        <v>2731801.19</v>
+        <v>12421.95</v>
       </c>
       <c r="H42" t="n">
-        <v>25451264</v>
+        <v>9179</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2437,30 +2437,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MOON</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Moon Moon</t>
+          <t>MOCHI CULT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>9.133999999999999e-06</v>
+        <v>1.839e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>361.38</v>
+        <v>333.08</v>
       </c>
       <c r="G43" t="n">
-        <v>12335.54</v>
+        <v>24993.2</v>
       </c>
       <c r="H43" t="n">
-        <v>9135</v>
+        <v>18388</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2484,30 +2484,30 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>PILL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MOCHI CULT</t>
+          <t>PumpFun Pill</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1.836e-05</v>
+        <v>7.719e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>339.59</v>
+        <v>185.96</v>
       </c>
       <c r="G44" t="n">
-        <v>24951.49</v>
+        <v>10918.4</v>
       </c>
       <c r="H44" t="n">
-        <v>18361</v>
+        <v>7716</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2531,30 +2531,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PILL</t>
+          <t>Hosico</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PumpFun Pill</t>
+          <t>Hosico Cat</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>7.616e-06</v>
+        <v>5.497e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>168.02</v>
+        <v>156.03</v>
       </c>
       <c r="G45" t="n">
-        <v>10751.76</v>
+        <v>9008.26</v>
       </c>
       <c r="H45" t="n">
-        <v>7612</v>
+        <v>5494</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2578,30 +2578,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>AI20X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>Ai20x.ai</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6.061e-06</v>
+        <v>1.21</v>
       </c>
       <c r="F46" t="n">
-        <v>99.41</v>
+        <v>151.94</v>
       </c>
       <c r="G46" t="n">
-        <v>9749.82</v>
+        <v>2731801.19</v>
       </c>
       <c r="H46" t="n">
-        <v>6062</v>
+        <v>25451264</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2625,30 +2625,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>7 Coin</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.095e-06</v>
+        <v>6.167e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>48.16</v>
+        <v>101.31</v>
       </c>
       <c r="G47" t="n">
-        <v>11995.44</v>
+        <v>9923.5</v>
       </c>
       <c r="H47" t="n">
-        <v>9093</v>
+        <v>6167</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2672,30 +2672,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BITX</t>
+          <t>PILL</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mega Bitminer X</t>
+          <t>Getpilled</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>BiTXcnGHmSvX6pwhZPmhsctjG3NjzMbTXtM2b7h5nDZC</t>
+          <t>2JaJ353mgRVrGbrxsvHr17hseGtf1kD4ixErXGcNP1LL</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1.429e-06</v>
+        <v>6.556e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>33.27</v>
+        <v>75.26000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>2812.02</v>
+        <v>10157.93</v>
       </c>
       <c r="H48" t="n">
-        <v>1429</v>
+        <v>6040</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2719,30 +2719,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>obvious</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>in hindsight</t>
+          <t>7 Coin</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
+          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5.75e-06</v>
+        <v>9.106000000000001e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>30.32</v>
+        <v>49.27</v>
       </c>
       <c r="G49" t="n">
-        <v>9204.780000000001</v>
+        <v>12060.26</v>
       </c>
       <c r="H49" t="n">
-        <v>5747</v>
+        <v>9104</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2780,16 +2780,16 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.0002907</v>
+        <v>0.0002897</v>
       </c>
       <c r="F50" t="n">
-        <v>30.02</v>
+        <v>43.06</v>
       </c>
       <c r="G50" t="n">
-        <v>64658.54</v>
+        <v>64472.44</v>
       </c>
       <c r="H50" t="n">
-        <v>290699</v>
+        <v>289740</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2813,30 +2813,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1SOL</t>
+          <t>BITX</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1 SOL and a dream</t>
+          <t>Mega Bitminer X</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8D7n3WYZxUkmhUPveQU4XZdqLfDe4XLEEpPToAk4pump</t>
+          <t>BiTXcnGHmSvX6pwhZPmhsctjG3NjzMbTXtM2b7h5nDZC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5.984e-06</v>
+        <v>1.426e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>24.38</v>
+        <v>33.31</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2806.5</v>
       </c>
       <c r="H51" t="n">
-        <v>5984.88</v>
+        <v>1426</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -20,6 +20,8 @@
     <sheet name="Discovered (Daily)" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Master" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="_Log" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="History" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Discovered" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -505,7 +507,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -524,13 +526,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>211.018</v>
+        <v>208.079</v>
       </c>
       <c r="F2" t="n">
-        <v>168818398.59</v>
+        <v>231067481.69</v>
       </c>
       <c r="G2" t="n">
-        <v>53937725.51</v>
+        <v>53489294.36</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -552,35 +554,35 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>T-2049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Just Elizabeth Cat</t>
+          <t>Token 2049</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
+          <t>2UfyNHveDrYDogW1LypkworjhYVEte8tLDqRTZbguPLx</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.00176</v>
+        <v>0.00325</v>
       </c>
       <c r="F3" t="n">
-        <v>552872.98</v>
+        <v>838332.13</v>
       </c>
       <c r="G3" t="n">
-        <v>226119.16</v>
+        <v>273196.63</v>
       </c>
       <c r="H3" t="n">
-        <v>1368154</v>
+        <v>3250440</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -599,35 +601,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>XBT</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>XBT</t>
+          <t>Just Elizabeth Cat</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.002686</v>
+        <v>0.00183</v>
       </c>
       <c r="F4" t="n">
-        <v>295082.92</v>
+        <v>719200.33</v>
       </c>
       <c r="G4" t="n">
-        <v>491844.83</v>
+        <v>230217.57</v>
       </c>
       <c r="H4" t="n">
-        <v>2685270</v>
+        <v>1422411</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -646,35 +648,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T-2049</t>
+          <t>XBT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Token 2049</t>
+          <t>XBT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2UfyNHveDrYDogW1LypkworjhYVEte8tLDqRTZbguPLx</t>
+          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.001932</v>
+        <v>0.002626</v>
       </c>
       <c r="F5" t="n">
-        <v>190434.46</v>
+        <v>374320.3</v>
       </c>
       <c r="G5" t="n">
-        <v>209418.35</v>
+        <v>483420.96</v>
       </c>
       <c r="H5" t="n">
-        <v>1932211</v>
+        <v>2625517</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -693,35 +695,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AI4</t>
+          <t>1nu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AI⁴</t>
+          <t>1nu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0004093</v>
+        <v>0.0002074</v>
       </c>
       <c r="F6" t="n">
-        <v>172645.27</v>
+        <v>275961.84</v>
       </c>
       <c r="G6" t="n">
-        <v>119439.78</v>
+        <v>56822.36</v>
       </c>
       <c r="H6" t="n">
-        <v>409288</v>
+        <v>207497</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -740,35 +742,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RAGEGUY</t>
+          <t>AI4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rage Guy</t>
+          <t>AI⁴</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.001243</v>
+        <v>0.0004163</v>
       </c>
       <c r="F7" t="n">
-        <v>153919.38</v>
+        <v>170298.64</v>
       </c>
       <c r="G7" t="n">
-        <v>172725.9</v>
+        <v>119879.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1242952</v>
+        <v>416312</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -787,7 +789,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -806,16 +808,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0004962</v>
+        <v>0.0004419</v>
       </c>
       <c r="F8" t="n">
-        <v>144710.53</v>
+        <v>111574.11</v>
       </c>
       <c r="G8" t="n">
-        <v>141124.1</v>
+        <v>132468.86</v>
       </c>
       <c r="H8" t="n">
-        <v>496281</v>
+        <v>441913</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -834,35 +836,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USDUT</t>
+          <t>CRND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>unstable tether</t>
+          <t>Crundle</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3vz82EWYv8xnc7Cm7qSgERcpMeqw92PcX8PBz88npump</t>
+          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.0006115</v>
+        <v>0.000318</v>
       </c>
       <c r="F9" t="n">
-        <v>141267.59</v>
+        <v>107474.94</v>
       </c>
       <c r="G9" t="n">
-        <v>158140.02</v>
+        <v>83713.53999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>611452</v>
+        <v>317012</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -881,35 +883,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CRND</t>
+          <t>RAGEGUY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Crundle</t>
+          <t>Rage Guy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
+          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0005063999999999999</v>
+        <v>0.001117</v>
       </c>
       <c r="F10" t="n">
-        <v>123924.18</v>
+        <v>105684.41</v>
       </c>
       <c r="G10" t="n">
-        <v>102180.54</v>
+        <v>162845.45</v>
       </c>
       <c r="H10" t="n">
-        <v>504710</v>
+        <v>1117783</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -928,35 +930,35 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FARTLESS</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FARTLESS COIN</t>
+          <t>67coin</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.0008866</v>
+        <v>0.000119</v>
       </c>
       <c r="F11" t="n">
-        <v>90085.71000000001</v>
+        <v>76711.37</v>
       </c>
       <c r="G11" t="n">
-        <v>198197.89</v>
+        <v>57238.52</v>
       </c>
       <c r="H11" t="n">
-        <v>886632</v>
+        <v>118881</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -975,35 +977,35 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DREAM</t>
+          <t>FARTLESS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dreamsync</t>
+          <t>FARTLESS COIN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.001744</v>
+        <v>0.0008211</v>
       </c>
       <c r="F12" t="n">
-        <v>79376</v>
+        <v>72134.81</v>
       </c>
       <c r="G12" t="n">
-        <v>183163.05</v>
+        <v>189506.73</v>
       </c>
       <c r="H12" t="n">
-        <v>1744885</v>
+        <v>821161</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1022,35 +1024,35 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>DREAM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>67coin</t>
+          <t>Dreamsync</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
+          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.000121</v>
+        <v>0.00171</v>
       </c>
       <c r="F13" t="n">
-        <v>54946.4</v>
+        <v>71118.94</v>
       </c>
       <c r="G13" t="n">
-        <v>57940.82</v>
+        <v>180183.21</v>
       </c>
       <c r="H13" t="n">
-        <v>120847</v>
+        <v>1710287</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1069,35 +1071,35 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1nu</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1nu</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0001592</v>
+        <v>0.0004374</v>
       </c>
       <c r="F14" t="n">
-        <v>50769.22</v>
+        <v>70265.87</v>
       </c>
       <c r="G14" t="n">
-        <v>49508.89</v>
+        <v>165061.2</v>
       </c>
       <c r="H14" t="n">
-        <v>159288</v>
+        <v>437425</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1116,35 +1118,35 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>USDUT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>not wrong just early</t>
+          <t>unstable tether</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
+          <t>3vz82EWYv8xnc7Cm7qSgERcpMeqw92PcX8PBz88npump</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.000335</v>
+        <v>0.0005488</v>
       </c>
       <c r="F15" t="n">
-        <v>40910.88</v>
+        <v>55709.67</v>
       </c>
       <c r="G15" t="n">
-        <v>75224.28999999999</v>
+        <v>148763.88</v>
       </c>
       <c r="H15" t="n">
-        <v>334994</v>
+        <v>548777</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1163,35 +1165,35 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LION</t>
+          <t>early</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Loaded Lions</t>
+          <t>not wrong just early</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.01577</v>
+        <v>0.0003612</v>
       </c>
       <c r="F16" t="n">
-        <v>33431.05</v>
+        <v>47789.9</v>
       </c>
       <c r="G16" t="n">
-        <v>2047536.42</v>
+        <v>77646.25999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>78891310</v>
+        <v>361156</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1210,35 +1212,35 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Useless</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Useless Coin</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.686000000000001e-05</v>
+        <v>2.127e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>28112.44</v>
+        <v>39266.81</v>
       </c>
       <c r="G17" t="n">
-        <v>43949.43</v>
+        <v>16044</v>
       </c>
       <c r="H17" t="n">
-        <v>86856</v>
+        <v>21273</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1257,35 +1259,35 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>walkusa</t>
+          <t>Useless</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WALKING ACROSS AMERICA</t>
+          <t>Useless Coin</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.0001487</v>
+        <v>7.399e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>23048.13</v>
+        <v>31419.32</v>
       </c>
       <c r="G18" t="n">
-        <v>52387.74</v>
+        <v>40395.94</v>
       </c>
       <c r="H18" t="n">
-        <v>148773</v>
+        <v>73992</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1304,35 +1306,35 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HAROLD</t>
+          <t>LION</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Harold</t>
+          <t>Loaded Lions</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.003771</v>
+        <v>0.01534</v>
       </c>
       <c r="F19" t="n">
-        <v>18250.4</v>
+        <v>30970.13</v>
       </c>
       <c r="G19" t="n">
-        <v>550864.03</v>
+        <v>2004968.02</v>
       </c>
       <c r="H19" t="n">
-        <v>3771481</v>
+        <v>76700467</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1351,35 +1353,35 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VIBECODER</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Vibe Coding Meta</t>
+          <t>BullArena</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.0001438</v>
+        <v>0.0002671</v>
       </c>
       <c r="F20" t="n">
-        <v>17011.88</v>
+        <v>28789.11</v>
       </c>
       <c r="G20" t="n">
-        <v>54869.95</v>
+        <v>63229.65</v>
       </c>
       <c r="H20" t="n">
-        <v>139490</v>
+        <v>267136</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1398,35 +1400,35 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>SHITTER</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>SHITTERCOIN</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.0004933</v>
+        <v>3.792e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>16893.4</v>
+        <v>20866.89</v>
       </c>
       <c r="G21" t="n">
-        <v>176340.92</v>
+        <v>25855.42</v>
       </c>
       <c r="H21" t="n">
-        <v>493383</v>
+        <v>37926</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1445,35 +1447,35 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>VIBECODER</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>Vibe Coding Meta</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.81e-05</v>
+        <v>0.0001258</v>
       </c>
       <c r="F22" t="n">
-        <v>15127.35</v>
+        <v>20852.46</v>
       </c>
       <c r="G22" t="n">
-        <v>14783.63</v>
+        <v>51007.65</v>
       </c>
       <c r="H22" t="n">
-        <v>18105</v>
+        <v>122094</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1492,35 +1494,35 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RUECAT</t>
+          <t>HAROLD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Rue Cat</t>
+          <t>Harold</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.000566</v>
+        <v>0.003788</v>
       </c>
       <c r="F23" t="n">
-        <v>11362.2</v>
+        <v>17236.29</v>
       </c>
       <c r="G23" t="n">
-        <v>92607.42999999999</v>
+        <v>550971.35</v>
       </c>
       <c r="H23" t="n">
-        <v>404243</v>
+        <v>3788352</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1539,35 +1541,35 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>USEFUL</t>
+          <t>walkusa</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>USEFUL COIN</t>
+          <t>WALKING ACROSS AMERICA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.0001646</v>
+        <v>9.372e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>10573.32</v>
+        <v>15296.77</v>
       </c>
       <c r="G24" t="n">
-        <v>88546.53</v>
+        <v>41728.76</v>
       </c>
       <c r="H24" t="n">
-        <v>164613</v>
+        <v>93719</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1586,35 +1588,35 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SHITTER</t>
+          <t>USEFUL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SHITTERCOIN</t>
+          <t>USEFUL COIN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.972e-05</v>
+        <v>0.0001635</v>
       </c>
       <c r="F25" t="n">
-        <v>8734.129999999999</v>
+        <v>12471.68</v>
       </c>
       <c r="G25" t="n">
-        <v>26350.71</v>
+        <v>87715.57000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>39721</v>
+        <v>163511</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1633,35 +1635,35 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>RUECAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BullArena</t>
+          <t>Rue Cat</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.0003093</v>
+        <v>0.0005939</v>
       </c>
       <c r="F26" t="n">
-        <v>7262.78</v>
+        <v>11330.17</v>
       </c>
       <c r="G26" t="n">
-        <v>68473.94</v>
+        <v>94215.34</v>
       </c>
       <c r="H26" t="n">
-        <v>309341</v>
+        <v>424133</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1680,35 +1682,35 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>YAO</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>YAO MING</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.0001312</v>
+        <v>3.51e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>4843.89</v>
+        <v>9675.559999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>56955.64</v>
+        <v>25275.33</v>
       </c>
       <c r="H27" t="n">
-        <v>131197</v>
+        <v>35107</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1727,35 +1729,35 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>YAO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>YAO MING</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.682e-05</v>
+        <v>0.0001462</v>
       </c>
       <c r="F28" t="n">
-        <v>3958.39</v>
+        <v>8719.4</v>
       </c>
       <c r="G28" t="n">
-        <v>26014.45</v>
+        <v>60394.2</v>
       </c>
       <c r="H28" t="n">
-        <v>36826</v>
+        <v>146206</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1774,35 +1776,35 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$CrepSol</t>
+          <t>1Bull</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Crepe on Solana</t>
+          <t>One bull run to change your life</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.401e-05</v>
+        <v>4.222e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>3210.44</v>
+        <v>7231.99</v>
       </c>
       <c r="G29" t="n">
-        <v>22595.15</v>
+        <v>25861.73</v>
       </c>
       <c r="H29" t="n">
-        <v>34009</v>
+        <v>42226</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1821,35 +1823,35 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>1dog</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>1 dog can change your life</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1526.44</v>
+        <v>1.234e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>3101.82</v>
+        <v>5570.17</v>
       </c>
       <c r="G30" t="n">
-        <v>20926.99</v>
+        <v>14457.39</v>
       </c>
       <c r="H30" t="n">
-        <v>24652110</v>
+        <v>12309</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1868,35 +1870,35 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AUSBAGWORK</t>
+          <t>$CrepSol</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AUSSIE BAG WORKERS</t>
+          <t>Crepe on Solana</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.644e-05</v>
+        <v>3.233e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>2433.35</v>
+        <v>3928.53</v>
       </c>
       <c r="G31" t="n">
-        <v>24061.66</v>
+        <v>21868.98</v>
       </c>
       <c r="H31" t="n">
-        <v>26441</v>
+        <v>32334</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1915,35 +1917,35 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SUPRACOIN</t>
+          <t>DETECTIVE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GIVING CAR AWAY AT 10MIL MC!</t>
+          <t>Just can't prove it</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LGiKAMtb4BuPdhpThjEbNWbDddqdM5FnxMMHqtzpump</t>
+          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.097e-05</v>
+        <v>2.315e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>2372.02</v>
+        <v>2922.65</v>
       </c>
       <c r="G32" t="n">
-        <v>14423.49</v>
+        <v>19581.11</v>
       </c>
       <c r="H32" t="n">
-        <v>10979</v>
+        <v>22921</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1962,35 +1964,35 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>APOLLO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>Apollo AI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.945e-05</v>
+        <v>1.134e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>2111.33</v>
+        <v>2313.13</v>
       </c>
       <c r="G33" t="n">
-        <v>17894.33</v>
+        <v>6882.87</v>
       </c>
       <c r="H33" t="n">
-        <v>19352</v>
+        <v>11344</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2009,35 +2011,35 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1 pill can change your life</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4.3e-06</v>
+        <v>2.208e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>1990.57</v>
+        <v>2231.88</v>
       </c>
       <c r="G34" t="n">
-        <v>7967.92</v>
+        <v>18892.62</v>
       </c>
       <c r="H34" t="n">
-        <v>4299</v>
+        <v>21965</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2056,35 +2058,35 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>AUSBAGWORK</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Real World Asses</t>
+          <t>AUSSIE BAG WORKERS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.206e-07</v>
+        <v>2.423e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>1805.92</v>
+        <v>1289.53</v>
       </c>
       <c r="G35" t="n">
-        <v>10097.96</v>
+        <v>22984.13</v>
       </c>
       <c r="H35" t="n">
-        <v>8323</v>
+        <v>24226</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2103,35 +2105,35 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1 pill can change your life</t>
+          <t>Real World Asses</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>7.456e-06</v>
+        <v>9.869000000000001e-08</v>
       </c>
       <c r="F36" t="n">
-        <v>1587.41</v>
+        <v>819.86</v>
       </c>
       <c r="G36" t="n">
-        <v>11484.3</v>
+        <v>9165.950000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>7453</v>
+        <v>6810</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2150,35 +2152,35 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1dog</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1 dog can change your life</t>
+          <t>1 pill can change your life</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.183e-05</v>
+        <v>7.367e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>1341.49</v>
+        <v>795.48</v>
       </c>
       <c r="G37" t="n">
-        <v>14183.54</v>
+        <v>11519.6</v>
       </c>
       <c r="H37" t="n">
-        <v>11794</v>
+        <v>7365</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2197,35 +2199,35 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DETECTIVE</t>
+          <t>MOON</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Just can't prove it</t>
+          <t>Moon Moon</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.615e-05</v>
+        <v>8.438e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>1278.62</v>
+        <v>697.27</v>
       </c>
       <c r="G38" t="n">
-        <v>20792.52</v>
+        <v>11893.07</v>
       </c>
       <c r="H38" t="n">
-        <v>25893</v>
+        <v>8438</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2244,7 +2246,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2263,16 +2265,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.396e-05</v>
+        <v>1.289e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>567.04</v>
+        <v>553.5599999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>16965.03</v>
+        <v>16233.78</v>
       </c>
       <c r="H39" t="n">
-        <v>13722</v>
+        <v>12665</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2291,35 +2293,35 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>APOLLO</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Apollo AI</t>
+          <t>7 Coin</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6.485e-06</v>
+        <v>9.04e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>508.75</v>
+        <v>486.58</v>
       </c>
       <c r="G40" t="n">
-        <v>5179.42</v>
+        <v>12011.05</v>
       </c>
       <c r="H40" t="n">
-        <v>6486</v>
+        <v>9038</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2338,35 +2340,35 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1Bull</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>One bull run to change your life</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3.02e-05</v>
+        <v>1507.44</v>
       </c>
       <c r="F41" t="n">
-        <v>507.4</v>
+        <v>428.55</v>
       </c>
       <c r="G41" t="n">
-        <v>21844.25</v>
+        <v>20701.93</v>
       </c>
       <c r="H41" t="n">
-        <v>30205</v>
+        <v>24345292</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2385,35 +2387,35 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MOON</t>
+          <t>Bagwork</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Moon Moon</t>
+          <t>African Bagwork</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
+          <t>6NVo6X8ouYRVoKRWe7Y9J6CT4pWZXDthSJCBZ3vgUg8z</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>9.177999999999999e-06</v>
+        <v>5.042e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>362.3</v>
+        <v>393.88</v>
       </c>
       <c r="G42" t="n">
-        <v>12421.95</v>
+        <v>9216.25</v>
       </c>
       <c r="H42" t="n">
-        <v>9179</v>
+        <v>5011</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2432,35 +2434,35 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>Hosico</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MOCHI CULT</t>
+          <t>Hosico Cat</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.839e-05</v>
+        <v>5.186e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>333.08</v>
+        <v>243.22</v>
       </c>
       <c r="G43" t="n">
-        <v>24993.2</v>
+        <v>8763.370000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>18388</v>
+        <v>5184</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2479,35 +2481,35 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PILL</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PumpFun Pill</t>
+          <t>MOCHI CULT</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>7.719e-06</v>
+        <v>1.784e-05</v>
       </c>
       <c r="F44" t="n">
-        <v>185.96</v>
+        <v>220.83</v>
       </c>
       <c r="G44" t="n">
-        <v>10918.4</v>
+        <v>24618.11</v>
       </c>
       <c r="H44" t="n">
-        <v>7716</v>
+        <v>17841</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2526,35 +2528,35 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hosico</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hosico Cat</t>
+          <t>1 pill can change your life</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
+          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5.497e-06</v>
+        <v>4.203e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>156.03</v>
+        <v>207.96</v>
       </c>
       <c r="G45" t="n">
-        <v>9008.26</v>
+        <v>7912.09</v>
       </c>
       <c r="H45" t="n">
-        <v>5494</v>
+        <v>4203</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2573,35 +2575,35 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AI20X</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ai20x.ai</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1.21</v>
+        <v>5.807e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>151.94</v>
+        <v>157.96</v>
       </c>
       <c r="G46" t="n">
-        <v>2731801.19</v>
+        <v>9633.25</v>
       </c>
       <c r="H46" t="n">
-        <v>25451264</v>
+        <v>5808</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2620,35 +2622,35 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>HOODIE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>Hoodie</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.167e-06</v>
+        <v>0.0002932</v>
       </c>
       <c r="F47" t="n">
-        <v>101.31</v>
+        <v>122.67</v>
       </c>
       <c r="G47" t="n">
-        <v>9923.5</v>
+        <v>11910.29</v>
       </c>
       <c r="H47" t="n">
-        <v>6167</v>
+        <v>293299</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2667,35 +2669,35 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PILL</t>
+          <t>1% Club</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Getpilled</t>
+          <t>The 1% Club</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2JaJ353mgRVrGbrxsvHr17hseGtf1kD4ixErXGcNP1LL</t>
+          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6.556e-06</v>
+        <v>4.567e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>75.26000000000001</v>
+        <v>66.52</v>
       </c>
       <c r="G48" t="n">
-        <v>10157.93</v>
+        <v>7093.03</v>
       </c>
       <c r="H48" t="n">
-        <v>6040</v>
+        <v>4567</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2714,35 +2716,35 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>FLY</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>7 Coin</t>
+          <t>Nexa</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
+          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>9.106000000000001e-06</v>
+        <v>0.01323</v>
       </c>
       <c r="F49" t="n">
-        <v>49.27</v>
+        <v>63.76</v>
       </c>
       <c r="G49" t="n">
-        <v>12060.26</v>
+        <v>7739.75</v>
       </c>
       <c r="H49" t="n">
-        <v>9104</v>
+        <v>13237</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2761,35 +2763,35 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HOODIE</t>
+          <t>PILL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Hoodie</t>
+          <t>PumpFun Pill</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.0002897</v>
+        <v>7.542e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>43.06</v>
+        <v>50.98</v>
       </c>
       <c r="G50" t="n">
-        <v>64472.44</v>
+        <v>10743.15</v>
       </c>
       <c r="H50" t="n">
-        <v>289740</v>
+        <v>7539</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2808,35 +2810,35 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BITX</t>
+          <t>Noxi</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mega Bitminer X</t>
+          <t>Noxi Labs AI</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>BiTXcnGHmSvX6pwhZPmhsctjG3NjzMbTXtM2b7h5nDZC</t>
+          <t>F2yfGhxEi7Hw2mr2XQ3MLrdamiPt2rkdMf8PSyAGpump</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.426e-06</v>
+        <v>6.374e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>33.31</v>
+        <v>42.28</v>
       </c>
       <c r="G51" t="n">
-        <v>2806.5</v>
+        <v>9917.889999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>1426</v>
+        <v>6373</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -8403,6 +8405,5445 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>price_usd</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>volume_24h_usd</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>liquidity_usd</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>fdv_usd</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data_status</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>missing_streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>wSOL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wrapped SOL</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>So11111111111111111111111111111111111111112</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>208.079</v>
+      </c>
+      <c r="F2" t="n">
+        <v>231067481.69</v>
+      </c>
+      <c r="G2" t="n">
+        <v>53489294.36</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>T-2049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Token 2049</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2UfyNHveDrYDogW1LypkworjhYVEte8tLDqRTZbguPLx</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00325</v>
+      </c>
+      <c r="F3" t="n">
+        <v>838332.13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>273196.63</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3250440</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Just Elizabeth Cat</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.00183</v>
+      </c>
+      <c r="F4" t="n">
+        <v>719200.33</v>
+      </c>
+      <c r="G4" t="n">
+        <v>230217.57</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1422411</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>XBT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>XBT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.002626</v>
+      </c>
+      <c r="F5" t="n">
+        <v>374320.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>483420.96</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2625517</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1nu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1nu</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0002074</v>
+      </c>
+      <c r="F6" t="n">
+        <v>275961.84</v>
+      </c>
+      <c r="G6" t="n">
+        <v>56822.36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>207497</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AI4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AI⁴</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0004163</v>
+      </c>
+      <c r="F7" t="n">
+        <v>170298.64</v>
+      </c>
+      <c r="G7" t="n">
+        <v>119879.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>416312</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHARLIE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>RIP CHARLIE KIRK</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0004419</v>
+      </c>
+      <c r="F8" t="n">
+        <v>111574.11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>132468.86</v>
+      </c>
+      <c r="H8" t="n">
+        <v>441913</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CRND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Crundle</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.000318</v>
+      </c>
+      <c r="F9" t="n">
+        <v>107474.94</v>
+      </c>
+      <c r="G9" t="n">
+        <v>83713.53999999999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>317012</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RAGEGUY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Rage Guy</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.001117</v>
+      </c>
+      <c r="F10" t="n">
+        <v>105684.41</v>
+      </c>
+      <c r="G10" t="n">
+        <v>162845.45</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1117783</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>67coin</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.000119</v>
+      </c>
+      <c r="F11" t="n">
+        <v>76711.37</v>
+      </c>
+      <c r="G11" t="n">
+        <v>57238.52</v>
+      </c>
+      <c r="H11" t="n">
+        <v>118881</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FARTLESS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FARTLESS COIN</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0008211</v>
+      </c>
+      <c r="F12" t="n">
+        <v>72134.81</v>
+      </c>
+      <c r="G12" t="n">
+        <v>189506.73</v>
+      </c>
+      <c r="H12" t="n">
+        <v>821161</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DREAM</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Dreamsync</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.00171</v>
+      </c>
+      <c r="F13" t="n">
+        <v>71118.94</v>
+      </c>
+      <c r="G13" t="n">
+        <v>180183.21</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1710287</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>gib</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>gib</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0004374</v>
+      </c>
+      <c r="F14" t="n">
+        <v>70265.87</v>
+      </c>
+      <c r="G14" t="n">
+        <v>165061.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>437425</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>USDUT</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>unstable tether</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3vz82EWYv8xnc7Cm7qSgERcpMeqw92PcX8PBz88npump</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0005488</v>
+      </c>
+      <c r="F15" t="n">
+        <v>55709.67</v>
+      </c>
+      <c r="G15" t="n">
+        <v>148763.88</v>
+      </c>
+      <c r="H15" t="n">
+        <v>548777</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>early</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>not wrong just early</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0003612</v>
+      </c>
+      <c r="F16" t="n">
+        <v>47789.9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>77646.25999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>361156</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>pibble</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>pibble</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2.127e-05</v>
+      </c>
+      <c r="F17" t="n">
+        <v>39266.81</v>
+      </c>
+      <c r="G17" t="n">
+        <v>16044</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21273</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Useless</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Useless Coin</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>7.399e-05</v>
+      </c>
+      <c r="F18" t="n">
+        <v>31419.32</v>
+      </c>
+      <c r="G18" t="n">
+        <v>40395.94</v>
+      </c>
+      <c r="H18" t="n">
+        <v>73992</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LION</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Loaded Lions</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01534</v>
+      </c>
+      <c r="F19" t="n">
+        <v>30970.13</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2004968.02</v>
+      </c>
+      <c r="H19" t="n">
+        <v>76700467</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BAR</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BullArena</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0002671</v>
+      </c>
+      <c r="F20" t="n">
+        <v>28789.11</v>
+      </c>
+      <c r="G20" t="n">
+        <v>63229.65</v>
+      </c>
+      <c r="H20" t="n">
+        <v>267136</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SHITTER</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SHITTERCOIN</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3.792e-05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20866.89</v>
+      </c>
+      <c r="G21" t="n">
+        <v>25855.42</v>
+      </c>
+      <c r="H21" t="n">
+        <v>37926</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VIBECODER</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Vibe Coding Meta</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0001258</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20852.46</v>
+      </c>
+      <c r="G22" t="n">
+        <v>51007.65</v>
+      </c>
+      <c r="H22" t="n">
+        <v>122094</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HAROLD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Harold</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.003788</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17236.29</v>
+      </c>
+      <c r="G23" t="n">
+        <v>550971.35</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3788352</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkusa</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>WALKING ACROSS AMERICA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>9.372e-05</v>
+      </c>
+      <c r="F24" t="n">
+        <v>15296.77</v>
+      </c>
+      <c r="G24" t="n">
+        <v>41728.76</v>
+      </c>
+      <c r="H24" t="n">
+        <v>93719</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>USEFUL</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>USEFUL COIN</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0001635</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12471.68</v>
+      </c>
+      <c r="G25" t="n">
+        <v>87715.57000000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>163511</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RUECAT</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Rue Cat</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0005939</v>
+      </c>
+      <c r="F26" t="n">
+        <v>11330.17</v>
+      </c>
+      <c r="G26" t="n">
+        <v>94215.34</v>
+      </c>
+      <c r="H26" t="n">
+        <v>424133</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>IDIOT</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>IDIOT</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3.51e-05</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9675.559999999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25275.33</v>
+      </c>
+      <c r="H27" t="n">
+        <v>35107</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>YAO</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>YAO MING</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0001462</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8719.4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>60394.2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>146206</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1Bull</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>One bull run to change your life</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4.222e-05</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7231.99</v>
+      </c>
+      <c r="G29" t="n">
+        <v>25861.73</v>
+      </c>
+      <c r="H29" t="n">
+        <v>42226</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1dog</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1 dog can change your life</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1.234e-05</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5570.17</v>
+      </c>
+      <c r="G30" t="n">
+        <v>14457.39</v>
+      </c>
+      <c r="H30" t="n">
+        <v>12309</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>$CrepSol</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Crepe on Solana</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3.233e-05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3928.53</v>
+      </c>
+      <c r="G31" t="n">
+        <v>21868.98</v>
+      </c>
+      <c r="H31" t="n">
+        <v>32334</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DETECTIVE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Just can't prove it</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2.315e-05</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2922.65</v>
+      </c>
+      <c r="G32" t="n">
+        <v>19581.11</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22921</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>APOLLO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Apollo AI</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1.134e-05</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2313.13</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6882.87</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11344</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FARTWORM</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>FARTWORM</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2.208e-05</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2231.88</v>
+      </c>
+      <c r="G34" t="n">
+        <v>18892.62</v>
+      </c>
+      <c r="H34" t="n">
+        <v>21965</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AUSBAGWORK</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AUSSIE BAG WORKERS</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2.423e-05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1289.53</v>
+      </c>
+      <c r="G35" t="n">
+        <v>22984.13</v>
+      </c>
+      <c r="H35" t="n">
+        <v>24226</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Real World Asses</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>9.869000000000001e-08</v>
+      </c>
+      <c r="F36" t="n">
+        <v>819.86</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9165.950000000001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6810</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1 pill can change your life</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>7.367e-06</v>
+      </c>
+      <c r="F37" t="n">
+        <v>795.48</v>
+      </c>
+      <c r="G37" t="n">
+        <v>11519.6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7365</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MOON</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Moon Moon</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>8.438e-06</v>
+      </c>
+      <c r="F38" t="n">
+        <v>697.27</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11893.07</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8438</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>grandma</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>101 Year Old Pumpfun Livestreamr</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1.289e-05</v>
+      </c>
+      <c r="F39" t="n">
+        <v>553.5599999999999</v>
+      </c>
+      <c r="G39" t="n">
+        <v>16233.78</v>
+      </c>
+      <c r="H39" t="n">
+        <v>12665</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>7 Coin</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>9.04e-06</v>
+      </c>
+      <c r="F40" t="n">
+        <v>486.58</v>
+      </c>
+      <c r="G40" t="n">
+        <v>12011.05</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9038</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Solana</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1507.44</v>
+      </c>
+      <c r="F41" t="n">
+        <v>428.55</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20701.93</v>
+      </c>
+      <c r="H41" t="n">
+        <v>24345292</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Bagwork</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>African Bagwork</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6NVo6X8ouYRVoKRWe7Y9J6CT4pWZXDthSJCBZ3vgUg8z</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>5.042e-06</v>
+      </c>
+      <c r="F42" t="n">
+        <v>393.88</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9216.25</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5011</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hosico</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Hosico Cat</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>5.186e-06</v>
+      </c>
+      <c r="F43" t="n">
+        <v>243.22</v>
+      </c>
+      <c r="G43" t="n">
+        <v>8763.370000000001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5184</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MOCHI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MOCHI CULT</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1.784e-05</v>
+      </c>
+      <c r="F44" t="n">
+        <v>220.83</v>
+      </c>
+      <c r="G44" t="n">
+        <v>24618.11</v>
+      </c>
+      <c r="H44" t="n">
+        <v>17841</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1 pill can change your life</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>4.203e-06</v>
+      </c>
+      <c r="F45" t="n">
+        <v>207.96</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7912.09</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4203</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Pochita</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Pochita</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>5.807e-06</v>
+      </c>
+      <c r="F46" t="n">
+        <v>157.96</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9633.25</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5808</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>HOODIE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Hoodie</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0002932</v>
+      </c>
+      <c r="F47" t="n">
+        <v>122.67</v>
+      </c>
+      <c r="G47" t="n">
+        <v>11910.29</v>
+      </c>
+      <c r="H47" t="n">
+        <v>293299</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1% Club</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>The 1% Club</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>4.567e-06</v>
+      </c>
+      <c r="F48" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7093.03</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4567</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FLY</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Nexa</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.01323</v>
+      </c>
+      <c r="F49" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7739.75</v>
+      </c>
+      <c r="H49" t="n">
+        <v>13237</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PILL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PumpFun Pill</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>7.542e-06</v>
+      </c>
+      <c r="F50" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10743.15</v>
+      </c>
+      <c r="H50" t="n">
+        <v>7539</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Noxi</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Noxi Labs AI</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>F2yfGhxEi7Hw2mr2XQ3MLrdamiPt2rkdMf8PSyAGpump</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>6.374e-06</v>
+      </c>
+      <c r="F51" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9917.889999999999</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6373</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>dexscreener</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DHSZ2zaQ2mNtTJFXH3iNUG1oWXr6ZFj4TyfqVdexpump</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7Rw4dgDuwESJEcCAbhxAghLcmkXM5QotupWq8PPc1UeC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BMdxkiQTJbLjZF4on3ivYDibWVCMsriEHra469zM49hV</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EFRoRp8wJsLy5kUZYSL95Tqp6ijVPsejWYMCn7ZjcG8L</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2JaJ353mgRVrGbrxsvHr17hseGtf1kD4ixErXGcNP1LL</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LGiKAMtb4BuPdhpThjEbNWbDddqdM5FnxMMHqtzpump</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>7gdDoYLX33ZMh66Ut2teMgxqTeVYD5wYa29AHeHhQt9a</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2Jz5Wf6PGs4x1dJH4FvfMcgEERTmPadLBDsFmtyCpump</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5YsAgujq8omt58Acn94WNLqFuywBDy4JgW635xJspump</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>mDJpLmXubnSYmesFYSeYck9AxmA76rpn6nnAs9ppump</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hcz9pkmcmxW4DWkz9CxDFz5Q2Kswkq1jTkjB9hVgJ4Kp</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>8AgJibpuXYU79bMSzhBv9BCUioxYkoeRVDYz3Tjopump</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>6EPZ1REL6fdby6GwbCJsFoU5EvHMaQJ9zjvwVYVpump</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4Wt3BgMs8m1qiCcMXwSf2SC5gnJW6Adi7uq7cZTCpump</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>YzHXweqcZUNDko66bJpfqXyx7aPfiQnHGNiLCM8pump</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3hiutVNCbwCY1vmoPKdXtMtuzg4epn1WzuU1jgpHpump</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>6rhFUUZsUbjD4tSHrLetmCuvuM3L2ASTLEAgemZtpump</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>7gxdgFPkUQWL2FXJ4ThUPmRkzavB5PqBQHwAFKVYbonk</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>HnhYV3WnVV5CMyJXLYWtPAmeYtCZHsdn8YCwyCCjpump</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TarDAwtsqWLJ213YunSa1Samp3QPuvvU9FXsLSEpump</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>7oBcd1aAkUjUTcfZsR3rQvnG5oMPDzjX9uDnRVn6pump</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>4w4Kj3PmKjJWpsBVCNPeziC2ySdJ6A7cPfqnhyXxpump</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>iD9FqgeKmp58a4pTvh45MtKkHkudKNptFRdR8m6pump</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>4Xs7RvaV3nbWBvb6yWjxvwPKkBxefXe1bPJcvnVspump</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>94bmDAx9PQUZoLCG97h7kCtm1T9uzZCThuUW1cUqAXZy</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4Y6HDaV4374KstQX8qD1L35WiQDwHZaHLez8xs6GrKcf</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>FwYBWjDBDqqfLQYewPZm1Vv555ireHpgUyJP4rMYpump</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4h49bD28nPPLXWB1ZmP8JPuv4iKk3KzFpS8bSmGJpump</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>9iQikUHRe69UScUaytfQabQDmZRqtTkjCEF94ZV5pump</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>BiTXcnGHmSvX6pwhZPmhsctjG3NjzMbTXtM2b7h5nDZC</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>5e8UTTuELKnVeB7fVFq65XasoXFudB9viWTBxRddpump</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>H2zbT5whzb2ZpM1fQ8gqhTQ5V3ytywSYMdto9Dcy5r3e</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>F2yfGhxEi7Hw2mr2XQ3MLrdamiPt2rkdMf8PSyAGpump</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>8ghXDEBVbbYtfdV2cU8jpqsNmiZtDkSjBYmRzj8cpump</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>B1PrDviUajpkxghL1v2w2P8jnxu3FNjcxUDdBNanPLyR</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>8D7n3WYZxUkmhUPveQU4XZdqLfDe4XLEEpPToAk4pump</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>3nJXYRGSFdfhVAg48cLE3iF3Hhda4CXqTt9XS56Mpump</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>7VQdPPtaE6cRuDS7LWcVHriHR3yyTC9uHX7Xfrzcpump</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2wLp2wWvEe4aveLuBB3wkgrRQh2c1NVnnn5QgJH6pump</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>yyjtfEP1cGD6SoCKivxACCBPvUxMqs5TzHSaxcTpump</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>9kfdKdj5yiZgozQB9V6qRvBxat5WKHcpNESNjAPxpump</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2UfyNHveDrYDogW1LypkworjhYVEte8tLDqRTZbguPLx</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>AbURAw6BQ6GiCH34NBx8ZGcNRLzDFbUV2vV8ErbJpump</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>AkhHVVk58FmoS8h1fDWzHMZ9YrnqHcZi97mFzhjbpump</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>4e3Qx8W2HoNQLh8zssRzNuwbatGnChzKee6gN63Zpump</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>7CsJ67xoe7PtNZA3mTJvzLGmuKpHXFCagfc2cM63vJAa</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>DQ4jPvCsZLZboSVYEjBxn7NwayeMb3FmwZX9NbEapump</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>6asZKPjABE4c7V46psw1yDrmCQBzefGtxKCzR8zmbonk</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>4AfLTDXRdfFeejLfnvUh43tbRSYLmYBk551zQvpGiEHg</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>3o3GHhbCXBZu9dXztwhPd9De19KQicYegT6YkyGJpump</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>4bLnK5YuJaqkVX4uWtJ1Qtx3XoZ8eHH37STXSwujpump</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>8X4TnmkHzavxEJuaYTkqjFbUgrwBgaXVuRHhGFR2pump</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Eo2cfEkpeVZrKjRtG34WZc3qzyeZeXjCRGWsEs4JTaNH</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>6UMuZxH9jLT3txQkQo6jWXX2HpHrM1mPkGRjE66pzhEp</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>447veSTPUpNG16GxaNFm8tEC8sc5sao5AEkM6amgn55R</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>EeoHMKA5rzkESdCeu3LpnoQrtPcQryiFSX4ejL5tYabQ</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>FfTMftfnF64keWwxiREcSBca2PsQtkorb2LWCEdZpump</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>HJ5HdKrTmvE26k7oKq8JFWvudnzge1gFpe6EKZXUbREV</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>3vz82EWYv8xnc7Cm7qSgERcpMeqw92PcX8PBz88npump</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>C8Hyu6bjPtuaTJ4Fj6V6L99rhUkkCuKByNZTyXiCpump</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>HxMQWY4DLbUrPXyejuKvu2KJ618zdTRs9dXEuFGrpump</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ESJy7EVySoXbYvkq1V2RcDXYUicyZVe8hBHQeoDQpump</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>DgAHh7SXLssDjufrLnrU1kPgrxmT7UbZYyCCqmcW6k6e</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>GVTXcxABtpKSiwW7iKxmCPW9tnTPi5BrjSpxrC3tpump</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>C2FdntFLLQ59XXWG3uDeJ2qvMk2hqZK3HhQeXtRSNM6n</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>6PKWgQiFi7MW4ykzuD85Z3zW7pNMGw3BM7hYvgaxpump</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Fk6e19okXWGxtrHmXBLzkFeDPR2uuyeVYsqGyt89pump</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>6ykQATJh8DUReEquLAKYgjkV2XCxt9NvQMdErs6Qna43</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>DQTiKmdc2evtLotMR5j7UAexvTbSL3Ef6dtbaY7Jpump</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>GCU5AT6U8bKYK76KBssLf5a3a3KoNoMGStaVdfeipump</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>675wrQRHqDGWTnu4GbminSizfscis3tyfnhfp2bepump</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>G4UuEpZoiG2CscSjYxDxMriaq5XfuiVkLNfHbbwGpump</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>6NVo6X8ouYRVoKRWe7Y9J6CT4pWZXDthSJCBZ3vgUg8z</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ECjiyJckVy1nC2Q89cWtRQdHmiwsHkvGyqa9CPA4pump</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>7qFGJVbSNsuw9sZh2QCFHas9Z7HwF5eoKtSQ93n5bnGn</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Hp8S3iJdyGFBzr6j31SsXAbW1NKA8bZHjU5NQhTEpump</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>3iE3HmcrKQyNdqoVo4Xrjz291VvtcKtUgJnQDxUepump</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Axix4KAvD9m5iYvUx7wztZnKJfJs7KXxPzPmMv6Npump</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>3gaEXq4FGMyZY6TwmMryBAnyXxHZfc5VAxW6RXCCpump</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Hq6979GqwYwkCrHkhfieWGvCYBJnRZEDboQBzC9Lpump</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Solana</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>So11111111111111111111111111111111111111112</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>wSOL</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Wrapped SOL</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -22,6 +22,7 @@
     <sheet name="_Log" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="History" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Discovered" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Performance" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30,7 +31,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -69,11 +73,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -526,13 +531,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>208.079</v>
+        <v>207.053</v>
       </c>
       <c r="F2" t="n">
-        <v>231067481.69</v>
+        <v>233455493.81</v>
       </c>
       <c r="G2" t="n">
-        <v>53489294.36</v>
+        <v>53601225.22</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -573,16 +578,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.00325</v>
+        <v>0.003792</v>
       </c>
       <c r="F3" t="n">
-        <v>838332.13</v>
+        <v>945698.1</v>
       </c>
       <c r="G3" t="n">
-        <v>273196.63</v>
+        <v>294904.23</v>
       </c>
       <c r="H3" t="n">
-        <v>3250440</v>
+        <v>3792395</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -620,16 +625,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.00183</v>
+        <v>0.001795</v>
       </c>
       <c r="F4" t="n">
-        <v>719200.33</v>
+        <v>692031.97</v>
       </c>
       <c r="G4" t="n">
-        <v>230217.57</v>
+        <v>227479.99</v>
       </c>
       <c r="H4" t="n">
-        <v>1422411</v>
+        <v>1395663</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -667,16 +672,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.002626</v>
+        <v>0.002568</v>
       </c>
       <c r="F5" t="n">
-        <v>374320.3</v>
+        <v>368985.31</v>
       </c>
       <c r="G5" t="n">
-        <v>483420.96</v>
+        <v>476713.26</v>
       </c>
       <c r="H5" t="n">
-        <v>2625517</v>
+        <v>2566941</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -714,16 +719,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0002074</v>
+        <v>0.0002324</v>
       </c>
       <c r="F6" t="n">
-        <v>275961.84</v>
+        <v>276444.57</v>
       </c>
       <c r="G6" t="n">
-        <v>56822.36</v>
+        <v>60153.92</v>
       </c>
       <c r="H6" t="n">
-        <v>207497</v>
+        <v>232418</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -761,16 +766,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0004163</v>
+        <v>0.0003776</v>
       </c>
       <c r="F7" t="n">
-        <v>170298.64</v>
+        <v>174688.37</v>
       </c>
       <c r="G7" t="n">
-        <v>119879.3</v>
+        <v>113966.72</v>
       </c>
       <c r="H7" t="n">
-        <v>416312</v>
+        <v>377652</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -808,16 +813,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0004419</v>
+        <v>0.0004144</v>
       </c>
       <c r="F8" t="n">
-        <v>111574.11</v>
+        <v>105075.99</v>
       </c>
       <c r="G8" t="n">
-        <v>132468.86</v>
+        <v>127860.95</v>
       </c>
       <c r="H8" t="n">
-        <v>441913</v>
+        <v>414485</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -841,30 +846,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CRND</t>
+          <t>RAGEGUY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Crundle</t>
+          <t>Rage Guy</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
+          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.000318</v>
+        <v>0.001185</v>
       </c>
       <c r="F9" t="n">
-        <v>107474.94</v>
+        <v>105061.9</v>
       </c>
       <c r="G9" t="n">
-        <v>83713.53999999999</v>
+        <v>167278.94</v>
       </c>
       <c r="H9" t="n">
-        <v>317012</v>
+        <v>1185158</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -888,30 +893,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RAGEGUY</t>
+          <t>CRND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rage Guy</t>
+          <t>Crundle</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
+          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.001117</v>
+        <v>0.0003381</v>
       </c>
       <c r="F10" t="n">
-        <v>105684.41</v>
+        <v>87608.88</v>
       </c>
       <c r="G10" t="n">
-        <v>162845.45</v>
+        <v>85510.66</v>
       </c>
       <c r="H10" t="n">
-        <v>1117783</v>
+        <v>337019</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -949,16 +954,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.000119</v>
+        <v>9.642e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>76711.37</v>
+        <v>76560.58</v>
       </c>
       <c r="G11" t="n">
-        <v>57238.52</v>
+        <v>51342.61</v>
       </c>
       <c r="H11" t="n">
-        <v>118881</v>
+        <v>96269</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -982,30 +987,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FARTLESS</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FARTLESS COIN</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.0008211</v>
+        <v>0.0004524</v>
       </c>
       <c r="F12" t="n">
-        <v>72134.81</v>
+        <v>73228.31</v>
       </c>
       <c r="G12" t="n">
-        <v>189506.73</v>
+        <v>167515.44</v>
       </c>
       <c r="H12" t="n">
-        <v>821161</v>
+        <v>452412</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1043,16 +1048,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.00171</v>
+        <v>0.001701</v>
       </c>
       <c r="F13" t="n">
-        <v>71118.94</v>
+        <v>70371.00999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>180183.21</v>
+        <v>179208.28</v>
       </c>
       <c r="H13" t="n">
-        <v>1710287</v>
+        <v>1701084</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1076,30 +1081,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>FARTLESS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>FARTLESS COIN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0004374</v>
+        <v>0.000807</v>
       </c>
       <c r="F14" t="n">
-        <v>70265.87</v>
+        <v>65967.67</v>
       </c>
       <c r="G14" t="n">
-        <v>165061.2</v>
+        <v>187378.83</v>
       </c>
       <c r="H14" t="n">
-        <v>437425</v>
+        <v>807024</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1123,30 +1128,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USDUT</t>
+          <t>LION</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>unstable tether</t>
+          <t>Loaded Lions</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3vz82EWYv8xnc7Cm7qSgERcpMeqw92PcX8PBz88npump</t>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0005488</v>
+        <v>0.01562</v>
       </c>
       <c r="F15" t="n">
-        <v>55709.67</v>
+        <v>65429.46</v>
       </c>
       <c r="G15" t="n">
-        <v>148763.88</v>
+        <v>2016664.05</v>
       </c>
       <c r="H15" t="n">
-        <v>548777</v>
+        <v>78147732</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1170,30 +1175,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>not wrong just early</t>
+          <t>BullArena</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.0003612</v>
+        <v>0.0003305</v>
       </c>
       <c r="F16" t="n">
-        <v>47789.9</v>
+        <v>54857.2</v>
       </c>
       <c r="G16" t="n">
-        <v>77646.25999999999</v>
+        <v>70141.53999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>361156</v>
+        <v>330515</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1217,30 +1222,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>USDUT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>unstable tether</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+          <t>3vz82EWYv8xnc7Cm7qSgERcpMeqw92PcX8PBz88npump</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.127e-05</v>
+        <v>0.0005474</v>
       </c>
       <c r="F17" t="n">
-        <v>39266.81</v>
+        <v>54771.92</v>
       </c>
       <c r="G17" t="n">
-        <v>16044</v>
+        <v>148250.7</v>
       </c>
       <c r="H17" t="n">
-        <v>21273</v>
+        <v>547379</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1264,30 +1269,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Useless</t>
+          <t>early</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Useless Coin</t>
+          <t>not wrong just early</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7.399e-05</v>
+        <v>0.0003552</v>
       </c>
       <c r="F18" t="n">
-        <v>31419.32</v>
+        <v>47292.28</v>
       </c>
       <c r="G18" t="n">
-        <v>40395.94</v>
+        <v>76703.86</v>
       </c>
       <c r="H18" t="n">
-        <v>73992</v>
+        <v>355213</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1311,30 +1316,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LION</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Loaded Lions</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.01534</v>
+        <v>2.059e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>30970.13</v>
+        <v>38915.86</v>
       </c>
       <c r="G19" t="n">
-        <v>2004968.02</v>
+        <v>15787.01</v>
       </c>
       <c r="H19" t="n">
-        <v>76700467</v>
+        <v>20593</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1358,30 +1363,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>Useless</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BullArena</t>
+          <t>Useless Coin</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.0002671</v>
+        <v>7.938e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>28789.11</v>
+        <v>32247.48</v>
       </c>
       <c r="G20" t="n">
-        <v>63229.65</v>
+        <v>41620.95</v>
       </c>
       <c r="H20" t="n">
-        <v>267136</v>
+        <v>79376</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1419,16 +1424,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3.792e-05</v>
+        <v>3.806e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>20866.89</v>
+        <v>19919.41</v>
       </c>
       <c r="G21" t="n">
-        <v>25855.42</v>
+        <v>25896.96</v>
       </c>
       <c r="H21" t="n">
-        <v>37926</v>
+        <v>38063</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1466,16 +1471,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.0001258</v>
+        <v>0.000124</v>
       </c>
       <c r="F22" t="n">
-        <v>20852.46</v>
+        <v>19353.7</v>
       </c>
       <c r="G22" t="n">
-        <v>51007.65</v>
+        <v>50436.71</v>
       </c>
       <c r="H22" t="n">
-        <v>122094</v>
+        <v>120321</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1513,16 +1518,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.003788</v>
+        <v>0.003771</v>
       </c>
       <c r="F23" t="n">
-        <v>17236.29</v>
+        <v>16759.7</v>
       </c>
       <c r="G23" t="n">
-        <v>550971.35</v>
+        <v>547155.01</v>
       </c>
       <c r="H23" t="n">
-        <v>3788352</v>
+        <v>3771385</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1560,16 +1565,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>9.372e-05</v>
+        <v>8.842e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>15296.77</v>
+        <v>15338.38</v>
       </c>
       <c r="G24" t="n">
-        <v>41728.76</v>
+        <v>40359.96</v>
       </c>
       <c r="H24" t="n">
-        <v>93719</v>
+        <v>88424</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1593,30 +1598,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>USEFUL</t>
+          <t>RUECAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>USEFUL COIN</t>
+          <t>Rue Cat</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.0001635</v>
+        <v>0.00086</v>
       </c>
       <c r="F25" t="n">
-        <v>12471.68</v>
+        <v>15078.71</v>
       </c>
       <c r="G25" t="n">
-        <v>87715.57000000001</v>
+        <v>113029.42</v>
       </c>
       <c r="H25" t="n">
-        <v>163511</v>
+        <v>614208</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1640,30 +1645,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RUECAT</t>
+          <t>USEFUL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Rue Cat</t>
+          <t>USEFUL COIN</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.0005939</v>
+        <v>0.0001606</v>
       </c>
       <c r="F26" t="n">
-        <v>11330.17</v>
+        <v>12435.6</v>
       </c>
       <c r="G26" t="n">
-        <v>94215.34</v>
+        <v>86701.36</v>
       </c>
       <c r="H26" t="n">
-        <v>424133</v>
+        <v>160648</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1687,30 +1692,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>1Bull</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>One bull run to change your life</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3.51e-05</v>
+        <v>4.366e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>9675.559999999999</v>
+        <v>11818.71</v>
       </c>
       <c r="G27" t="n">
-        <v>25275.33</v>
+        <v>26184.86</v>
       </c>
       <c r="H27" t="n">
-        <v>35107</v>
+        <v>43659</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1734,30 +1739,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>YAO</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>YAO MING</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.0001462</v>
+        <v>3.066e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>8719.4</v>
+        <v>10775.21</v>
       </c>
       <c r="G28" t="n">
-        <v>60394.2</v>
+        <v>23482.46</v>
       </c>
       <c r="H28" t="n">
-        <v>146206</v>
+        <v>30669</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1781,30 +1786,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1Bull</t>
+          <t>YAO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>One bull run to change your life</t>
+          <t>YAO MING</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.222e-05</v>
+        <v>0.0001537</v>
       </c>
       <c r="F29" t="n">
-        <v>7231.99</v>
+        <v>9768.040000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>25861.73</v>
+        <v>61668.44</v>
       </c>
       <c r="H29" t="n">
-        <v>42226</v>
+        <v>153677</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1845,7 +1850,7 @@
         <v>1.234e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>5570.17</v>
+        <v>5430.44</v>
       </c>
       <c r="G30" t="n">
         <v>14457.39</v>
@@ -1889,16 +1894,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.233e-05</v>
+        <v>3.217e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>3928.53</v>
+        <v>3648.64</v>
       </c>
       <c r="G31" t="n">
-        <v>21868.98</v>
+        <v>21746.59</v>
       </c>
       <c r="H31" t="n">
-        <v>32334</v>
+        <v>32177</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1939,7 +1944,7 @@
         <v>2.315e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>2922.65</v>
+        <v>2917.65</v>
       </c>
       <c r="G32" t="n">
         <v>19581.11</v>
@@ -1969,30 +1974,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>APOLLO</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Apollo AI</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.134e-05</v>
+        <v>2.228e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>2313.13</v>
+        <v>2151.47</v>
       </c>
       <c r="G33" t="n">
-        <v>6882.87</v>
+        <v>18910.67</v>
       </c>
       <c r="H33" t="n">
-        <v>11344</v>
+        <v>22167</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2016,30 +2021,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>APOLLO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>Apollo AI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.208e-05</v>
+        <v>1.124e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>2231.88</v>
+        <v>1952.43</v>
       </c>
       <c r="G34" t="n">
-        <v>18892.62</v>
+        <v>6822.22</v>
       </c>
       <c r="H34" t="n">
-        <v>21965</v>
+        <v>11245</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2077,16 +2082,16 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.423e-05</v>
+        <v>2.445e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>1289.53</v>
+        <v>1443.8</v>
       </c>
       <c r="G35" t="n">
-        <v>22984.13</v>
+        <v>23003.48</v>
       </c>
       <c r="H35" t="n">
-        <v>24226</v>
+        <v>24452</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2110,30 +2115,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Real World Asses</t>
+          <t>MOCHI CULT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>9.869000000000001e-08</v>
+        <v>1.56e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>819.86</v>
+        <v>987.88</v>
       </c>
       <c r="G36" t="n">
-        <v>9165.950000000001</v>
+        <v>22905.58</v>
       </c>
       <c r="H36" t="n">
-        <v>6810</v>
+        <v>15602</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2171,16 +2176,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>7.367e-06</v>
+        <v>7.295e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>795.48</v>
+        <v>786.4299999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>11519.6</v>
+        <v>11412.26</v>
       </c>
       <c r="H37" t="n">
-        <v>7365</v>
+        <v>7291</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2204,30 +2209,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MOON</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Moon Moon</t>
+          <t>Real World Asses</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>8.438e-06</v>
+        <v>9.668e-08</v>
       </c>
       <c r="F38" t="n">
-        <v>697.27</v>
+        <v>742.35</v>
       </c>
       <c r="G38" t="n">
-        <v>11893.07</v>
+        <v>9075.07</v>
       </c>
       <c r="H38" t="n">
-        <v>8438</v>
+        <v>6671</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2251,30 +2256,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>MOON</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>101 Year Old Pumpfun Livestreamr</t>
+          <t>Moon Moon</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.289e-05</v>
+        <v>8.438e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>553.5599999999999</v>
+        <v>654.6900000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>16233.78</v>
+        <v>11893.07</v>
       </c>
       <c r="H39" t="n">
-        <v>12665</v>
+        <v>8438</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2312,16 +2317,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9.04e-06</v>
+        <v>8.861e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>486.58</v>
+        <v>487.87</v>
       </c>
       <c r="G40" t="n">
-        <v>12011.05</v>
+        <v>11774.15</v>
       </c>
       <c r="H40" t="n">
-        <v>9038</v>
+        <v>8858</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2345,30 +2350,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>101 Year Old Pumpfun Livestreamr</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1507.44</v>
+        <v>1.289e-05</v>
       </c>
       <c r="F41" t="n">
-        <v>428.55</v>
+        <v>435.19</v>
       </c>
       <c r="G41" t="n">
-        <v>20701.93</v>
+        <v>16233.78</v>
       </c>
       <c r="H41" t="n">
-        <v>24345292</v>
+        <v>12665</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2439,30 +2444,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hosico</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hosico Cat</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.186e-06</v>
+        <v>1495.097</v>
       </c>
       <c r="F43" t="n">
-        <v>243.22</v>
+        <v>344.93</v>
       </c>
       <c r="G43" t="n">
-        <v>8763.370000000001</v>
+        <v>20511.97</v>
       </c>
       <c r="H43" t="n">
-        <v>5184</v>
+        <v>24145799</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2486,30 +2491,30 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>Hosico</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MOCHI CULT</t>
+          <t>Hosico Cat</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1.784e-05</v>
+        <v>5.186e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>220.83</v>
+        <v>243.22</v>
       </c>
       <c r="G44" t="n">
-        <v>24618.11</v>
+        <v>8763.370000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>17841</v>
+        <v>5184</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2533,30 +2538,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1 pill can change your life</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4.203e-06</v>
+        <v>5.807e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>207.96</v>
+        <v>152.92</v>
       </c>
       <c r="G45" t="n">
-        <v>7912.09</v>
+        <v>9633.25</v>
       </c>
       <c r="H45" t="n">
-        <v>4203</v>
+        <v>5808</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2580,30 +2585,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>HOODIE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>Hoodie</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.807e-06</v>
+        <v>0.0002942</v>
       </c>
       <c r="F46" t="n">
-        <v>157.96</v>
+        <v>107.67</v>
       </c>
       <c r="G46" t="n">
-        <v>9633.25</v>
+        <v>65469</v>
       </c>
       <c r="H46" t="n">
-        <v>5808</v>
+        <v>294270</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2627,30 +2632,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HOODIE</t>
+          <t>PILL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hoodie</t>
+          <t>PumpFun Pill</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.0002932</v>
+        <v>7.418e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>122.67</v>
+        <v>67.7</v>
       </c>
       <c r="G47" t="n">
-        <v>11910.29</v>
+        <v>10587.32</v>
       </c>
       <c r="H47" t="n">
-        <v>293299</v>
+        <v>7415</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2768,30 +2773,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PILL</t>
+          <t>Noxi</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PumpFun Pill</t>
+          <t>Noxi Labs AI</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+          <t>F2yfGhxEi7Hw2mr2XQ3MLrdamiPt2rkdMf8PSyAGpump</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.542e-06</v>
+        <v>6.374e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>50.98</v>
+        <v>42.28</v>
       </c>
       <c r="G50" t="n">
-        <v>10743.15</v>
+        <v>9917.889999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>7539</v>
+        <v>6373</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2815,30 +2820,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Noxi</t>
+          <t>BONKZ</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Noxi Labs AI</t>
+          <t>Bonkzilla</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>F2yfGhxEi7Hw2mr2XQ3MLrdamiPt2rkdMf8PSyAGpump</t>
+          <t>6asZKPjABE4c7V46psw1yDrmCQBzefGtxKCzR8zmbonk</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6.374e-06</v>
+        <v>3.34e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>42.28</v>
+        <v>35.51</v>
       </c>
       <c r="G51" t="n">
-        <v>9917.889999999999</v>
+        <v>5942.46</v>
       </c>
       <c r="H51" t="n">
-        <v>6373</v>
+        <v>3341</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -7397,7 +7402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7408,881 +7413,2263 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>token_address</t>
+          <t>address</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>symbol</t>
+          <t>symbol_last</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>name_last</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>x_handle</t>
+          <t>first_seen</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>last_seen</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>first_seen</t>
+          <t>days_seen</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>last_active_date</t>
+          <t>last_price</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>consecutive_active_days</t>
+          <t>last_volume</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_confidence_pump</t>
+          <t>last_liquidity</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>last_fdv</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>avg_volume_7d</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>avg_liquidity_7d</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DHSZ2zaQ2mNtTJFXH3iNUG1oWXr6ZFj4TyfqVdexpump</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>So11111111111111111111111111111111111111112</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>wSOL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wrapped SOL</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>207.053</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+        <v>233455493.81</v>
+      </c>
+      <c r="I2" t="n">
+        <v>53601225.22</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>233455493.81</v>
+      </c>
+      <c r="L2" t="n">
+        <v>53601225.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>2UfyNHveDrYDogW1LypkworjhYVEte8tLDqRTZbguPLx</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>T-2049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Token 2049</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.003792</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+        <v>945698.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>294904.23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3792395</v>
+      </c>
+      <c r="K3" t="n">
+        <v>945698.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>294904.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7Rw4dgDuwESJEcCAbhxAghLcmkXM5QotupWq8PPc1UeC</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Just Elizabeth Cat</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.001795</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
+        <v>692031.97</v>
+      </c>
+      <c r="I4" t="n">
+        <v>227479.99</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1395663</v>
+      </c>
+      <c r="K4" t="n">
+        <v>692031.97</v>
+      </c>
+      <c r="L4" t="n">
+        <v>227479.99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BMdxkiQTJbLjZF4on3ivYDibWVCMsriEHra469zM49hV</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>XBT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>XBT</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.002568</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+        <v>368985.31</v>
+      </c>
+      <c r="I5" t="n">
+        <v>476713.26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2566941</v>
+      </c>
+      <c r="K5" t="n">
+        <v>368985.31</v>
+      </c>
+      <c r="L5" t="n">
+        <v>476713.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1nu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1nu</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0002324</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
+        <v>276444.57</v>
+      </c>
+      <c r="I6" t="n">
+        <v>60153.92</v>
+      </c>
+      <c r="J6" t="n">
+        <v>232418</v>
+      </c>
+      <c r="K6" t="n">
+        <v>276444.57</v>
+      </c>
+      <c r="L6" t="n">
+        <v>60153.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-09-17</t>
-        </is>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AI4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AI⁴</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0003776</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
+        <v>174688.37</v>
+      </c>
+      <c r="I7" t="n">
+        <v>113966.72</v>
+      </c>
+      <c r="J7" t="n">
+        <v>377652</v>
+      </c>
+      <c r="K7" t="n">
+        <v>174688.37</v>
+      </c>
+      <c r="L7" t="n">
+        <v>113966.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EFRoRp8wJsLy5kUZYSL95Tqp6ijVPsejWYMCn7ZjcG8L</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHARLIE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>RIP CHARLIE KIRK</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0004144</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
+        <v>105075.99</v>
+      </c>
+      <c r="I8" t="n">
+        <v>127860.95</v>
+      </c>
+      <c r="J8" t="n">
+        <v>414485</v>
+      </c>
+      <c r="K8" t="n">
+        <v>105075.99</v>
+      </c>
+      <c r="L8" t="n">
+        <v>127860.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RAGEGUY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rage Guy</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.001185</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
+        <v>105061.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>167278.94</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1185158</v>
+      </c>
+      <c r="K9" t="n">
+        <v>105061.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>167278.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-09-18</t>
-        </is>
+          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CRND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Crundle</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0003381</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+        <v>87608.88</v>
+      </c>
+      <c r="I10" t="n">
+        <v>85510.66</v>
+      </c>
+      <c r="J10" t="n">
+        <v>337019</v>
+      </c>
+      <c r="K10" t="n">
+        <v>87608.88</v>
+      </c>
+      <c r="L10" t="n">
+        <v>85510.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-09-17</t>
-        </is>
+          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>67coin</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.642e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
+        <v>76560.58</v>
+      </c>
+      <c r="I11" t="n">
+        <v>51342.61</v>
+      </c>
+      <c r="J11" t="n">
+        <v>96269</v>
+      </c>
+      <c r="K11" t="n">
+        <v>76560.58</v>
+      </c>
+      <c r="L11" t="n">
+        <v>51342.61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-09-18</t>
-        </is>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>gib</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>gib</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0004524</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
+        <v>73228.31</v>
+      </c>
+      <c r="I12" t="n">
+        <v>167515.44</v>
+      </c>
+      <c r="J12" t="n">
+        <v>452412</v>
+      </c>
+      <c r="K12" t="n">
+        <v>73228.31</v>
+      </c>
+      <c r="L12" t="n">
+        <v>167515.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DREAM</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Dreamsync</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.001701</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+        <v>70371.00999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>179208.28</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1701084</v>
+      </c>
+      <c r="K13" t="n">
+        <v>70371.00999999999</v>
+      </c>
+      <c r="L13" t="n">
+        <v>179208.28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FARTLESS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FARTLESS COIN</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.000807</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
+        <v>65967.67</v>
+      </c>
+      <c r="I14" t="n">
+        <v>187378.83</v>
+      </c>
+      <c r="J14" t="n">
+        <v>807024</v>
+      </c>
+      <c r="K14" t="n">
+        <v>65967.67</v>
+      </c>
+      <c r="L14" t="n">
+        <v>187378.83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2JaJ353mgRVrGbrxsvHr17hseGtf1kD4ixErXGcNP1LL</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LION</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Loaded Lions</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01562</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
+        <v>65429.46</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2016664.05</v>
+      </c>
+      <c r="J15" t="n">
+        <v>78147732</v>
+      </c>
+      <c r="K15" t="n">
+        <v>65429.46</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2016664.05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BAR</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BullArena</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0003305</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
+        <v>54857.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>70141.53999999999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>330515</v>
+      </c>
+      <c r="K16" t="n">
+        <v>54857.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>70141.53999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>3vz82EWYv8xnc7Cm7qSgERcpMeqw92PcX8PBz88npump</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>USDUT</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>unstable tether</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0005474</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
+        <v>54771.92</v>
+      </c>
+      <c r="I17" t="n">
+        <v>148250.7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>547379</v>
+      </c>
+      <c r="K17" t="n">
+        <v>54771.92</v>
+      </c>
+      <c r="L17" t="n">
+        <v>148250.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LGiKAMtb4BuPdhpThjEbNWbDddqdM5FnxMMHqtzpump</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-09-18</t>
-        </is>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>early</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>not wrong just early</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0003552</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
+        <v>47292.28</v>
+      </c>
+      <c r="I18" t="n">
+        <v>76703.86</v>
+      </c>
+      <c r="J18" t="n">
+        <v>355213</v>
+      </c>
+      <c r="K18" t="n">
+        <v>47292.28</v>
+      </c>
+      <c r="L18" t="n">
+        <v>76703.86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>pibble</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>pibble</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.059e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
+        <v>38915.86</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15787.01</v>
+      </c>
+      <c r="J19" t="n">
+        <v>20593</v>
+      </c>
+      <c r="K19" t="n">
+        <v>38915.86</v>
+      </c>
+      <c r="L19" t="n">
+        <v>15787.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-09-18</t>
-        </is>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Useless</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Useless Coin</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.938e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
+        <v>32247.48</v>
+      </c>
+      <c r="I20" t="n">
+        <v>41620.95</v>
+      </c>
+      <c r="J20" t="n">
+        <v>79376</v>
+      </c>
+      <c r="K20" t="n">
+        <v>32247.48</v>
+      </c>
+      <c r="L20" t="n">
+        <v>41620.95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SHITTER</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SHITTERCOIN</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.806e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
+        <v>19919.41</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25896.96</v>
+      </c>
+      <c r="J21" t="n">
+        <v>38063</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19919.41</v>
+      </c>
+      <c r="L21" t="n">
+        <v>25896.96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VIBECODER</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Vibe Coding Meta</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.000124</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
+        <v>19353.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50436.71</v>
+      </c>
+      <c r="J22" t="n">
+        <v>120321</v>
+      </c>
+      <c r="K22" t="n">
+        <v>19353.7</v>
+      </c>
+      <c r="L22" t="n">
+        <v>50436.71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HAROLD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Harold</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.003771</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
+        <v>16759.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>547155.01</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3771385</v>
+      </c>
+      <c r="K23" t="n">
+        <v>16759.7</v>
+      </c>
+      <c r="L23" t="n">
+        <v>547155.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7gdDoYLX33ZMh66Ut2teMgxqTeVYD5wYa29AHeHhQt9a</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkusa</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>WALKING ACROSS AMERICA</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8.842e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
+        <v>15338.38</v>
+      </c>
+      <c r="I24" t="n">
+        <v>40359.96</v>
+      </c>
+      <c r="J24" t="n">
+        <v>88424</v>
+      </c>
+      <c r="K24" t="n">
+        <v>15338.38</v>
+      </c>
+      <c r="L24" t="n">
+        <v>40359.96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RUECAT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Rue Cat</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.00086</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
+        <v>15078.71</v>
+      </c>
+      <c r="I25" t="n">
+        <v>113029.42</v>
+      </c>
+      <c r="J25" t="n">
+        <v>614208</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15078.71</v>
+      </c>
+      <c r="L25" t="n">
+        <v>113029.42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2Jz5Wf6PGs4x1dJH4FvfMcgEERTmPadLBDsFmtyCpump</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>USEFUL</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>USEFUL COIN</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0001606</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
+        <v>12435.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>86701.36</v>
+      </c>
+      <c r="J26" t="n">
+        <v>160648</v>
+      </c>
+      <c r="K26" t="n">
+        <v>12435.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>86701.36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1Bull</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>One bull run to change your life</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.366e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
+        <v>11818.71</v>
+      </c>
+      <c r="I27" t="n">
+        <v>26184.86</v>
+      </c>
+      <c r="J27" t="n">
+        <v>43659</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11818.71</v>
+      </c>
+      <c r="L27" t="n">
+        <v>26184.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5YsAgujq8omt58Acn94WNLqFuywBDy4JgW635xJspump</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>IDIOT</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>IDIOT</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.066e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
+        <v>10775.21</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23482.46</v>
+      </c>
+      <c r="J28" t="n">
+        <v>30669</v>
+      </c>
+      <c r="K28" t="n">
+        <v>10775.21</v>
+      </c>
+      <c r="L28" t="n">
+        <v>23482.46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mDJpLmXubnSYmesFYSeYck9AxmA76rpn6nnAs9ppump</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>YAO</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>YAO MING</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0001537</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
+        <v>9768.040000000001</v>
+      </c>
+      <c r="I29" t="n">
+        <v>61668.44</v>
+      </c>
+      <c r="J29" t="n">
+        <v>153677</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9768.040000000001</v>
+      </c>
+      <c r="L29" t="n">
+        <v>61668.44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hcz9pkmcmxW4DWkz9CxDFz5Q2Kswkq1jTkjB9hVgJ4Kp</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1dog</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1 dog can change your life</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.234e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
+        <v>5430.44</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14457.39</v>
+      </c>
+      <c r="J30" t="n">
+        <v>12309</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5430.44</v>
+      </c>
+      <c r="L30" t="n">
+        <v>14457.39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8AgJibpuXYU79bMSzhBv9BCUioxYkoeRVDYz3Tjopump</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>$CrepSol</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Crepe on Solana</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.217e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
+        <v>3648.64</v>
+      </c>
+      <c r="I31" t="n">
+        <v>21746.59</v>
+      </c>
+      <c r="J31" t="n">
+        <v>32177</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3648.64</v>
+      </c>
+      <c r="L31" t="n">
+        <v>21746.59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DETECTIVE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Just can't prove it</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.315e-05</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
+        <v>2917.65</v>
+      </c>
+      <c r="I32" t="n">
+        <v>19581.11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>22921</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2917.65</v>
+      </c>
+      <c r="L32" t="n">
+        <v>19581.11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6EPZ1REL6fdby6GwbCJsFoU5EvHMaQJ9zjvwVYVpump</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FARTWORM</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>FARTWORM</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.228e-05</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
+        <v>2151.47</v>
+      </c>
+      <c r="I33" t="n">
+        <v>18910.67</v>
+      </c>
+      <c r="J33" t="n">
+        <v>22167</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2151.47</v>
+      </c>
+      <c r="L33" t="n">
+        <v>18910.67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4Wt3BgMs8m1qiCcMXwSf2SC5gnJW6Adi7uq7cZTCpump</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>APOLLO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Apollo AI</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.124e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
+        <v>1952.43</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6822.22</v>
+      </c>
+      <c r="J34" t="n">
+        <v>11245</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1952.43</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6822.22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>YzHXweqcZUNDko66bJpfqXyx7aPfiQnHGNiLCM8pump</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AUSBAGWORK</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AUSSIE BAG WORKERS</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.445e-05</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
+        <v>1443.8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>23003.48</v>
+      </c>
+      <c r="J35" t="n">
+        <v>24452</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1443.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>23003.48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3hiutVNCbwCY1vmoPKdXtMtuzg4epn1WzuU1jgpHpump</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MOCHI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MOCHI CULT</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.56e-05</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
+        <v>987.88</v>
+      </c>
+      <c r="I36" t="n">
+        <v>22905.58</v>
+      </c>
+      <c r="J36" t="n">
+        <v>15602</v>
+      </c>
+      <c r="K36" t="n">
+        <v>987.88</v>
+      </c>
+      <c r="L36" t="n">
+        <v>22905.58</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1 pill can change your life</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.295e-06</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
+        <v>786.4299999999999</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11412.26</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7291</v>
+      </c>
+      <c r="K37" t="n">
+        <v>786.4299999999999</v>
+      </c>
+      <c r="L37" t="n">
+        <v>11412.26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6rhFUUZsUbjD4tSHrLetmCuvuM3L2ASTLEAgemZtpump</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Real World Asses</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9.668e-08</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
+        <v>742.35</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9075.07</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6671</v>
+      </c>
+      <c r="K38" t="n">
+        <v>742.35</v>
+      </c>
+      <c r="L38" t="n">
+        <v>9075.07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7gxdgFPkUQWL2FXJ4ThUPmRkzavB5PqBQHwAFKVYbonk</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MOON</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Moon Moon</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8.438e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
+        <v>654.6900000000001</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11893.07</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8438</v>
+      </c>
+      <c r="K39" t="n">
+        <v>654.6900000000001</v>
+      </c>
+      <c r="L39" t="n">
+        <v>11893.07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HnhYV3WnVV5CMyJXLYWtPAmeYtCZHsdn8YCwyCCjpump</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>7 Coin</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8.861e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
+        <v>487.87</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11774.15</v>
+      </c>
+      <c r="J40" t="n">
+        <v>8858</v>
+      </c>
+      <c r="K40" t="n">
+        <v>487.87</v>
+      </c>
+      <c r="L40" t="n">
+        <v>11774.15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TarDAwtsqWLJ213YunSa1Samp3QPuvvU9FXsLSEpump</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>grandma</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>101 Year Old Pumpfun Livestreamr</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.289e-05</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
+        <v>435.19</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16233.78</v>
+      </c>
+      <c r="J41" t="n">
+        <v>12665</v>
+      </c>
+      <c r="K41" t="n">
+        <v>435.19</v>
+      </c>
+      <c r="L41" t="n">
+        <v>16233.78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>6NVo6X8ouYRVoKRWe7Y9J6CT4pWZXDthSJCBZ3vgUg8z</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Bagwork</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>African Bagwork</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.042e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
+        <v>393.88</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9216.25</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5011</v>
+      </c>
+      <c r="K42" t="n">
+        <v>393.88</v>
+      </c>
+      <c r="L42" t="n">
+        <v>9216.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Solana</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1495.097</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
+        <v>344.93</v>
+      </c>
+      <c r="I43" t="n">
+        <v>20511.97</v>
+      </c>
+      <c r="J43" t="n">
+        <v>24145799</v>
+      </c>
+      <c r="K43" t="n">
+        <v>344.93</v>
+      </c>
+      <c r="L43" t="n">
+        <v>20511.97</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7oBcd1aAkUjUTcfZsR3rQvnG5oMPDzjX9uDnRVn6pump</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Hosico</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Hosico Cat</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.186e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
+        <v>243.22</v>
+      </c>
+      <c r="I44" t="n">
+        <v>8763.370000000001</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5184</v>
+      </c>
+      <c r="K44" t="n">
+        <v>243.22</v>
+      </c>
+      <c r="L44" t="n">
+        <v>8763.370000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4w4Kj3PmKjJWpsBVCNPeziC2ySdJ6A7cPfqnhyXxpump</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Pochita</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Pochita</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5.807e-06</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
+        <v>152.92</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9633.25</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5808</v>
+      </c>
+      <c r="K45" t="n">
+        <v>152.92</v>
+      </c>
+      <c r="L45" t="n">
+        <v>9633.25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>HOODIE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Hoodie</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0002942</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
+        <v>107.67</v>
+      </c>
+      <c r="I46" t="n">
+        <v>65469</v>
+      </c>
+      <c r="J46" t="n">
+        <v>294270</v>
+      </c>
+      <c r="K46" t="n">
+        <v>107.67</v>
+      </c>
+      <c r="L46" t="n">
+        <v>65469</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>iD9FqgeKmp58a4pTvh45MtKkHkudKNptFRdR8m6pump</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PILL</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PumpFun Pill</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7.418e-06</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
+        <v>67.7</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10587.32</v>
+      </c>
+      <c r="J47" t="n">
+        <v>7415</v>
+      </c>
+      <c r="K47" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="L47" t="n">
+        <v>10587.32</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1% Club</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>The 1% Club</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.567e-06</v>
+      </c>
+      <c r="H48" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7093.03</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4567</v>
+      </c>
+      <c r="K48" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="L48" t="n">
+        <v>7093.03</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FLY</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Nexa</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01323</v>
+      </c>
+      <c r="H49" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="I49" t="n">
+        <v>7739.75</v>
+      </c>
+      <c r="J49" t="n">
+        <v>13237</v>
+      </c>
+      <c r="K49" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7739.75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>F2yfGhxEi7Hw2mr2XQ3MLrdamiPt2rkdMf8PSyAGpump</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Noxi</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Noxi Labs AI</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6.374e-06</v>
+      </c>
+      <c r="H50" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9917.889999999999</v>
+      </c>
+      <c r="J50" t="n">
+        <v>6373</v>
+      </c>
+      <c r="K50" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="L50" t="n">
+        <v>9917.889999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>6asZKPjABE4c7V46psw1yDrmCQBzefGtxKCzR8zmbonk</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BONKZ</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Bonkzilla</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.34e-06</v>
+      </c>
+      <c r="H51" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5942.46</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3341</v>
+      </c>
+      <c r="K51" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5942.46</v>
       </c>
     </row>
   </sheetData>
@@ -8498,13 +9885,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>208.079</v>
+        <v>207.053</v>
       </c>
       <c r="F2" t="n">
-        <v>231067481.69</v>
+        <v>233455493.81</v>
       </c>
       <c r="G2" t="n">
-        <v>53489294.36</v>
+        <v>53601225.22</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -8545,16 +9932,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.00325</v>
+        <v>0.003792</v>
       </c>
       <c r="F3" t="n">
-        <v>838332.13</v>
+        <v>945698.1</v>
       </c>
       <c r="G3" t="n">
-        <v>273196.63</v>
+        <v>294904.23</v>
       </c>
       <c r="H3" t="n">
-        <v>3250440</v>
+        <v>3792395</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -8592,16 +9979,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.00183</v>
+        <v>0.001795</v>
       </c>
       <c r="F4" t="n">
-        <v>719200.33</v>
+        <v>692031.97</v>
       </c>
       <c r="G4" t="n">
-        <v>230217.57</v>
+        <v>227479.99</v>
       </c>
       <c r="H4" t="n">
-        <v>1422411</v>
+        <v>1395663</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -8639,16 +10026,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.002626</v>
+        <v>0.002568</v>
       </c>
       <c r="F5" t="n">
-        <v>374320.3</v>
+        <v>368985.31</v>
       </c>
       <c r="G5" t="n">
-        <v>483420.96</v>
+        <v>476713.26</v>
       </c>
       <c r="H5" t="n">
-        <v>2625517</v>
+        <v>2566941</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -8686,16 +10073,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0002074</v>
+        <v>0.0002324</v>
       </c>
       <c r="F6" t="n">
-        <v>275961.84</v>
+        <v>276444.57</v>
       </c>
       <c r="G6" t="n">
-        <v>56822.36</v>
+        <v>60153.92</v>
       </c>
       <c r="H6" t="n">
-        <v>207497</v>
+        <v>232418</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -8733,16 +10120,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0004163</v>
+        <v>0.0003776</v>
       </c>
       <c r="F7" t="n">
-        <v>170298.64</v>
+        <v>174688.37</v>
       </c>
       <c r="G7" t="n">
-        <v>119879.3</v>
+        <v>113966.72</v>
       </c>
       <c r="H7" t="n">
-        <v>416312</v>
+        <v>377652</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -8780,16 +10167,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0004419</v>
+        <v>0.0004144</v>
       </c>
       <c r="F8" t="n">
-        <v>111574.11</v>
+        <v>105075.99</v>
       </c>
       <c r="G8" t="n">
-        <v>132468.86</v>
+        <v>127860.95</v>
       </c>
       <c r="H8" t="n">
-        <v>441913</v>
+        <v>414485</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -8813,30 +10200,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CRND</t>
+          <t>RAGEGUY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Crundle</t>
+          <t>Rage Guy</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
+          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.000318</v>
+        <v>0.001185</v>
       </c>
       <c r="F9" t="n">
-        <v>107474.94</v>
+        <v>105061.9</v>
       </c>
       <c r="G9" t="n">
-        <v>83713.53999999999</v>
+        <v>167278.94</v>
       </c>
       <c r="H9" t="n">
-        <v>317012</v>
+        <v>1185158</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -8860,30 +10247,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RAGEGUY</t>
+          <t>CRND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rage Guy</t>
+          <t>Crundle</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
+          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.001117</v>
+        <v>0.0003381</v>
       </c>
       <c r="F10" t="n">
-        <v>105684.41</v>
+        <v>87608.88</v>
       </c>
       <c r="G10" t="n">
-        <v>162845.45</v>
+        <v>85510.66</v>
       </c>
       <c r="H10" t="n">
-        <v>1117783</v>
+        <v>337019</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -8921,16 +10308,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.000119</v>
+        <v>9.642e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>76711.37</v>
+        <v>76560.58</v>
       </c>
       <c r="G11" t="n">
-        <v>57238.52</v>
+        <v>51342.61</v>
       </c>
       <c r="H11" t="n">
-        <v>118881</v>
+        <v>96269</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -8954,30 +10341,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FARTLESS</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FARTLESS COIN</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.0008211</v>
+        <v>0.0004524</v>
       </c>
       <c r="F12" t="n">
-        <v>72134.81</v>
+        <v>73228.31</v>
       </c>
       <c r="G12" t="n">
-        <v>189506.73</v>
+        <v>167515.44</v>
       </c>
       <c r="H12" t="n">
-        <v>821161</v>
+        <v>452412</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -9015,16 +10402,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.00171</v>
+        <v>0.001701</v>
       </c>
       <c r="F13" t="n">
-        <v>71118.94</v>
+        <v>70371.00999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>180183.21</v>
+        <v>179208.28</v>
       </c>
       <c r="H13" t="n">
-        <v>1710287</v>
+        <v>1701084</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -9048,30 +10435,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>FARTLESS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>FARTLESS COIN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0004374</v>
+        <v>0.000807</v>
       </c>
       <c r="F14" t="n">
-        <v>70265.87</v>
+        <v>65967.67</v>
       </c>
       <c r="G14" t="n">
-        <v>165061.2</v>
+        <v>187378.83</v>
       </c>
       <c r="H14" t="n">
-        <v>437425</v>
+        <v>807024</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -9095,30 +10482,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USDUT</t>
+          <t>LION</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>unstable tether</t>
+          <t>Loaded Lions</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3vz82EWYv8xnc7Cm7qSgERcpMeqw92PcX8PBz88npump</t>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0005488</v>
+        <v>0.01562</v>
       </c>
       <c r="F15" t="n">
-        <v>55709.67</v>
+        <v>65429.46</v>
       </c>
       <c r="G15" t="n">
-        <v>148763.88</v>
+        <v>2016664.05</v>
       </c>
       <c r="H15" t="n">
-        <v>548777</v>
+        <v>78147732</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -9142,30 +10529,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>not wrong just early</t>
+          <t>BullArena</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.0003612</v>
+        <v>0.0003305</v>
       </c>
       <c r="F16" t="n">
-        <v>47789.9</v>
+        <v>54857.2</v>
       </c>
       <c r="G16" t="n">
-        <v>77646.25999999999</v>
+        <v>70141.53999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>361156</v>
+        <v>330515</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -9189,30 +10576,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>USDUT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>unstable tether</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+          <t>3vz82EWYv8xnc7Cm7qSgERcpMeqw92PcX8PBz88npump</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.127e-05</v>
+        <v>0.0005474</v>
       </c>
       <c r="F17" t="n">
-        <v>39266.81</v>
+        <v>54771.92</v>
       </c>
       <c r="G17" t="n">
-        <v>16044</v>
+        <v>148250.7</v>
       </c>
       <c r="H17" t="n">
-        <v>21273</v>
+        <v>547379</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -9236,30 +10623,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Useless</t>
+          <t>early</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Useless Coin</t>
+          <t>not wrong just early</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7.399e-05</v>
+        <v>0.0003552</v>
       </c>
       <c r="F18" t="n">
-        <v>31419.32</v>
+        <v>47292.28</v>
       </c>
       <c r="G18" t="n">
-        <v>40395.94</v>
+        <v>76703.86</v>
       </c>
       <c r="H18" t="n">
-        <v>73992</v>
+        <v>355213</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -9283,30 +10670,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LION</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Loaded Lions</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.01534</v>
+        <v>2.059e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>30970.13</v>
+        <v>38915.86</v>
       </c>
       <c r="G19" t="n">
-        <v>2004968.02</v>
+        <v>15787.01</v>
       </c>
       <c r="H19" t="n">
-        <v>76700467</v>
+        <v>20593</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -9330,30 +10717,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>Useless</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BullArena</t>
+          <t>Useless Coin</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.0002671</v>
+        <v>7.938e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>28789.11</v>
+        <v>32247.48</v>
       </c>
       <c r="G20" t="n">
-        <v>63229.65</v>
+        <v>41620.95</v>
       </c>
       <c r="H20" t="n">
-        <v>267136</v>
+        <v>79376</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -9391,16 +10778,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3.792e-05</v>
+        <v>3.806e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>20866.89</v>
+        <v>19919.41</v>
       </c>
       <c r="G21" t="n">
-        <v>25855.42</v>
+        <v>25896.96</v>
       </c>
       <c r="H21" t="n">
-        <v>37926</v>
+        <v>38063</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -9438,16 +10825,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.0001258</v>
+        <v>0.000124</v>
       </c>
       <c r="F22" t="n">
-        <v>20852.46</v>
+        <v>19353.7</v>
       </c>
       <c r="G22" t="n">
-        <v>51007.65</v>
+        <v>50436.71</v>
       </c>
       <c r="H22" t="n">
-        <v>122094</v>
+        <v>120321</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -9485,16 +10872,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.003788</v>
+        <v>0.003771</v>
       </c>
       <c r="F23" t="n">
-        <v>17236.29</v>
+        <v>16759.7</v>
       </c>
       <c r="G23" t="n">
-        <v>550971.35</v>
+        <v>547155.01</v>
       </c>
       <c r="H23" t="n">
-        <v>3788352</v>
+        <v>3771385</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -9532,16 +10919,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>9.372e-05</v>
+        <v>8.842e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>15296.77</v>
+        <v>15338.38</v>
       </c>
       <c r="G24" t="n">
-        <v>41728.76</v>
+        <v>40359.96</v>
       </c>
       <c r="H24" t="n">
-        <v>93719</v>
+        <v>88424</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -9565,30 +10952,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>USEFUL</t>
+          <t>RUECAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>USEFUL COIN</t>
+          <t>Rue Cat</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.0001635</v>
+        <v>0.00086</v>
       </c>
       <c r="F25" t="n">
-        <v>12471.68</v>
+        <v>15078.71</v>
       </c>
       <c r="G25" t="n">
-        <v>87715.57000000001</v>
+        <v>113029.42</v>
       </c>
       <c r="H25" t="n">
-        <v>163511</v>
+        <v>614208</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -9612,30 +10999,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RUECAT</t>
+          <t>USEFUL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Rue Cat</t>
+          <t>USEFUL COIN</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.0005939</v>
+        <v>0.0001606</v>
       </c>
       <c r="F26" t="n">
-        <v>11330.17</v>
+        <v>12435.6</v>
       </c>
       <c r="G26" t="n">
-        <v>94215.34</v>
+        <v>86701.36</v>
       </c>
       <c r="H26" t="n">
-        <v>424133</v>
+        <v>160648</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -9659,30 +11046,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>1Bull</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>One bull run to change your life</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3.51e-05</v>
+        <v>4.366e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>9675.559999999999</v>
+        <v>11818.71</v>
       </c>
       <c r="G27" t="n">
-        <v>25275.33</v>
+        <v>26184.86</v>
       </c>
       <c r="H27" t="n">
-        <v>35107</v>
+        <v>43659</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -9706,30 +11093,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>YAO</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>YAO MING</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.0001462</v>
+        <v>3.066e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>8719.4</v>
+        <v>10775.21</v>
       </c>
       <c r="G28" t="n">
-        <v>60394.2</v>
+        <v>23482.46</v>
       </c>
       <c r="H28" t="n">
-        <v>146206</v>
+        <v>30669</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -9753,30 +11140,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1Bull</t>
+          <t>YAO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>One bull run to change your life</t>
+          <t>YAO MING</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.222e-05</v>
+        <v>0.0001537</v>
       </c>
       <c r="F29" t="n">
-        <v>7231.99</v>
+        <v>9768.040000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>25861.73</v>
+        <v>61668.44</v>
       </c>
       <c r="H29" t="n">
-        <v>42226</v>
+        <v>153677</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -9817,7 +11204,7 @@
         <v>1.234e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>5570.17</v>
+        <v>5430.44</v>
       </c>
       <c r="G30" t="n">
         <v>14457.39</v>
@@ -9861,16 +11248,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.233e-05</v>
+        <v>3.217e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>3928.53</v>
+        <v>3648.64</v>
       </c>
       <c r="G31" t="n">
-        <v>21868.98</v>
+        <v>21746.59</v>
       </c>
       <c r="H31" t="n">
-        <v>32334</v>
+        <v>32177</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -9911,7 +11298,7 @@
         <v>2.315e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>2922.65</v>
+        <v>2917.65</v>
       </c>
       <c r="G32" t="n">
         <v>19581.11</v>
@@ -9941,30 +11328,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>APOLLO</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Apollo AI</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.134e-05</v>
+        <v>2.228e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>2313.13</v>
+        <v>2151.47</v>
       </c>
       <c r="G33" t="n">
-        <v>6882.87</v>
+        <v>18910.67</v>
       </c>
       <c r="H33" t="n">
-        <v>11344</v>
+        <v>22167</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -9988,30 +11375,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>APOLLO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>Apollo AI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.208e-05</v>
+        <v>1.124e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>2231.88</v>
+        <v>1952.43</v>
       </c>
       <c r="G34" t="n">
-        <v>18892.62</v>
+        <v>6822.22</v>
       </c>
       <c r="H34" t="n">
-        <v>21965</v>
+        <v>11245</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -10049,16 +11436,16 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.423e-05</v>
+        <v>2.445e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>1289.53</v>
+        <v>1443.8</v>
       </c>
       <c r="G35" t="n">
-        <v>22984.13</v>
+        <v>23003.48</v>
       </c>
       <c r="H35" t="n">
-        <v>24226</v>
+        <v>24452</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -10082,30 +11469,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Real World Asses</t>
+          <t>MOCHI CULT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>9.869000000000001e-08</v>
+        <v>1.56e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>819.86</v>
+        <v>987.88</v>
       </c>
       <c r="G36" t="n">
-        <v>9165.950000000001</v>
+        <v>22905.58</v>
       </c>
       <c r="H36" t="n">
-        <v>6810</v>
+        <v>15602</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -10143,16 +11530,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>7.367e-06</v>
+        <v>7.295e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>795.48</v>
+        <v>786.4299999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>11519.6</v>
+        <v>11412.26</v>
       </c>
       <c r="H37" t="n">
-        <v>7365</v>
+        <v>7291</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -10176,30 +11563,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MOON</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Moon Moon</t>
+          <t>Real World Asses</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>8.438e-06</v>
+        <v>9.668e-08</v>
       </c>
       <c r="F38" t="n">
-        <v>697.27</v>
+        <v>742.35</v>
       </c>
       <c r="G38" t="n">
-        <v>11893.07</v>
+        <v>9075.07</v>
       </c>
       <c r="H38" t="n">
-        <v>8438</v>
+        <v>6671</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -10223,30 +11610,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>MOON</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>101 Year Old Pumpfun Livestreamr</t>
+          <t>Moon Moon</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.289e-05</v>
+        <v>8.438e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>553.5599999999999</v>
+        <v>654.6900000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>16233.78</v>
+        <v>11893.07</v>
       </c>
       <c r="H39" t="n">
-        <v>12665</v>
+        <v>8438</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -10284,16 +11671,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9.04e-06</v>
+        <v>8.861e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>486.58</v>
+        <v>487.87</v>
       </c>
       <c r="G40" t="n">
-        <v>12011.05</v>
+        <v>11774.15</v>
       </c>
       <c r="H40" t="n">
-        <v>9038</v>
+        <v>8858</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -10317,30 +11704,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>101 Year Old Pumpfun Livestreamr</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1507.44</v>
+        <v>1.289e-05</v>
       </c>
       <c r="F41" t="n">
-        <v>428.55</v>
+        <v>435.19</v>
       </c>
       <c r="G41" t="n">
-        <v>20701.93</v>
+        <v>16233.78</v>
       </c>
       <c r="H41" t="n">
-        <v>24345292</v>
+        <v>12665</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -10411,30 +11798,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hosico</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hosico Cat</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.186e-06</v>
+        <v>1495.097</v>
       </c>
       <c r="F43" t="n">
-        <v>243.22</v>
+        <v>344.93</v>
       </c>
       <c r="G43" t="n">
-        <v>8763.370000000001</v>
+        <v>20511.97</v>
       </c>
       <c r="H43" t="n">
-        <v>5184</v>
+        <v>24145799</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -10458,30 +11845,30 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>Hosico</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MOCHI CULT</t>
+          <t>Hosico Cat</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1.784e-05</v>
+        <v>5.186e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>220.83</v>
+        <v>243.22</v>
       </c>
       <c r="G44" t="n">
-        <v>24618.11</v>
+        <v>8763.370000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>17841</v>
+        <v>5184</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -10505,30 +11892,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1 pill can change your life</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4.203e-06</v>
+        <v>5.807e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>207.96</v>
+        <v>152.92</v>
       </c>
       <c r="G45" t="n">
-        <v>7912.09</v>
+        <v>9633.25</v>
       </c>
       <c r="H45" t="n">
-        <v>4203</v>
+        <v>5808</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -10552,30 +11939,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>HOODIE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>Hoodie</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.807e-06</v>
+        <v>0.0002942</v>
       </c>
       <c r="F46" t="n">
-        <v>157.96</v>
+        <v>107.67</v>
       </c>
       <c r="G46" t="n">
-        <v>9633.25</v>
+        <v>65469</v>
       </c>
       <c r="H46" t="n">
-        <v>5808</v>
+        <v>294270</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -10599,30 +11986,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HOODIE</t>
+          <t>PILL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hoodie</t>
+          <t>PumpFun Pill</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.0002932</v>
+        <v>7.418e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>122.67</v>
+        <v>67.7</v>
       </c>
       <c r="G47" t="n">
-        <v>11910.29</v>
+        <v>10587.32</v>
       </c>
       <c r="H47" t="n">
-        <v>293299</v>
+        <v>7415</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -10740,30 +12127,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PILL</t>
+          <t>Noxi</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PumpFun Pill</t>
+          <t>Noxi Labs AI</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+          <t>F2yfGhxEi7Hw2mr2XQ3MLrdamiPt2rkdMf8PSyAGpump</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.542e-06</v>
+        <v>6.374e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>50.98</v>
+        <v>42.28</v>
       </c>
       <c r="G50" t="n">
-        <v>10743.15</v>
+        <v>9917.889999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>7539</v>
+        <v>6373</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -10787,30 +12174,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Noxi</t>
+          <t>BONKZ</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Noxi Labs AI</t>
+          <t>Bonkzilla</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>F2yfGhxEi7Hw2mr2XQ3MLrdamiPt2rkdMf8PSyAGpump</t>
+          <t>6asZKPjABE4c7V46psw1yDrmCQBzefGtxKCzR8zmbonk</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6.374e-06</v>
+        <v>3.34e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>42.28</v>
+        <v>35.51</v>
       </c>
       <c r="G51" t="n">
-        <v>9917.889999999999</v>
+        <v>5942.46</v>
       </c>
       <c r="H51" t="n">
-        <v>6373</v>
+        <v>3341</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -10893,7 +12280,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -10916,7 +12302,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -10939,7 +12324,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10962,7 +12346,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10985,7 +12368,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11008,7 +12390,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11031,7 +12412,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11054,7 +12434,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -11077,7 +12456,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -11100,7 +12478,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -11123,7 +12500,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11146,7 +12522,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11169,7 +12544,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11192,7 +12566,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11215,7 +12588,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11238,7 +12610,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11261,7 +12632,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11284,7 +12654,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11307,7 +12676,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11330,7 +12698,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11353,7 +12720,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11376,7 +12742,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11399,7 +12764,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11422,7 +12786,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11445,7 +12808,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11468,7 +12830,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11491,7 +12852,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11514,7 +12874,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11537,7 +12896,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11560,7 +12918,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11583,7 +12940,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11606,7 +12962,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11629,7 +12984,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11652,7 +13006,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11675,7 +13028,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11698,7 +13050,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11721,7 +13072,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11744,7 +13094,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11767,7 +13116,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11790,7 +13138,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11813,7 +13160,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11836,7 +13182,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11859,7 +13204,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11882,7 +13226,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11905,7 +13248,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11928,7 +13270,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11951,7 +13292,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11974,7 +13314,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11997,7 +13336,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12020,7 +13358,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12043,7 +13380,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12066,7 +13402,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12089,7 +13424,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12112,7 +13446,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12135,7 +13468,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12158,7 +13490,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12181,7 +13512,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12204,7 +13534,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12227,7 +13556,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12250,7 +13578,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12273,7 +13600,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12296,7 +13622,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12319,7 +13644,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12342,7 +13666,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12365,7 +13688,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12388,7 +13710,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12411,7 +13732,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12434,7 +13754,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12457,7 +13776,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12480,7 +13798,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12503,7 +13820,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12526,7 +13842,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12549,7 +13864,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12572,7 +13886,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -12595,7 +13908,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -12618,7 +13930,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -12641,7 +13952,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -12664,7 +13974,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -12687,7 +13996,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -12710,7 +14018,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -12733,7 +14040,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -12756,7 +14062,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -12779,7 +14084,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12802,7 +14106,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12825,7 +14128,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12848,7 +14150,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12871,7 +14172,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12894,7 +14194,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12917,7 +14216,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12940,7 +14238,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12963,7 +14260,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12986,7 +14282,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13009,7 +14304,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13032,7 +14326,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13055,7 +14348,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13078,7 +14370,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13101,7 +14392,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13124,7 +14414,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13147,7 +14436,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13170,7 +14458,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13193,7 +14480,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13216,7 +14502,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13239,7 +14524,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13262,7 +14546,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13285,7 +14568,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13308,7 +14590,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13331,7 +14612,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13354,7 +14634,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13377,7 +14656,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13400,7 +14678,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13423,7 +14700,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13446,7 +14722,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13469,7 +14744,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13492,7 +14766,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13515,7 +14788,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13538,7 +14810,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13561,7 +14832,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13584,7 +14854,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13607,7 +14876,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13630,7 +14898,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13653,7 +14920,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13676,7 +14942,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13699,7 +14964,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13722,7 +14986,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13745,7 +15008,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -13768,7 +15030,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13791,7 +15052,6 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13814,7 +15074,6 @@
           <t>Solana</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -13837,7 +15096,2652 @@
           <t>Wrapped SOL</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>vol_1d</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>vol_3d</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vol_5d</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>vol_10d</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>liq_1d</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>liq_3d</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>liq_5d</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>vol_mom_3v1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>vol_mom_5v3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>liq_mom_3v1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>zscore_vol_10d</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>zscore_liq_10d</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DETECTIVE</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2917.65</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2917.65</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2917.65</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2917.65</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19581.11</v>
+      </c>
+      <c r="I2" t="n">
+        <v>19581.11</v>
+      </c>
+      <c r="J2" t="n">
+        <v>19581.11</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2UfyNHveDrYDogW1LypkworjhYVEte8tLDqRTZbguPLx</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>T-2049</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>945698.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>945698.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>945698.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>945698.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>294904.23</v>
+      </c>
+      <c r="I3" t="n">
+        <v>294904.23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>294904.23</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>76560.58</v>
+      </c>
+      <c r="E4" t="n">
+        <v>76560.58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>76560.58</v>
+      </c>
+      <c r="G4" t="n">
+        <v>76560.58</v>
+      </c>
+      <c r="H4" t="n">
+        <v>51342.61</v>
+      </c>
+      <c r="I4" t="n">
+        <v>51342.61</v>
+      </c>
+      <c r="J4" t="n">
+        <v>51342.61</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>walkusa</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>15338.38</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15338.38</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15338.38</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15338.38</v>
+      </c>
+      <c r="H5" t="n">
+        <v>40359.96</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40359.96</v>
+      </c>
+      <c r="J5" t="n">
+        <v>40359.96</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>HAROLD</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>16759.7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16759.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16759.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16759.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>547155.01</v>
+      </c>
+      <c r="I6" t="n">
+        <v>547155.01</v>
+      </c>
+      <c r="J6" t="n">
+        <v>547155.01</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3vz82EWYv8xnc7Cm7qSgERcpMeqw92PcX8PBz88npump</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>USDUT</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>54771.92</v>
+      </c>
+      <c r="E7" t="n">
+        <v>54771.92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>54771.92</v>
+      </c>
+      <c r="G7" t="n">
+        <v>54771.92</v>
+      </c>
+      <c r="H7" t="n">
+        <v>148250.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>148250.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>148250.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1nu</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>276444.57</v>
+      </c>
+      <c r="E8" t="n">
+        <v>276444.57</v>
+      </c>
+      <c r="F8" t="n">
+        <v>276444.57</v>
+      </c>
+      <c r="G8" t="n">
+        <v>276444.57</v>
+      </c>
+      <c r="H8" t="n">
+        <v>60153.92</v>
+      </c>
+      <c r="I8" t="n">
+        <v>60153.92</v>
+      </c>
+      <c r="J8" t="n">
+        <v>60153.92</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>grandma</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>435.19</v>
+      </c>
+      <c r="E9" t="n">
+        <v>435.19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>435.19</v>
+      </c>
+      <c r="G9" t="n">
+        <v>435.19</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16233.78</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16233.78</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16233.78</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MOCHI</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>987.88</v>
+      </c>
+      <c r="E10" t="n">
+        <v>987.88</v>
+      </c>
+      <c r="F10" t="n">
+        <v>987.88</v>
+      </c>
+      <c r="G10" t="n">
+        <v>987.88</v>
+      </c>
+      <c r="H10" t="n">
+        <v>22905.58</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22905.58</v>
+      </c>
+      <c r="J10" t="n">
+        <v>22905.58</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Useless</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>32247.48</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32247.48</v>
+      </c>
+      <c r="F11" t="n">
+        <v>32247.48</v>
+      </c>
+      <c r="G11" t="n">
+        <v>32247.48</v>
+      </c>
+      <c r="H11" t="n">
+        <v>41620.95</v>
+      </c>
+      <c r="I11" t="n">
+        <v>41620.95</v>
+      </c>
+      <c r="J11" t="n">
+        <v>41620.95</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>gib</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>73228.31</v>
+      </c>
+      <c r="E12" t="n">
+        <v>73228.31</v>
+      </c>
+      <c r="F12" t="n">
+        <v>73228.31</v>
+      </c>
+      <c r="G12" t="n">
+        <v>73228.31</v>
+      </c>
+      <c r="H12" t="n">
+        <v>167515.44</v>
+      </c>
+      <c r="I12" t="n">
+        <v>167515.44</v>
+      </c>
+      <c r="J12" t="n">
+        <v>167515.44</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6NVo6X8ouYRVoKRWe7Y9J6CT4pWZXDthSJCBZ3vgUg8z</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Bagwork</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>393.88</v>
+      </c>
+      <c r="E13" t="n">
+        <v>393.88</v>
+      </c>
+      <c r="F13" t="n">
+        <v>393.88</v>
+      </c>
+      <c r="G13" t="n">
+        <v>393.88</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9216.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9216.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9216.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6asZKPjABE4c7V46psw1yDrmCQBzefGtxKCzR8zmbonk</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BONKZ</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="E14" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="F14" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="G14" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5942.46</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5942.46</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5942.46</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>APOLLO</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1952.43</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1952.43</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1952.43</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1952.43</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6822.22</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6822.22</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6822.22</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>742.35</v>
+      </c>
+      <c r="E16" t="n">
+        <v>742.35</v>
+      </c>
+      <c r="F16" t="n">
+        <v>742.35</v>
+      </c>
+      <c r="G16" t="n">
+        <v>742.35</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9075.07</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9075.07</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9075.07</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>VIBECODER</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>19353.7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>19353.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19353.7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>19353.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>50436.71</v>
+      </c>
+      <c r="I17" t="n">
+        <v>50436.71</v>
+      </c>
+      <c r="J17" t="n">
+        <v>50436.71</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>LION</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>65429.46</v>
+      </c>
+      <c r="E18" t="n">
+        <v>65429.46</v>
+      </c>
+      <c r="F18" t="n">
+        <v>65429.46</v>
+      </c>
+      <c r="G18" t="n">
+        <v>65429.46</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2016664.05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2016664.05</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2016664.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>early</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>47292.28</v>
+      </c>
+      <c r="E19" t="n">
+        <v>47292.28</v>
+      </c>
+      <c r="F19" t="n">
+        <v>47292.28</v>
+      </c>
+      <c r="G19" t="n">
+        <v>47292.28</v>
+      </c>
+      <c r="H19" t="n">
+        <v>76703.86</v>
+      </c>
+      <c r="I19" t="n">
+        <v>76703.86</v>
+      </c>
+      <c r="J19" t="n">
+        <v>76703.86</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1dog</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5430.44</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5430.44</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5430.44</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5430.44</v>
+      </c>
+      <c r="H20" t="n">
+        <v>14457.39</v>
+      </c>
+      <c r="I20" t="n">
+        <v>14457.39</v>
+      </c>
+      <c r="J20" t="n">
+        <v>14457.39</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>786.4299999999999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>786.4299999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>786.4299999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>786.4299999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11412.26</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11412.26</v>
+      </c>
+      <c r="J21" t="n">
+        <v>11412.26</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PILL</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10587.32</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10587.32</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10587.32</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MOON</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>654.6900000000001</v>
+      </c>
+      <c r="E23" t="n">
+        <v>654.6900000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>654.6900000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>654.6900000000001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>11893.07</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11893.07</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11893.07</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FLY</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="E24" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="F24" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="G24" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7739.75</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7739.75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>7739.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AUSBAGWORK</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1443.8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1443.8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1443.8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1443.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23003.48</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23003.48</v>
+      </c>
+      <c r="J25" t="n">
+        <v>23003.48</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>344.93</v>
+      </c>
+      <c r="E26" t="n">
+        <v>344.93</v>
+      </c>
+      <c r="F26" t="n">
+        <v>344.93</v>
+      </c>
+      <c r="G26" t="n">
+        <v>344.93</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20511.97</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20511.97</v>
+      </c>
+      <c r="J26" t="n">
+        <v>20511.97</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FARTWORM</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2151.47</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2151.47</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2151.47</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2151.47</v>
+      </c>
+      <c r="H27" t="n">
+        <v>18910.67</v>
+      </c>
+      <c r="I27" t="n">
+        <v>18910.67</v>
+      </c>
+      <c r="J27" t="n">
+        <v>18910.67</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>XBT</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>368985.31</v>
+      </c>
+      <c r="E28" t="n">
+        <v>368985.31</v>
+      </c>
+      <c r="F28" t="n">
+        <v>368985.31</v>
+      </c>
+      <c r="G28" t="n">
+        <v>368985.31</v>
+      </c>
+      <c r="H28" t="n">
+        <v>476713.26</v>
+      </c>
+      <c r="I28" t="n">
+        <v>476713.26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>476713.26</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>RUECAT</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>15078.71</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15078.71</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15078.71</v>
+      </c>
+      <c r="G29" t="n">
+        <v>15078.71</v>
+      </c>
+      <c r="H29" t="n">
+        <v>113029.42</v>
+      </c>
+      <c r="I29" t="n">
+        <v>113029.42</v>
+      </c>
+      <c r="J29" t="n">
+        <v>113029.42</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DREAM</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>70371.00999999999</v>
+      </c>
+      <c r="E30" t="n">
+        <v>70371.00999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>70371.00999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>70371.00999999999</v>
+      </c>
+      <c r="H30" t="n">
+        <v>179208.28</v>
+      </c>
+      <c r="I30" t="n">
+        <v>179208.28</v>
+      </c>
+      <c r="J30" t="n">
+        <v>179208.28</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CRND</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>87608.88</v>
+      </c>
+      <c r="E31" t="n">
+        <v>87608.88</v>
+      </c>
+      <c r="F31" t="n">
+        <v>87608.88</v>
+      </c>
+      <c r="G31" t="n">
+        <v>87608.88</v>
+      </c>
+      <c r="H31" t="n">
+        <v>85510.66</v>
+      </c>
+      <c r="I31" t="n">
+        <v>85510.66</v>
+      </c>
+      <c r="J31" t="n">
+        <v>85510.66</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>487.87</v>
+      </c>
+      <c r="E32" t="n">
+        <v>487.87</v>
+      </c>
+      <c r="F32" t="n">
+        <v>487.87</v>
+      </c>
+      <c r="G32" t="n">
+        <v>487.87</v>
+      </c>
+      <c r="H32" t="n">
+        <v>11774.15</v>
+      </c>
+      <c r="I32" t="n">
+        <v>11774.15</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11774.15</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CHARLIE</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>105075.99</v>
+      </c>
+      <c r="E33" t="n">
+        <v>105075.99</v>
+      </c>
+      <c r="F33" t="n">
+        <v>105075.99</v>
+      </c>
+      <c r="G33" t="n">
+        <v>105075.99</v>
+      </c>
+      <c r="H33" t="n">
+        <v>127860.95</v>
+      </c>
+      <c r="I33" t="n">
+        <v>127860.95</v>
+      </c>
+      <c r="J33" t="n">
+        <v>127860.95</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AI4</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>174688.37</v>
+      </c>
+      <c r="E34" t="n">
+        <v>174688.37</v>
+      </c>
+      <c r="F34" t="n">
+        <v>174688.37</v>
+      </c>
+      <c r="G34" t="n">
+        <v>174688.37</v>
+      </c>
+      <c r="H34" t="n">
+        <v>113966.72</v>
+      </c>
+      <c r="I34" t="n">
+        <v>113966.72</v>
+      </c>
+      <c r="J34" t="n">
+        <v>113966.72</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Pochita</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>152.92</v>
+      </c>
+      <c r="E35" t="n">
+        <v>152.92</v>
+      </c>
+      <c r="F35" t="n">
+        <v>152.92</v>
+      </c>
+      <c r="G35" t="n">
+        <v>152.92</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9633.25</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9633.25</v>
+      </c>
+      <c r="J35" t="n">
+        <v>9633.25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>692031.97</v>
+      </c>
+      <c r="E36" t="n">
+        <v>692031.97</v>
+      </c>
+      <c r="F36" t="n">
+        <v>692031.97</v>
+      </c>
+      <c r="G36" t="n">
+        <v>692031.97</v>
+      </c>
+      <c r="H36" t="n">
+        <v>227479.99</v>
+      </c>
+      <c r="I36" t="n">
+        <v>227479.99</v>
+      </c>
+      <c r="J36" t="n">
+        <v>227479.99</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1Bull</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>11818.71</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11818.71</v>
+      </c>
+      <c r="F37" t="n">
+        <v>11818.71</v>
+      </c>
+      <c r="G37" t="n">
+        <v>11818.71</v>
+      </c>
+      <c r="H37" t="n">
+        <v>26184.86</v>
+      </c>
+      <c r="I37" t="n">
+        <v>26184.86</v>
+      </c>
+      <c r="J37" t="n">
+        <v>26184.86</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BAR</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>54857.2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>54857.2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>54857.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>54857.2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>70141.53999999999</v>
+      </c>
+      <c r="I38" t="n">
+        <v>70141.53999999999</v>
+      </c>
+      <c r="J38" t="n">
+        <v>70141.53999999999</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>F2yfGhxEi7Hw2mr2XQ3MLrdamiPt2rkdMf8PSyAGpump</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Noxi</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="E39" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="F39" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="G39" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9917.889999999999</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9917.889999999999</v>
+      </c>
+      <c r="J39" t="n">
+        <v>9917.889999999999</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>FARTLESS</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>65967.67</v>
+      </c>
+      <c r="E40" t="n">
+        <v>65967.67</v>
+      </c>
+      <c r="F40" t="n">
+        <v>65967.67</v>
+      </c>
+      <c r="G40" t="n">
+        <v>65967.67</v>
+      </c>
+      <c r="H40" t="n">
+        <v>187378.83</v>
+      </c>
+      <c r="I40" t="n">
+        <v>187378.83</v>
+      </c>
+      <c r="J40" t="n">
+        <v>187378.83</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>pibble</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>38915.86</v>
+      </c>
+      <c r="E41" t="n">
+        <v>38915.86</v>
+      </c>
+      <c r="F41" t="n">
+        <v>38915.86</v>
+      </c>
+      <c r="G41" t="n">
+        <v>38915.86</v>
+      </c>
+      <c r="H41" t="n">
+        <v>15787.01</v>
+      </c>
+      <c r="I41" t="n">
+        <v>15787.01</v>
+      </c>
+      <c r="J41" t="n">
+        <v>15787.01</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>IDIOT</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>10775.21</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10775.21</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10775.21</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10775.21</v>
+      </c>
+      <c r="H42" t="n">
+        <v>23482.46</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23482.46</v>
+      </c>
+      <c r="J42" t="n">
+        <v>23482.46</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SHITTER</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>19919.41</v>
+      </c>
+      <c r="E43" t="n">
+        <v>19919.41</v>
+      </c>
+      <c r="F43" t="n">
+        <v>19919.41</v>
+      </c>
+      <c r="G43" t="n">
+        <v>19919.41</v>
+      </c>
+      <c r="H43" t="n">
+        <v>25896.96</v>
+      </c>
+      <c r="I43" t="n">
+        <v>25896.96</v>
+      </c>
+      <c r="J43" t="n">
+        <v>25896.96</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>RAGEGUY</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>105061.9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>105061.9</v>
+      </c>
+      <c r="F44" t="n">
+        <v>105061.9</v>
+      </c>
+      <c r="G44" t="n">
+        <v>105061.9</v>
+      </c>
+      <c r="H44" t="n">
+        <v>167278.94</v>
+      </c>
+      <c r="I44" t="n">
+        <v>167278.94</v>
+      </c>
+      <c r="J44" t="n">
+        <v>167278.94</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>USEFUL</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>12435.6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>12435.6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>12435.6</v>
+      </c>
+      <c r="G45" t="n">
+        <v>12435.6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>86701.36</v>
+      </c>
+      <c r="I45" t="n">
+        <v>86701.36</v>
+      </c>
+      <c r="J45" t="n">
+        <v>86701.36</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$CrepSol</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>3648.64</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3648.64</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3648.64</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3648.64</v>
+      </c>
+      <c r="H46" t="n">
+        <v>21746.59</v>
+      </c>
+      <c r="I46" t="n">
+        <v>21746.59</v>
+      </c>
+      <c r="J46" t="n">
+        <v>21746.59</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Hosico</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>243.22</v>
+      </c>
+      <c r="E47" t="n">
+        <v>243.22</v>
+      </c>
+      <c r="F47" t="n">
+        <v>243.22</v>
+      </c>
+      <c r="G47" t="n">
+        <v>243.22</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8763.370000000001</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8763.370000000001</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8763.370000000001</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1% Club</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="E48" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="F48" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="G48" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7093.03</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7093.03</v>
+      </c>
+      <c r="J48" t="n">
+        <v>7093.03</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>HOODIE</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>107.67</v>
+      </c>
+      <c r="E49" t="n">
+        <v>107.67</v>
+      </c>
+      <c r="F49" t="n">
+        <v>107.67</v>
+      </c>
+      <c r="G49" t="n">
+        <v>107.67</v>
+      </c>
+      <c r="H49" t="n">
+        <v>65469</v>
+      </c>
+      <c r="I49" t="n">
+        <v>65469</v>
+      </c>
+      <c r="J49" t="n">
+        <v>65469</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>So11111111111111111111111111111111111111112</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>wSOL</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>233455493.81</v>
+      </c>
+      <c r="E50" t="n">
+        <v>233455493.81</v>
+      </c>
+      <c r="F50" t="n">
+        <v>233455493.81</v>
+      </c>
+      <c r="G50" t="n">
+        <v>233455493.81</v>
+      </c>
+      <c r="H50" t="n">
+        <v>53601225.22</v>
+      </c>
+      <c r="I50" t="n">
+        <v>53601225.22</v>
+      </c>
+      <c r="J50" t="n">
+        <v>53601225.22</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>YAO</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>9768.040000000001</v>
+      </c>
+      <c r="E51" t="n">
+        <v>9768.040000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9768.040000000001</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9768.040000000001</v>
+      </c>
+      <c r="H51" t="n">
+        <v>61668.44</v>
+      </c>
+      <c r="I51" t="n">
+        <v>61668.44</v>
+      </c>
+      <c r="J51" t="n">
+        <v>61668.44</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -23,6 +23,7 @@
     <sheet name="History" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Discovered" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Performance" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Signals" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,13 +532,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>207.053</v>
+        <v>205.54</v>
       </c>
       <c r="F2" t="n">
-        <v>233455493.81</v>
+        <v>220621620.88</v>
       </c>
       <c r="G2" t="n">
-        <v>53601225.22</v>
+        <v>53450004.26</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -578,16 +579,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.003792</v>
+        <v>0.0002445</v>
       </c>
       <c r="F3" t="n">
-        <v>945698.1</v>
+        <v>1577455.76</v>
       </c>
       <c r="G3" t="n">
-        <v>294904.23</v>
+        <v>90527.12</v>
       </c>
       <c r="H3" t="n">
-        <v>3792395</v>
+        <v>244569</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -625,16 +626,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.001795</v>
+        <v>0.001522</v>
       </c>
       <c r="F4" t="n">
-        <v>692031.97</v>
+        <v>672243.3100000001</v>
       </c>
       <c r="G4" t="n">
-        <v>227479.99</v>
+        <v>209028.77</v>
       </c>
       <c r="H4" t="n">
-        <v>1395663</v>
+        <v>1183573</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -672,16 +673,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.002568</v>
+        <v>0.002358</v>
       </c>
       <c r="F5" t="n">
-        <v>368985.31</v>
+        <v>294308.51</v>
       </c>
       <c r="G5" t="n">
-        <v>476713.26</v>
+        <v>455405.35</v>
       </c>
       <c r="H5" t="n">
-        <v>2566941</v>
+        <v>2357651</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -705,30 +706,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1nu</t>
+          <t>AI4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1nu</t>
+          <t>AI⁴</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0002324</v>
+        <v>0.0003619</v>
       </c>
       <c r="F6" t="n">
-        <v>276444.57</v>
+        <v>177311.65</v>
       </c>
       <c r="G6" t="n">
-        <v>60153.92</v>
+        <v>111241.9</v>
       </c>
       <c r="H6" t="n">
-        <v>232418</v>
+        <v>361918</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -752,30 +753,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AI4</t>
+          <t>1nu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AI⁴</t>
+          <t>1nu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0003776</v>
+        <v>0.0002178</v>
       </c>
       <c r="F7" t="n">
-        <v>174688.37</v>
+        <v>157498.33</v>
       </c>
       <c r="G7" t="n">
-        <v>113966.72</v>
+        <v>58344.72</v>
       </c>
       <c r="H7" t="n">
-        <v>377652</v>
+        <v>217892</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -813,16 +814,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0004144</v>
+        <v>0.0004911</v>
       </c>
       <c r="F8" t="n">
-        <v>105075.99</v>
+        <v>111075.89</v>
       </c>
       <c r="G8" t="n">
-        <v>127860.95</v>
+        <v>138767.97</v>
       </c>
       <c r="H8" t="n">
-        <v>414485</v>
+        <v>491098</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -860,16 +861,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.001185</v>
+        <v>0.001056</v>
       </c>
       <c r="F9" t="n">
-        <v>105061.9</v>
+        <v>93329.10000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>167278.94</v>
+        <v>157467.53</v>
       </c>
       <c r="H9" t="n">
-        <v>1185158</v>
+        <v>1056417</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -893,30 +894,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CRND</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Crundle</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0003381</v>
+        <v>0.0004409</v>
       </c>
       <c r="F10" t="n">
-        <v>87608.88</v>
+        <v>75785.72</v>
       </c>
       <c r="G10" t="n">
-        <v>85510.66</v>
+        <v>164781.49</v>
       </c>
       <c r="H10" t="n">
-        <v>337019</v>
+        <v>440902</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -940,30 +941,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>LION</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>67coin</t>
+          <t>Loaded Lions</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9.642e-05</v>
+        <v>0.01559</v>
       </c>
       <c r="F11" t="n">
-        <v>76560.58</v>
+        <v>74326.74000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>51342.61</v>
+        <v>2010742.29</v>
       </c>
       <c r="H11" t="n">
-        <v>96269</v>
+        <v>77955060</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -987,30 +988,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>BullArena</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.0004524</v>
+        <v>0.0002998</v>
       </c>
       <c r="F12" t="n">
-        <v>73228.31</v>
+        <v>73121.07000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>167515.44</v>
+        <v>66719.75</v>
       </c>
       <c r="H12" t="n">
-        <v>452412</v>
+        <v>299835</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1048,16 +1049,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.001701</v>
+        <v>0.001699</v>
       </c>
       <c r="F13" t="n">
-        <v>70371.00999999999</v>
+        <v>69948.89</v>
       </c>
       <c r="G13" t="n">
-        <v>179208.28</v>
+        <v>178607.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1701084</v>
+        <v>1699917</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1081,30 +1082,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FARTLESS</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FARTLESS COIN</t>
+          <t>67coin</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.000807</v>
+        <v>9.69e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>65967.67</v>
+        <v>68915.92999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>187378.83</v>
+        <v>51301.15</v>
       </c>
       <c r="H14" t="n">
-        <v>807024</v>
+        <v>96744</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1128,30 +1129,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LION</t>
+          <t>CRND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Loaded Lions</t>
+          <t>Crundle</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.01562</v>
+        <v>0.0002433</v>
       </c>
       <c r="F15" t="n">
-        <v>65429.46</v>
+        <v>65784.78</v>
       </c>
       <c r="G15" t="n">
-        <v>2016664.05</v>
+        <v>74636.28</v>
       </c>
       <c r="H15" t="n">
-        <v>78147732</v>
+        <v>242486</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1175,30 +1176,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>FARTLESS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BullArena</t>
+          <t>FARTLESS COIN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.0003305</v>
+        <v>0.0007563</v>
       </c>
       <c r="F16" t="n">
-        <v>54857.2</v>
+        <v>61506.4</v>
       </c>
       <c r="G16" t="n">
-        <v>70141.53999999999</v>
+        <v>180842.22</v>
       </c>
       <c r="H16" t="n">
-        <v>330515</v>
+        <v>756356</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1236,16 +1237,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.0005474</v>
+        <v>0.0005225</v>
       </c>
       <c r="F17" t="n">
-        <v>54771.92</v>
+        <v>57349.74</v>
       </c>
       <c r="G17" t="n">
-        <v>148250.7</v>
+        <v>144356.86</v>
       </c>
       <c r="H17" t="n">
-        <v>547379</v>
+        <v>522485</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1283,16 +1284,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.0003552</v>
+        <v>0.0002618</v>
       </c>
       <c r="F18" t="n">
-        <v>47292.28</v>
+        <v>45059.89</v>
       </c>
       <c r="G18" t="n">
-        <v>76703.86</v>
+        <v>65745.16</v>
       </c>
       <c r="H18" t="n">
-        <v>355213</v>
+        <v>261762</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1316,30 +1317,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>Useless</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>Useless Coin</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2.059e-05</v>
+        <v>6.770000000000001e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>38915.86</v>
+        <v>31271.77</v>
       </c>
       <c r="G19" t="n">
-        <v>15787.01</v>
+        <v>38367.59</v>
       </c>
       <c r="H19" t="n">
-        <v>20593</v>
+        <v>67704</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1363,30 +1364,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Useless</t>
+          <t>RUECAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Useless Coin</t>
+          <t>Rue Cat</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.938e-05</v>
+        <v>0.0007378</v>
       </c>
       <c r="F20" t="n">
-        <v>32247.48</v>
+        <v>20667.76</v>
       </c>
       <c r="G20" t="n">
-        <v>41620.95</v>
+        <v>104399.53</v>
       </c>
       <c r="H20" t="n">
-        <v>79376</v>
+        <v>526927</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1410,30 +1411,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SHITTER</t>
+          <t>walkusa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SHITTERCOIN</t>
+          <t>WALKING ACROSS AMERICA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3.806e-05</v>
+        <v>7.873999999999999e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>19919.41</v>
+        <v>20454.98</v>
       </c>
       <c r="G21" t="n">
-        <v>25896.96</v>
+        <v>38005.01</v>
       </c>
       <c r="H21" t="n">
-        <v>38063</v>
+        <v>78743</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1471,16 +1472,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.000124</v>
+        <v>0.0001206</v>
       </c>
       <c r="F22" t="n">
-        <v>19353.7</v>
+        <v>16750.78</v>
       </c>
       <c r="G22" t="n">
-        <v>50436.71</v>
+        <v>49693.8</v>
       </c>
       <c r="H22" t="n">
-        <v>120321</v>
+        <v>117045</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1504,30 +1505,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HAROLD</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Harold</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.003771</v>
+        <v>1.437e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>16759.7</v>
+        <v>16477.22</v>
       </c>
       <c r="G23" t="n">
-        <v>547155.01</v>
+        <v>13196.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3771385</v>
+        <v>14372</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1551,30 +1552,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>walkusa</t>
+          <t>HAROLD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WALKING ACROSS AMERICA</t>
+          <t>Harold</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
+          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8.842e-05</v>
+        <v>0.003797</v>
       </c>
       <c r="F24" t="n">
-        <v>15338.38</v>
+        <v>13713.17</v>
       </c>
       <c r="G24" t="n">
-        <v>40359.96</v>
+        <v>548271.71</v>
       </c>
       <c r="H24" t="n">
-        <v>88424</v>
+        <v>3797017</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1598,30 +1599,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RUECAT</t>
+          <t>1Bull</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rue Cat</t>
+          <t>One bull run to change your life</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.00086</v>
+        <v>4.747e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>15078.71</v>
+        <v>12575</v>
       </c>
       <c r="G25" t="n">
-        <v>113029.42</v>
+        <v>27256.53</v>
       </c>
       <c r="H25" t="n">
-        <v>614208</v>
+        <v>47475</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1645,30 +1646,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>USEFUL</t>
+          <t>SHITTER</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>USEFUL COIN</t>
+          <t>SHITTERCOIN</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.0001606</v>
+        <v>3.337e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>12435.6</v>
+        <v>10842.96</v>
       </c>
       <c r="G26" t="n">
-        <v>86701.36</v>
+        <v>24438</v>
       </c>
       <c r="H26" t="n">
-        <v>160648</v>
+        <v>33370</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1692,30 +1693,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1Bull</t>
+          <t>USEFUL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>One bull run to change your life</t>
+          <t>USEFUL COIN</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4.366e-05</v>
+        <v>0.0001493</v>
       </c>
       <c r="F27" t="n">
-        <v>11818.71</v>
+        <v>9702.209999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>26184.86</v>
+        <v>83263.89</v>
       </c>
       <c r="H27" t="n">
-        <v>43659</v>
+        <v>149321</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1753,16 +1754,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.066e-05</v>
+        <v>3.152e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>10775.21</v>
+        <v>9321.280000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>23482.46</v>
+        <v>23774.39</v>
       </c>
       <c r="H28" t="n">
-        <v>30669</v>
+        <v>31526</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1800,16 +1801,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.0001537</v>
+        <v>0.0001472</v>
       </c>
       <c r="F29" t="n">
-        <v>9768.040000000001</v>
+        <v>8693.700000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>61668.44</v>
+        <v>60220.35</v>
       </c>
       <c r="H29" t="n">
-        <v>153677</v>
+        <v>147200</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1833,30 +1834,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1dog</t>
+          <t>APOLLO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1 dog can change your life</t>
+          <t>Apollo AI</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.234e-05</v>
+        <v>2.131e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>5430.44</v>
+        <v>4445.64</v>
       </c>
       <c r="G30" t="n">
-        <v>14457.39</v>
+        <v>9380.469999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>12309</v>
+        <v>21311</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1880,30 +1881,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$CrepSol</t>
+          <t>DETECTIVE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Crepe on Solana</t>
+          <t>Just can't prove it</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.217e-05</v>
+        <v>2.306e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>3648.64</v>
+        <v>3406.83</v>
       </c>
       <c r="G31" t="n">
-        <v>21746.59</v>
+        <v>19506.69</v>
       </c>
       <c r="H31" t="n">
-        <v>32177</v>
+        <v>22827</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1927,30 +1928,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DETECTIVE</t>
+          <t>1dog</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Just can't prove it</t>
+          <t>1 dog can change your life</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.315e-05</v>
+        <v>1.24e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>2917.65</v>
+        <v>2948.43</v>
       </c>
       <c r="G32" t="n">
-        <v>19581.11</v>
+        <v>14422.61</v>
       </c>
       <c r="H32" t="n">
-        <v>22921</v>
+        <v>12365</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1974,30 +1975,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>$CrepSol</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>Crepe on Solana</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.228e-05</v>
+        <v>3.121e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>2151.47</v>
+        <v>2756.32</v>
       </c>
       <c r="G33" t="n">
-        <v>18910.67</v>
+        <v>21377.62</v>
       </c>
       <c r="H33" t="n">
-        <v>22167</v>
+        <v>31208</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2021,30 +2022,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>APOLLO</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Apollo AI</t>
+          <t>Real World Asses</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1.124e-05</v>
+        <v>8.986e-08</v>
       </c>
       <c r="F34" t="n">
-        <v>1952.43</v>
+        <v>2397.78</v>
       </c>
       <c r="G34" t="n">
-        <v>6822.22</v>
+        <v>8765.9</v>
       </c>
       <c r="H34" t="n">
-        <v>11245</v>
+        <v>6200</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2068,30 +2069,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AUSBAGWORK</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AUSSIE BAG WORKERS</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.445e-05</v>
+        <v>2.04e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>1443.8</v>
+        <v>1968.83</v>
       </c>
       <c r="G35" t="n">
-        <v>23003.48</v>
+        <v>18056.33</v>
       </c>
       <c r="H35" t="n">
-        <v>24452</v>
+        <v>20296</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2115,30 +2116,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>AUSBAGWORK</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MOCHI CULT</t>
+          <t>AUSSIE BAG WORKERS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.56e-05</v>
+        <v>2.214e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>987.88</v>
+        <v>1780.36</v>
       </c>
       <c r="G36" t="n">
-        <v>22905.58</v>
+        <v>21831.69</v>
       </c>
       <c r="H36" t="n">
-        <v>15602</v>
+        <v>22144</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2162,30 +2163,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1 pill can change your life</t>
+          <t>MOCHI CULT</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>7.295e-06</v>
+        <v>1.54e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>786.4299999999999</v>
+        <v>1083.81</v>
       </c>
       <c r="G37" t="n">
-        <v>11412.26</v>
+        <v>22742.92</v>
       </c>
       <c r="H37" t="n">
-        <v>7291</v>
+        <v>15407</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2209,30 +2210,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Real World Asses</t>
+          <t>1 pill can change your life</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>9.668e-08</v>
+        <v>8.994000000000001e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>742.35</v>
+        <v>1049.41</v>
       </c>
       <c r="G38" t="n">
-        <v>9075.07</v>
+        <v>12609.91</v>
       </c>
       <c r="H38" t="n">
-        <v>6671</v>
+        <v>8990</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2270,16 +2271,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>8.438e-06</v>
+        <v>8.396999999999999e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>654.6900000000001</v>
+        <v>779.22</v>
       </c>
       <c r="G39" t="n">
-        <v>11893.07</v>
+        <v>11772.73</v>
       </c>
       <c r="H39" t="n">
-        <v>8438</v>
+        <v>8398</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2303,30 +2304,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>7 Coin</t>
+          <t>1 pill can change your life</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
+          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8.861e-06</v>
+        <v>4.179e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>487.87</v>
+        <v>620.41</v>
       </c>
       <c r="G40" t="n">
-        <v>11774.15</v>
+        <v>7827.86</v>
       </c>
       <c r="H40" t="n">
-        <v>8858</v>
+        <v>4179</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2350,30 +2351,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>101 Year Old Pumpfun Livestreamr</t>
+          <t>7 Coin</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.289e-05</v>
+        <v>8.861e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>435.19</v>
+        <v>486.76</v>
       </c>
       <c r="G41" t="n">
-        <v>16233.78</v>
+        <v>11774.15</v>
       </c>
       <c r="H41" t="n">
-        <v>12665</v>
+        <v>8858</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2411,16 +2412,16 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5.042e-06</v>
+        <v>5.012e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>393.88</v>
+        <v>401.86</v>
       </c>
       <c r="G42" t="n">
-        <v>9216.25</v>
+        <v>9172.389999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>5011</v>
+        <v>4981</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2444,30 +2445,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>101 Year Old Pumpfun Livestreamr</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1495.097</v>
+        <v>1.253e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>344.93</v>
+        <v>331.62</v>
       </c>
       <c r="G43" t="n">
-        <v>20511.97</v>
+        <v>15828.01</v>
       </c>
       <c r="H43" t="n">
-        <v>24145799</v>
+        <v>12318</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2491,30 +2492,30 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hosico</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Hosico Cat</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5.186e-06</v>
+        <v>1497.81</v>
       </c>
       <c r="F44" t="n">
-        <v>243.22</v>
+        <v>327.36</v>
       </c>
       <c r="G44" t="n">
-        <v>8763.370000000001</v>
+        <v>20507.6</v>
       </c>
       <c r="H44" t="n">
-        <v>5184</v>
+        <v>24189763</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2538,30 +2539,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>obvious</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>in hindsight</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5.807e-06</v>
+        <v>5.306e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>152.92</v>
+        <v>192.74</v>
       </c>
       <c r="G45" t="n">
-        <v>9633.25</v>
+        <v>8866.73</v>
       </c>
       <c r="H45" t="n">
-        <v>5808</v>
+        <v>5304</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2585,30 +2586,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HOODIE</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hoodie</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.0002942</v>
+        <v>5.661e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>107.67</v>
+        <v>166.07</v>
       </c>
       <c r="G46" t="n">
-        <v>65469</v>
+        <v>9420.92</v>
       </c>
       <c r="H46" t="n">
-        <v>294270</v>
+        <v>5662</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2632,30 +2633,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PILL</t>
+          <t>Hosico</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PumpFun Pill</t>
+          <t>Hosico Cat</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.418e-06</v>
+        <v>4.996e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>67.7</v>
+        <v>124.42</v>
       </c>
       <c r="G47" t="n">
-        <v>10587.32</v>
+        <v>8536.9</v>
       </c>
       <c r="H47" t="n">
-        <v>7415</v>
+        <v>4993</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2679,30 +2680,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1% Club</t>
+          <t>HOODIE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The 1% Club</t>
+          <t>Hoodie</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
+          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.567e-06</v>
+        <v>0.0002925</v>
       </c>
       <c r="F48" t="n">
-        <v>66.52</v>
+        <v>109.8</v>
       </c>
       <c r="G48" t="n">
-        <v>7093.03</v>
+        <v>65114.66</v>
       </c>
       <c r="H48" t="n">
-        <v>4567</v>
+        <v>292506</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2726,30 +2727,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FLY</t>
+          <t>PILL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Nexa</t>
+          <t>PumpFun Pill</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.01323</v>
+        <v>7.335e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>63.76</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>7739.75</v>
+        <v>10524.01</v>
       </c>
       <c r="H49" t="n">
-        <v>13237</v>
+        <v>7331</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2773,30 +2774,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Noxi</t>
+          <t>1% Club</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Noxi Labs AI</t>
+          <t>The 1% Club</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>F2yfGhxEi7Hw2mr2XQ3MLrdamiPt2rkdMf8PSyAGpump</t>
+          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.374e-06</v>
+        <v>4.566e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>42.28</v>
+        <v>66.72</v>
       </c>
       <c r="G50" t="n">
-        <v>9917.889999999999</v>
+        <v>7092.64</v>
       </c>
       <c r="H50" t="n">
-        <v>6373</v>
+        <v>4567</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2820,30 +2821,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BONKZ</t>
+          <t>FLY</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bonkzilla</t>
+          <t>Nexa</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6asZKPjABE4c7V46psw1yDrmCQBzefGtxKCzR8zmbonk</t>
+          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3.34e-06</v>
+        <v>0.01323</v>
       </c>
       <c r="F51" t="n">
-        <v>35.51</v>
+        <v>56.21</v>
       </c>
       <c r="G51" t="n">
-        <v>5942.46</v>
+        <v>7739.75</v>
       </c>
       <c r="H51" t="n">
-        <v>3341</v>
+        <v>13237</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -7402,7 +7403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7471,6 +7472,21 @@
           <t>avg_liquidity_7d</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>presence_7d</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>presence_30d</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>current_streak_days</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7498,22 +7514,31 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>207.053</v>
+        <v>205.54</v>
       </c>
       <c r="H2" t="n">
-        <v>233455493.81</v>
+        <v>220621620.88</v>
       </c>
       <c r="I2" t="n">
-        <v>53601225.22</v>
+        <v>53450004.26</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>233455493.81</v>
+        <v>220621620.88</v>
       </c>
       <c r="L2" t="n">
-        <v>53601225.22</v>
+        <v>53450004.26</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -7542,22 +7567,31 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003792</v>
+        <v>0.0002445</v>
       </c>
       <c r="H3" t="n">
-        <v>945698.1</v>
+        <v>1577455.76</v>
       </c>
       <c r="I3" t="n">
-        <v>294904.23</v>
+        <v>90527.12</v>
       </c>
       <c r="J3" t="n">
-        <v>3792395</v>
+        <v>244569</v>
       </c>
       <c r="K3" t="n">
-        <v>945698.1</v>
+        <v>1577455.76</v>
       </c>
       <c r="L3" t="n">
-        <v>294904.23</v>
+        <v>90527.12</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -7586,22 +7620,31 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001795</v>
+        <v>0.001522</v>
       </c>
       <c r="H4" t="n">
-        <v>692031.97</v>
+        <v>672243.3100000001</v>
       </c>
       <c r="I4" t="n">
-        <v>227479.99</v>
+        <v>209028.77</v>
       </c>
       <c r="J4" t="n">
-        <v>1395663</v>
+        <v>1183573</v>
       </c>
       <c r="K4" t="n">
-        <v>692031.97</v>
+        <v>672243.3100000001</v>
       </c>
       <c r="L4" t="n">
-        <v>227479.99</v>
+        <v>209028.77</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7630,38 +7673,47 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002568</v>
+        <v>0.002358</v>
       </c>
       <c r="H5" t="n">
-        <v>368985.31</v>
+        <v>294308.51</v>
       </c>
       <c r="I5" t="n">
-        <v>476713.26</v>
+        <v>455405.35</v>
       </c>
       <c r="J5" t="n">
-        <v>2566941</v>
+        <v>2357651</v>
       </c>
       <c r="K5" t="n">
-        <v>368985.31</v>
+        <v>294308.51</v>
       </c>
       <c r="L5" t="n">
-        <v>476713.26</v>
+        <v>455405.35</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1nu</t>
+          <t>AI4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1nu</t>
+          <t>AI⁴</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -7674,38 +7726,47 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002324</v>
+        <v>0.0003619</v>
       </c>
       <c r="H6" t="n">
-        <v>276444.57</v>
+        <v>177311.65</v>
       </c>
       <c r="I6" t="n">
-        <v>60153.92</v>
+        <v>111241.9</v>
       </c>
       <c r="J6" t="n">
-        <v>232418</v>
+        <v>361918</v>
       </c>
       <c r="K6" t="n">
-        <v>276444.57</v>
+        <v>177311.65</v>
       </c>
       <c r="L6" t="n">
-        <v>60153.92</v>
+        <v>111241.9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AI4</t>
+          <t>1nu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AI⁴</t>
+          <t>1nu</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -7718,22 +7779,31 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003776</v>
+        <v>0.0002178</v>
       </c>
       <c r="H7" t="n">
-        <v>174688.37</v>
+        <v>157498.33</v>
       </c>
       <c r="I7" t="n">
-        <v>113966.72</v>
+        <v>58344.72</v>
       </c>
       <c r="J7" t="n">
-        <v>377652</v>
+        <v>217892</v>
       </c>
       <c r="K7" t="n">
-        <v>174688.37</v>
+        <v>157498.33</v>
       </c>
       <c r="L7" t="n">
-        <v>113966.72</v>
+        <v>58344.72</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -7762,22 +7832,31 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0004144</v>
+        <v>0.0004911</v>
       </c>
       <c r="H8" t="n">
-        <v>105075.99</v>
+        <v>111075.89</v>
       </c>
       <c r="I8" t="n">
-        <v>127860.95</v>
+        <v>138767.97</v>
       </c>
       <c r="J8" t="n">
-        <v>414485</v>
+        <v>491098</v>
       </c>
       <c r="K8" t="n">
-        <v>105075.99</v>
+        <v>111075.89</v>
       </c>
       <c r="L8" t="n">
-        <v>127860.95</v>
+        <v>138767.97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -7806,38 +7885,47 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001185</v>
+        <v>0.001056</v>
       </c>
       <c r="H9" t="n">
-        <v>105061.9</v>
+        <v>93329.10000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>167278.94</v>
+        <v>157467.53</v>
       </c>
       <c r="J9" t="n">
-        <v>1185158</v>
+        <v>1056417</v>
       </c>
       <c r="K9" t="n">
-        <v>105061.9</v>
+        <v>93329.10000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>167278.94</v>
+        <v>157467.53</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CRND</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Crundle</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -7850,38 +7938,47 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003381</v>
+        <v>0.0004409</v>
       </c>
       <c r="H10" t="n">
-        <v>87608.88</v>
+        <v>75785.72</v>
       </c>
       <c r="I10" t="n">
-        <v>85510.66</v>
+        <v>164781.49</v>
       </c>
       <c r="J10" t="n">
-        <v>337019</v>
+        <v>440902</v>
       </c>
       <c r="K10" t="n">
-        <v>87608.88</v>
+        <v>75785.72</v>
       </c>
       <c r="L10" t="n">
-        <v>85510.66</v>
+        <v>164781.49</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>LION</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>67coin</t>
+          <t>Loaded Lions</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -7894,38 +7991,47 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>9.642e-05</v>
+        <v>0.01559</v>
       </c>
       <c r="H11" t="n">
-        <v>76560.58</v>
+        <v>74326.74000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>51342.61</v>
+        <v>2010742.29</v>
       </c>
       <c r="J11" t="n">
-        <v>96269</v>
+        <v>77955060</v>
       </c>
       <c r="K11" t="n">
-        <v>76560.58</v>
+        <v>74326.74000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>51342.61</v>
+        <v>2010742.29</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>BullArena</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -7938,22 +8044,31 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0004524</v>
+        <v>0.0002998</v>
       </c>
       <c r="H12" t="n">
-        <v>73228.31</v>
+        <v>73121.07000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>167515.44</v>
+        <v>66719.75</v>
       </c>
       <c r="J12" t="n">
-        <v>452412</v>
+        <v>299835</v>
       </c>
       <c r="K12" t="n">
-        <v>73228.31</v>
+        <v>73121.07000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>167515.44</v>
+        <v>66719.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -7982,38 +8097,47 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001701</v>
+        <v>0.001699</v>
       </c>
       <c r="H13" t="n">
-        <v>70371.00999999999</v>
+        <v>69948.89</v>
       </c>
       <c r="I13" t="n">
-        <v>179208.28</v>
+        <v>178607.9</v>
       </c>
       <c r="J13" t="n">
-        <v>1701084</v>
+        <v>1699917</v>
       </c>
       <c r="K13" t="n">
-        <v>70371.00999999999</v>
+        <v>69948.89</v>
       </c>
       <c r="L13" t="n">
-        <v>179208.28</v>
+        <v>178607.9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FARTLESS</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FARTLESS COIN</t>
+          <t>67coin</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -8026,38 +8150,47 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.000807</v>
+        <v>9.69e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>65967.67</v>
+        <v>68915.92999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>187378.83</v>
+        <v>51301.15</v>
       </c>
       <c r="J14" t="n">
-        <v>807024</v>
+        <v>96744</v>
       </c>
       <c r="K14" t="n">
-        <v>65967.67</v>
+        <v>68915.92999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>187378.83</v>
+        <v>51301.15</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LION</t>
+          <t>CRND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Loaded Lions</t>
+          <t>Crundle</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -8070,38 +8203,47 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01562</v>
+        <v>0.0002433</v>
       </c>
       <c r="H15" t="n">
-        <v>65429.46</v>
+        <v>65784.78</v>
       </c>
       <c r="I15" t="n">
-        <v>2016664.05</v>
+        <v>74636.28</v>
       </c>
       <c r="J15" t="n">
-        <v>78147732</v>
+        <v>242486</v>
       </c>
       <c r="K15" t="n">
-        <v>65429.46</v>
+        <v>65784.78</v>
       </c>
       <c r="L15" t="n">
-        <v>2016664.05</v>
+        <v>74636.28</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>FARTLESS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BullArena</t>
+          <t>FARTLESS COIN</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -8114,22 +8256,31 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003305</v>
+        <v>0.0007563</v>
       </c>
       <c r="H16" t="n">
-        <v>54857.2</v>
+        <v>61506.4</v>
       </c>
       <c r="I16" t="n">
-        <v>70141.53999999999</v>
+        <v>180842.22</v>
       </c>
       <c r="J16" t="n">
-        <v>330515</v>
+        <v>756356</v>
       </c>
       <c r="K16" t="n">
-        <v>54857.2</v>
+        <v>61506.4</v>
       </c>
       <c r="L16" t="n">
-        <v>70141.53999999999</v>
+        <v>180842.22</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -8158,22 +8309,31 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0005474</v>
+        <v>0.0005225</v>
       </c>
       <c r="H17" t="n">
-        <v>54771.92</v>
+        <v>57349.74</v>
       </c>
       <c r="I17" t="n">
-        <v>148250.7</v>
+        <v>144356.86</v>
       </c>
       <c r="J17" t="n">
-        <v>547379</v>
+        <v>522485</v>
       </c>
       <c r="K17" t="n">
-        <v>54771.92</v>
+        <v>57349.74</v>
       </c>
       <c r="L17" t="n">
-        <v>148250.7</v>
+        <v>144356.86</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -8202,38 +8362,47 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0003552</v>
+        <v>0.0002618</v>
       </c>
       <c r="H18" t="n">
-        <v>47292.28</v>
+        <v>45059.89</v>
       </c>
       <c r="I18" t="n">
-        <v>76703.86</v>
+        <v>65745.16</v>
       </c>
       <c r="J18" t="n">
-        <v>355213</v>
+        <v>261762</v>
       </c>
       <c r="K18" t="n">
-        <v>47292.28</v>
+        <v>45059.89</v>
       </c>
       <c r="L18" t="n">
-        <v>76703.86</v>
+        <v>65745.16</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>Useless</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>Useless Coin</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -8246,38 +8415,47 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>2.059e-05</v>
+        <v>6.770000000000001e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>38915.86</v>
+        <v>31271.77</v>
       </c>
       <c r="I19" t="n">
-        <v>15787.01</v>
+        <v>38367.59</v>
       </c>
       <c r="J19" t="n">
-        <v>20593</v>
+        <v>67704</v>
       </c>
       <c r="K19" t="n">
-        <v>38915.86</v>
+        <v>31271.77</v>
       </c>
       <c r="L19" t="n">
-        <v>15787.01</v>
+        <v>38367.59</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Useless</t>
+          <t>RUECAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Useless Coin</t>
+          <t>Rue Cat</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -8290,38 +8468,47 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>7.938e-05</v>
+        <v>0.0007378</v>
       </c>
       <c r="H20" t="n">
-        <v>32247.48</v>
+        <v>20667.76</v>
       </c>
       <c r="I20" t="n">
-        <v>41620.95</v>
+        <v>104399.53</v>
       </c>
       <c r="J20" t="n">
-        <v>79376</v>
+        <v>526927</v>
       </c>
       <c r="K20" t="n">
-        <v>32247.48</v>
+        <v>20667.76</v>
       </c>
       <c r="L20" t="n">
-        <v>41620.95</v>
+        <v>104399.53</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SHITTER</t>
+          <t>walkusa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SHITTERCOIN</t>
+          <t>WALKING ACROSS AMERICA</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
@@ -8334,22 +8521,31 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>3.806e-05</v>
+        <v>7.873999999999999e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>19919.41</v>
+        <v>20454.98</v>
       </c>
       <c r="I21" t="n">
-        <v>25896.96</v>
+        <v>38005.01</v>
       </c>
       <c r="J21" t="n">
-        <v>38063</v>
+        <v>78743</v>
       </c>
       <c r="K21" t="n">
-        <v>19919.41</v>
+        <v>20454.98</v>
       </c>
       <c r="L21" t="n">
-        <v>25896.96</v>
+        <v>38005.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -8378,38 +8574,47 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.000124</v>
+        <v>0.0001206</v>
       </c>
       <c r="H22" t="n">
-        <v>19353.7</v>
+        <v>16750.78</v>
       </c>
       <c r="I22" t="n">
-        <v>50436.71</v>
+        <v>49693.8</v>
       </c>
       <c r="J22" t="n">
-        <v>120321</v>
+        <v>117045</v>
       </c>
       <c r="K22" t="n">
-        <v>19353.7</v>
+        <v>16750.78</v>
       </c>
       <c r="L22" t="n">
-        <v>50436.71</v>
+        <v>49693.8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HAROLD</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Harold</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -8422,38 +8627,47 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.003771</v>
+        <v>1.437e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>16759.7</v>
+        <v>16477.22</v>
       </c>
       <c r="I23" t="n">
-        <v>547155.01</v>
+        <v>13196.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3771385</v>
+        <v>14372</v>
       </c>
       <c r="K23" t="n">
-        <v>16759.7</v>
+        <v>16477.22</v>
       </c>
       <c r="L23" t="n">
-        <v>547155.01</v>
+        <v>13196.2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
+          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>walkusa</t>
+          <t>HAROLD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WALKING ACROSS AMERICA</t>
+          <t>Harold</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -8466,38 +8680,47 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>8.842e-05</v>
+        <v>0.003797</v>
       </c>
       <c r="H24" t="n">
-        <v>15338.38</v>
+        <v>13713.17</v>
       </c>
       <c r="I24" t="n">
-        <v>40359.96</v>
+        <v>548271.71</v>
       </c>
       <c r="J24" t="n">
-        <v>88424</v>
+        <v>3797017</v>
       </c>
       <c r="K24" t="n">
-        <v>15338.38</v>
+        <v>13713.17</v>
       </c>
       <c r="L24" t="n">
-        <v>40359.96</v>
+        <v>548271.71</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RUECAT</t>
+          <t>1Bull</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rue Cat</t>
+          <t>One bull run to change your life</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
@@ -8510,38 +8733,47 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00086</v>
+        <v>4.747e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>15078.71</v>
+        <v>12575</v>
       </c>
       <c r="I25" t="n">
-        <v>113029.42</v>
+        <v>27256.53</v>
       </c>
       <c r="J25" t="n">
-        <v>614208</v>
+        <v>47475</v>
       </c>
       <c r="K25" t="n">
-        <v>15078.71</v>
+        <v>12575</v>
       </c>
       <c r="L25" t="n">
-        <v>113029.42</v>
+        <v>27256.53</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>USEFUL</t>
+          <t>SHITTER</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>USEFUL COIN</t>
+          <t>SHITTERCOIN</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
@@ -8554,38 +8786,47 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001606</v>
+        <v>3.337e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>12435.6</v>
+        <v>10842.96</v>
       </c>
       <c r="I26" t="n">
-        <v>86701.36</v>
+        <v>24438</v>
       </c>
       <c r="J26" t="n">
-        <v>160648</v>
+        <v>33370</v>
       </c>
       <c r="K26" t="n">
-        <v>12435.6</v>
+        <v>10842.96</v>
       </c>
       <c r="L26" t="n">
-        <v>86701.36</v>
+        <v>24438</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1Bull</t>
+          <t>USEFUL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>One bull run to change your life</t>
+          <t>USEFUL COIN</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
@@ -8598,22 +8839,31 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>4.366e-05</v>
+        <v>0.0001493</v>
       </c>
       <c r="H27" t="n">
-        <v>11818.71</v>
+        <v>9702.209999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>26184.86</v>
+        <v>83263.89</v>
       </c>
       <c r="J27" t="n">
-        <v>43659</v>
+        <v>149321</v>
       </c>
       <c r="K27" t="n">
-        <v>11818.71</v>
+        <v>9702.209999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>26184.86</v>
+        <v>83263.89</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -8642,22 +8892,31 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>3.066e-05</v>
+        <v>3.152e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>10775.21</v>
+        <v>9321.280000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>23482.46</v>
+        <v>23774.39</v>
       </c>
       <c r="J28" t="n">
-        <v>30669</v>
+        <v>31526</v>
       </c>
       <c r="K28" t="n">
-        <v>10775.21</v>
+        <v>9321.280000000001</v>
       </c>
       <c r="L28" t="n">
-        <v>23482.46</v>
+        <v>23774.39</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -8686,38 +8945,47 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0001537</v>
+        <v>0.0001472</v>
       </c>
       <c r="H29" t="n">
-        <v>9768.040000000001</v>
+        <v>8693.700000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>61668.44</v>
+        <v>60220.35</v>
       </c>
       <c r="J29" t="n">
-        <v>153677</v>
+        <v>147200</v>
       </c>
       <c r="K29" t="n">
-        <v>9768.040000000001</v>
+        <v>8693.700000000001</v>
       </c>
       <c r="L29" t="n">
-        <v>61668.44</v>
+        <v>60220.35</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1dog</t>
+          <t>APOLLO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1 dog can change your life</t>
+          <t>Apollo AI</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -8730,38 +8998,47 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>1.234e-05</v>
+        <v>2.131e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>5430.44</v>
+        <v>4445.64</v>
       </c>
       <c r="I30" t="n">
-        <v>14457.39</v>
+        <v>9380.469999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>12309</v>
+        <v>21311</v>
       </c>
       <c r="K30" t="n">
-        <v>5430.44</v>
+        <v>4445.64</v>
       </c>
       <c r="L30" t="n">
-        <v>14457.39</v>
+        <v>9380.469999999999</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$CrepSol</t>
+          <t>DETECTIVE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Crepe on Solana</t>
+          <t>Just can't prove it</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
@@ -8774,38 +9051,47 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>3.217e-05</v>
+        <v>2.306e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>3648.64</v>
+        <v>3406.83</v>
       </c>
       <c r="I31" t="n">
-        <v>21746.59</v>
+        <v>19506.69</v>
       </c>
       <c r="J31" t="n">
-        <v>32177</v>
+        <v>22827</v>
       </c>
       <c r="K31" t="n">
-        <v>3648.64</v>
+        <v>3406.83</v>
       </c>
       <c r="L31" t="n">
-        <v>21746.59</v>
+        <v>19506.69</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DETECTIVE</t>
+          <t>1dog</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Just can't prove it</t>
+          <t>1 dog can change your life</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
@@ -8818,38 +9104,47 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>2.315e-05</v>
+        <v>1.24e-05</v>
       </c>
       <c r="H32" t="n">
-        <v>2917.65</v>
+        <v>2948.43</v>
       </c>
       <c r="I32" t="n">
-        <v>19581.11</v>
+        <v>14422.61</v>
       </c>
       <c r="J32" t="n">
-        <v>22921</v>
+        <v>12365</v>
       </c>
       <c r="K32" t="n">
-        <v>2917.65</v>
+        <v>2948.43</v>
       </c>
       <c r="L32" t="n">
-        <v>19581.11</v>
+        <v>14422.61</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>$CrepSol</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>Crepe on Solana</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
@@ -8862,38 +9157,47 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>2.228e-05</v>
+        <v>3.121e-05</v>
       </c>
       <c r="H33" t="n">
-        <v>2151.47</v>
+        <v>2756.32</v>
       </c>
       <c r="I33" t="n">
-        <v>18910.67</v>
+        <v>21377.62</v>
       </c>
       <c r="J33" t="n">
-        <v>22167</v>
+        <v>31208</v>
       </c>
       <c r="K33" t="n">
-        <v>2151.47</v>
+        <v>2756.32</v>
       </c>
       <c r="L33" t="n">
-        <v>18910.67</v>
+        <v>21377.62</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>APOLLO</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Apollo AI</t>
+          <t>Real World Asses</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -8906,38 +9210,47 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>1.124e-05</v>
+        <v>8.986e-08</v>
       </c>
       <c r="H34" t="n">
-        <v>1952.43</v>
+        <v>2397.78</v>
       </c>
       <c r="I34" t="n">
-        <v>6822.22</v>
+        <v>8765.9</v>
       </c>
       <c r="J34" t="n">
-        <v>11245</v>
+        <v>6200</v>
       </c>
       <c r="K34" t="n">
-        <v>1952.43</v>
+        <v>2397.78</v>
       </c>
       <c r="L34" t="n">
-        <v>6822.22</v>
+        <v>8765.9</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AUSBAGWORK</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AUSSIE BAG WORKERS</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -8950,38 +9263,47 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>2.445e-05</v>
+        <v>2.04e-05</v>
       </c>
       <c r="H35" t="n">
-        <v>1443.8</v>
+        <v>1968.83</v>
       </c>
       <c r="I35" t="n">
-        <v>23003.48</v>
+        <v>18056.33</v>
       </c>
       <c r="J35" t="n">
-        <v>24452</v>
+        <v>20296</v>
       </c>
       <c r="K35" t="n">
-        <v>1443.8</v>
+        <v>1968.83</v>
       </c>
       <c r="L35" t="n">
-        <v>23003.48</v>
+        <v>18056.33</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>AUSBAGWORK</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MOCHI CULT</t>
+          <t>AUSSIE BAG WORKERS</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
@@ -8994,38 +9316,47 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1.56e-05</v>
+        <v>2.214e-05</v>
       </c>
       <c r="H36" t="n">
-        <v>987.88</v>
+        <v>1780.36</v>
       </c>
       <c r="I36" t="n">
-        <v>22905.58</v>
+        <v>21831.69</v>
       </c>
       <c r="J36" t="n">
-        <v>15602</v>
+        <v>22144</v>
       </c>
       <c r="K36" t="n">
-        <v>987.88</v>
+        <v>1780.36</v>
       </c>
       <c r="L36" t="n">
-        <v>22905.58</v>
+        <v>21831.69</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1 pill can change your life</t>
+          <t>MOCHI CULT</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -9038,38 +9369,47 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>7.295e-06</v>
+        <v>1.54e-05</v>
       </c>
       <c r="H37" t="n">
-        <v>786.4299999999999</v>
+        <v>1083.81</v>
       </c>
       <c r="I37" t="n">
-        <v>11412.26</v>
+        <v>22742.92</v>
       </c>
       <c r="J37" t="n">
-        <v>7291</v>
+        <v>15407</v>
       </c>
       <c r="K37" t="n">
-        <v>786.4299999999999</v>
+        <v>1083.81</v>
       </c>
       <c r="L37" t="n">
-        <v>11412.26</v>
+        <v>22742.92</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Real World Asses</t>
+          <t>1 pill can change your life</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -9082,22 +9422,31 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>9.668e-08</v>
+        <v>8.994000000000001e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>742.35</v>
+        <v>1049.41</v>
       </c>
       <c r="I38" t="n">
-        <v>9075.07</v>
+        <v>12609.91</v>
       </c>
       <c r="J38" t="n">
-        <v>6671</v>
+        <v>8990</v>
       </c>
       <c r="K38" t="n">
-        <v>742.35</v>
+        <v>1049.41</v>
       </c>
       <c r="L38" t="n">
-        <v>9075.07</v>
+        <v>12609.91</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -9126,38 +9475,47 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>8.438e-06</v>
+        <v>8.396999999999999e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>654.6900000000001</v>
+        <v>779.22</v>
       </c>
       <c r="I39" t="n">
-        <v>11893.07</v>
+        <v>11772.73</v>
       </c>
       <c r="J39" t="n">
-        <v>8438</v>
+        <v>8398</v>
       </c>
       <c r="K39" t="n">
-        <v>654.6900000000001</v>
+        <v>779.22</v>
       </c>
       <c r="L39" t="n">
-        <v>11893.07</v>
+        <v>11772.73</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
+          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>7 Coin</t>
+          <t>1 pill can change your life</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
@@ -9170,38 +9528,47 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>8.861e-06</v>
+        <v>4.179e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>487.87</v>
+        <v>620.41</v>
       </c>
       <c r="I40" t="n">
-        <v>11774.15</v>
+        <v>7827.86</v>
       </c>
       <c r="J40" t="n">
-        <v>8858</v>
+        <v>4179</v>
       </c>
       <c r="K40" t="n">
-        <v>487.87</v>
+        <v>620.41</v>
       </c>
       <c r="L40" t="n">
-        <v>11774.15</v>
+        <v>7827.86</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>101 Year Old Pumpfun Livestreamr</t>
+          <t>7 Coin</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -9214,22 +9581,31 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1.289e-05</v>
+        <v>8.861e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>435.19</v>
+        <v>486.76</v>
       </c>
       <c r="I41" t="n">
-        <v>16233.78</v>
+        <v>11774.15</v>
       </c>
       <c r="J41" t="n">
-        <v>12665</v>
+        <v>8858</v>
       </c>
       <c r="K41" t="n">
-        <v>435.19</v>
+        <v>486.76</v>
       </c>
       <c r="L41" t="n">
-        <v>16233.78</v>
+        <v>11774.15</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -9258,38 +9634,47 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>5.042e-06</v>
+        <v>5.012e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>393.88</v>
+        <v>401.86</v>
       </c>
       <c r="I42" t="n">
-        <v>9216.25</v>
+        <v>9172.389999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>5011</v>
+        <v>4981</v>
       </c>
       <c r="K42" t="n">
-        <v>393.88</v>
+        <v>401.86</v>
       </c>
       <c r="L42" t="n">
-        <v>9216.25</v>
+        <v>9172.389999999999</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>101 Year Old Pumpfun Livestreamr</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -9302,38 +9687,47 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>1495.097</v>
+        <v>1.253e-05</v>
       </c>
       <c r="H43" t="n">
-        <v>344.93</v>
+        <v>331.62</v>
       </c>
       <c r="I43" t="n">
-        <v>20511.97</v>
+        <v>15828.01</v>
       </c>
       <c r="J43" t="n">
-        <v>24145799</v>
+        <v>12318</v>
       </c>
       <c r="K43" t="n">
-        <v>344.93</v>
+        <v>331.62</v>
       </c>
       <c r="L43" t="n">
-        <v>20511.97</v>
+        <v>15828.01</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hosico</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Hosico Cat</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -9346,38 +9740,47 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>5.186e-06</v>
+        <v>1497.81</v>
       </c>
       <c r="H44" t="n">
-        <v>243.22</v>
+        <v>327.36</v>
       </c>
       <c r="I44" t="n">
-        <v>8763.370000000001</v>
+        <v>20507.6</v>
       </c>
       <c r="J44" t="n">
-        <v>5184</v>
+        <v>24189763</v>
       </c>
       <c r="K44" t="n">
-        <v>243.22</v>
+        <v>327.36</v>
       </c>
       <c r="L44" t="n">
-        <v>8763.370000000001</v>
+        <v>20507.6</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>obvious</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>in hindsight</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -9390,38 +9793,47 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>5.807e-06</v>
+        <v>5.306e-06</v>
       </c>
       <c r="H45" t="n">
-        <v>152.92</v>
+        <v>192.74</v>
       </c>
       <c r="I45" t="n">
-        <v>9633.25</v>
+        <v>8866.73</v>
       </c>
       <c r="J45" t="n">
-        <v>5808</v>
+        <v>5304</v>
       </c>
       <c r="K45" t="n">
-        <v>152.92</v>
+        <v>192.74</v>
       </c>
       <c r="L45" t="n">
-        <v>9633.25</v>
+        <v>8866.73</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HOODIE</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hoodie</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
@@ -9434,38 +9846,47 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0002942</v>
+        <v>5.661e-06</v>
       </c>
       <c r="H46" t="n">
-        <v>107.67</v>
+        <v>166.07</v>
       </c>
       <c r="I46" t="n">
-        <v>65469</v>
+        <v>9420.92</v>
       </c>
       <c r="J46" t="n">
-        <v>294270</v>
+        <v>5662</v>
       </c>
       <c r="K46" t="n">
-        <v>107.67</v>
+        <v>166.07</v>
       </c>
       <c r="L46" t="n">
-        <v>65469</v>
+        <v>9420.92</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PILL</t>
+          <t>Hosico</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PumpFun Pill</t>
+          <t>Hosico Cat</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
@@ -9478,38 +9899,47 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>7.418e-06</v>
+        <v>4.996e-06</v>
       </c>
       <c r="H47" t="n">
-        <v>67.7</v>
+        <v>124.42</v>
       </c>
       <c r="I47" t="n">
-        <v>10587.32</v>
+        <v>8536.9</v>
       </c>
       <c r="J47" t="n">
-        <v>7415</v>
+        <v>4993</v>
       </c>
       <c r="K47" t="n">
-        <v>67.7</v>
+        <v>124.42</v>
       </c>
       <c r="L47" t="n">
-        <v>10587.32</v>
+        <v>8536.9</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
+          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1% Club</t>
+          <t>HOODIE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The 1% Club</t>
+          <t>Hoodie</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
@@ -9522,38 +9952,47 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>4.567e-06</v>
+        <v>0.0002925</v>
       </c>
       <c r="H48" t="n">
-        <v>66.52</v>
+        <v>109.8</v>
       </c>
       <c r="I48" t="n">
-        <v>7093.03</v>
+        <v>65114.66</v>
       </c>
       <c r="J48" t="n">
-        <v>4567</v>
+        <v>292506</v>
       </c>
       <c r="K48" t="n">
-        <v>66.52</v>
+        <v>109.8</v>
       </c>
       <c r="L48" t="n">
-        <v>7093.03</v>
+        <v>65114.66</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FLY</t>
+          <t>PILL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Nexa</t>
+          <t>PumpFun Pill</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
@@ -9566,38 +10005,47 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01323</v>
+        <v>7.335e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>63.76</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>7739.75</v>
+        <v>10524.01</v>
       </c>
       <c r="J49" t="n">
-        <v>13237</v>
+        <v>7331</v>
       </c>
       <c r="K49" t="n">
-        <v>63.76</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="L49" t="n">
-        <v>7739.75</v>
+        <v>10524.01</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>F2yfGhxEi7Hw2mr2XQ3MLrdamiPt2rkdMf8PSyAGpump</t>
+          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Noxi</t>
+          <t>1% Club</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Noxi Labs AI</t>
+          <t>The 1% Club</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
@@ -9610,38 +10058,47 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>6.374e-06</v>
+        <v>4.566e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>42.28</v>
+        <v>66.72</v>
       </c>
       <c r="I50" t="n">
-        <v>9917.889999999999</v>
+        <v>7092.64</v>
       </c>
       <c r="J50" t="n">
-        <v>6373</v>
+        <v>4567</v>
       </c>
       <c r="K50" t="n">
-        <v>42.28</v>
+        <v>66.72</v>
       </c>
       <c r="L50" t="n">
-        <v>9917.889999999999</v>
+        <v>7092.64</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6asZKPjABE4c7V46psw1yDrmCQBzefGtxKCzR8zmbonk</t>
+          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BONKZ</t>
+          <t>FLY</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bonkzilla</t>
+          <t>Nexa</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
@@ -9654,22 +10111,31 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>3.34e-06</v>
+        <v>0.01323</v>
       </c>
       <c r="H51" t="n">
-        <v>35.51</v>
+        <v>56.21</v>
       </c>
       <c r="I51" t="n">
-        <v>5942.46</v>
+        <v>7739.75</v>
       </c>
       <c r="J51" t="n">
-        <v>3341</v>
+        <v>13237</v>
       </c>
       <c r="K51" t="n">
-        <v>35.51</v>
+        <v>56.21</v>
       </c>
       <c r="L51" t="n">
-        <v>5942.46</v>
+        <v>7739.75</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9885,13 +10351,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>207.053</v>
+        <v>205.54</v>
       </c>
       <c r="F2" t="n">
-        <v>233455493.81</v>
+        <v>220621620.88</v>
       </c>
       <c r="G2" t="n">
-        <v>53601225.22</v>
+        <v>53450004.26</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -9932,16 +10398,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.003792</v>
+        <v>0.0002445</v>
       </c>
       <c r="F3" t="n">
-        <v>945698.1</v>
+        <v>1577455.76</v>
       </c>
       <c r="G3" t="n">
-        <v>294904.23</v>
+        <v>90527.12</v>
       </c>
       <c r="H3" t="n">
-        <v>3792395</v>
+        <v>244569</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -9979,16 +10445,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.001795</v>
+        <v>0.001522</v>
       </c>
       <c r="F4" t="n">
-        <v>692031.97</v>
+        <v>672243.3100000001</v>
       </c>
       <c r="G4" t="n">
-        <v>227479.99</v>
+        <v>209028.77</v>
       </c>
       <c r="H4" t="n">
-        <v>1395663</v>
+        <v>1183573</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -10026,16 +10492,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.002568</v>
+        <v>0.002358</v>
       </c>
       <c r="F5" t="n">
-        <v>368985.31</v>
+        <v>294308.51</v>
       </c>
       <c r="G5" t="n">
-        <v>476713.26</v>
+        <v>455405.35</v>
       </c>
       <c r="H5" t="n">
-        <v>2566941</v>
+        <v>2357651</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -10059,30 +10525,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1nu</t>
+          <t>AI4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1nu</t>
+          <t>AI⁴</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0002324</v>
+        <v>0.0003619</v>
       </c>
       <c r="F6" t="n">
-        <v>276444.57</v>
+        <v>177311.65</v>
       </c>
       <c r="G6" t="n">
-        <v>60153.92</v>
+        <v>111241.9</v>
       </c>
       <c r="H6" t="n">
-        <v>232418</v>
+        <v>361918</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -10106,30 +10572,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AI4</t>
+          <t>1nu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AI⁴</t>
+          <t>1nu</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>44DNPJ2qisA7MMaUmKK5SXvAcPyV7bEzmnK7oYJkbonk</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0003776</v>
+        <v>0.0002178</v>
       </c>
       <c r="F7" t="n">
-        <v>174688.37</v>
+        <v>157498.33</v>
       </c>
       <c r="G7" t="n">
-        <v>113966.72</v>
+        <v>58344.72</v>
       </c>
       <c r="H7" t="n">
-        <v>377652</v>
+        <v>217892</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -10167,16 +10633,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0004144</v>
+        <v>0.0004911</v>
       </c>
       <c r="F8" t="n">
-        <v>105075.99</v>
+        <v>111075.89</v>
       </c>
       <c r="G8" t="n">
-        <v>127860.95</v>
+        <v>138767.97</v>
       </c>
       <c r="H8" t="n">
-        <v>414485</v>
+        <v>491098</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -10214,16 +10680,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.001185</v>
+        <v>0.001056</v>
       </c>
       <c r="F9" t="n">
-        <v>105061.9</v>
+        <v>93329.10000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>167278.94</v>
+        <v>157467.53</v>
       </c>
       <c r="H9" t="n">
-        <v>1185158</v>
+        <v>1056417</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -10247,30 +10713,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CRND</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Crundle</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0003381</v>
+        <v>0.0004409</v>
       </c>
       <c r="F10" t="n">
-        <v>87608.88</v>
+        <v>75785.72</v>
       </c>
       <c r="G10" t="n">
-        <v>85510.66</v>
+        <v>164781.49</v>
       </c>
       <c r="H10" t="n">
-        <v>337019</v>
+        <v>440902</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -10294,30 +10760,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>LION</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>67coin</t>
+          <t>Loaded Lions</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9.642e-05</v>
+        <v>0.01559</v>
       </c>
       <c r="F11" t="n">
-        <v>76560.58</v>
+        <v>74326.74000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>51342.61</v>
+        <v>2010742.29</v>
       </c>
       <c r="H11" t="n">
-        <v>96269</v>
+        <v>77955060</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -10341,30 +10807,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>BullArena</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.0004524</v>
+        <v>0.0002998</v>
       </c>
       <c r="F12" t="n">
-        <v>73228.31</v>
+        <v>73121.07000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>167515.44</v>
+        <v>66719.75</v>
       </c>
       <c r="H12" t="n">
-        <v>452412</v>
+        <v>299835</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -10402,16 +10868,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.001701</v>
+        <v>0.001699</v>
       </c>
       <c r="F13" t="n">
-        <v>70371.00999999999</v>
+        <v>69948.89</v>
       </c>
       <c r="G13" t="n">
-        <v>179208.28</v>
+        <v>178607.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1701084</v>
+        <v>1699917</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -10435,30 +10901,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FARTLESS</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FARTLESS COIN</t>
+          <t>67coin</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.000807</v>
+        <v>9.69e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>65967.67</v>
+        <v>68915.92999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>187378.83</v>
+        <v>51301.15</v>
       </c>
       <c r="H14" t="n">
-        <v>807024</v>
+        <v>96744</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -10482,30 +10948,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LION</t>
+          <t>CRND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Loaded Lions</t>
+          <t>Crundle</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.01562</v>
+        <v>0.0002433</v>
       </c>
       <c r="F15" t="n">
-        <v>65429.46</v>
+        <v>65784.78</v>
       </c>
       <c r="G15" t="n">
-        <v>2016664.05</v>
+        <v>74636.28</v>
       </c>
       <c r="H15" t="n">
-        <v>78147732</v>
+        <v>242486</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -10529,30 +10995,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>FARTLESS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BullArena</t>
+          <t>FARTLESS COIN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.0003305</v>
+        <v>0.0007563</v>
       </c>
       <c r="F16" t="n">
-        <v>54857.2</v>
+        <v>61506.4</v>
       </c>
       <c r="G16" t="n">
-        <v>70141.53999999999</v>
+        <v>180842.22</v>
       </c>
       <c r="H16" t="n">
-        <v>330515</v>
+        <v>756356</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -10590,16 +11056,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.0005474</v>
+        <v>0.0005225</v>
       </c>
       <c r="F17" t="n">
-        <v>54771.92</v>
+        <v>57349.74</v>
       </c>
       <c r="G17" t="n">
-        <v>148250.7</v>
+        <v>144356.86</v>
       </c>
       <c r="H17" t="n">
-        <v>547379</v>
+        <v>522485</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -10637,16 +11103,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.0003552</v>
+        <v>0.0002618</v>
       </c>
       <c r="F18" t="n">
-        <v>47292.28</v>
+        <v>45059.89</v>
       </c>
       <c r="G18" t="n">
-        <v>76703.86</v>
+        <v>65745.16</v>
       </c>
       <c r="H18" t="n">
-        <v>355213</v>
+        <v>261762</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -10670,30 +11136,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>Useless</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>Useless Coin</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2.059e-05</v>
+        <v>6.770000000000001e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>38915.86</v>
+        <v>31271.77</v>
       </c>
       <c r="G19" t="n">
-        <v>15787.01</v>
+        <v>38367.59</v>
       </c>
       <c r="H19" t="n">
-        <v>20593</v>
+        <v>67704</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -10717,30 +11183,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Useless</t>
+          <t>RUECAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Useless Coin</t>
+          <t>Rue Cat</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.938e-05</v>
+        <v>0.0007378</v>
       </c>
       <c r="F20" t="n">
-        <v>32247.48</v>
+        <v>20667.76</v>
       </c>
       <c r="G20" t="n">
-        <v>41620.95</v>
+        <v>104399.53</v>
       </c>
       <c r="H20" t="n">
-        <v>79376</v>
+        <v>526927</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -10764,30 +11230,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SHITTER</t>
+          <t>walkusa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SHITTERCOIN</t>
+          <t>WALKING ACROSS AMERICA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3.806e-05</v>
+        <v>7.873999999999999e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>19919.41</v>
+        <v>20454.98</v>
       </c>
       <c r="G21" t="n">
-        <v>25896.96</v>
+        <v>38005.01</v>
       </c>
       <c r="H21" t="n">
-        <v>38063</v>
+        <v>78743</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -10825,16 +11291,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.000124</v>
+        <v>0.0001206</v>
       </c>
       <c r="F22" t="n">
-        <v>19353.7</v>
+        <v>16750.78</v>
       </c>
       <c r="G22" t="n">
-        <v>50436.71</v>
+        <v>49693.8</v>
       </c>
       <c r="H22" t="n">
-        <v>120321</v>
+        <v>117045</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -10858,30 +11324,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HAROLD</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Harold</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.003771</v>
+        <v>1.437e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>16759.7</v>
+        <v>16477.22</v>
       </c>
       <c r="G23" t="n">
-        <v>547155.01</v>
+        <v>13196.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3771385</v>
+        <v>14372</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -10905,30 +11371,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>walkusa</t>
+          <t>HAROLD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WALKING ACROSS AMERICA</t>
+          <t>Harold</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
+          <t>3vgopg7xm3EWkXfxmWPUpcf7g939hecfqg18sLuXDzVt</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8.842e-05</v>
+        <v>0.003797</v>
       </c>
       <c r="F24" t="n">
-        <v>15338.38</v>
+        <v>13713.17</v>
       </c>
       <c r="G24" t="n">
-        <v>40359.96</v>
+        <v>548271.71</v>
       </c>
       <c r="H24" t="n">
-        <v>88424</v>
+        <v>3797017</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -10952,30 +11418,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RUECAT</t>
+          <t>1Bull</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rue Cat</t>
+          <t>One bull run to change your life</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.00086</v>
+        <v>4.747e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>15078.71</v>
+        <v>12575</v>
       </c>
       <c r="G25" t="n">
-        <v>113029.42</v>
+        <v>27256.53</v>
       </c>
       <c r="H25" t="n">
-        <v>614208</v>
+        <v>47475</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -10999,30 +11465,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>USEFUL</t>
+          <t>SHITTER</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>USEFUL COIN</t>
+          <t>SHITTERCOIN</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.0001606</v>
+        <v>3.337e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>12435.6</v>
+        <v>10842.96</v>
       </c>
       <c r="G26" t="n">
-        <v>86701.36</v>
+        <v>24438</v>
       </c>
       <c r="H26" t="n">
-        <v>160648</v>
+        <v>33370</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -11046,30 +11512,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1Bull</t>
+          <t>USEFUL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>One bull run to change your life</t>
+          <t>USEFUL COIN</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4.366e-05</v>
+        <v>0.0001493</v>
       </c>
       <c r="F27" t="n">
-        <v>11818.71</v>
+        <v>9702.209999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>26184.86</v>
+        <v>83263.89</v>
       </c>
       <c r="H27" t="n">
-        <v>43659</v>
+        <v>149321</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -11107,16 +11573,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.066e-05</v>
+        <v>3.152e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>10775.21</v>
+        <v>9321.280000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>23482.46</v>
+        <v>23774.39</v>
       </c>
       <c r="H28" t="n">
-        <v>30669</v>
+        <v>31526</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -11154,16 +11620,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.0001537</v>
+        <v>0.0001472</v>
       </c>
       <c r="F29" t="n">
-        <v>9768.040000000001</v>
+        <v>8693.700000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>61668.44</v>
+        <v>60220.35</v>
       </c>
       <c r="H29" t="n">
-        <v>153677</v>
+        <v>147200</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -11187,30 +11653,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1dog</t>
+          <t>APOLLO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1 dog can change your life</t>
+          <t>Apollo AI</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.234e-05</v>
+        <v>2.131e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>5430.44</v>
+        <v>4445.64</v>
       </c>
       <c r="G30" t="n">
-        <v>14457.39</v>
+        <v>9380.469999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>12309</v>
+        <v>21311</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -11234,30 +11700,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$CrepSol</t>
+          <t>DETECTIVE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Crepe on Solana</t>
+          <t>Just can't prove it</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.217e-05</v>
+        <v>2.306e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>3648.64</v>
+        <v>3406.83</v>
       </c>
       <c r="G31" t="n">
-        <v>21746.59</v>
+        <v>19506.69</v>
       </c>
       <c r="H31" t="n">
-        <v>32177</v>
+        <v>22827</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -11281,30 +11747,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DETECTIVE</t>
+          <t>1dog</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Just can't prove it</t>
+          <t>1 dog can change your life</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14GMPMf3cRANLfJ9QYU19F5XogVGPjCB7f3NLACrpump</t>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.315e-05</v>
+        <v>1.24e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>2917.65</v>
+        <v>2948.43</v>
       </c>
       <c r="G32" t="n">
-        <v>19581.11</v>
+        <v>14422.61</v>
       </c>
       <c r="H32" t="n">
-        <v>22921</v>
+        <v>12365</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -11328,30 +11794,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>$CrepSol</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>Crepe on Solana</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.228e-05</v>
+        <v>3.121e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>2151.47</v>
+        <v>2756.32</v>
       </c>
       <c r="G33" t="n">
-        <v>18910.67</v>
+        <v>21377.62</v>
       </c>
       <c r="H33" t="n">
-        <v>22167</v>
+        <v>31208</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -11375,30 +11841,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>APOLLO</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Apollo AI</t>
+          <t>Real World Asses</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1.124e-05</v>
+        <v>8.986e-08</v>
       </c>
       <c r="F34" t="n">
-        <v>1952.43</v>
+        <v>2397.78</v>
       </c>
       <c r="G34" t="n">
-        <v>6822.22</v>
+        <v>8765.9</v>
       </c>
       <c r="H34" t="n">
-        <v>11245</v>
+        <v>6200</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -11422,30 +11888,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AUSBAGWORK</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AUSSIE BAG WORKERS</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.445e-05</v>
+        <v>2.04e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>1443.8</v>
+        <v>1968.83</v>
       </c>
       <c r="G35" t="n">
-        <v>23003.48</v>
+        <v>18056.33</v>
       </c>
       <c r="H35" t="n">
-        <v>24452</v>
+        <v>20296</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -11469,30 +11935,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>AUSBAGWORK</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MOCHI CULT</t>
+          <t>AUSSIE BAG WORKERS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.56e-05</v>
+        <v>2.214e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>987.88</v>
+        <v>1780.36</v>
       </c>
       <c r="G36" t="n">
-        <v>22905.58</v>
+        <v>21831.69</v>
       </c>
       <c r="H36" t="n">
-        <v>15602</v>
+        <v>22144</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -11516,30 +11982,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1 pill can change your life</t>
+          <t>MOCHI CULT</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>7.295e-06</v>
+        <v>1.54e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>786.4299999999999</v>
+        <v>1083.81</v>
       </c>
       <c r="G37" t="n">
-        <v>11412.26</v>
+        <v>22742.92</v>
       </c>
       <c r="H37" t="n">
-        <v>7291</v>
+        <v>15407</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -11563,30 +12029,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Real World Asses</t>
+          <t>1 pill can change your life</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>9.668e-08</v>
+        <v>8.994000000000001e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>742.35</v>
+        <v>1049.41</v>
       </c>
       <c r="G38" t="n">
-        <v>9075.07</v>
+        <v>12609.91</v>
       </c>
       <c r="H38" t="n">
-        <v>6671</v>
+        <v>8990</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -11624,16 +12090,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>8.438e-06</v>
+        <v>8.396999999999999e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>654.6900000000001</v>
+        <v>779.22</v>
       </c>
       <c r="G39" t="n">
-        <v>11893.07</v>
+        <v>11772.73</v>
       </c>
       <c r="H39" t="n">
-        <v>8438</v>
+        <v>8398</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -11657,30 +12123,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>7 Coin</t>
+          <t>1 pill can change your life</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
+          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8.861e-06</v>
+        <v>4.179e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>487.87</v>
+        <v>620.41</v>
       </c>
       <c r="G40" t="n">
-        <v>11774.15</v>
+        <v>7827.86</v>
       </c>
       <c r="H40" t="n">
-        <v>8858</v>
+        <v>4179</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -11704,30 +12170,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>101 Year Old Pumpfun Livestreamr</t>
+          <t>7 Coin</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.289e-05</v>
+        <v>8.861e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>435.19</v>
+        <v>486.76</v>
       </c>
       <c r="G41" t="n">
-        <v>16233.78</v>
+        <v>11774.15</v>
       </c>
       <c r="H41" t="n">
-        <v>12665</v>
+        <v>8858</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -11765,16 +12231,16 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5.042e-06</v>
+        <v>5.012e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>393.88</v>
+        <v>401.86</v>
       </c>
       <c r="G42" t="n">
-        <v>9216.25</v>
+        <v>9172.389999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>5011</v>
+        <v>4981</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -11798,30 +12264,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>101 Year Old Pumpfun Livestreamr</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1495.097</v>
+        <v>1.253e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>344.93</v>
+        <v>331.62</v>
       </c>
       <c r="G43" t="n">
-        <v>20511.97</v>
+        <v>15828.01</v>
       </c>
       <c r="H43" t="n">
-        <v>24145799</v>
+        <v>12318</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -11845,30 +12311,30 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hosico</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Hosico Cat</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5.186e-06</v>
+        <v>1497.81</v>
       </c>
       <c r="F44" t="n">
-        <v>243.22</v>
+        <v>327.36</v>
       </c>
       <c r="G44" t="n">
-        <v>8763.370000000001</v>
+        <v>20507.6</v>
       </c>
       <c r="H44" t="n">
-        <v>5184</v>
+        <v>24189763</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -11892,30 +12358,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>obvious</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>in hindsight</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5.807e-06</v>
+        <v>5.306e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>152.92</v>
+        <v>192.74</v>
       </c>
       <c r="G45" t="n">
-        <v>9633.25</v>
+        <v>8866.73</v>
       </c>
       <c r="H45" t="n">
-        <v>5808</v>
+        <v>5304</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -11939,30 +12405,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HOODIE</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hoodie</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.0002942</v>
+        <v>5.661e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>107.67</v>
+        <v>166.07</v>
       </c>
       <c r="G46" t="n">
-        <v>65469</v>
+        <v>9420.92</v>
       </c>
       <c r="H46" t="n">
-        <v>294270</v>
+        <v>5662</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -11986,30 +12452,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PILL</t>
+          <t>Hosico</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PumpFun Pill</t>
+          <t>Hosico Cat</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.418e-06</v>
+        <v>4.996e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>67.7</v>
+        <v>124.42</v>
       </c>
       <c r="G47" t="n">
-        <v>10587.32</v>
+        <v>8536.9</v>
       </c>
       <c r="H47" t="n">
-        <v>7415</v>
+        <v>4993</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -12033,30 +12499,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1% Club</t>
+          <t>HOODIE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The 1% Club</t>
+          <t>Hoodie</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
+          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.567e-06</v>
+        <v>0.0002925</v>
       </c>
       <c r="F48" t="n">
-        <v>66.52</v>
+        <v>109.8</v>
       </c>
       <c r="G48" t="n">
-        <v>7093.03</v>
+        <v>65114.66</v>
       </c>
       <c r="H48" t="n">
-        <v>4567</v>
+        <v>292506</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -12080,30 +12546,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FLY</t>
+          <t>PILL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Nexa</t>
+          <t>PumpFun Pill</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.01323</v>
+        <v>7.335e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>63.76</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>7739.75</v>
+        <v>10524.01</v>
       </c>
       <c r="H49" t="n">
-        <v>13237</v>
+        <v>7331</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -12127,30 +12593,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Noxi</t>
+          <t>1% Club</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Noxi Labs AI</t>
+          <t>The 1% Club</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>F2yfGhxEi7Hw2mr2XQ3MLrdamiPt2rkdMf8PSyAGpump</t>
+          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.374e-06</v>
+        <v>4.566e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>42.28</v>
+        <v>66.72</v>
       </c>
       <c r="G50" t="n">
-        <v>9917.889999999999</v>
+        <v>7092.64</v>
       </c>
       <c r="H50" t="n">
-        <v>6373</v>
+        <v>4567</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -12174,30 +12640,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BONKZ</t>
+          <t>FLY</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bonkzilla</t>
+          <t>Nexa</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6asZKPjABE4c7V46psw1yDrmCQBzefGtxKCzR8zmbonk</t>
+          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3.34e-06</v>
+        <v>0.01323</v>
       </c>
       <c r="F51" t="n">
-        <v>35.51</v>
+        <v>56.21</v>
       </c>
       <c r="G51" t="n">
-        <v>5942.46</v>
+        <v>7739.75</v>
       </c>
       <c r="H51" t="n">
-        <v>3341</v>
+        <v>13237</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -15208,25 +15674,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2917.65</v>
+        <v>3406.83</v>
       </c>
       <c r="E2" t="n">
-        <v>2917.65</v>
+        <v>3406.83</v>
       </c>
       <c r="F2" t="n">
-        <v>2917.65</v>
+        <v>3406.83</v>
       </c>
       <c r="G2" t="n">
-        <v>2917.65</v>
+        <v>3406.83</v>
       </c>
       <c r="H2" t="n">
-        <v>19581.11</v>
+        <v>19506.69</v>
       </c>
       <c r="I2" t="n">
-        <v>19581.11</v>
+        <v>19506.69</v>
       </c>
       <c r="J2" t="n">
-        <v>19581.11</v>
+        <v>19506.69</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -15259,25 +15725,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>945698.1</v>
+        <v>1577455.76</v>
       </c>
       <c r="E3" t="n">
-        <v>945698.1</v>
+        <v>1577455.76</v>
       </c>
       <c r="F3" t="n">
-        <v>945698.1</v>
+        <v>1577455.76</v>
       </c>
       <c r="G3" t="n">
-        <v>945698.1</v>
+        <v>1577455.76</v>
       </c>
       <c r="H3" t="n">
-        <v>294904.23</v>
+        <v>90527.12</v>
       </c>
       <c r="I3" t="n">
-        <v>294904.23</v>
+        <v>90527.12</v>
       </c>
       <c r="J3" t="n">
-        <v>294904.23</v>
+        <v>90527.12</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -15310,25 +15776,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>76560.58</v>
+        <v>68915.92999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>76560.58</v>
+        <v>68915.92999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>76560.58</v>
+        <v>68915.92999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>76560.58</v>
+        <v>68915.92999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>51342.61</v>
+        <v>51301.15</v>
       </c>
       <c r="I4" t="n">
-        <v>51342.61</v>
+        <v>51301.15</v>
       </c>
       <c r="J4" t="n">
-        <v>51342.61</v>
+        <v>51301.15</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -15361,25 +15827,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15338.38</v>
+        <v>20454.98</v>
       </c>
       <c r="E5" t="n">
-        <v>15338.38</v>
+        <v>20454.98</v>
       </c>
       <c r="F5" t="n">
-        <v>15338.38</v>
+        <v>20454.98</v>
       </c>
       <c r="G5" t="n">
-        <v>15338.38</v>
+        <v>20454.98</v>
       </c>
       <c r="H5" t="n">
-        <v>40359.96</v>
+        <v>38005.01</v>
       </c>
       <c r="I5" t="n">
-        <v>40359.96</v>
+        <v>38005.01</v>
       </c>
       <c r="J5" t="n">
-        <v>40359.96</v>
+        <v>38005.01</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -15412,25 +15878,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16759.7</v>
+        <v>13713.17</v>
       </c>
       <c r="E6" t="n">
-        <v>16759.7</v>
+        <v>13713.17</v>
       </c>
       <c r="F6" t="n">
-        <v>16759.7</v>
+        <v>13713.17</v>
       </c>
       <c r="G6" t="n">
-        <v>16759.7</v>
+        <v>13713.17</v>
       </c>
       <c r="H6" t="n">
-        <v>547155.01</v>
+        <v>548271.71</v>
       </c>
       <c r="I6" t="n">
-        <v>547155.01</v>
+        <v>548271.71</v>
       </c>
       <c r="J6" t="n">
-        <v>547155.01</v>
+        <v>548271.71</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -15463,25 +15929,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>54771.92</v>
+        <v>57349.74</v>
       </c>
       <c r="E7" t="n">
-        <v>54771.92</v>
+        <v>57349.74</v>
       </c>
       <c r="F7" t="n">
-        <v>54771.92</v>
+        <v>57349.74</v>
       </c>
       <c r="G7" t="n">
-        <v>54771.92</v>
+        <v>57349.74</v>
       </c>
       <c r="H7" t="n">
-        <v>148250.7</v>
+        <v>144356.86</v>
       </c>
       <c r="I7" t="n">
-        <v>148250.7</v>
+        <v>144356.86</v>
       </c>
       <c r="J7" t="n">
-        <v>148250.7</v>
+        <v>144356.86</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -15514,25 +15980,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>276444.57</v>
+        <v>157498.33</v>
       </c>
       <c r="E8" t="n">
-        <v>276444.57</v>
+        <v>157498.33</v>
       </c>
       <c r="F8" t="n">
-        <v>276444.57</v>
+        <v>157498.33</v>
       </c>
       <c r="G8" t="n">
-        <v>276444.57</v>
+        <v>157498.33</v>
       </c>
       <c r="H8" t="n">
-        <v>60153.92</v>
+        <v>58344.72</v>
       </c>
       <c r="I8" t="n">
-        <v>60153.92</v>
+        <v>58344.72</v>
       </c>
       <c r="J8" t="n">
-        <v>60153.92</v>
+        <v>58344.72</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -15565,25 +16031,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>435.19</v>
+        <v>331.62</v>
       </c>
       <c r="E9" t="n">
-        <v>435.19</v>
+        <v>331.62</v>
       </c>
       <c r="F9" t="n">
-        <v>435.19</v>
+        <v>331.62</v>
       </c>
       <c r="G9" t="n">
-        <v>435.19</v>
+        <v>331.62</v>
       </c>
       <c r="H9" t="n">
-        <v>16233.78</v>
+        <v>15828.01</v>
       </c>
       <c r="I9" t="n">
-        <v>16233.78</v>
+        <v>15828.01</v>
       </c>
       <c r="J9" t="n">
-        <v>16233.78</v>
+        <v>15828.01</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -15616,25 +16082,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>987.88</v>
+        <v>1083.81</v>
       </c>
       <c r="E10" t="n">
-        <v>987.88</v>
+        <v>1083.81</v>
       </c>
       <c r="F10" t="n">
-        <v>987.88</v>
+        <v>1083.81</v>
       </c>
       <c r="G10" t="n">
-        <v>987.88</v>
+        <v>1083.81</v>
       </c>
       <c r="H10" t="n">
-        <v>22905.58</v>
+        <v>22742.92</v>
       </c>
       <c r="I10" t="n">
-        <v>22905.58</v>
+        <v>22742.92</v>
       </c>
       <c r="J10" t="n">
-        <v>22905.58</v>
+        <v>22742.92</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -15667,25 +16133,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>32247.48</v>
+        <v>31271.77</v>
       </c>
       <c r="E11" t="n">
-        <v>32247.48</v>
+        <v>31271.77</v>
       </c>
       <c r="F11" t="n">
-        <v>32247.48</v>
+        <v>31271.77</v>
       </c>
       <c r="G11" t="n">
-        <v>32247.48</v>
+        <v>31271.77</v>
       </c>
       <c r="H11" t="n">
-        <v>41620.95</v>
+        <v>38367.59</v>
       </c>
       <c r="I11" t="n">
-        <v>41620.95</v>
+        <v>38367.59</v>
       </c>
       <c r="J11" t="n">
-        <v>41620.95</v>
+        <v>38367.59</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -15718,25 +16184,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>73228.31</v>
+        <v>75785.72</v>
       </c>
       <c r="E12" t="n">
-        <v>73228.31</v>
+        <v>75785.72</v>
       </c>
       <c r="F12" t="n">
-        <v>73228.31</v>
+        <v>75785.72</v>
       </c>
       <c r="G12" t="n">
-        <v>73228.31</v>
+        <v>75785.72</v>
       </c>
       <c r="H12" t="n">
-        <v>167515.44</v>
+        <v>164781.49</v>
       </c>
       <c r="I12" t="n">
-        <v>167515.44</v>
+        <v>164781.49</v>
       </c>
       <c r="J12" t="n">
-        <v>167515.44</v>
+        <v>164781.49</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -15769,25 +16235,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>393.88</v>
+        <v>401.86</v>
       </c>
       <c r="E13" t="n">
-        <v>393.88</v>
+        <v>401.86</v>
       </c>
       <c r="F13" t="n">
-        <v>393.88</v>
+        <v>401.86</v>
       </c>
       <c r="G13" t="n">
-        <v>393.88</v>
+        <v>401.86</v>
       </c>
       <c r="H13" t="n">
-        <v>9216.25</v>
+        <v>9172.389999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>9216.25</v>
+        <v>9172.389999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>9216.25</v>
+        <v>9172.389999999999</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -15811,34 +16277,34 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6asZKPjABE4c7V46psw1yDrmCQBzefGtxKCzR8zmbonk</t>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BONKZ</t>
+          <t>APOLLO</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>35.51</v>
+        <v>4445.64</v>
       </c>
       <c r="E14" t="n">
-        <v>35.51</v>
+        <v>4445.64</v>
       </c>
       <c r="F14" t="n">
-        <v>35.51</v>
+        <v>4445.64</v>
       </c>
       <c r="G14" t="n">
-        <v>35.51</v>
+        <v>4445.64</v>
       </c>
       <c r="H14" t="n">
-        <v>5942.46</v>
+        <v>9380.469999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>5942.46</v>
+        <v>9380.469999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>5942.46</v>
+        <v>9380.469999999999</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -15862,34 +16328,34 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>APOLLO</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1952.43</v>
+        <v>2397.78</v>
       </c>
       <c r="E15" t="n">
-        <v>1952.43</v>
+        <v>2397.78</v>
       </c>
       <c r="F15" t="n">
-        <v>1952.43</v>
+        <v>2397.78</v>
       </c>
       <c r="G15" t="n">
-        <v>1952.43</v>
+        <v>2397.78</v>
       </c>
       <c r="H15" t="n">
-        <v>6822.22</v>
+        <v>8765.9</v>
       </c>
       <c r="I15" t="n">
-        <v>6822.22</v>
+        <v>8765.9</v>
       </c>
       <c r="J15" t="n">
-        <v>6822.22</v>
+        <v>8765.9</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -15913,34 +16379,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>VIBECODER</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>742.35</v>
+        <v>16750.78</v>
       </c>
       <c r="E16" t="n">
-        <v>742.35</v>
+        <v>16750.78</v>
       </c>
       <c r="F16" t="n">
-        <v>742.35</v>
+        <v>16750.78</v>
       </c>
       <c r="G16" t="n">
-        <v>742.35</v>
+        <v>16750.78</v>
       </c>
       <c r="H16" t="n">
-        <v>9075.07</v>
+        <v>49693.8</v>
       </c>
       <c r="I16" t="n">
-        <v>9075.07</v>
+        <v>49693.8</v>
       </c>
       <c r="J16" t="n">
-        <v>9075.07</v>
+        <v>49693.8</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -15964,34 +16430,34 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>VIBECODER</t>
+          <t>LION</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19353.7</v>
+        <v>74326.74000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>19353.7</v>
+        <v>74326.74000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>19353.7</v>
+        <v>74326.74000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>19353.7</v>
+        <v>74326.74000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>50436.71</v>
+        <v>2010742.29</v>
       </c>
       <c r="I17" t="n">
-        <v>50436.71</v>
+        <v>2010742.29</v>
       </c>
       <c r="J17" t="n">
-        <v>50436.71</v>
+        <v>2010742.29</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -16015,34 +16481,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LION</t>
+          <t>early</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>65429.46</v>
+        <v>45059.89</v>
       </c>
       <c r="E18" t="n">
-        <v>65429.46</v>
+        <v>45059.89</v>
       </c>
       <c r="F18" t="n">
-        <v>65429.46</v>
+        <v>45059.89</v>
       </c>
       <c r="G18" t="n">
-        <v>65429.46</v>
+        <v>45059.89</v>
       </c>
       <c r="H18" t="n">
-        <v>2016664.05</v>
+        <v>65745.16</v>
       </c>
       <c r="I18" t="n">
-        <v>2016664.05</v>
+        <v>65745.16</v>
       </c>
       <c r="J18" t="n">
-        <v>2016664.05</v>
+        <v>65745.16</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -16066,34 +16532,34 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>1dog</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47292.28</v>
+        <v>2948.43</v>
       </c>
       <c r="E19" t="n">
-        <v>47292.28</v>
+        <v>2948.43</v>
       </c>
       <c r="F19" t="n">
-        <v>47292.28</v>
+        <v>2948.43</v>
       </c>
       <c r="G19" t="n">
-        <v>47292.28</v>
+        <v>2948.43</v>
       </c>
       <c r="H19" t="n">
-        <v>76703.86</v>
+        <v>14422.61</v>
       </c>
       <c r="I19" t="n">
-        <v>76703.86</v>
+        <v>14422.61</v>
       </c>
       <c r="J19" t="n">
-        <v>76703.86</v>
+        <v>14422.61</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -16117,34 +16583,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1dog</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5430.44</v>
+        <v>1049.41</v>
       </c>
       <c r="E20" t="n">
-        <v>5430.44</v>
+        <v>1049.41</v>
       </c>
       <c r="F20" t="n">
-        <v>5430.44</v>
+        <v>1049.41</v>
       </c>
       <c r="G20" t="n">
-        <v>5430.44</v>
+        <v>1049.41</v>
       </c>
       <c r="H20" t="n">
-        <v>14457.39</v>
+        <v>12609.91</v>
       </c>
       <c r="I20" t="n">
-        <v>14457.39</v>
+        <v>12609.91</v>
       </c>
       <c r="J20" t="n">
-        <v>14457.39</v>
+        <v>12609.91</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -16168,34 +16634,34 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PILL</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>786.4299999999999</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>786.4299999999999</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>786.4299999999999</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>786.4299999999999</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>11412.26</v>
+        <v>10524.01</v>
       </c>
       <c r="I21" t="n">
-        <v>11412.26</v>
+        <v>10524.01</v>
       </c>
       <c r="J21" t="n">
-        <v>11412.26</v>
+        <v>10524.01</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -16219,34 +16685,34 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PILL</t>
+          <t>MOON</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>67.7</v>
+        <v>779.22</v>
       </c>
       <c r="E22" t="n">
-        <v>67.7</v>
+        <v>779.22</v>
       </c>
       <c r="F22" t="n">
-        <v>67.7</v>
+        <v>779.22</v>
       </c>
       <c r="G22" t="n">
-        <v>67.7</v>
+        <v>779.22</v>
       </c>
       <c r="H22" t="n">
-        <v>10587.32</v>
+        <v>11772.73</v>
       </c>
       <c r="I22" t="n">
-        <v>10587.32</v>
+        <v>11772.73</v>
       </c>
       <c r="J22" t="n">
-        <v>10587.32</v>
+        <v>11772.73</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -16270,34 +16736,34 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
+          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MOON</t>
+          <t>FLY</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>654.6900000000001</v>
+        <v>56.21</v>
       </c>
       <c r="E23" t="n">
-        <v>654.6900000000001</v>
+        <v>56.21</v>
       </c>
       <c r="F23" t="n">
-        <v>654.6900000000001</v>
+        <v>56.21</v>
       </c>
       <c r="G23" t="n">
-        <v>654.6900000000001</v>
+        <v>56.21</v>
       </c>
       <c r="H23" t="n">
-        <v>11893.07</v>
+        <v>7739.75</v>
       </c>
       <c r="I23" t="n">
-        <v>11893.07</v>
+        <v>7739.75</v>
       </c>
       <c r="J23" t="n">
-        <v>11893.07</v>
+        <v>7739.75</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -16321,34 +16787,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FLY</t>
+          <t>AUSBAGWORK</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63.76</v>
+        <v>1780.36</v>
       </c>
       <c r="E24" t="n">
-        <v>63.76</v>
+        <v>1780.36</v>
       </c>
       <c r="F24" t="n">
-        <v>63.76</v>
+        <v>1780.36</v>
       </c>
       <c r="G24" t="n">
-        <v>63.76</v>
+        <v>1780.36</v>
       </c>
       <c r="H24" t="n">
-        <v>7739.75</v>
+        <v>21831.69</v>
       </c>
       <c r="I24" t="n">
-        <v>7739.75</v>
+        <v>21831.69</v>
       </c>
       <c r="J24" t="n">
-        <v>7739.75</v>
+        <v>21831.69</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -16372,34 +16838,34 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AUSBAGWORK</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1443.8</v>
+        <v>327.36</v>
       </c>
       <c r="E25" t="n">
-        <v>1443.8</v>
+        <v>327.36</v>
       </c>
       <c r="F25" t="n">
-        <v>1443.8</v>
+        <v>327.36</v>
       </c>
       <c r="G25" t="n">
-        <v>1443.8</v>
+        <v>327.36</v>
       </c>
       <c r="H25" t="n">
-        <v>23003.48</v>
+        <v>20507.6</v>
       </c>
       <c r="I25" t="n">
-        <v>23003.48</v>
+        <v>20507.6</v>
       </c>
       <c r="J25" t="n">
-        <v>23003.48</v>
+        <v>20507.6</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -16423,34 +16889,34 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>344.93</v>
+        <v>1968.83</v>
       </c>
       <c r="E26" t="n">
-        <v>344.93</v>
+        <v>1968.83</v>
       </c>
       <c r="F26" t="n">
-        <v>344.93</v>
+        <v>1968.83</v>
       </c>
       <c r="G26" t="n">
-        <v>344.93</v>
+        <v>1968.83</v>
       </c>
       <c r="H26" t="n">
-        <v>20511.97</v>
+        <v>18056.33</v>
       </c>
       <c r="I26" t="n">
-        <v>20511.97</v>
+        <v>18056.33</v>
       </c>
       <c r="J26" t="n">
-        <v>20511.97</v>
+        <v>18056.33</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -16474,34 +16940,34 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>XBT</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2151.47</v>
+        <v>294308.51</v>
       </c>
       <c r="E27" t="n">
-        <v>2151.47</v>
+        <v>294308.51</v>
       </c>
       <c r="F27" t="n">
-        <v>2151.47</v>
+        <v>294308.51</v>
       </c>
       <c r="G27" t="n">
-        <v>2151.47</v>
+        <v>294308.51</v>
       </c>
       <c r="H27" t="n">
-        <v>18910.67</v>
+        <v>455405.35</v>
       </c>
       <c r="I27" t="n">
-        <v>18910.67</v>
+        <v>455405.35</v>
       </c>
       <c r="J27" t="n">
-        <v>18910.67</v>
+        <v>455405.35</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -16525,34 +16991,34 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>XBT</t>
+          <t>RUECAT</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>368985.31</v>
+        <v>20667.76</v>
       </c>
       <c r="E28" t="n">
-        <v>368985.31</v>
+        <v>20667.76</v>
       </c>
       <c r="F28" t="n">
-        <v>368985.31</v>
+        <v>20667.76</v>
       </c>
       <c r="G28" t="n">
-        <v>368985.31</v>
+        <v>20667.76</v>
       </c>
       <c r="H28" t="n">
-        <v>476713.26</v>
+        <v>104399.53</v>
       </c>
       <c r="I28" t="n">
-        <v>476713.26</v>
+        <v>104399.53</v>
       </c>
       <c r="J28" t="n">
-        <v>476713.26</v>
+        <v>104399.53</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -16576,34 +17042,34 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RUECAT</t>
+          <t>DREAM</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>15078.71</v>
+        <v>69948.89</v>
       </c>
       <c r="E29" t="n">
-        <v>15078.71</v>
+        <v>69948.89</v>
       </c>
       <c r="F29" t="n">
-        <v>15078.71</v>
+        <v>69948.89</v>
       </c>
       <c r="G29" t="n">
-        <v>15078.71</v>
+        <v>69948.89</v>
       </c>
       <c r="H29" t="n">
-        <v>113029.42</v>
+        <v>178607.9</v>
       </c>
       <c r="I29" t="n">
-        <v>113029.42</v>
+        <v>178607.9</v>
       </c>
       <c r="J29" t="n">
-        <v>113029.42</v>
+        <v>178607.9</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -16627,34 +17093,34 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
+          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DREAM</t>
+          <t>CRND</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>70371.00999999999</v>
+        <v>65784.78</v>
       </c>
       <c r="E30" t="n">
-        <v>70371.00999999999</v>
+        <v>65784.78</v>
       </c>
       <c r="F30" t="n">
-        <v>70371.00999999999</v>
+        <v>65784.78</v>
       </c>
       <c r="G30" t="n">
-        <v>70371.00999999999</v>
+        <v>65784.78</v>
       </c>
       <c r="H30" t="n">
-        <v>179208.28</v>
+        <v>74636.28</v>
       </c>
       <c r="I30" t="n">
-        <v>179208.28</v>
+        <v>74636.28</v>
       </c>
       <c r="J30" t="n">
-        <v>179208.28</v>
+        <v>74636.28</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -16678,34 +17144,34 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
+          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CRND</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>87608.88</v>
+        <v>486.76</v>
       </c>
       <c r="E31" t="n">
-        <v>87608.88</v>
+        <v>486.76</v>
       </c>
       <c r="F31" t="n">
-        <v>87608.88</v>
+        <v>486.76</v>
       </c>
       <c r="G31" t="n">
-        <v>87608.88</v>
+        <v>486.76</v>
       </c>
       <c r="H31" t="n">
-        <v>85510.66</v>
+        <v>11774.15</v>
       </c>
       <c r="I31" t="n">
-        <v>85510.66</v>
+        <v>11774.15</v>
       </c>
       <c r="J31" t="n">
-        <v>85510.66</v>
+        <v>11774.15</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -16729,34 +17195,34 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CAamcXXVWM8b8DcpcT2rpEwwfNfBD2MXjHjCwRDBpump</t>
+          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>CHARLIE</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>487.87</v>
+        <v>111075.89</v>
       </c>
       <c r="E32" t="n">
-        <v>487.87</v>
+        <v>111075.89</v>
       </c>
       <c r="F32" t="n">
-        <v>487.87</v>
+        <v>111075.89</v>
       </c>
       <c r="G32" t="n">
-        <v>487.87</v>
+        <v>111075.89</v>
       </c>
       <c r="H32" t="n">
-        <v>11774.15</v>
+        <v>138767.97</v>
       </c>
       <c r="I32" t="n">
-        <v>11774.15</v>
+        <v>138767.97</v>
       </c>
       <c r="J32" t="n">
-        <v>11774.15</v>
+        <v>138767.97</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -16780,34 +17246,34 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CHARLIE</t>
+          <t>AI4</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>105075.99</v>
+        <v>177311.65</v>
       </c>
       <c r="E33" t="n">
-        <v>105075.99</v>
+        <v>177311.65</v>
       </c>
       <c r="F33" t="n">
-        <v>105075.99</v>
+        <v>177311.65</v>
       </c>
       <c r="G33" t="n">
-        <v>105075.99</v>
+        <v>177311.65</v>
       </c>
       <c r="H33" t="n">
-        <v>127860.95</v>
+        <v>111241.9</v>
       </c>
       <c r="I33" t="n">
-        <v>127860.95</v>
+        <v>111241.9</v>
       </c>
       <c r="J33" t="n">
-        <v>127860.95</v>
+        <v>111241.9</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -16831,34 +17297,34 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AI4</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>174688.37</v>
+        <v>166.07</v>
       </c>
       <c r="E34" t="n">
-        <v>174688.37</v>
+        <v>166.07</v>
       </c>
       <c r="F34" t="n">
-        <v>174688.37</v>
+        <v>166.07</v>
       </c>
       <c r="G34" t="n">
-        <v>174688.37</v>
+        <v>166.07</v>
       </c>
       <c r="H34" t="n">
-        <v>113966.72</v>
+        <v>9420.92</v>
       </c>
       <c r="I34" t="n">
-        <v>113966.72</v>
+        <v>9420.92</v>
       </c>
       <c r="J34" t="n">
-        <v>113966.72</v>
+        <v>9420.92</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -16882,34 +17348,34 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>152.92</v>
+        <v>672243.3100000001</v>
       </c>
       <c r="E35" t="n">
-        <v>152.92</v>
+        <v>672243.3100000001</v>
       </c>
       <c r="F35" t="n">
-        <v>152.92</v>
+        <v>672243.3100000001</v>
       </c>
       <c r="G35" t="n">
-        <v>152.92</v>
+        <v>672243.3100000001</v>
       </c>
       <c r="H35" t="n">
-        <v>9633.25</v>
+        <v>209028.77</v>
       </c>
       <c r="I35" t="n">
-        <v>9633.25</v>
+        <v>209028.77</v>
       </c>
       <c r="J35" t="n">
-        <v>9633.25</v>
+        <v>209028.77</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -16933,34 +17399,34 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DiiTPZdpd9t3XorHiuZUu4E1FoSaQ7uGN4q9YkQupump</t>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>1Bull</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>692031.97</v>
+        <v>12575</v>
       </c>
       <c r="E36" t="n">
-        <v>692031.97</v>
+        <v>12575</v>
       </c>
       <c r="F36" t="n">
-        <v>692031.97</v>
+        <v>12575</v>
       </c>
       <c r="G36" t="n">
-        <v>692031.97</v>
+        <v>12575</v>
       </c>
       <c r="H36" t="n">
-        <v>227479.99</v>
+        <v>27256.53</v>
       </c>
       <c r="I36" t="n">
-        <v>227479.99</v>
+        <v>27256.53</v>
       </c>
       <c r="J36" t="n">
-        <v>227479.99</v>
+        <v>27256.53</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -16984,34 +17450,34 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1Bull</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>11818.71</v>
+        <v>73121.07000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>11818.71</v>
+        <v>73121.07000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>11818.71</v>
+        <v>73121.07000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>11818.71</v>
+        <v>73121.07000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>26184.86</v>
+        <v>66719.75</v>
       </c>
       <c r="I37" t="n">
-        <v>26184.86</v>
+        <v>66719.75</v>
       </c>
       <c r="J37" t="n">
-        <v>26184.86</v>
+        <v>66719.75</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -17035,34 +17501,34 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+          <t>EzcwA7anSrdoH1TMKjbBTd91GD7KwMco9kFZh1AApump</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>obvious</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>54857.2</v>
+        <v>192.74</v>
       </c>
       <c r="E38" t="n">
-        <v>54857.2</v>
+        <v>192.74</v>
       </c>
       <c r="F38" t="n">
-        <v>54857.2</v>
+        <v>192.74</v>
       </c>
       <c r="G38" t="n">
-        <v>54857.2</v>
+        <v>192.74</v>
       </c>
       <c r="H38" t="n">
-        <v>70141.53999999999</v>
+        <v>8866.73</v>
       </c>
       <c r="I38" t="n">
-        <v>70141.53999999999</v>
+        <v>8866.73</v>
       </c>
       <c r="J38" t="n">
-        <v>70141.53999999999</v>
+        <v>8866.73</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -17086,34 +17552,34 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>F2yfGhxEi7Hw2mr2XQ3MLrdamiPt2rkdMf8PSyAGpump</t>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Noxi</t>
+          <t>FARTLESS</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>42.28</v>
+        <v>61506.4</v>
       </c>
       <c r="E39" t="n">
-        <v>42.28</v>
+        <v>61506.4</v>
       </c>
       <c r="F39" t="n">
-        <v>42.28</v>
+        <v>61506.4</v>
       </c>
       <c r="G39" t="n">
-        <v>42.28</v>
+        <v>61506.4</v>
       </c>
       <c r="H39" t="n">
-        <v>9917.889999999999</v>
+        <v>180842.22</v>
       </c>
       <c r="I39" t="n">
-        <v>9917.889999999999</v>
+        <v>180842.22</v>
       </c>
       <c r="J39" t="n">
-        <v>9917.889999999999</v>
+        <v>180842.22</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -17137,34 +17603,34 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FARTLESS</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>65967.67</v>
+        <v>16477.22</v>
       </c>
       <c r="E40" t="n">
-        <v>65967.67</v>
+        <v>16477.22</v>
       </c>
       <c r="F40" t="n">
-        <v>65967.67</v>
+        <v>16477.22</v>
       </c>
       <c r="G40" t="n">
-        <v>65967.67</v>
+        <v>16477.22</v>
       </c>
       <c r="H40" t="n">
-        <v>187378.83</v>
+        <v>13196.2</v>
       </c>
       <c r="I40" t="n">
-        <v>187378.83</v>
+        <v>13196.2</v>
       </c>
       <c r="J40" t="n">
-        <v>187378.83</v>
+        <v>13196.2</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -17188,34 +17654,34 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>38915.86</v>
+        <v>9321.280000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>38915.86</v>
+        <v>9321.280000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>38915.86</v>
+        <v>9321.280000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>38915.86</v>
+        <v>9321.280000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>15787.01</v>
+        <v>23774.39</v>
       </c>
       <c r="I41" t="n">
-        <v>15787.01</v>
+        <v>23774.39</v>
       </c>
       <c r="J41" t="n">
-        <v>15787.01</v>
+        <v>23774.39</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -17239,34 +17705,34 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>SHITTER</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10775.21</v>
+        <v>10842.96</v>
       </c>
       <c r="E42" t="n">
-        <v>10775.21</v>
+        <v>10842.96</v>
       </c>
       <c r="F42" t="n">
-        <v>10775.21</v>
+        <v>10842.96</v>
       </c>
       <c r="G42" t="n">
-        <v>10775.21</v>
+        <v>10842.96</v>
       </c>
       <c r="H42" t="n">
-        <v>23482.46</v>
+        <v>24438</v>
       </c>
       <c r="I42" t="n">
-        <v>23482.46</v>
+        <v>24438</v>
       </c>
       <c r="J42" t="n">
-        <v>23482.46</v>
+        <v>24438</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -17290,34 +17756,34 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SHITTER</t>
+          <t>RAGEGUY</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19919.41</v>
+        <v>93329.10000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>19919.41</v>
+        <v>93329.10000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>19919.41</v>
+        <v>93329.10000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>19919.41</v>
+        <v>93329.10000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>25896.96</v>
+        <v>157467.53</v>
       </c>
       <c r="I43" t="n">
-        <v>25896.96</v>
+        <v>157467.53</v>
       </c>
       <c r="J43" t="n">
-        <v>25896.96</v>
+        <v>157467.53</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -17341,34 +17807,34 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RAGEGUY</t>
+          <t>USEFUL</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>105061.9</v>
+        <v>9702.209999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>105061.9</v>
+        <v>9702.209999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>105061.9</v>
+        <v>9702.209999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>105061.9</v>
+        <v>9702.209999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>167278.94</v>
+        <v>83263.89</v>
       </c>
       <c r="I44" t="n">
-        <v>167278.94</v>
+        <v>83263.89</v>
       </c>
       <c r="J44" t="n">
-        <v>167278.94</v>
+        <v>83263.89</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -17392,34 +17858,34 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>USEFUL</t>
+          <t>$CrepSol</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12435.6</v>
+        <v>2756.32</v>
       </c>
       <c r="E45" t="n">
-        <v>12435.6</v>
+        <v>2756.32</v>
       </c>
       <c r="F45" t="n">
-        <v>12435.6</v>
+        <v>2756.32</v>
       </c>
       <c r="G45" t="n">
-        <v>12435.6</v>
+        <v>2756.32</v>
       </c>
       <c r="H45" t="n">
-        <v>86701.36</v>
+        <v>21377.62</v>
       </c>
       <c r="I45" t="n">
-        <v>86701.36</v>
+        <v>21377.62</v>
       </c>
       <c r="J45" t="n">
-        <v>86701.36</v>
+        <v>21377.62</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -17443,34 +17909,34 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HW2B2wvyEir3iqvYbYqbHWyR7rA6DqCR3WQSy4USpump</t>
+          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$CrepSol</t>
+          <t>Hosico</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3648.64</v>
+        <v>124.42</v>
       </c>
       <c r="E46" t="n">
-        <v>3648.64</v>
+        <v>124.42</v>
       </c>
       <c r="F46" t="n">
-        <v>3648.64</v>
+        <v>124.42</v>
       </c>
       <c r="G46" t="n">
-        <v>3648.64</v>
+        <v>124.42</v>
       </c>
       <c r="H46" t="n">
-        <v>21746.59</v>
+        <v>8536.9</v>
       </c>
       <c r="I46" t="n">
-        <v>21746.59</v>
+        <v>8536.9</v>
       </c>
       <c r="J46" t="n">
-        <v>21746.59</v>
+        <v>8536.9</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -17494,34 +17960,34 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HovYQgKum9HALgJmxGdESHNjsn3xezzio5HQVgiPHo1t</t>
+          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hosico</t>
+          <t>1% Club</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>243.22</v>
+        <v>66.72</v>
       </c>
       <c r="E47" t="n">
-        <v>243.22</v>
+        <v>66.72</v>
       </c>
       <c r="F47" t="n">
-        <v>243.22</v>
+        <v>66.72</v>
       </c>
       <c r="G47" t="n">
-        <v>243.22</v>
+        <v>66.72</v>
       </c>
       <c r="H47" t="n">
-        <v>8763.370000000001</v>
+        <v>7092.64</v>
       </c>
       <c r="I47" t="n">
-        <v>8763.370000000001</v>
+        <v>7092.64</v>
       </c>
       <c r="J47" t="n">
-        <v>8763.370000000001</v>
+        <v>7092.64</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -17545,34 +18011,34 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HpQUbEAcHrhwSJyYfXLNZvJz9SBksRJJStn86gFdbonk</t>
+          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1% Club</t>
+          <t>HOODIE</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>66.52</v>
+        <v>109.8</v>
       </c>
       <c r="E48" t="n">
-        <v>66.52</v>
+        <v>109.8</v>
       </c>
       <c r="F48" t="n">
-        <v>66.52</v>
+        <v>109.8</v>
       </c>
       <c r="G48" t="n">
-        <v>66.52</v>
+        <v>109.8</v>
       </c>
       <c r="H48" t="n">
-        <v>7093.03</v>
+        <v>65114.66</v>
       </c>
       <c r="I48" t="n">
-        <v>7093.03</v>
+        <v>65114.66</v>
       </c>
       <c r="J48" t="n">
-        <v>7093.03</v>
+        <v>65114.66</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -17596,34 +18062,34 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>JFjfTn5VJkHpacwz7rbnGXDxRUCySZhZ2EdTkrAmoon</t>
+          <t>So11111111111111111111111111111111111111112</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HOODIE</t>
+          <t>wSOL</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>107.67</v>
+        <v>220621620.88</v>
       </c>
       <c r="E49" t="n">
-        <v>107.67</v>
+        <v>220621620.88</v>
       </c>
       <c r="F49" t="n">
-        <v>107.67</v>
+        <v>220621620.88</v>
       </c>
       <c r="G49" t="n">
-        <v>107.67</v>
+        <v>220621620.88</v>
       </c>
       <c r="H49" t="n">
-        <v>65469</v>
+        <v>53450004.26</v>
       </c>
       <c r="I49" t="n">
-        <v>65469</v>
+        <v>53450004.26</v>
       </c>
       <c r="J49" t="n">
-        <v>65469</v>
+        <v>53450004.26</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -17647,34 +18113,34 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>So11111111111111111111111111111111111111112</t>
+          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>wSOL</t>
+          <t>YAO</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>233455493.81</v>
+        <v>8693.700000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>233455493.81</v>
+        <v>8693.700000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>233455493.81</v>
+        <v>8693.700000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>233455493.81</v>
+        <v>8693.700000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>53601225.22</v>
+        <v>60220.35</v>
       </c>
       <c r="I50" t="n">
-        <v>53601225.22</v>
+        <v>60220.35</v>
       </c>
       <c r="J50" t="n">
-        <v>53601225.22</v>
+        <v>60220.35</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
@@ -17698,34 +18164,34 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>VnqKnEybGaw6G5ZAdjvPDri5RzDLPXznqxBunG13GJE</t>
+          <t>qG9NJP4pgFxWWfpFWV7GcYkTKyafDGsnUGCDZLRpump</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>YAO</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>9768.040000000001</v>
+        <v>620.41</v>
       </c>
       <c r="E51" t="n">
-        <v>9768.040000000001</v>
+        <v>620.41</v>
       </c>
       <c r="F51" t="n">
-        <v>9768.040000000001</v>
+        <v>620.41</v>
       </c>
       <c r="G51" t="n">
-        <v>9768.040000000001</v>
+        <v>620.41</v>
       </c>
       <c r="H51" t="n">
-        <v>61668.44</v>
+        <v>7827.86</v>
       </c>
       <c r="I51" t="n">
-        <v>61668.44</v>
+        <v>7827.86</v>
       </c>
       <c r="J51" t="n">
-        <v>61668.44</v>
+        <v>7827.86</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -17741,6 +18207,97 @@
       </c>
       <c r="O51" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>signal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vol_mom_3v1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>vol_mom_5v3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>zscore_vol_10d</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>zscore_liq_10d</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>vol_3d</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>liq_3d</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>presence_7d</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>presence_30d</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>current_streak_days</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -532,13 +532,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>217.3</v>
+        <v>217.67</v>
       </c>
       <c r="F2" t="n">
-        <v>269778042.61</v>
+        <v>270563366.83</v>
       </c>
       <c r="G2" t="n">
-        <v>55068304.14</v>
+        <v>55374839.99</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.0001467</v>
+        <v>0.0001641</v>
       </c>
       <c r="F3" t="n">
-        <v>983529.58</v>
+        <v>979398.59</v>
       </c>
       <c r="G3" t="n">
-        <v>79895.31</v>
+        <v>83232.7</v>
       </c>
       <c r="H3" t="n">
-        <v>146749</v>
+        <v>164163</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.001647</v>
+        <v>0.0016</v>
       </c>
       <c r="F4" t="n">
-        <v>384087.91</v>
+        <v>383498.04</v>
       </c>
       <c r="G4" t="n">
-        <v>224085.03</v>
+        <v>221116.95</v>
       </c>
       <c r="H4" t="n">
-        <v>1280147</v>
+        <v>1244218</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.002688</v>
+        <v>0.00269</v>
       </c>
       <c r="F5" t="n">
-        <v>271130.93</v>
+        <v>271917.29</v>
       </c>
       <c r="G5" t="n">
-        <v>500882.98</v>
+        <v>501076.47</v>
       </c>
       <c r="H5" t="n">
-        <v>2686803</v>
+        <v>2688607</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0004236</v>
+        <v>0.0004245</v>
       </c>
       <c r="F6" t="n">
-        <v>185500.61</v>
+        <v>185563.84</v>
       </c>
       <c r="G6" t="n">
-        <v>124024.45</v>
+        <v>124317.64</v>
       </c>
       <c r="H6" t="n">
-        <v>423594</v>
+        <v>424479</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -767,16 +767,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0001839</v>
+        <v>0.0001816</v>
       </c>
       <c r="F7" t="n">
-        <v>149172.78</v>
+        <v>151000.53</v>
       </c>
       <c r="G7" t="n">
-        <v>53759.6</v>
+        <v>53430.12</v>
       </c>
       <c r="H7" t="n">
-        <v>183981</v>
+        <v>181694</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0008705</v>
+        <v>0.0008823</v>
       </c>
       <c r="F8" t="n">
-        <v>122406.18</v>
+        <v>122958.31</v>
       </c>
       <c r="G8" t="n">
-        <v>199804.55</v>
+        <v>201193.35</v>
       </c>
       <c r="H8" t="n">
-        <v>870510</v>
+        <v>882390</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.001813</v>
+        <v>0.001829</v>
       </c>
       <c r="F9" t="n">
-        <v>95369</v>
+        <v>103303.9</v>
       </c>
       <c r="G9" t="n">
-        <v>189799.17</v>
+        <v>190853.78</v>
       </c>
       <c r="H9" t="n">
-        <v>1813152</v>
+        <v>1829689</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         <v>0.0002214</v>
       </c>
       <c r="F10" t="n">
-        <v>91680.53</v>
+        <v>90657.73</v>
       </c>
       <c r="G10" t="n">
         <v>58993.73</v>
@@ -955,16 +955,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.01617</v>
+        <v>0.01623</v>
       </c>
       <c r="F11" t="n">
-        <v>83707.00999999999</v>
+        <v>82202</v>
       </c>
       <c r="G11" t="n">
-        <v>2105164.95</v>
+        <v>2110607.3</v>
       </c>
       <c r="H11" t="n">
-        <v>80878379</v>
+        <v>81173576</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>0.00111</v>
       </c>
       <c r="F12" t="n">
-        <v>79901.81</v>
+        <v>79747.96000000001</v>
       </c>
       <c r="G12" t="n">
         <v>166013.41</v>
@@ -1052,7 +1052,7 @@
         <v>0.0006933</v>
       </c>
       <c r="F13" t="n">
-        <v>66873.19</v>
+        <v>66691.25999999999</v>
       </c>
       <c r="G13" t="n">
         <v>104294.04</v>
@@ -1096,16 +1096,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0004602</v>
+        <v>0.0004622</v>
       </c>
       <c r="F14" t="n">
-        <v>66287.08</v>
+        <v>65937.16</v>
       </c>
       <c r="G14" t="n">
-        <v>138294.92</v>
+        <v>138661.32</v>
       </c>
       <c r="H14" t="n">
-        <v>460190</v>
+        <v>462204</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1143,16 +1143,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0002183</v>
+        <v>0.0002218</v>
       </c>
       <c r="F15" t="n">
-        <v>60667.55</v>
+        <v>60840.08</v>
       </c>
       <c r="G15" t="n">
-        <v>74040.59</v>
+        <v>74592.92999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>217631</v>
+        <v>221086</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1190,16 +1190,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.0005199</v>
+        <v>0.0005284000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>52562.9</v>
+        <v>52987.33</v>
       </c>
       <c r="G16" t="n">
-        <v>148065.02</v>
+        <v>149501</v>
       </c>
       <c r="H16" t="n">
-        <v>519796</v>
+        <v>528322</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>0.000112</v>
       </c>
       <c r="F17" t="n">
-        <v>41114.17</v>
+        <v>41053.76</v>
       </c>
       <c r="G17" t="n">
         <v>56740.29</v>
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.0003056</v>
+        <v>0.0003025</v>
       </c>
       <c r="F18" t="n">
-        <v>38198.12</v>
+        <v>39570.21</v>
       </c>
       <c r="G18" t="n">
-        <v>72990.33</v>
+        <v>72811.57000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>305574</v>
+        <v>302512</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1331,16 +1331,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.0004733</v>
+        <v>0.0004963</v>
       </c>
       <c r="F19" t="n">
-        <v>31601.34</v>
+        <v>35912.32</v>
       </c>
       <c r="G19" t="n">
-        <v>175629.27</v>
+        <v>180047.48</v>
       </c>
       <c r="H19" t="n">
-        <v>473325</v>
+        <v>496394</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1378,16 +1378,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.745999999999999e-05</v>
+        <v>6.567999999999999e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>18225.35</v>
+        <v>18606.34</v>
       </c>
       <c r="G20" t="n">
-        <v>39289.74</v>
+        <v>38871.85</v>
       </c>
       <c r="H20" t="n">
-        <v>67461</v>
+        <v>65683</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1411,30 +1411,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VIBECODER</t>
+          <t>walkusa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Vibe Coding Meta</t>
+          <t>WALKING ACROSS AMERICA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.0001341</v>
+        <v>7.773e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>17344.55</v>
+        <v>17207.7</v>
       </c>
       <c r="G21" t="n">
-        <v>53854.17</v>
+        <v>38711.88</v>
       </c>
       <c r="H21" t="n">
-        <v>130146</v>
+        <v>77734</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1458,30 +1458,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>walkusa</t>
+          <t>VIBECODER</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WALKING ACROSS AMERICA</t>
+          <t>Vibe Coding Meta</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>7.773e-05</v>
+        <v>0.0001341</v>
       </c>
       <c r="F22" t="n">
-        <v>17207.7</v>
+        <v>17176.84</v>
       </c>
       <c r="G22" t="n">
-        <v>38711.88</v>
+        <v>53854.17</v>
       </c>
       <c r="H22" t="n">
-        <v>77734</v>
+        <v>130146</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>6.069e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>12642.5</v>
+        <v>11406.34</v>
       </c>
       <c r="G23" t="n">
         <v>31664.06</v>
@@ -1616,7 +1616,7 @@
         <v>0.000151</v>
       </c>
       <c r="F25" t="n">
-        <v>9139.809999999999</v>
+        <v>9129.09</v>
       </c>
       <c r="G25" t="n">
         <v>86166.2</v>
@@ -1660,16 +1660,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.003955</v>
+        <v>0.003962</v>
       </c>
       <c r="F26" t="n">
-        <v>7170.72</v>
+        <v>7551.98</v>
       </c>
       <c r="G26" t="n">
-        <v>574364.5</v>
+        <v>576259.42</v>
       </c>
       <c r="H26" t="n">
-        <v>3955131</v>
+        <v>3962041</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1707,16 +1707,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.031e-05</v>
+        <v>2.048e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>6301.32</v>
+        <v>6314.15</v>
       </c>
       <c r="G27" t="n">
-        <v>9398.59</v>
+        <v>9452.41</v>
       </c>
       <c r="H27" t="n">
-        <v>20312</v>
+        <v>20483</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1754,16 +1754,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.0001347</v>
+        <v>0.0001337</v>
       </c>
       <c r="F28" t="n">
-        <v>5856.31</v>
+        <v>5980.47</v>
       </c>
       <c r="G28" t="n">
-        <v>59174.67</v>
+        <v>59068.31</v>
       </c>
       <c r="H28" t="n">
-        <v>134692</v>
+        <v>133707</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1801,16 +1801,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.046e-05</v>
+        <v>2.067e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>4576.76</v>
+        <v>4616.94</v>
       </c>
       <c r="G29" t="n">
-        <v>18773.74</v>
+        <v>18886.56</v>
       </c>
       <c r="H29" t="n">
-        <v>20262</v>
+        <v>20468</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>1.243e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>4123.8</v>
+        <v>3906.88</v>
       </c>
       <c r="G30" t="n">
         <v>12272.48</v>
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.276e-05</v>
+        <v>1.299e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>2590.53</v>
+        <v>2697.91</v>
       </c>
       <c r="G31" t="n">
-        <v>15027.69</v>
+        <v>15181.74</v>
       </c>
       <c r="H31" t="n">
-        <v>12730</v>
+        <v>12959</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>2.155e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>2578.38</v>
+        <v>2575.06</v>
       </c>
       <c r="G32" t="n">
         <v>19038.67</v>
@@ -2022,30 +2022,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1649.46</v>
+        <v>2.909e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>2288.31</v>
+        <v>2431.43</v>
       </c>
       <c r="G34" t="n">
-        <v>14828.26</v>
+        <v>23502.49</v>
       </c>
       <c r="H34" t="n">
-        <v>26638843</v>
+        <v>29094</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2069,30 +2069,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Real World Asses</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>9.666000000000001e-08</v>
+        <v>1646.86</v>
       </c>
       <c r="F35" t="n">
-        <v>2243.13</v>
+        <v>2306.05</v>
       </c>
       <c r="G35" t="n">
-        <v>9081.24</v>
+        <v>14826.8</v>
       </c>
       <c r="H35" t="n">
-        <v>6670</v>
+        <v>26596804</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2116,30 +2116,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>Real World Asses</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2.942e-05</v>
+        <v>9.504999999999999e-08</v>
       </c>
       <c r="F36" t="n">
-        <v>1830.81</v>
+        <v>2279.84</v>
       </c>
       <c r="G36" t="n">
-        <v>23157.24</v>
+        <v>9007.809999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>29426</v>
+        <v>6559</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.993e-05</v>
+        <v>2.96e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>1738.87</v>
+        <v>1749.36</v>
       </c>
       <c r="G37" t="n">
-        <v>21480.66</v>
+        <v>21416.84</v>
       </c>
       <c r="H37" t="n">
-        <v>29934</v>
+        <v>29604</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2271,16 +2271,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.04e-05</v>
+        <v>1.036e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>1355.84</v>
+        <v>1376.56</v>
       </c>
       <c r="G39" t="n">
-        <v>13484.99</v>
+        <v>13472.6</v>
       </c>
       <c r="H39" t="n">
-        <v>10409</v>
+        <v>10363</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2318,16 +2318,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.259e-05</v>
+        <v>2.326e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>1065.96</v>
+        <v>1093.82</v>
       </c>
       <c r="G40" t="n">
-        <v>22300.62</v>
+        <v>23013.57</v>
       </c>
       <c r="H40" t="n">
-        <v>22594</v>
+        <v>23265</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2821,30 +2821,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FLY</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Nexa</t>
+          <t>101 Year Old Pumpfun Livestreamr</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.01399</v>
+        <v>1.323e-05</v>
       </c>
       <c r="F51" t="n">
-        <v>45.53</v>
+        <v>54.86</v>
       </c>
       <c r="G51" t="n">
-        <v>8095.6</v>
+        <v>16735.19</v>
       </c>
       <c r="H51" t="n">
-        <v>13996</v>
+        <v>13005</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -7514,22 +7514,22 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>217.3</v>
+        <v>217.67</v>
       </c>
       <c r="H2" t="n">
-        <v>269778042.61</v>
+        <v>270563366.83</v>
       </c>
       <c r="I2" t="n">
-        <v>55068304.14</v>
+        <v>55374839.99</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>269778042.61</v>
+        <v>270563366.83</v>
       </c>
       <c r="L2" t="n">
-        <v>55068304.14</v>
+        <v>55374839.99</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -7567,22 +7567,22 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001467</v>
+        <v>0.0001641</v>
       </c>
       <c r="H3" t="n">
-        <v>983529.58</v>
+        <v>979398.59</v>
       </c>
       <c r="I3" t="n">
-        <v>79895.31</v>
+        <v>83232.7</v>
       </c>
       <c r="J3" t="n">
-        <v>146749</v>
+        <v>164163</v>
       </c>
       <c r="K3" t="n">
-        <v>983529.58</v>
+        <v>979398.59</v>
       </c>
       <c r="L3" t="n">
-        <v>79895.31</v>
+        <v>83232.7</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -7620,22 +7620,22 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001647</v>
+        <v>0.0016</v>
       </c>
       <c r="H4" t="n">
-        <v>384087.91</v>
+        <v>383498.04</v>
       </c>
       <c r="I4" t="n">
-        <v>224085.03</v>
+        <v>221116.95</v>
       </c>
       <c r="J4" t="n">
-        <v>1280147</v>
+        <v>1244218</v>
       </c>
       <c r="K4" t="n">
-        <v>384087.91</v>
+        <v>383498.04</v>
       </c>
       <c r="L4" t="n">
-        <v>224085.03</v>
+        <v>221116.95</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -7673,22 +7673,22 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002688</v>
+        <v>0.00269</v>
       </c>
       <c r="H5" t="n">
-        <v>271130.93</v>
+        <v>271917.29</v>
       </c>
       <c r="I5" t="n">
-        <v>500882.98</v>
+        <v>501076.47</v>
       </c>
       <c r="J5" t="n">
-        <v>2686803</v>
+        <v>2688607</v>
       </c>
       <c r="K5" t="n">
-        <v>271130.93</v>
+        <v>271917.29</v>
       </c>
       <c r="L5" t="n">
-        <v>500882.98</v>
+        <v>501076.47</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -7726,22 +7726,22 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0004236</v>
+        <v>0.0004245</v>
       </c>
       <c r="H6" t="n">
-        <v>185500.61</v>
+        <v>185563.84</v>
       </c>
       <c r="I6" t="n">
-        <v>124024.45</v>
+        <v>124317.64</v>
       </c>
       <c r="J6" t="n">
-        <v>423594</v>
+        <v>424479</v>
       </c>
       <c r="K6" t="n">
-        <v>185500.61</v>
+        <v>185563.84</v>
       </c>
       <c r="L6" t="n">
-        <v>124024.45</v>
+        <v>124317.64</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -7779,22 +7779,22 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001839</v>
+        <v>0.0001816</v>
       </c>
       <c r="H7" t="n">
-        <v>149172.78</v>
+        <v>151000.53</v>
       </c>
       <c r="I7" t="n">
-        <v>53759.6</v>
+        <v>53430.12</v>
       </c>
       <c r="J7" t="n">
-        <v>183981</v>
+        <v>181694</v>
       </c>
       <c r="K7" t="n">
-        <v>149172.78</v>
+        <v>151000.53</v>
       </c>
       <c r="L7" t="n">
-        <v>53759.6</v>
+        <v>53430.12</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -7832,22 +7832,22 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0008705</v>
+        <v>0.0008823</v>
       </c>
       <c r="H8" t="n">
-        <v>122406.18</v>
+        <v>122958.31</v>
       </c>
       <c r="I8" t="n">
-        <v>199804.55</v>
+        <v>201193.35</v>
       </c>
       <c r="J8" t="n">
-        <v>870510</v>
+        <v>882390</v>
       </c>
       <c r="K8" t="n">
-        <v>122406.18</v>
+        <v>122958.31</v>
       </c>
       <c r="L8" t="n">
-        <v>199804.55</v>
+        <v>201193.35</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -7885,22 +7885,22 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001813</v>
+        <v>0.001829</v>
       </c>
       <c r="H9" t="n">
-        <v>95369</v>
+        <v>103303.9</v>
       </c>
       <c r="I9" t="n">
-        <v>189799.17</v>
+        <v>190853.78</v>
       </c>
       <c r="J9" t="n">
-        <v>1813152</v>
+        <v>1829689</v>
       </c>
       <c r="K9" t="n">
-        <v>95369</v>
+        <v>103303.9</v>
       </c>
       <c r="L9" t="n">
-        <v>189799.17</v>
+        <v>190853.78</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -7941,7 +7941,7 @@
         <v>0.0002214</v>
       </c>
       <c r="H10" t="n">
-        <v>91680.53</v>
+        <v>90657.73</v>
       </c>
       <c r="I10" t="n">
         <v>58993.73</v>
@@ -7950,7 +7950,7 @@
         <v>221404</v>
       </c>
       <c r="K10" t="n">
-        <v>91680.53</v>
+        <v>90657.73</v>
       </c>
       <c r="L10" t="n">
         <v>58993.73</v>
@@ -7991,22 +7991,22 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01617</v>
+        <v>0.01623</v>
       </c>
       <c r="H11" t="n">
-        <v>83707.00999999999</v>
+        <v>82202</v>
       </c>
       <c r="I11" t="n">
-        <v>2105164.95</v>
+        <v>2110607.3</v>
       </c>
       <c r="J11" t="n">
-        <v>80878379</v>
+        <v>81173576</v>
       </c>
       <c r="K11" t="n">
-        <v>83707.00999999999</v>
+        <v>82202</v>
       </c>
       <c r="L11" t="n">
-        <v>2105164.95</v>
+        <v>2110607.3</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -8047,7 +8047,7 @@
         <v>0.00111</v>
       </c>
       <c r="H12" t="n">
-        <v>79901.81</v>
+        <v>79747.96000000001</v>
       </c>
       <c r="I12" t="n">
         <v>166013.41</v>
@@ -8056,7 +8056,7 @@
         <v>1109964</v>
       </c>
       <c r="K12" t="n">
-        <v>79901.81</v>
+        <v>79747.96000000001</v>
       </c>
       <c r="L12" t="n">
         <v>166013.41</v>
@@ -8100,7 +8100,7 @@
         <v>0.0006933</v>
       </c>
       <c r="H13" t="n">
-        <v>66873.19</v>
+        <v>66691.25999999999</v>
       </c>
       <c r="I13" t="n">
         <v>104294.04</v>
@@ -8109,7 +8109,7 @@
         <v>495120</v>
       </c>
       <c r="K13" t="n">
-        <v>66873.19</v>
+        <v>66691.25999999999</v>
       </c>
       <c r="L13" t="n">
         <v>104294.04</v>
@@ -8150,22 +8150,22 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0004602</v>
+        <v>0.0004622</v>
       </c>
       <c r="H14" t="n">
-        <v>66287.08</v>
+        <v>65937.16</v>
       </c>
       <c r="I14" t="n">
-        <v>138294.92</v>
+        <v>138661.32</v>
       </c>
       <c r="J14" t="n">
-        <v>460190</v>
+        <v>462204</v>
       </c>
       <c r="K14" t="n">
-        <v>66287.08</v>
+        <v>65937.16</v>
       </c>
       <c r="L14" t="n">
-        <v>138294.92</v>
+        <v>138661.32</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -8203,22 +8203,22 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002183</v>
+        <v>0.0002218</v>
       </c>
       <c r="H15" t="n">
-        <v>60667.55</v>
+        <v>60840.08</v>
       </c>
       <c r="I15" t="n">
-        <v>74040.59</v>
+        <v>74592.92999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>217631</v>
+        <v>221086</v>
       </c>
       <c r="K15" t="n">
-        <v>60667.55</v>
+        <v>60840.08</v>
       </c>
       <c r="L15" t="n">
-        <v>74040.59</v>
+        <v>74592.92999999999</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -8256,22 +8256,22 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0005199</v>
+        <v>0.0005284000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>52562.9</v>
+        <v>52987.33</v>
       </c>
       <c r="I16" t="n">
-        <v>148065.02</v>
+        <v>149501</v>
       </c>
       <c r="J16" t="n">
-        <v>519796</v>
+        <v>528322</v>
       </c>
       <c r="K16" t="n">
-        <v>52562.9</v>
+        <v>52987.33</v>
       </c>
       <c r="L16" t="n">
-        <v>148065.02</v>
+        <v>149501</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -8312,7 +8312,7 @@
         <v>0.000112</v>
       </c>
       <c r="H17" t="n">
-        <v>41114.17</v>
+        <v>41053.76</v>
       </c>
       <c r="I17" t="n">
         <v>56740.29</v>
@@ -8321,7 +8321,7 @@
         <v>111863</v>
       </c>
       <c r="K17" t="n">
-        <v>41114.17</v>
+        <v>41053.76</v>
       </c>
       <c r="L17" t="n">
         <v>56740.29</v>
@@ -8362,22 +8362,22 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0003056</v>
+        <v>0.0003025</v>
       </c>
       <c r="H18" t="n">
-        <v>38198.12</v>
+        <v>39570.21</v>
       </c>
       <c r="I18" t="n">
-        <v>72990.33</v>
+        <v>72811.57000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>305574</v>
+        <v>302512</v>
       </c>
       <c r="K18" t="n">
-        <v>38198.12</v>
+        <v>39570.21</v>
       </c>
       <c r="L18" t="n">
-        <v>72990.33</v>
+        <v>72811.57000000001</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -8415,22 +8415,22 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0004733</v>
+        <v>0.0004963</v>
       </c>
       <c r="H19" t="n">
-        <v>31601.34</v>
+        <v>35912.32</v>
       </c>
       <c r="I19" t="n">
-        <v>175629.27</v>
+        <v>180047.48</v>
       </c>
       <c r="J19" t="n">
-        <v>473325</v>
+        <v>496394</v>
       </c>
       <c r="K19" t="n">
-        <v>31601.34</v>
+        <v>35912.32</v>
       </c>
       <c r="L19" t="n">
-        <v>175629.27</v>
+        <v>180047.48</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -8468,22 +8468,22 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>6.745999999999999e-05</v>
+        <v>6.567999999999999e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>18225.35</v>
+        <v>18606.34</v>
       </c>
       <c r="I20" t="n">
-        <v>39289.74</v>
+        <v>38871.85</v>
       </c>
       <c r="J20" t="n">
-        <v>67461</v>
+        <v>65683</v>
       </c>
       <c r="K20" t="n">
-        <v>18225.35</v>
+        <v>18606.34</v>
       </c>
       <c r="L20" t="n">
-        <v>39289.74</v>
+        <v>38871.85</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -8498,17 +8498,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VIBECODER</t>
+          <t>walkusa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Vibe Coding Meta</t>
+          <t>WALKING ACROSS AMERICA</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
@@ -8521,22 +8521,22 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001341</v>
+        <v>7.773e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>17344.55</v>
+        <v>17207.7</v>
       </c>
       <c r="I21" t="n">
-        <v>53854.17</v>
+        <v>38711.88</v>
       </c>
       <c r="J21" t="n">
-        <v>130146</v>
+        <v>77734</v>
       </c>
       <c r="K21" t="n">
-        <v>17344.55</v>
+        <v>17207.7</v>
       </c>
       <c r="L21" t="n">
-        <v>53854.17</v>
+        <v>38711.88</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -8551,17 +8551,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>walkusa</t>
+          <t>VIBECODER</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WALKING ACROSS AMERICA</t>
+          <t>Vibe Coding Meta</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -8574,22 +8574,22 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>7.773e-05</v>
+        <v>0.0001341</v>
       </c>
       <c r="H22" t="n">
-        <v>17207.7</v>
+        <v>17176.84</v>
       </c>
       <c r="I22" t="n">
-        <v>38711.88</v>
+        <v>53854.17</v>
       </c>
       <c r="J22" t="n">
-        <v>77734</v>
+        <v>130146</v>
       </c>
       <c r="K22" t="n">
-        <v>17207.7</v>
+        <v>17176.84</v>
       </c>
       <c r="L22" t="n">
-        <v>38711.88</v>
+        <v>53854.17</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
@@ -8630,7 +8630,7 @@
         <v>6.069e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>12642.5</v>
+        <v>11406.34</v>
       </c>
       <c r="I23" t="n">
         <v>31664.06</v>
@@ -8639,7 +8639,7 @@
         <v>60689</v>
       </c>
       <c r="K23" t="n">
-        <v>12642.5</v>
+        <v>11406.34</v>
       </c>
       <c r="L23" t="n">
         <v>31664.06</v>
@@ -8736,7 +8736,7 @@
         <v>0.000151</v>
       </c>
       <c r="H25" t="n">
-        <v>9139.809999999999</v>
+        <v>9129.09</v>
       </c>
       <c r="I25" t="n">
         <v>86166.2</v>
@@ -8745,7 +8745,7 @@
         <v>151047</v>
       </c>
       <c r="K25" t="n">
-        <v>9139.809999999999</v>
+        <v>9129.09</v>
       </c>
       <c r="L25" t="n">
         <v>86166.2</v>
@@ -8786,22 +8786,22 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003955</v>
+        <v>0.003962</v>
       </c>
       <c r="H26" t="n">
-        <v>7170.72</v>
+        <v>7551.98</v>
       </c>
       <c r="I26" t="n">
-        <v>574364.5</v>
+        <v>576259.42</v>
       </c>
       <c r="J26" t="n">
-        <v>3955131</v>
+        <v>3962041</v>
       </c>
       <c r="K26" t="n">
-        <v>7170.72</v>
+        <v>7551.98</v>
       </c>
       <c r="L26" t="n">
-        <v>574364.5</v>
+        <v>576259.42</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
@@ -8839,22 +8839,22 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>2.031e-05</v>
+        <v>2.048e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>6301.32</v>
+        <v>6314.15</v>
       </c>
       <c r="I27" t="n">
-        <v>9398.59</v>
+        <v>9452.41</v>
       </c>
       <c r="J27" t="n">
-        <v>20312</v>
+        <v>20483</v>
       </c>
       <c r="K27" t="n">
-        <v>6301.32</v>
+        <v>6314.15</v>
       </c>
       <c r="L27" t="n">
-        <v>9398.59</v>
+        <v>9452.41</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -8892,22 +8892,22 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0001347</v>
+        <v>0.0001337</v>
       </c>
       <c r="H28" t="n">
-        <v>5856.31</v>
+        <v>5980.47</v>
       </c>
       <c r="I28" t="n">
-        <v>59174.67</v>
+        <v>59068.31</v>
       </c>
       <c r="J28" t="n">
-        <v>134692</v>
+        <v>133707</v>
       </c>
       <c r="K28" t="n">
-        <v>5856.31</v>
+        <v>5980.47</v>
       </c>
       <c r="L28" t="n">
-        <v>59174.67</v>
+        <v>59068.31</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -8945,22 +8945,22 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>2.046e-05</v>
+        <v>2.067e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>4576.76</v>
+        <v>4616.94</v>
       </c>
       <c r="I29" t="n">
-        <v>18773.74</v>
+        <v>18886.56</v>
       </c>
       <c r="J29" t="n">
-        <v>20262</v>
+        <v>20468</v>
       </c>
       <c r="K29" t="n">
-        <v>4576.76</v>
+        <v>4616.94</v>
       </c>
       <c r="L29" t="n">
-        <v>18773.74</v>
+        <v>18886.56</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -9001,7 +9001,7 @@
         <v>1.243e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>4123.8</v>
+        <v>3906.88</v>
       </c>
       <c r="I30" t="n">
         <v>12272.48</v>
@@ -9010,7 +9010,7 @@
         <v>12434</v>
       </c>
       <c r="K30" t="n">
-        <v>4123.8</v>
+        <v>3906.88</v>
       </c>
       <c r="L30" t="n">
         <v>12272.48</v>
@@ -9051,22 +9051,22 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1.276e-05</v>
+        <v>1.299e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>2590.53</v>
+        <v>2697.91</v>
       </c>
       <c r="I31" t="n">
-        <v>15027.69</v>
+        <v>15181.74</v>
       </c>
       <c r="J31" t="n">
-        <v>12730</v>
+        <v>12959</v>
       </c>
       <c r="K31" t="n">
-        <v>2590.53</v>
+        <v>2697.91</v>
       </c>
       <c r="L31" t="n">
-        <v>15027.69</v>
+        <v>15181.74</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>2.155e-05</v>
       </c>
       <c r="H32" t="n">
-        <v>2578.38</v>
+        <v>2575.06</v>
       </c>
       <c r="I32" t="n">
         <v>19038.67</v>
@@ -9116,7 +9116,7 @@
         <v>21443</v>
       </c>
       <c r="K32" t="n">
-        <v>2578.38</v>
+        <v>2575.06</v>
       </c>
       <c r="L32" t="n">
         <v>19038.67</v>
@@ -9187,17 +9187,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -9210,22 +9210,22 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>1649.46</v>
+        <v>2.909e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>2288.31</v>
+        <v>2431.43</v>
       </c>
       <c r="I34" t="n">
-        <v>14828.26</v>
+        <v>23502.49</v>
       </c>
       <c r="J34" t="n">
-        <v>26638843</v>
+        <v>29094</v>
       </c>
       <c r="K34" t="n">
-        <v>2288.31</v>
+        <v>2431.43</v>
       </c>
       <c r="L34" t="n">
-        <v>14828.26</v>
+        <v>23502.49</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
@@ -9240,17 +9240,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Real World Asses</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -9263,22 +9263,22 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>9.666000000000001e-08</v>
+        <v>1646.86</v>
       </c>
       <c r="H35" t="n">
-        <v>2243.13</v>
+        <v>2306.05</v>
       </c>
       <c r="I35" t="n">
-        <v>9081.24</v>
+        <v>14826.8</v>
       </c>
       <c r="J35" t="n">
-        <v>6670</v>
+        <v>26596804</v>
       </c>
       <c r="K35" t="n">
-        <v>2243.13</v>
+        <v>2306.05</v>
       </c>
       <c r="L35" t="n">
-        <v>9081.24</v>
+        <v>14826.8</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
@@ -9293,17 +9293,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>Real World Asses</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
@@ -9316,22 +9316,22 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942e-05</v>
+        <v>9.504999999999999e-08</v>
       </c>
       <c r="H36" t="n">
-        <v>1830.81</v>
+        <v>2279.84</v>
       </c>
       <c r="I36" t="n">
-        <v>23157.24</v>
+        <v>9007.809999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>29426</v>
+        <v>6559</v>
       </c>
       <c r="K36" t="n">
-        <v>1830.81</v>
+        <v>2279.84</v>
       </c>
       <c r="L36" t="n">
-        <v>23157.24</v>
+        <v>9007.809999999999</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
@@ -9369,22 +9369,22 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>2.993e-05</v>
+        <v>2.96e-05</v>
       </c>
       <c r="H37" t="n">
-        <v>1738.87</v>
+        <v>1749.36</v>
       </c>
       <c r="I37" t="n">
-        <v>21480.66</v>
+        <v>21416.84</v>
       </c>
       <c r="J37" t="n">
-        <v>29934</v>
+        <v>29604</v>
       </c>
       <c r="K37" t="n">
-        <v>1738.87</v>
+        <v>1749.36</v>
       </c>
       <c r="L37" t="n">
-        <v>21480.66</v>
+        <v>21416.84</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
@@ -9475,22 +9475,22 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1.04e-05</v>
+        <v>1.036e-05</v>
       </c>
       <c r="H39" t="n">
-        <v>1355.84</v>
+        <v>1376.56</v>
       </c>
       <c r="I39" t="n">
-        <v>13484.99</v>
+        <v>13472.6</v>
       </c>
       <c r="J39" t="n">
-        <v>10409</v>
+        <v>10363</v>
       </c>
       <c r="K39" t="n">
-        <v>1355.84</v>
+        <v>1376.56</v>
       </c>
       <c r="L39" t="n">
-        <v>13484.99</v>
+        <v>13472.6</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
@@ -9528,22 +9528,22 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>2.259e-05</v>
+        <v>2.326e-05</v>
       </c>
       <c r="H40" t="n">
-        <v>1065.96</v>
+        <v>1093.82</v>
       </c>
       <c r="I40" t="n">
-        <v>22300.62</v>
+        <v>23013.57</v>
       </c>
       <c r="J40" t="n">
-        <v>22594</v>
+        <v>23265</v>
       </c>
       <c r="K40" t="n">
-        <v>1065.96</v>
+        <v>1093.82</v>
       </c>
       <c r="L40" t="n">
-        <v>22300.62</v>
+        <v>23013.57</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -10088,17 +10088,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FLY</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Nexa</t>
+          <t>101 Year Old Pumpfun Livestreamr</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
@@ -10111,22 +10111,22 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01399</v>
+        <v>1.323e-05</v>
       </c>
       <c r="H51" t="n">
-        <v>45.53</v>
+        <v>54.86</v>
       </c>
       <c r="I51" t="n">
-        <v>8095.6</v>
+        <v>16735.19</v>
       </c>
       <c r="J51" t="n">
-        <v>13996</v>
+        <v>13005</v>
       </c>
       <c r="K51" t="n">
-        <v>45.53</v>
+        <v>54.86</v>
       </c>
       <c r="L51" t="n">
-        <v>8095.6</v>
+        <v>16735.19</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
@@ -10351,13 +10351,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>217.3</v>
+        <v>217.67</v>
       </c>
       <c r="F2" t="n">
-        <v>269778042.61</v>
+        <v>270563366.83</v>
       </c>
       <c r="G2" t="n">
-        <v>55068304.14</v>
+        <v>55374839.99</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -10398,16 +10398,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.0001467</v>
+        <v>0.0001641</v>
       </c>
       <c r="F3" t="n">
-        <v>983529.58</v>
+        <v>979398.59</v>
       </c>
       <c r="G3" t="n">
-        <v>79895.31</v>
+        <v>83232.7</v>
       </c>
       <c r="H3" t="n">
-        <v>146749</v>
+        <v>164163</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -10445,16 +10445,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.001647</v>
+        <v>0.0016</v>
       </c>
       <c r="F4" t="n">
-        <v>384087.91</v>
+        <v>383498.04</v>
       </c>
       <c r="G4" t="n">
-        <v>224085.03</v>
+        <v>221116.95</v>
       </c>
       <c r="H4" t="n">
-        <v>1280147</v>
+        <v>1244218</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -10492,16 +10492,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.002688</v>
+        <v>0.00269</v>
       </c>
       <c r="F5" t="n">
-        <v>271130.93</v>
+        <v>271917.29</v>
       </c>
       <c r="G5" t="n">
-        <v>500882.98</v>
+        <v>501076.47</v>
       </c>
       <c r="H5" t="n">
-        <v>2686803</v>
+        <v>2688607</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -10539,16 +10539,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0004236</v>
+        <v>0.0004245</v>
       </c>
       <c r="F6" t="n">
-        <v>185500.61</v>
+        <v>185563.84</v>
       </c>
       <c r="G6" t="n">
-        <v>124024.45</v>
+        <v>124317.64</v>
       </c>
       <c r="H6" t="n">
-        <v>423594</v>
+        <v>424479</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -10586,16 +10586,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0001839</v>
+        <v>0.0001816</v>
       </c>
       <c r="F7" t="n">
-        <v>149172.78</v>
+        <v>151000.53</v>
       </c>
       <c r="G7" t="n">
-        <v>53759.6</v>
+        <v>53430.12</v>
       </c>
       <c r="H7" t="n">
-        <v>183981</v>
+        <v>181694</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -10633,16 +10633,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0008705</v>
+        <v>0.0008823</v>
       </c>
       <c r="F8" t="n">
-        <v>122406.18</v>
+        <v>122958.31</v>
       </c>
       <c r="G8" t="n">
-        <v>199804.55</v>
+        <v>201193.35</v>
       </c>
       <c r="H8" t="n">
-        <v>870510</v>
+        <v>882390</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -10680,16 +10680,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.001813</v>
+        <v>0.001829</v>
       </c>
       <c r="F9" t="n">
-        <v>95369</v>
+        <v>103303.9</v>
       </c>
       <c r="G9" t="n">
-        <v>189799.17</v>
+        <v>190853.78</v>
       </c>
       <c r="H9" t="n">
-        <v>1813152</v>
+        <v>1829689</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>0.0002214</v>
       </c>
       <c r="F10" t="n">
-        <v>91680.53</v>
+        <v>90657.73</v>
       </c>
       <c r="G10" t="n">
         <v>58993.73</v>
@@ -10774,16 +10774,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.01617</v>
+        <v>0.01623</v>
       </c>
       <c r="F11" t="n">
-        <v>83707.00999999999</v>
+        <v>82202</v>
       </c>
       <c r="G11" t="n">
-        <v>2105164.95</v>
+        <v>2110607.3</v>
       </c>
       <c r="H11" t="n">
-        <v>80878379</v>
+        <v>81173576</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>0.00111</v>
       </c>
       <c r="F12" t="n">
-        <v>79901.81</v>
+        <v>79747.96000000001</v>
       </c>
       <c r="G12" t="n">
         <v>166013.41</v>
@@ -10871,7 +10871,7 @@
         <v>0.0006933</v>
       </c>
       <c r="F13" t="n">
-        <v>66873.19</v>
+        <v>66691.25999999999</v>
       </c>
       <c r="G13" t="n">
         <v>104294.04</v>
@@ -10915,16 +10915,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0004602</v>
+        <v>0.0004622</v>
       </c>
       <c r="F14" t="n">
-        <v>66287.08</v>
+        <v>65937.16</v>
       </c>
       <c r="G14" t="n">
-        <v>138294.92</v>
+        <v>138661.32</v>
       </c>
       <c r="H14" t="n">
-        <v>460190</v>
+        <v>462204</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -10962,16 +10962,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0002183</v>
+        <v>0.0002218</v>
       </c>
       <c r="F15" t="n">
-        <v>60667.55</v>
+        <v>60840.08</v>
       </c>
       <c r="G15" t="n">
-        <v>74040.59</v>
+        <v>74592.92999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>217631</v>
+        <v>221086</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -11009,16 +11009,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.0005199</v>
+        <v>0.0005284000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>52562.9</v>
+        <v>52987.33</v>
       </c>
       <c r="G16" t="n">
-        <v>148065.02</v>
+        <v>149501</v>
       </c>
       <c r="H16" t="n">
-        <v>519796</v>
+        <v>528322</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>0.000112</v>
       </c>
       <c r="F17" t="n">
-        <v>41114.17</v>
+        <v>41053.76</v>
       </c>
       <c r="G17" t="n">
         <v>56740.29</v>
@@ -11103,16 +11103,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.0003056</v>
+        <v>0.0003025</v>
       </c>
       <c r="F18" t="n">
-        <v>38198.12</v>
+        <v>39570.21</v>
       </c>
       <c r="G18" t="n">
-        <v>72990.33</v>
+        <v>72811.57000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>305574</v>
+        <v>302512</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -11150,16 +11150,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.0004733</v>
+        <v>0.0004963</v>
       </c>
       <c r="F19" t="n">
-        <v>31601.34</v>
+        <v>35912.32</v>
       </c>
       <c r="G19" t="n">
-        <v>175629.27</v>
+        <v>180047.48</v>
       </c>
       <c r="H19" t="n">
-        <v>473325</v>
+        <v>496394</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -11197,16 +11197,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.745999999999999e-05</v>
+        <v>6.567999999999999e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>18225.35</v>
+        <v>18606.34</v>
       </c>
       <c r="G20" t="n">
-        <v>39289.74</v>
+        <v>38871.85</v>
       </c>
       <c r="H20" t="n">
-        <v>67461</v>
+        <v>65683</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -11230,30 +11230,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VIBECODER</t>
+          <t>walkusa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Vibe Coding Meta</t>
+          <t>WALKING ACROSS AMERICA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.0001341</v>
+        <v>7.773e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>17344.55</v>
+        <v>17207.7</v>
       </c>
       <c r="G21" t="n">
-        <v>53854.17</v>
+        <v>38711.88</v>
       </c>
       <c r="H21" t="n">
-        <v>130146</v>
+        <v>77734</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -11277,30 +11277,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>walkusa</t>
+          <t>VIBECODER</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WALKING ACROSS AMERICA</t>
+          <t>Vibe Coding Meta</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3BrXeqzNKUKsM6MgkWFZX4E2cY8SiwYNwwmVzP2Rpump</t>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>7.773e-05</v>
+        <v>0.0001341</v>
       </c>
       <c r="F22" t="n">
-        <v>17207.7</v>
+        <v>17176.84</v>
       </c>
       <c r="G22" t="n">
-        <v>38711.88</v>
+        <v>53854.17</v>
       </c>
       <c r="H22" t="n">
-        <v>77734</v>
+        <v>130146</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>6.069e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>12642.5</v>
+        <v>11406.34</v>
       </c>
       <c r="G23" t="n">
         <v>31664.06</v>
@@ -11435,7 +11435,7 @@
         <v>0.000151</v>
       </c>
       <c r="F25" t="n">
-        <v>9139.809999999999</v>
+        <v>9129.09</v>
       </c>
       <c r="G25" t="n">
         <v>86166.2</v>
@@ -11479,16 +11479,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.003955</v>
+        <v>0.003962</v>
       </c>
       <c r="F26" t="n">
-        <v>7170.72</v>
+        <v>7551.98</v>
       </c>
       <c r="G26" t="n">
-        <v>574364.5</v>
+        <v>576259.42</v>
       </c>
       <c r="H26" t="n">
-        <v>3955131</v>
+        <v>3962041</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -11526,16 +11526,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.031e-05</v>
+        <v>2.048e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>6301.32</v>
+        <v>6314.15</v>
       </c>
       <c r="G27" t="n">
-        <v>9398.59</v>
+        <v>9452.41</v>
       </c>
       <c r="H27" t="n">
-        <v>20312</v>
+        <v>20483</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -11573,16 +11573,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.0001347</v>
+        <v>0.0001337</v>
       </c>
       <c r="F28" t="n">
-        <v>5856.31</v>
+        <v>5980.47</v>
       </c>
       <c r="G28" t="n">
-        <v>59174.67</v>
+        <v>59068.31</v>
       </c>
       <c r="H28" t="n">
-        <v>134692</v>
+        <v>133707</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -11620,16 +11620,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.046e-05</v>
+        <v>2.067e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>4576.76</v>
+        <v>4616.94</v>
       </c>
       <c r="G29" t="n">
-        <v>18773.74</v>
+        <v>18886.56</v>
       </c>
       <c r="H29" t="n">
-        <v>20262</v>
+        <v>20468</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>1.243e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>4123.8</v>
+        <v>3906.88</v>
       </c>
       <c r="G30" t="n">
         <v>12272.48</v>
@@ -11714,16 +11714,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.276e-05</v>
+        <v>1.299e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>2590.53</v>
+        <v>2697.91</v>
       </c>
       <c r="G31" t="n">
-        <v>15027.69</v>
+        <v>15181.74</v>
       </c>
       <c r="H31" t="n">
-        <v>12730</v>
+        <v>12959</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>2.155e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>2578.38</v>
+        <v>2575.06</v>
       </c>
       <c r="G32" t="n">
         <v>19038.67</v>
@@ -11841,30 +11841,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1649.46</v>
+        <v>2.909e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>2288.31</v>
+        <v>2431.43</v>
       </c>
       <c r="G34" t="n">
-        <v>14828.26</v>
+        <v>23502.49</v>
       </c>
       <c r="H34" t="n">
-        <v>26638843</v>
+        <v>29094</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -11888,30 +11888,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Real World Asses</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>9.666000000000001e-08</v>
+        <v>1646.86</v>
       </c>
       <c r="F35" t="n">
-        <v>2243.13</v>
+        <v>2306.05</v>
       </c>
       <c r="G35" t="n">
-        <v>9081.24</v>
+        <v>14826.8</v>
       </c>
       <c r="H35" t="n">
-        <v>6670</v>
+        <v>26596804</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -11935,30 +11935,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>Real World Asses</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2.942e-05</v>
+        <v>9.504999999999999e-08</v>
       </c>
       <c r="F36" t="n">
-        <v>1830.81</v>
+        <v>2279.84</v>
       </c>
       <c r="G36" t="n">
-        <v>23157.24</v>
+        <v>9007.809999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>29426</v>
+        <v>6559</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -11996,16 +11996,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.993e-05</v>
+        <v>2.96e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>1738.87</v>
+        <v>1749.36</v>
       </c>
       <c r="G37" t="n">
-        <v>21480.66</v>
+        <v>21416.84</v>
       </c>
       <c r="H37" t="n">
-        <v>29934</v>
+        <v>29604</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -12090,16 +12090,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.04e-05</v>
+        <v>1.036e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>1355.84</v>
+        <v>1376.56</v>
       </c>
       <c r="G39" t="n">
-        <v>13484.99</v>
+        <v>13472.6</v>
       </c>
       <c r="H39" t="n">
-        <v>10409</v>
+        <v>10363</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -12137,16 +12137,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.259e-05</v>
+        <v>2.326e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>1065.96</v>
+        <v>1093.82</v>
       </c>
       <c r="G40" t="n">
-        <v>22300.62</v>
+        <v>23013.57</v>
       </c>
       <c r="H40" t="n">
-        <v>22594</v>
+        <v>23265</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -12640,30 +12640,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FLY</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Nexa</t>
+          <t>101 Year Old Pumpfun Livestreamr</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.01399</v>
+        <v>1.323e-05</v>
       </c>
       <c r="F51" t="n">
-        <v>45.53</v>
+        <v>54.86</v>
       </c>
       <c r="G51" t="n">
-        <v>8095.6</v>
+        <v>16735.19</v>
       </c>
       <c r="H51" t="n">
-        <v>13996</v>
+        <v>13005</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -15674,25 +15674,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4576.76</v>
+        <v>4616.94</v>
       </c>
       <c r="E2" t="n">
-        <v>4576.76</v>
+        <v>4616.94</v>
       </c>
       <c r="F2" t="n">
-        <v>4576.76</v>
+        <v>4616.94</v>
       </c>
       <c r="G2" t="n">
-        <v>4576.76</v>
+        <v>4616.94</v>
       </c>
       <c r="H2" t="n">
-        <v>18773.74</v>
+        <v>18886.56</v>
       </c>
       <c r="I2" t="n">
-        <v>18773.74</v>
+        <v>18886.56</v>
       </c>
       <c r="J2" t="n">
-        <v>18773.74</v>
+        <v>18886.56</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -15725,25 +15725,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>983529.58</v>
+        <v>979398.59</v>
       </c>
       <c r="E3" t="n">
-        <v>983529.58</v>
+        <v>979398.59</v>
       </c>
       <c r="F3" t="n">
-        <v>983529.58</v>
+        <v>979398.59</v>
       </c>
       <c r="G3" t="n">
-        <v>983529.58</v>
+        <v>979398.59</v>
       </c>
       <c r="H3" t="n">
-        <v>79895.31</v>
+        <v>83232.7</v>
       </c>
       <c r="I3" t="n">
-        <v>79895.31</v>
+        <v>83232.7</v>
       </c>
       <c r="J3" t="n">
-        <v>79895.31</v>
+        <v>83232.7</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -15776,16 +15776,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>41114.17</v>
+        <v>41053.76</v>
       </c>
       <c r="E4" t="n">
-        <v>41114.17</v>
+        <v>41053.76</v>
       </c>
       <c r="F4" t="n">
-        <v>41114.17</v>
+        <v>41053.76</v>
       </c>
       <c r="G4" t="n">
-        <v>41114.17</v>
+        <v>41053.76</v>
       </c>
       <c r="H4" t="n">
         <v>56740.29</v>
@@ -15878,25 +15878,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7170.72</v>
+        <v>7551.98</v>
       </c>
       <c r="E6" t="n">
-        <v>7170.72</v>
+        <v>7551.98</v>
       </c>
       <c r="F6" t="n">
-        <v>7170.72</v>
+        <v>7551.98</v>
       </c>
       <c r="G6" t="n">
-        <v>7170.72</v>
+        <v>7551.98</v>
       </c>
       <c r="H6" t="n">
-        <v>574364.5</v>
+        <v>576259.42</v>
       </c>
       <c r="I6" t="n">
-        <v>574364.5</v>
+        <v>576259.42</v>
       </c>
       <c r="J6" t="n">
-        <v>574364.5</v>
+        <v>576259.42</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -15929,25 +15929,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52562.9</v>
+        <v>52987.33</v>
       </c>
       <c r="E7" t="n">
-        <v>52562.9</v>
+        <v>52987.33</v>
       </c>
       <c r="F7" t="n">
-        <v>52562.9</v>
+        <v>52987.33</v>
       </c>
       <c r="G7" t="n">
-        <v>52562.9</v>
+        <v>52987.33</v>
       </c>
       <c r="H7" t="n">
-        <v>148065.02</v>
+        <v>149501</v>
       </c>
       <c r="I7" t="n">
-        <v>148065.02</v>
+        <v>149501</v>
       </c>
       <c r="J7" t="n">
-        <v>148065.02</v>
+        <v>149501</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -15980,25 +15980,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>149172.78</v>
+        <v>151000.53</v>
       </c>
       <c r="E8" t="n">
-        <v>149172.78</v>
+        <v>151000.53</v>
       </c>
       <c r="F8" t="n">
-        <v>149172.78</v>
+        <v>151000.53</v>
       </c>
       <c r="G8" t="n">
-        <v>149172.78</v>
+        <v>151000.53</v>
       </c>
       <c r="H8" t="n">
-        <v>53759.6</v>
+        <v>53430.12</v>
       </c>
       <c r="I8" t="n">
-        <v>53759.6</v>
+        <v>53430.12</v>
       </c>
       <c r="J8" t="n">
-        <v>53759.6</v>
+        <v>53430.12</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -16022,34 +16022,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4bLnK5YuJaqkVX4uWtJ1Qtx3XoZ8eHH37STXSwujpump</t>
+          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DARE</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>649.3</v>
+        <v>54.86</v>
       </c>
       <c r="E9" t="n">
-        <v>649.3</v>
+        <v>54.86</v>
       </c>
       <c r="F9" t="n">
-        <v>649.3</v>
+        <v>54.86</v>
       </c>
       <c r="G9" t="n">
-        <v>649.3</v>
+        <v>54.86</v>
       </c>
       <c r="H9" t="n">
-        <v>13436.27</v>
+        <v>16735.19</v>
       </c>
       <c r="I9" t="n">
-        <v>13436.27</v>
+        <v>16735.19</v>
       </c>
       <c r="J9" t="n">
-        <v>13436.27</v>
+        <v>16735.19</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -16073,34 +16073,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>4bLnK5YuJaqkVX4uWtJ1Qtx3XoZ8eHH37STXSwujpump</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>DARE</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1592.82</v>
+        <v>649.3</v>
       </c>
       <c r="E10" t="n">
-        <v>1592.82</v>
+        <v>649.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1592.82</v>
+        <v>649.3</v>
       </c>
       <c r="G10" t="n">
-        <v>1592.82</v>
+        <v>649.3</v>
       </c>
       <c r="H10" t="n">
-        <v>24287.67</v>
+        <v>13436.27</v>
       </c>
       <c r="I10" t="n">
-        <v>24287.67</v>
+        <v>13436.27</v>
       </c>
       <c r="J10" t="n">
-        <v>24287.67</v>
+        <v>13436.27</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -16124,34 +16124,34 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Useless</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18225.35</v>
+        <v>1592.82</v>
       </c>
       <c r="E11" t="n">
-        <v>18225.35</v>
+        <v>1592.82</v>
       </c>
       <c r="F11" t="n">
-        <v>18225.35</v>
+        <v>1592.82</v>
       </c>
       <c r="G11" t="n">
-        <v>18225.35</v>
+        <v>1592.82</v>
       </c>
       <c r="H11" t="n">
-        <v>39289.74</v>
+        <v>24287.67</v>
       </c>
       <c r="I11" t="n">
-        <v>39289.74</v>
+        <v>24287.67</v>
       </c>
       <c r="J11" t="n">
-        <v>39289.74</v>
+        <v>24287.67</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -16175,34 +16175,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>Useless</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>31601.34</v>
+        <v>18606.34</v>
       </c>
       <c r="E12" t="n">
-        <v>31601.34</v>
+        <v>18606.34</v>
       </c>
       <c r="F12" t="n">
-        <v>31601.34</v>
+        <v>18606.34</v>
       </c>
       <c r="G12" t="n">
-        <v>31601.34</v>
+        <v>18606.34</v>
       </c>
       <c r="H12" t="n">
-        <v>175629.27</v>
+        <v>38871.85</v>
       </c>
       <c r="I12" t="n">
-        <v>175629.27</v>
+        <v>38871.85</v>
       </c>
       <c r="J12" t="n">
-        <v>175629.27</v>
+        <v>38871.85</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -16226,34 +16226,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6NVo6X8ouYRVoKRWe7Y9J6CT4pWZXDthSJCBZ3vgUg8z</t>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bagwork</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114.4</v>
+        <v>35912.32</v>
       </c>
       <c r="E13" t="n">
-        <v>114.4</v>
+        <v>35912.32</v>
       </c>
       <c r="F13" t="n">
-        <v>114.4</v>
+        <v>35912.32</v>
       </c>
       <c r="G13" t="n">
-        <v>114.4</v>
+        <v>35912.32</v>
       </c>
       <c r="H13" t="n">
-        <v>8930.35</v>
+        <v>180047.48</v>
       </c>
       <c r="I13" t="n">
-        <v>8930.35</v>
+        <v>180047.48</v>
       </c>
       <c r="J13" t="n">
-        <v>8930.35</v>
+        <v>180047.48</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -16277,34 +16277,34 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
+          <t>6NVo6X8ouYRVoKRWe7Y9J6CT4pWZXDthSJCBZ3vgUg8z</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>Bagwork</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>134.48</v>
+        <v>114.4</v>
       </c>
       <c r="E14" t="n">
-        <v>134.48</v>
+        <v>114.4</v>
       </c>
       <c r="F14" t="n">
-        <v>134.48</v>
+        <v>114.4</v>
       </c>
       <c r="G14" t="n">
-        <v>134.48</v>
+        <v>114.4</v>
       </c>
       <c r="H14" t="n">
-        <v>8042.59</v>
+        <v>8930.35</v>
       </c>
       <c r="I14" t="n">
-        <v>8042.59</v>
+        <v>8930.35</v>
       </c>
       <c r="J14" t="n">
-        <v>8042.59</v>
+        <v>8930.35</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -16328,34 +16328,34 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>APOLLO</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6301.32</v>
+        <v>134.48</v>
       </c>
       <c r="E15" t="n">
-        <v>6301.32</v>
+        <v>134.48</v>
       </c>
       <c r="F15" t="n">
-        <v>6301.32</v>
+        <v>134.48</v>
       </c>
       <c r="G15" t="n">
-        <v>6301.32</v>
+        <v>134.48</v>
       </c>
       <c r="H15" t="n">
-        <v>9398.59</v>
+        <v>8042.59</v>
       </c>
       <c r="I15" t="n">
-        <v>9398.59</v>
+        <v>8042.59</v>
       </c>
       <c r="J15" t="n">
-        <v>9398.59</v>
+        <v>8042.59</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -16379,34 +16379,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>APOLLO</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2243.13</v>
+        <v>6314.15</v>
       </c>
       <c r="E16" t="n">
-        <v>2243.13</v>
+        <v>6314.15</v>
       </c>
       <c r="F16" t="n">
-        <v>2243.13</v>
+        <v>6314.15</v>
       </c>
       <c r="G16" t="n">
-        <v>2243.13</v>
+        <v>6314.15</v>
       </c>
       <c r="H16" t="n">
-        <v>9081.24</v>
+        <v>9452.41</v>
       </c>
       <c r="I16" t="n">
-        <v>9081.24</v>
+        <v>9452.41</v>
       </c>
       <c r="J16" t="n">
-        <v>9081.24</v>
+        <v>9452.41</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -16430,34 +16430,34 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>VIBECODER</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17344.55</v>
+        <v>2279.84</v>
       </c>
       <c r="E17" t="n">
-        <v>17344.55</v>
+        <v>2279.84</v>
       </c>
       <c r="F17" t="n">
-        <v>17344.55</v>
+        <v>2279.84</v>
       </c>
       <c r="G17" t="n">
-        <v>17344.55</v>
+        <v>2279.84</v>
       </c>
       <c r="H17" t="n">
-        <v>53854.17</v>
+        <v>9007.809999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>53854.17</v>
+        <v>9007.809999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>53854.17</v>
+        <v>9007.809999999999</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -16481,34 +16481,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LION</t>
+          <t>VIBECODER</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>83707.00999999999</v>
+        <v>17176.84</v>
       </c>
       <c r="E18" t="n">
-        <v>83707.00999999999</v>
+        <v>17176.84</v>
       </c>
       <c r="F18" t="n">
-        <v>83707.00999999999</v>
+        <v>17176.84</v>
       </c>
       <c r="G18" t="n">
-        <v>83707.00999999999</v>
+        <v>17176.84</v>
       </c>
       <c r="H18" t="n">
-        <v>2105164.95</v>
+        <v>53854.17</v>
       </c>
       <c r="I18" t="n">
-        <v>2105164.95</v>
+        <v>53854.17</v>
       </c>
       <c r="J18" t="n">
-        <v>2105164.95</v>
+        <v>53854.17</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -16532,34 +16532,34 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>LION</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>38198.12</v>
+        <v>82202</v>
       </c>
       <c r="E19" t="n">
-        <v>38198.12</v>
+        <v>82202</v>
       </c>
       <c r="F19" t="n">
-        <v>38198.12</v>
+        <v>82202</v>
       </c>
       <c r="G19" t="n">
-        <v>38198.12</v>
+        <v>82202</v>
       </c>
       <c r="H19" t="n">
-        <v>72990.33</v>
+        <v>2110607.3</v>
       </c>
       <c r="I19" t="n">
-        <v>72990.33</v>
+        <v>2110607.3</v>
       </c>
       <c r="J19" t="n">
-        <v>72990.33</v>
+        <v>2110607.3</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -16583,34 +16583,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1dog</t>
+          <t>early</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2590.53</v>
+        <v>39570.21</v>
       </c>
       <c r="E20" t="n">
-        <v>2590.53</v>
+        <v>39570.21</v>
       </c>
       <c r="F20" t="n">
-        <v>2590.53</v>
+        <v>39570.21</v>
       </c>
       <c r="G20" t="n">
-        <v>2590.53</v>
+        <v>39570.21</v>
       </c>
       <c r="H20" t="n">
-        <v>15027.69</v>
+        <v>72811.57000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>15027.69</v>
+        <v>72811.57000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>15027.69</v>
+        <v>72811.57000000001</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -16634,34 +16634,34 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1dog</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2456.3</v>
+        <v>2697.91</v>
       </c>
       <c r="E21" t="n">
-        <v>2456.3</v>
+        <v>2697.91</v>
       </c>
       <c r="F21" t="n">
-        <v>2456.3</v>
+        <v>2697.91</v>
       </c>
       <c r="G21" t="n">
-        <v>2456.3</v>
+        <v>2697.91</v>
       </c>
       <c r="H21" t="n">
-        <v>11616.2</v>
+        <v>15181.74</v>
       </c>
       <c r="I21" t="n">
-        <v>11616.2</v>
+        <v>15181.74</v>
       </c>
       <c r="J21" t="n">
-        <v>11616.2</v>
+        <v>15181.74</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -16685,34 +16685,34 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PILL</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>97.42</v>
+        <v>2456.3</v>
       </c>
       <c r="E22" t="n">
-        <v>97.42</v>
+        <v>2456.3</v>
       </c>
       <c r="F22" t="n">
-        <v>97.42</v>
+        <v>2456.3</v>
       </c>
       <c r="G22" t="n">
-        <v>97.42</v>
+        <v>2456.3</v>
       </c>
       <c r="H22" t="n">
-        <v>10687.28</v>
+        <v>11616.2</v>
       </c>
       <c r="I22" t="n">
-        <v>10687.28</v>
+        <v>11616.2</v>
       </c>
       <c r="J22" t="n">
-        <v>10687.28</v>
+        <v>11616.2</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -16736,34 +16736,34 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MOON</t>
+          <t>PILL</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1355.84</v>
+        <v>97.42</v>
       </c>
       <c r="E23" t="n">
-        <v>1355.84</v>
+        <v>97.42</v>
       </c>
       <c r="F23" t="n">
-        <v>1355.84</v>
+        <v>97.42</v>
       </c>
       <c r="G23" t="n">
-        <v>1355.84</v>
+        <v>97.42</v>
       </c>
       <c r="H23" t="n">
-        <v>13484.99</v>
+        <v>10687.28</v>
       </c>
       <c r="I23" t="n">
-        <v>13484.99</v>
+        <v>10687.28</v>
       </c>
       <c r="J23" t="n">
-        <v>13484.99</v>
+        <v>10687.28</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -16787,34 +16787,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9NcUwy9JVekfsY4UA62ZaTprn4TDnJZwp5B6vMAAtkzt</t>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FLY</t>
+          <t>MOON</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>45.53</v>
+        <v>1376.56</v>
       </c>
       <c r="E24" t="n">
-        <v>45.53</v>
+        <v>1376.56</v>
       </c>
       <c r="F24" t="n">
-        <v>45.53</v>
+        <v>1376.56</v>
       </c>
       <c r="G24" t="n">
-        <v>45.53</v>
+        <v>1376.56</v>
       </c>
       <c r="H24" t="n">
-        <v>8095.6</v>
+        <v>13472.6</v>
       </c>
       <c r="I24" t="n">
-        <v>8095.6</v>
+        <v>13472.6</v>
       </c>
       <c r="J24" t="n">
-        <v>8095.6</v>
+        <v>13472.6</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -16847,25 +16847,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1065.96</v>
+        <v>1093.82</v>
       </c>
       <c r="E25" t="n">
-        <v>1065.96</v>
+        <v>1093.82</v>
       </c>
       <c r="F25" t="n">
-        <v>1065.96</v>
+        <v>1093.82</v>
       </c>
       <c r="G25" t="n">
-        <v>1065.96</v>
+        <v>1093.82</v>
       </c>
       <c r="H25" t="n">
-        <v>22300.62</v>
+        <v>23013.57</v>
       </c>
       <c r="I25" t="n">
-        <v>22300.62</v>
+        <v>23013.57</v>
       </c>
       <c r="J25" t="n">
-        <v>22300.62</v>
+        <v>23013.57</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -16898,25 +16898,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2288.31</v>
+        <v>2306.05</v>
       </c>
       <c r="E26" t="n">
-        <v>2288.31</v>
+        <v>2306.05</v>
       </c>
       <c r="F26" t="n">
-        <v>2288.31</v>
+        <v>2306.05</v>
       </c>
       <c r="G26" t="n">
-        <v>2288.31</v>
+        <v>2306.05</v>
       </c>
       <c r="H26" t="n">
-        <v>14828.26</v>
+        <v>14826.8</v>
       </c>
       <c r="I26" t="n">
-        <v>14828.26</v>
+        <v>14826.8</v>
       </c>
       <c r="J26" t="n">
-        <v>14828.26</v>
+        <v>14826.8</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -16949,16 +16949,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2578.38</v>
+        <v>2575.06</v>
       </c>
       <c r="E27" t="n">
-        <v>2578.38</v>
+        <v>2575.06</v>
       </c>
       <c r="F27" t="n">
-        <v>2578.38</v>
+        <v>2575.06</v>
       </c>
       <c r="G27" t="n">
-        <v>2578.38</v>
+        <v>2575.06</v>
       </c>
       <c r="H27" t="n">
         <v>19038.67</v>
@@ -17000,25 +17000,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>271130.93</v>
+        <v>271917.29</v>
       </c>
       <c r="E28" t="n">
-        <v>271130.93</v>
+        <v>271917.29</v>
       </c>
       <c r="F28" t="n">
-        <v>271130.93</v>
+        <v>271917.29</v>
       </c>
       <c r="G28" t="n">
-        <v>271130.93</v>
+        <v>271917.29</v>
       </c>
       <c r="H28" t="n">
-        <v>500882.98</v>
+        <v>501076.47</v>
       </c>
       <c r="I28" t="n">
-        <v>500882.98</v>
+        <v>501076.47</v>
       </c>
       <c r="J28" t="n">
-        <v>500882.98</v>
+        <v>501076.47</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -17051,16 +17051,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>66873.19</v>
+        <v>66691.25999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>66873.19</v>
+        <v>66691.25999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>66873.19</v>
+        <v>66691.25999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>66873.19</v>
+        <v>66691.25999999999</v>
       </c>
       <c r="H29" t="n">
         <v>104294.04</v>
@@ -17102,25 +17102,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>95369</v>
+        <v>103303.9</v>
       </c>
       <c r="E30" t="n">
-        <v>95369</v>
+        <v>103303.9</v>
       </c>
       <c r="F30" t="n">
-        <v>95369</v>
+        <v>103303.9</v>
       </c>
       <c r="G30" t="n">
-        <v>95369</v>
+        <v>103303.9</v>
       </c>
       <c r="H30" t="n">
-        <v>189799.17</v>
+        <v>190853.78</v>
       </c>
       <c r="I30" t="n">
-        <v>189799.17</v>
+        <v>190853.78</v>
       </c>
       <c r="J30" t="n">
-        <v>189799.17</v>
+        <v>190853.78</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -17153,25 +17153,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>60667.55</v>
+        <v>60840.08</v>
       </c>
       <c r="E31" t="n">
-        <v>60667.55</v>
+        <v>60840.08</v>
       </c>
       <c r="F31" t="n">
-        <v>60667.55</v>
+        <v>60840.08</v>
       </c>
       <c r="G31" t="n">
-        <v>60667.55</v>
+        <v>60840.08</v>
       </c>
       <c r="H31" t="n">
-        <v>74040.59</v>
+        <v>74592.92999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>74040.59</v>
+        <v>74592.92999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>74040.59</v>
+        <v>74592.92999999999</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -17204,25 +17204,25 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>66287.08</v>
+        <v>65937.16</v>
       </c>
       <c r="E32" t="n">
-        <v>66287.08</v>
+        <v>65937.16</v>
       </c>
       <c r="F32" t="n">
-        <v>66287.08</v>
+        <v>65937.16</v>
       </c>
       <c r="G32" t="n">
-        <v>66287.08</v>
+        <v>65937.16</v>
       </c>
       <c r="H32" t="n">
-        <v>138294.92</v>
+        <v>138661.32</v>
       </c>
       <c r="I32" t="n">
-        <v>138294.92</v>
+        <v>138661.32</v>
       </c>
       <c r="J32" t="n">
-        <v>138294.92</v>
+        <v>138661.32</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -17255,25 +17255,25 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>185500.61</v>
+        <v>185563.84</v>
       </c>
       <c r="E33" t="n">
-        <v>185500.61</v>
+        <v>185563.84</v>
       </c>
       <c r="F33" t="n">
-        <v>185500.61</v>
+        <v>185563.84</v>
       </c>
       <c r="G33" t="n">
-        <v>185500.61</v>
+        <v>185563.84</v>
       </c>
       <c r="H33" t="n">
-        <v>124024.45</v>
+        <v>124317.64</v>
       </c>
       <c r="I33" t="n">
-        <v>124024.45</v>
+        <v>124317.64</v>
       </c>
       <c r="J33" t="n">
-        <v>124024.45</v>
+        <v>124317.64</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -17357,25 +17357,25 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>384087.91</v>
+        <v>383498.04</v>
       </c>
       <c r="E35" t="n">
-        <v>384087.91</v>
+        <v>383498.04</v>
       </c>
       <c r="F35" t="n">
-        <v>384087.91</v>
+        <v>383498.04</v>
       </c>
       <c r="G35" t="n">
-        <v>384087.91</v>
+        <v>383498.04</v>
       </c>
       <c r="H35" t="n">
-        <v>224085.03</v>
+        <v>221116.95</v>
       </c>
       <c r="I35" t="n">
-        <v>224085.03</v>
+        <v>221116.95</v>
       </c>
       <c r="J35" t="n">
-        <v>224085.03</v>
+        <v>221116.95</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -17408,16 +17408,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>12642.5</v>
+        <v>11406.34</v>
       </c>
       <c r="E36" t="n">
-        <v>12642.5</v>
+        <v>11406.34</v>
       </c>
       <c r="F36" t="n">
-        <v>12642.5</v>
+        <v>11406.34</v>
       </c>
       <c r="G36" t="n">
-        <v>12642.5</v>
+        <v>11406.34</v>
       </c>
       <c r="H36" t="n">
         <v>31664.06</v>
@@ -17459,16 +17459,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>91680.53</v>
+        <v>90657.73</v>
       </c>
       <c r="E37" t="n">
-        <v>91680.53</v>
+        <v>90657.73</v>
       </c>
       <c r="F37" t="n">
-        <v>91680.53</v>
+        <v>90657.73</v>
       </c>
       <c r="G37" t="n">
-        <v>91680.53</v>
+        <v>90657.73</v>
       </c>
       <c r="H37" t="n">
         <v>58993.73</v>
@@ -17612,25 +17612,25 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>122406.18</v>
+        <v>122958.31</v>
       </c>
       <c r="E40" t="n">
-        <v>122406.18</v>
+        <v>122958.31</v>
       </c>
       <c r="F40" t="n">
-        <v>122406.18</v>
+        <v>122958.31</v>
       </c>
       <c r="G40" t="n">
-        <v>122406.18</v>
+        <v>122958.31</v>
       </c>
       <c r="H40" t="n">
-        <v>199804.55</v>
+        <v>201193.35</v>
       </c>
       <c r="I40" t="n">
-        <v>199804.55</v>
+        <v>201193.35</v>
       </c>
       <c r="J40" t="n">
-        <v>199804.55</v>
+        <v>201193.35</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -17663,16 +17663,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4123.8</v>
+        <v>3906.88</v>
       </c>
       <c r="E41" t="n">
-        <v>4123.8</v>
+        <v>3906.88</v>
       </c>
       <c r="F41" t="n">
-        <v>4123.8</v>
+        <v>3906.88</v>
       </c>
       <c r="G41" t="n">
-        <v>4123.8</v>
+        <v>3906.88</v>
       </c>
       <c r="H41" t="n">
         <v>12272.48</v>
@@ -17714,25 +17714,25 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1830.81</v>
+        <v>2431.43</v>
       </c>
       <c r="E42" t="n">
-        <v>1830.81</v>
+        <v>2431.43</v>
       </c>
       <c r="F42" t="n">
-        <v>1830.81</v>
+        <v>2431.43</v>
       </c>
       <c r="G42" t="n">
-        <v>1830.81</v>
+        <v>2431.43</v>
       </c>
       <c r="H42" t="n">
-        <v>23157.24</v>
+        <v>23502.49</v>
       </c>
       <c r="I42" t="n">
-        <v>23157.24</v>
+        <v>23502.49</v>
       </c>
       <c r="J42" t="n">
-        <v>23157.24</v>
+        <v>23502.49</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -17816,16 +17816,16 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>79901.81</v>
+        <v>79747.96000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>79901.81</v>
+        <v>79747.96000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>79901.81</v>
+        <v>79747.96000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>79901.81</v>
+        <v>79747.96000000001</v>
       </c>
       <c r="H44" t="n">
         <v>166013.41</v>
@@ -17867,16 +17867,16 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9139.809999999999</v>
+        <v>9129.09</v>
       </c>
       <c r="E45" t="n">
-        <v>9139.809999999999</v>
+        <v>9129.09</v>
       </c>
       <c r="F45" t="n">
-        <v>9139.809999999999</v>
+        <v>9129.09</v>
       </c>
       <c r="G45" t="n">
-        <v>9139.809999999999</v>
+        <v>9129.09</v>
       </c>
       <c r="H45" t="n">
         <v>86166.2</v>
@@ -17918,25 +17918,25 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1738.87</v>
+        <v>1749.36</v>
       </c>
       <c r="E46" t="n">
-        <v>1738.87</v>
+        <v>1749.36</v>
       </c>
       <c r="F46" t="n">
-        <v>1738.87</v>
+        <v>1749.36</v>
       </c>
       <c r="G46" t="n">
-        <v>1738.87</v>
+        <v>1749.36</v>
       </c>
       <c r="H46" t="n">
-        <v>21480.66</v>
+        <v>21416.84</v>
       </c>
       <c r="I46" t="n">
-        <v>21480.66</v>
+        <v>21416.84</v>
       </c>
       <c r="J46" t="n">
-        <v>21480.66</v>
+        <v>21416.84</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -18071,25 +18071,25 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>269778042.61</v>
+        <v>270563366.83</v>
       </c>
       <c r="E49" t="n">
-        <v>269778042.61</v>
+        <v>270563366.83</v>
       </c>
       <c r="F49" t="n">
-        <v>269778042.61</v>
+        <v>270563366.83</v>
       </c>
       <c r="G49" t="n">
-        <v>269778042.61</v>
+        <v>270563366.83</v>
       </c>
       <c r="H49" t="n">
-        <v>55068304.14</v>
+        <v>55374839.99</v>
       </c>
       <c r="I49" t="n">
-        <v>55068304.14</v>
+        <v>55374839.99</v>
       </c>
       <c r="J49" t="n">
-        <v>55068304.14</v>
+        <v>55374839.99</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -18122,25 +18122,25 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5856.31</v>
+        <v>5980.47</v>
       </c>
       <c r="E50" t="n">
-        <v>5856.31</v>
+        <v>5980.47</v>
       </c>
       <c r="F50" t="n">
-        <v>5856.31</v>
+        <v>5980.47</v>
       </c>
       <c r="G50" t="n">
-        <v>5856.31</v>
+        <v>5980.47</v>
       </c>
       <c r="H50" t="n">
-        <v>59174.67</v>
+        <v>59068.31</v>
       </c>
       <c r="I50" t="n">
-        <v>59174.67</v>
+        <v>59068.31</v>
       </c>
       <c r="J50" t="n">
-        <v>59174.67</v>
+        <v>59068.31</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -532,13 +532,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>217.67</v>
+        <v>217.76</v>
       </c>
       <c r="F2" t="n">
-        <v>270563366.83</v>
+        <v>268905732.95</v>
       </c>
       <c r="G2" t="n">
-        <v>55374839.99</v>
+        <v>55389488.16</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.0001641</v>
+        <v>0.0001733</v>
       </c>
       <c r="F3" t="n">
-        <v>979398.59</v>
+        <v>976210.29</v>
       </c>
       <c r="G3" t="n">
-        <v>83232.7</v>
+        <v>85028.41</v>
       </c>
       <c r="H3" t="n">
-        <v>164163</v>
+        <v>173339</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.0016</v>
+        <v>0.00161</v>
       </c>
       <c r="F4" t="n">
-        <v>383498.04</v>
+        <v>383480.75</v>
       </c>
       <c r="G4" t="n">
-        <v>221116.95</v>
+        <v>221866.62</v>
       </c>
       <c r="H4" t="n">
-        <v>1244218</v>
+        <v>1251250</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.00269</v>
+        <v>0.002727</v>
       </c>
       <c r="F5" t="n">
-        <v>271917.29</v>
+        <v>272088.97</v>
       </c>
       <c r="G5" t="n">
-        <v>501076.47</v>
+        <v>504801.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2688607</v>
+        <v>2725908</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0004245</v>
+        <v>0.0004247</v>
       </c>
       <c r="F6" t="n">
-        <v>185563.84</v>
+        <v>185611.75</v>
       </c>
       <c r="G6" t="n">
-        <v>124317.64</v>
+        <v>124359.03</v>
       </c>
       <c r="H6" t="n">
-        <v>424479</v>
+        <v>424713</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -767,16 +767,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0001816</v>
+        <v>0.0001825</v>
       </c>
       <c r="F7" t="n">
-        <v>151000.53</v>
+        <v>150986.82</v>
       </c>
       <c r="G7" t="n">
-        <v>53430.12</v>
+        <v>53559.09</v>
       </c>
       <c r="H7" t="n">
-        <v>181694</v>
+        <v>182571</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0008823</v>
+        <v>0.0008677</v>
       </c>
       <c r="F8" t="n">
-        <v>122958.31</v>
+        <v>123916.91</v>
       </c>
       <c r="G8" t="n">
-        <v>201193.35</v>
+        <v>199695.46</v>
       </c>
       <c r="H8" t="n">
-        <v>882390</v>
+        <v>867763</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.001829</v>
+        <v>0.00183</v>
       </c>
       <c r="F9" t="n">
-        <v>103303.9</v>
+        <v>106814.34</v>
       </c>
       <c r="G9" t="n">
-        <v>190853.78</v>
+        <v>190891.34</v>
       </c>
       <c r="H9" t="n">
-        <v>1829689</v>
+        <v>1830054</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         <v>0.0002214</v>
       </c>
       <c r="F10" t="n">
-        <v>90657.73</v>
+        <v>88959.64999999999</v>
       </c>
       <c r="G10" t="n">
         <v>58993.73</v>
@@ -958,7 +958,7 @@
         <v>0.01623</v>
       </c>
       <c r="F11" t="n">
-        <v>82202</v>
+        <v>82111.67999999999</v>
       </c>
       <c r="G11" t="n">
         <v>2110607.3</v>
@@ -1005,7 +1005,7 @@
         <v>0.00111</v>
       </c>
       <c r="F12" t="n">
-        <v>79747.96000000001</v>
+        <v>79743.96000000001</v>
       </c>
       <c r="G12" t="n">
         <v>166013.41</v>
@@ -1099,7 +1099,7 @@
         <v>0.0004622</v>
       </c>
       <c r="F14" t="n">
-        <v>65937.16</v>
+        <v>65509.42</v>
       </c>
       <c r="G14" t="n">
         <v>138661.32</v>
@@ -1143,16 +1143,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0002218</v>
+        <v>0.0002126</v>
       </c>
       <c r="F15" t="n">
-        <v>60840.08</v>
+        <v>61650.22</v>
       </c>
       <c r="G15" t="n">
-        <v>74592.92999999999</v>
+        <v>73460.12</v>
       </c>
       <c r="H15" t="n">
-        <v>221086</v>
+        <v>211946</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1190,16 +1190,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.0005284000000000001</v>
+        <v>0.0005285999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>52987.33</v>
+        <v>52422.07</v>
       </c>
       <c r="G16" t="n">
-        <v>149501</v>
+        <v>149544.88</v>
       </c>
       <c r="H16" t="n">
-        <v>528322</v>
+        <v>528510</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1237,16 +1237,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.000112</v>
+        <v>0.0001121</v>
       </c>
       <c r="F17" t="n">
-        <v>41053.76</v>
+        <v>41062.23</v>
       </c>
       <c r="G17" t="n">
-        <v>56740.29</v>
+        <v>56890.51</v>
       </c>
       <c r="H17" t="n">
-        <v>111863</v>
+        <v>111948</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>0.0003025</v>
       </c>
       <c r="F18" t="n">
-        <v>39570.21</v>
+        <v>39448.57</v>
       </c>
       <c r="G18" t="n">
         <v>72811.57000000001</v>
@@ -1331,16 +1331,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.0004963</v>
+        <v>0.0004973</v>
       </c>
       <c r="F19" t="n">
-        <v>35912.32</v>
+        <v>35936.28</v>
       </c>
       <c r="G19" t="n">
-        <v>180047.48</v>
+        <v>180279.17</v>
       </c>
       <c r="H19" t="n">
-        <v>496394</v>
+        <v>497306</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1505,30 +1505,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1Bull</t>
+          <t>SHITTER</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>One bull run to change your life</t>
+          <t>SHITTERCOIN</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6.069e-05</v>
+        <v>2.703e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>11406.34</v>
+        <v>10644.12</v>
       </c>
       <c r="G23" t="n">
-        <v>31664.06</v>
+        <v>22252.23</v>
       </c>
       <c r="H23" t="n">
-        <v>60689</v>
+        <v>27040</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1552,30 +1552,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SHITTER</t>
+          <t>USEFUL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SHITTERCOIN</t>
+          <t>USEFUL COIN</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.691e-05</v>
+        <v>0.000151</v>
       </c>
       <c r="F24" t="n">
-        <v>10622.28</v>
+        <v>9129.09</v>
       </c>
       <c r="G24" t="n">
-        <v>22208.56</v>
+        <v>86166.2</v>
       </c>
       <c r="H24" t="n">
-        <v>26918</v>
+        <v>151047</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1599,30 +1599,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>USEFUL</t>
+          <t>1Bull</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>USEFUL COIN</t>
+          <t>One bull run to change your life</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.000151</v>
+        <v>6.018e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>9129.09</v>
+        <v>8821.809999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>86166.2</v>
+        <v>31606.26</v>
       </c>
       <c r="H25" t="n">
-        <v>151047</v>
+        <v>60177</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>0.003962</v>
       </c>
       <c r="F26" t="n">
-        <v>7551.98</v>
+        <v>7488.02</v>
       </c>
       <c r="G26" t="n">
         <v>576259.42</v>
@@ -1710,10 +1710,10 @@
         <v>2.048e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>6314.15</v>
+        <v>6315.34</v>
       </c>
       <c r="G27" t="n">
-        <v>9452.41</v>
+        <v>9454.799999999999</v>
       </c>
       <c r="H27" t="n">
         <v>20483</v>
@@ -1757,7 +1757,7 @@
         <v>0.0001337</v>
       </c>
       <c r="F28" t="n">
-        <v>5980.47</v>
+        <v>5979.31</v>
       </c>
       <c r="G28" t="n">
         <v>59068.31</v>
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.299e-05</v>
+        <v>1.48e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>2697.91</v>
+        <v>3222.22</v>
       </c>
       <c r="G31" t="n">
-        <v>15181.74</v>
+        <v>16211.15</v>
       </c>
       <c r="H31" t="n">
-        <v>12959</v>
+        <v>14764</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2022,30 +2022,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.909e-05</v>
+        <v>1646.86</v>
       </c>
       <c r="F34" t="n">
-        <v>2431.43</v>
+        <v>2306.05</v>
       </c>
       <c r="G34" t="n">
-        <v>23502.49</v>
+        <v>14826.8</v>
       </c>
       <c r="H34" t="n">
-        <v>29094</v>
+        <v>26596804</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2069,30 +2069,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>Real World Asses</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1646.86</v>
+        <v>9.504999999999999e-08</v>
       </c>
       <c r="F35" t="n">
-        <v>2306.05</v>
+        <v>2279.84</v>
       </c>
       <c r="G35" t="n">
-        <v>14826.8</v>
+        <v>9007.809999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>26596804</v>
+        <v>6559</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2116,30 +2116,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Real World Asses</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>9.504999999999999e-08</v>
+        <v>2.909e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>2279.84</v>
+        <v>2248.87</v>
       </c>
       <c r="G36" t="n">
-        <v>9007.809999999999</v>
+        <v>23502.49</v>
       </c>
       <c r="H36" t="n">
-        <v>6559</v>
+        <v>29094</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>2.96e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>1749.36</v>
+        <v>1731.53</v>
       </c>
       <c r="G37" t="n">
         <v>21416.84</v>
@@ -2210,30 +2210,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>MOON</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MOCHI CULT</t>
+          <t>Moon Moon</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.671e-05</v>
+        <v>1.036e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>1592.82</v>
+        <v>1376.56</v>
       </c>
       <c r="G38" t="n">
-        <v>24287.67</v>
+        <v>13472.6</v>
       </c>
       <c r="H38" t="n">
-        <v>16716</v>
+        <v>10363</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2257,30 +2257,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MOON</t>
+          <t>AUSBAGWORK</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Moon Moon</t>
+          <t>AUSSIE BAG WORKERS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.036e-05</v>
+        <v>2.326e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>1376.56</v>
+        <v>1093.82</v>
       </c>
       <c r="G39" t="n">
-        <v>13472.6</v>
+        <v>23013.57</v>
       </c>
       <c r="H39" t="n">
-        <v>10363</v>
+        <v>23265</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2304,30 +2304,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AUSBAGWORK</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AUSSIE BAG WORKERS</t>
+          <t>MOCHI CULT</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.326e-05</v>
+        <v>1.671e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>1093.82</v>
+        <v>1020.19</v>
       </c>
       <c r="G40" t="n">
-        <v>23013.57</v>
+        <v>24287.67</v>
       </c>
       <c r="H40" t="n">
-        <v>23265</v>
+        <v>16716</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -7514,22 +7514,22 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>217.67</v>
+        <v>217.76</v>
       </c>
       <c r="H2" t="n">
-        <v>270563366.83</v>
+        <v>268905732.95</v>
       </c>
       <c r="I2" t="n">
-        <v>55374839.99</v>
+        <v>55389488.16</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>270563366.83</v>
+        <v>268905732.95</v>
       </c>
       <c r="L2" t="n">
-        <v>55374839.99</v>
+        <v>55389488.16</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -7567,22 +7567,22 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001641</v>
+        <v>0.0001733</v>
       </c>
       <c r="H3" t="n">
-        <v>979398.59</v>
+        <v>976210.29</v>
       </c>
       <c r="I3" t="n">
-        <v>83232.7</v>
+        <v>85028.41</v>
       </c>
       <c r="J3" t="n">
-        <v>164163</v>
+        <v>173339</v>
       </c>
       <c r="K3" t="n">
-        <v>979398.59</v>
+        <v>976210.29</v>
       </c>
       <c r="L3" t="n">
-        <v>83232.7</v>
+        <v>85028.41</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -7620,22 +7620,22 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0016</v>
+        <v>0.00161</v>
       </c>
       <c r="H4" t="n">
-        <v>383498.04</v>
+        <v>383480.75</v>
       </c>
       <c r="I4" t="n">
-        <v>221116.95</v>
+        <v>221866.62</v>
       </c>
       <c r="J4" t="n">
-        <v>1244218</v>
+        <v>1251250</v>
       </c>
       <c r="K4" t="n">
-        <v>383498.04</v>
+        <v>383480.75</v>
       </c>
       <c r="L4" t="n">
-        <v>221116.95</v>
+        <v>221866.62</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -7673,22 +7673,22 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00269</v>
+        <v>0.002727</v>
       </c>
       <c r="H5" t="n">
-        <v>271917.29</v>
+        <v>272088.97</v>
       </c>
       <c r="I5" t="n">
-        <v>501076.47</v>
+        <v>504801.95</v>
       </c>
       <c r="J5" t="n">
-        <v>2688607</v>
+        <v>2725908</v>
       </c>
       <c r="K5" t="n">
-        <v>271917.29</v>
+        <v>272088.97</v>
       </c>
       <c r="L5" t="n">
-        <v>501076.47</v>
+        <v>504801.95</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -7726,22 +7726,22 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0004245</v>
+        <v>0.0004247</v>
       </c>
       <c r="H6" t="n">
-        <v>185563.84</v>
+        <v>185611.75</v>
       </c>
       <c r="I6" t="n">
-        <v>124317.64</v>
+        <v>124359.03</v>
       </c>
       <c r="J6" t="n">
-        <v>424479</v>
+        <v>424713</v>
       </c>
       <c r="K6" t="n">
-        <v>185563.84</v>
+        <v>185611.75</v>
       </c>
       <c r="L6" t="n">
-        <v>124317.64</v>
+        <v>124359.03</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -7779,22 +7779,22 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001816</v>
+        <v>0.0001825</v>
       </c>
       <c r="H7" t="n">
-        <v>151000.53</v>
+        <v>150986.82</v>
       </c>
       <c r="I7" t="n">
-        <v>53430.12</v>
+        <v>53559.09</v>
       </c>
       <c r="J7" t="n">
-        <v>181694</v>
+        <v>182571</v>
       </c>
       <c r="K7" t="n">
-        <v>151000.53</v>
+        <v>150986.82</v>
       </c>
       <c r="L7" t="n">
-        <v>53430.12</v>
+        <v>53559.09</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -7832,22 +7832,22 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0008823</v>
+        <v>0.0008677</v>
       </c>
       <c r="H8" t="n">
-        <v>122958.31</v>
+        <v>123916.91</v>
       </c>
       <c r="I8" t="n">
-        <v>201193.35</v>
+        <v>199695.46</v>
       </c>
       <c r="J8" t="n">
-        <v>882390</v>
+        <v>867763</v>
       </c>
       <c r="K8" t="n">
-        <v>122958.31</v>
+        <v>123916.91</v>
       </c>
       <c r="L8" t="n">
-        <v>201193.35</v>
+        <v>199695.46</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -7885,22 +7885,22 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001829</v>
+        <v>0.00183</v>
       </c>
       <c r="H9" t="n">
-        <v>103303.9</v>
+        <v>106814.34</v>
       </c>
       <c r="I9" t="n">
-        <v>190853.78</v>
+        <v>190891.34</v>
       </c>
       <c r="J9" t="n">
-        <v>1829689</v>
+        <v>1830054</v>
       </c>
       <c r="K9" t="n">
-        <v>103303.9</v>
+        <v>106814.34</v>
       </c>
       <c r="L9" t="n">
-        <v>190853.78</v>
+        <v>190891.34</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -7941,7 +7941,7 @@
         <v>0.0002214</v>
       </c>
       <c r="H10" t="n">
-        <v>90657.73</v>
+        <v>88959.64999999999</v>
       </c>
       <c r="I10" t="n">
         <v>58993.73</v>
@@ -7950,7 +7950,7 @@
         <v>221404</v>
       </c>
       <c r="K10" t="n">
-        <v>90657.73</v>
+        <v>88959.64999999999</v>
       </c>
       <c r="L10" t="n">
         <v>58993.73</v>
@@ -7994,7 +7994,7 @@
         <v>0.01623</v>
       </c>
       <c r="H11" t="n">
-        <v>82202</v>
+        <v>82111.67999999999</v>
       </c>
       <c r="I11" t="n">
         <v>2110607.3</v>
@@ -8003,7 +8003,7 @@
         <v>81173576</v>
       </c>
       <c r="K11" t="n">
-        <v>82202</v>
+        <v>82111.67999999999</v>
       </c>
       <c r="L11" t="n">
         <v>2110607.3</v>
@@ -8047,7 +8047,7 @@
         <v>0.00111</v>
       </c>
       <c r="H12" t="n">
-        <v>79747.96000000001</v>
+        <v>79743.96000000001</v>
       </c>
       <c r="I12" t="n">
         <v>166013.41</v>
@@ -8056,7 +8056,7 @@
         <v>1109964</v>
       </c>
       <c r="K12" t="n">
-        <v>79747.96000000001</v>
+        <v>79743.96000000001</v>
       </c>
       <c r="L12" t="n">
         <v>166013.41</v>
@@ -8153,7 +8153,7 @@
         <v>0.0004622</v>
       </c>
       <c r="H14" t="n">
-        <v>65937.16</v>
+        <v>65509.42</v>
       </c>
       <c r="I14" t="n">
         <v>138661.32</v>
@@ -8162,7 +8162,7 @@
         <v>462204</v>
       </c>
       <c r="K14" t="n">
-        <v>65937.16</v>
+        <v>65509.42</v>
       </c>
       <c r="L14" t="n">
         <v>138661.32</v>
@@ -8203,22 +8203,22 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002218</v>
+        <v>0.0002126</v>
       </c>
       <c r="H15" t="n">
-        <v>60840.08</v>
+        <v>61650.22</v>
       </c>
       <c r="I15" t="n">
-        <v>74592.92999999999</v>
+        <v>73460.12</v>
       </c>
       <c r="J15" t="n">
-        <v>221086</v>
+        <v>211946</v>
       </c>
       <c r="K15" t="n">
-        <v>60840.08</v>
+        <v>61650.22</v>
       </c>
       <c r="L15" t="n">
-        <v>74592.92999999999</v>
+        <v>73460.12</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -8256,22 +8256,22 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0005284000000000001</v>
+        <v>0.0005285999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>52987.33</v>
+        <v>52422.07</v>
       </c>
       <c r="I16" t="n">
-        <v>149501</v>
+        <v>149544.88</v>
       </c>
       <c r="J16" t="n">
-        <v>528322</v>
+        <v>528510</v>
       </c>
       <c r="K16" t="n">
-        <v>52987.33</v>
+        <v>52422.07</v>
       </c>
       <c r="L16" t="n">
-        <v>149501</v>
+        <v>149544.88</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -8309,22 +8309,22 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.000112</v>
+        <v>0.0001121</v>
       </c>
       <c r="H17" t="n">
-        <v>41053.76</v>
+        <v>41062.23</v>
       </c>
       <c r="I17" t="n">
-        <v>56740.29</v>
+        <v>56890.51</v>
       </c>
       <c r="J17" t="n">
-        <v>111863</v>
+        <v>111948</v>
       </c>
       <c r="K17" t="n">
-        <v>41053.76</v>
+        <v>41062.23</v>
       </c>
       <c r="L17" t="n">
-        <v>56740.29</v>
+        <v>56890.51</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -8365,7 +8365,7 @@
         <v>0.0003025</v>
       </c>
       <c r="H18" t="n">
-        <v>39570.21</v>
+        <v>39448.57</v>
       </c>
       <c r="I18" t="n">
         <v>72811.57000000001</v>
@@ -8374,7 +8374,7 @@
         <v>302512</v>
       </c>
       <c r="K18" t="n">
-        <v>39570.21</v>
+        <v>39448.57</v>
       </c>
       <c r="L18" t="n">
         <v>72811.57000000001</v>
@@ -8415,22 +8415,22 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0004963</v>
+        <v>0.0004973</v>
       </c>
       <c r="H19" t="n">
-        <v>35912.32</v>
+        <v>35936.28</v>
       </c>
       <c r="I19" t="n">
-        <v>180047.48</v>
+        <v>180279.17</v>
       </c>
       <c r="J19" t="n">
-        <v>496394</v>
+        <v>497306</v>
       </c>
       <c r="K19" t="n">
-        <v>35912.32</v>
+        <v>35936.28</v>
       </c>
       <c r="L19" t="n">
-        <v>180047.48</v>
+        <v>180279.17</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -8604,17 +8604,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1Bull</t>
+          <t>SHITTER</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>One bull run to change your life</t>
+          <t>SHITTERCOIN</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -8627,22 +8627,22 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>6.069e-05</v>
+        <v>2.703e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>11406.34</v>
+        <v>10644.12</v>
       </c>
       <c r="I23" t="n">
-        <v>31664.06</v>
+        <v>22252.23</v>
       </c>
       <c r="J23" t="n">
-        <v>60689</v>
+        <v>27040</v>
       </c>
       <c r="K23" t="n">
-        <v>11406.34</v>
+        <v>10644.12</v>
       </c>
       <c r="L23" t="n">
-        <v>31664.06</v>
+        <v>22252.23</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -8657,17 +8657,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SHITTER</t>
+          <t>USEFUL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SHITTERCOIN</t>
+          <t>USEFUL COIN</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -8680,22 +8680,22 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>2.691e-05</v>
+        <v>0.000151</v>
       </c>
       <c r="H24" t="n">
-        <v>10622.28</v>
+        <v>9129.09</v>
       </c>
       <c r="I24" t="n">
-        <v>22208.56</v>
+        <v>86166.2</v>
       </c>
       <c r="J24" t="n">
-        <v>26918</v>
+        <v>151047</v>
       </c>
       <c r="K24" t="n">
-        <v>10622.28</v>
+        <v>9129.09</v>
       </c>
       <c r="L24" t="n">
-        <v>22208.56</v>
+        <v>86166.2</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -8710,17 +8710,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>USEFUL</t>
+          <t>1Bull</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>USEFUL COIN</t>
+          <t>One bull run to change your life</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
@@ -8733,22 +8733,22 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.000151</v>
+        <v>6.018e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>9129.09</v>
+        <v>8821.809999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>86166.2</v>
+        <v>31606.26</v>
       </c>
       <c r="J25" t="n">
-        <v>151047</v>
+        <v>60177</v>
       </c>
       <c r="K25" t="n">
-        <v>9129.09</v>
+        <v>8821.809999999999</v>
       </c>
       <c r="L25" t="n">
-        <v>86166.2</v>
+        <v>31606.26</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
@@ -8789,7 +8789,7 @@
         <v>0.003962</v>
       </c>
       <c r="H26" t="n">
-        <v>7551.98</v>
+        <v>7488.02</v>
       </c>
       <c r="I26" t="n">
         <v>576259.42</v>
@@ -8798,7 +8798,7 @@
         <v>3962041</v>
       </c>
       <c r="K26" t="n">
-        <v>7551.98</v>
+        <v>7488.02</v>
       </c>
       <c r="L26" t="n">
         <v>576259.42</v>
@@ -8842,19 +8842,19 @@
         <v>2.048e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>6314.15</v>
+        <v>6315.34</v>
       </c>
       <c r="I27" t="n">
-        <v>9452.41</v>
+        <v>9454.799999999999</v>
       </c>
       <c r="J27" t="n">
         <v>20483</v>
       </c>
       <c r="K27" t="n">
-        <v>6314.15</v>
+        <v>6315.34</v>
       </c>
       <c r="L27" t="n">
-        <v>9452.41</v>
+        <v>9454.799999999999</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -8895,7 +8895,7 @@
         <v>0.0001337</v>
       </c>
       <c r="H28" t="n">
-        <v>5980.47</v>
+        <v>5979.31</v>
       </c>
       <c r="I28" t="n">
         <v>59068.31</v>
@@ -8904,7 +8904,7 @@
         <v>133707</v>
       </c>
       <c r="K28" t="n">
-        <v>5980.47</v>
+        <v>5979.31</v>
       </c>
       <c r="L28" t="n">
         <v>59068.31</v>
@@ -9051,22 +9051,22 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1.299e-05</v>
+        <v>1.48e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>2697.91</v>
+        <v>3222.22</v>
       </c>
       <c r="I31" t="n">
-        <v>15181.74</v>
+        <v>16211.15</v>
       </c>
       <c r="J31" t="n">
-        <v>12959</v>
+        <v>14764</v>
       </c>
       <c r="K31" t="n">
-        <v>2697.91</v>
+        <v>3222.22</v>
       </c>
       <c r="L31" t="n">
-        <v>15181.74</v>
+        <v>16211.15</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
@@ -9187,17 +9187,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -9210,22 +9210,22 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>2.909e-05</v>
+        <v>1646.86</v>
       </c>
       <c r="H34" t="n">
-        <v>2431.43</v>
+        <v>2306.05</v>
       </c>
       <c r="I34" t="n">
-        <v>23502.49</v>
+        <v>14826.8</v>
       </c>
       <c r="J34" t="n">
-        <v>29094</v>
+        <v>26596804</v>
       </c>
       <c r="K34" t="n">
-        <v>2431.43</v>
+        <v>2306.05</v>
       </c>
       <c r="L34" t="n">
-        <v>23502.49</v>
+        <v>14826.8</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
@@ -9240,17 +9240,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>Real World Asses</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -9263,22 +9263,22 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>1646.86</v>
+        <v>9.504999999999999e-08</v>
       </c>
       <c r="H35" t="n">
-        <v>2306.05</v>
+        <v>2279.84</v>
       </c>
       <c r="I35" t="n">
-        <v>14826.8</v>
+        <v>9007.809999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>26596804</v>
+        <v>6559</v>
       </c>
       <c r="K35" t="n">
-        <v>2306.05</v>
+        <v>2279.84</v>
       </c>
       <c r="L35" t="n">
-        <v>14826.8</v>
+        <v>9007.809999999999</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
@@ -9293,17 +9293,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Real World Asses</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
@@ -9316,22 +9316,22 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>9.504999999999999e-08</v>
+        <v>2.909e-05</v>
       </c>
       <c r="H36" t="n">
-        <v>2279.84</v>
+        <v>2248.87</v>
       </c>
       <c r="I36" t="n">
-        <v>9007.809999999999</v>
+        <v>23502.49</v>
       </c>
       <c r="J36" t="n">
-        <v>6559</v>
+        <v>29094</v>
       </c>
       <c r="K36" t="n">
-        <v>2279.84</v>
+        <v>2248.87</v>
       </c>
       <c r="L36" t="n">
-        <v>9007.809999999999</v>
+        <v>23502.49</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
@@ -9372,7 +9372,7 @@
         <v>2.96e-05</v>
       </c>
       <c r="H37" t="n">
-        <v>1749.36</v>
+        <v>1731.53</v>
       </c>
       <c r="I37" t="n">
         <v>21416.84</v>
@@ -9381,7 +9381,7 @@
         <v>29604</v>
       </c>
       <c r="K37" t="n">
-        <v>1749.36</v>
+        <v>1731.53</v>
       </c>
       <c r="L37" t="n">
         <v>21416.84</v>
@@ -9399,17 +9399,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>MOON</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MOCHI CULT</t>
+          <t>Moon Moon</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -9422,22 +9422,22 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1.671e-05</v>
+        <v>1.036e-05</v>
       </c>
       <c r="H38" t="n">
-        <v>1592.82</v>
+        <v>1376.56</v>
       </c>
       <c r="I38" t="n">
-        <v>24287.67</v>
+        <v>13472.6</v>
       </c>
       <c r="J38" t="n">
-        <v>16716</v>
+        <v>10363</v>
       </c>
       <c r="K38" t="n">
-        <v>1592.82</v>
+        <v>1376.56</v>
       </c>
       <c r="L38" t="n">
-        <v>24287.67</v>
+        <v>13472.6</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -9452,17 +9452,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MOON</t>
+          <t>AUSBAGWORK</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Moon Moon</t>
+          <t>AUSSIE BAG WORKERS</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
@@ -9475,22 +9475,22 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1.036e-05</v>
+        <v>2.326e-05</v>
       </c>
       <c r="H39" t="n">
-        <v>1376.56</v>
+        <v>1093.82</v>
       </c>
       <c r="I39" t="n">
-        <v>13472.6</v>
+        <v>23013.57</v>
       </c>
       <c r="J39" t="n">
-        <v>10363</v>
+        <v>23265</v>
       </c>
       <c r="K39" t="n">
-        <v>1376.56</v>
+        <v>1093.82</v>
       </c>
       <c r="L39" t="n">
-        <v>13472.6</v>
+        <v>23013.57</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
@@ -9505,17 +9505,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AUSBAGWORK</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AUSSIE BAG WORKERS</t>
+          <t>MOCHI CULT</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
@@ -9528,22 +9528,22 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>2.326e-05</v>
+        <v>1.671e-05</v>
       </c>
       <c r="H40" t="n">
-        <v>1093.82</v>
+        <v>1020.19</v>
       </c>
       <c r="I40" t="n">
-        <v>23013.57</v>
+        <v>24287.67</v>
       </c>
       <c r="J40" t="n">
-        <v>23265</v>
+        <v>16716</v>
       </c>
       <c r="K40" t="n">
-        <v>1093.82</v>
+        <v>1020.19</v>
       </c>
       <c r="L40" t="n">
-        <v>23013.57</v>
+        <v>24287.67</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -10351,13 +10351,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>217.67</v>
+        <v>217.76</v>
       </c>
       <c r="F2" t="n">
-        <v>270563366.83</v>
+        <v>268905732.95</v>
       </c>
       <c r="G2" t="n">
-        <v>55374839.99</v>
+        <v>55389488.16</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -10398,16 +10398,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.0001641</v>
+        <v>0.0001733</v>
       </c>
       <c r="F3" t="n">
-        <v>979398.59</v>
+        <v>976210.29</v>
       </c>
       <c r="G3" t="n">
-        <v>83232.7</v>
+        <v>85028.41</v>
       </c>
       <c r="H3" t="n">
-        <v>164163</v>
+        <v>173339</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -10445,16 +10445,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.0016</v>
+        <v>0.00161</v>
       </c>
       <c r="F4" t="n">
-        <v>383498.04</v>
+        <v>383480.75</v>
       </c>
       <c r="G4" t="n">
-        <v>221116.95</v>
+        <v>221866.62</v>
       </c>
       <c r="H4" t="n">
-        <v>1244218</v>
+        <v>1251250</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -10492,16 +10492,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.00269</v>
+        <v>0.002727</v>
       </c>
       <c r="F5" t="n">
-        <v>271917.29</v>
+        <v>272088.97</v>
       </c>
       <c r="G5" t="n">
-        <v>501076.47</v>
+        <v>504801.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2688607</v>
+        <v>2725908</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -10539,16 +10539,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0004245</v>
+        <v>0.0004247</v>
       </c>
       <c r="F6" t="n">
-        <v>185563.84</v>
+        <v>185611.75</v>
       </c>
       <c r="G6" t="n">
-        <v>124317.64</v>
+        <v>124359.03</v>
       </c>
       <c r="H6" t="n">
-        <v>424479</v>
+        <v>424713</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -10586,16 +10586,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0001816</v>
+        <v>0.0001825</v>
       </c>
       <c r="F7" t="n">
-        <v>151000.53</v>
+        <v>150986.82</v>
       </c>
       <c r="G7" t="n">
-        <v>53430.12</v>
+        <v>53559.09</v>
       </c>
       <c r="H7" t="n">
-        <v>181694</v>
+        <v>182571</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -10633,16 +10633,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0008823</v>
+        <v>0.0008677</v>
       </c>
       <c r="F8" t="n">
-        <v>122958.31</v>
+        <v>123916.91</v>
       </c>
       <c r="G8" t="n">
-        <v>201193.35</v>
+        <v>199695.46</v>
       </c>
       <c r="H8" t="n">
-        <v>882390</v>
+        <v>867763</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -10680,16 +10680,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.001829</v>
+        <v>0.00183</v>
       </c>
       <c r="F9" t="n">
-        <v>103303.9</v>
+        <v>106814.34</v>
       </c>
       <c r="G9" t="n">
-        <v>190853.78</v>
+        <v>190891.34</v>
       </c>
       <c r="H9" t="n">
-        <v>1829689</v>
+        <v>1830054</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>0.0002214</v>
       </c>
       <c r="F10" t="n">
-        <v>90657.73</v>
+        <v>88959.64999999999</v>
       </c>
       <c r="G10" t="n">
         <v>58993.73</v>
@@ -10777,7 +10777,7 @@
         <v>0.01623</v>
       </c>
       <c r="F11" t="n">
-        <v>82202</v>
+        <v>82111.67999999999</v>
       </c>
       <c r="G11" t="n">
         <v>2110607.3</v>
@@ -10824,7 +10824,7 @@
         <v>0.00111</v>
       </c>
       <c r="F12" t="n">
-        <v>79747.96000000001</v>
+        <v>79743.96000000001</v>
       </c>
       <c r="G12" t="n">
         <v>166013.41</v>
@@ -10918,7 +10918,7 @@
         <v>0.0004622</v>
       </c>
       <c r="F14" t="n">
-        <v>65937.16</v>
+        <v>65509.42</v>
       </c>
       <c r="G14" t="n">
         <v>138661.32</v>
@@ -10962,16 +10962,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0002218</v>
+        <v>0.0002126</v>
       </c>
       <c r="F15" t="n">
-        <v>60840.08</v>
+        <v>61650.22</v>
       </c>
       <c r="G15" t="n">
-        <v>74592.92999999999</v>
+        <v>73460.12</v>
       </c>
       <c r="H15" t="n">
-        <v>221086</v>
+        <v>211946</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -11009,16 +11009,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.0005284000000000001</v>
+        <v>0.0005285999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>52987.33</v>
+        <v>52422.07</v>
       </c>
       <c r="G16" t="n">
-        <v>149501</v>
+        <v>149544.88</v>
       </c>
       <c r="H16" t="n">
-        <v>528322</v>
+        <v>528510</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -11056,16 +11056,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.000112</v>
+        <v>0.0001121</v>
       </c>
       <c r="F17" t="n">
-        <v>41053.76</v>
+        <v>41062.23</v>
       </c>
       <c r="G17" t="n">
-        <v>56740.29</v>
+        <v>56890.51</v>
       </c>
       <c r="H17" t="n">
-        <v>111863</v>
+        <v>111948</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>0.0003025</v>
       </c>
       <c r="F18" t="n">
-        <v>39570.21</v>
+        <v>39448.57</v>
       </c>
       <c r="G18" t="n">
         <v>72811.57000000001</v>
@@ -11150,16 +11150,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.0004963</v>
+        <v>0.0004973</v>
       </c>
       <c r="F19" t="n">
-        <v>35912.32</v>
+        <v>35936.28</v>
       </c>
       <c r="G19" t="n">
-        <v>180047.48</v>
+        <v>180279.17</v>
       </c>
       <c r="H19" t="n">
-        <v>496394</v>
+        <v>497306</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -11324,30 +11324,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1Bull</t>
+          <t>SHITTER</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>One bull run to change your life</t>
+          <t>SHITTERCOIN</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
+          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6.069e-05</v>
+        <v>2.703e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>11406.34</v>
+        <v>10644.12</v>
       </c>
       <c r="G23" t="n">
-        <v>31664.06</v>
+        <v>22252.23</v>
       </c>
       <c r="H23" t="n">
-        <v>60689</v>
+        <v>27040</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -11371,30 +11371,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SHITTER</t>
+          <t>USEFUL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SHITTERCOIN</t>
+          <t>USEFUL COIN</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>GuLvigFjAm1yyReTk6EeboHNnLj1tCi62pzWLorxbonk</t>
+          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.691e-05</v>
+        <v>0.000151</v>
       </c>
       <c r="F24" t="n">
-        <v>10622.28</v>
+        <v>9129.09</v>
       </c>
       <c r="G24" t="n">
-        <v>22208.56</v>
+        <v>86166.2</v>
       </c>
       <c r="H24" t="n">
-        <v>26918</v>
+        <v>151047</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -11418,30 +11418,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>USEFUL</t>
+          <t>1Bull</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>USEFUL COIN</t>
+          <t>One bull run to change your life</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HD3JBABeFkdZwUgKwhwJYqjLNrPWXEaDVfH4uMqRpump</t>
+          <t>EVGox5PPxnFqTsMXMoUBSCUhszqK6UUYf9W7pkwfpump</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.000151</v>
+        <v>6.018e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>9129.09</v>
+        <v>8821.809999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>86166.2</v>
+        <v>31606.26</v>
       </c>
       <c r="H25" t="n">
-        <v>151047</v>
+        <v>60177</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>0.003962</v>
       </c>
       <c r="F26" t="n">
-        <v>7551.98</v>
+        <v>7488.02</v>
       </c>
       <c r="G26" t="n">
         <v>576259.42</v>
@@ -11529,10 +11529,10 @@
         <v>2.048e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>6314.15</v>
+        <v>6315.34</v>
       </c>
       <c r="G27" t="n">
-        <v>9452.41</v>
+        <v>9454.799999999999</v>
       </c>
       <c r="H27" t="n">
         <v>20483</v>
@@ -11576,7 +11576,7 @@
         <v>0.0001337</v>
       </c>
       <c r="F28" t="n">
-        <v>5980.47</v>
+        <v>5979.31</v>
       </c>
       <c r="G28" t="n">
         <v>59068.31</v>
@@ -11714,16 +11714,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.299e-05</v>
+        <v>1.48e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>2697.91</v>
+        <v>3222.22</v>
       </c>
       <c r="G31" t="n">
-        <v>15181.74</v>
+        <v>16211.15</v>
       </c>
       <c r="H31" t="n">
-        <v>12959</v>
+        <v>14764</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -11841,30 +11841,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IDIOT</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.909e-05</v>
+        <v>1646.86</v>
       </c>
       <c r="F34" t="n">
-        <v>2431.43</v>
+        <v>2306.05</v>
       </c>
       <c r="G34" t="n">
-        <v>23502.49</v>
+        <v>14826.8</v>
       </c>
       <c r="H34" t="n">
-        <v>29094</v>
+        <v>26596804</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -11888,30 +11888,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>Real World Asses</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1646.86</v>
+        <v>9.504999999999999e-08</v>
       </c>
       <c r="F35" t="n">
-        <v>2306.05</v>
+        <v>2279.84</v>
       </c>
       <c r="G35" t="n">
-        <v>14826.8</v>
+        <v>9007.809999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>26596804</v>
+        <v>6559</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -11935,30 +11935,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Real World Asses</t>
+          <t>IDIOT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>GcPf1ZsZHvnjauhXoFvGMmc2gM73aJ63AYxYC6JAQVoG</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>9.504999999999999e-08</v>
+        <v>2.909e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>2279.84</v>
+        <v>2248.87</v>
       </c>
       <c r="G36" t="n">
-        <v>9007.809999999999</v>
+        <v>23502.49</v>
       </c>
       <c r="H36" t="n">
-        <v>6559</v>
+        <v>29094</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>2.96e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>1749.36</v>
+        <v>1731.53</v>
       </c>
       <c r="G37" t="n">
         <v>21416.84</v>
@@ -12029,30 +12029,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>MOON</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MOCHI CULT</t>
+          <t>Moon Moon</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.671e-05</v>
+        <v>1.036e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>1592.82</v>
+        <v>1376.56</v>
       </c>
       <c r="G38" t="n">
-        <v>24287.67</v>
+        <v>13472.6</v>
       </c>
       <c r="H38" t="n">
-        <v>16716</v>
+        <v>10363</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -12076,30 +12076,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MOON</t>
+          <t>AUSBAGWORK</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Moon Moon</t>
+          <t>AUSSIE BAG WORKERS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.036e-05</v>
+        <v>2.326e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>1376.56</v>
+        <v>1093.82</v>
       </c>
       <c r="G39" t="n">
-        <v>13472.6</v>
+        <v>23013.57</v>
       </c>
       <c r="H39" t="n">
-        <v>10363</v>
+        <v>23265</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -12123,30 +12123,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AUSBAGWORK</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AUSSIE BAG WORKERS</t>
+          <t>MOCHI CULT</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.326e-05</v>
+        <v>1.671e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>1093.82</v>
+        <v>1020.19</v>
       </c>
       <c r="G40" t="n">
-        <v>23013.57</v>
+        <v>24287.67</v>
       </c>
       <c r="H40" t="n">
-        <v>23265</v>
+        <v>16716</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -15725,25 +15725,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>979398.59</v>
+        <v>976210.29</v>
       </c>
       <c r="E3" t="n">
-        <v>979398.59</v>
+        <v>976210.29</v>
       </c>
       <c r="F3" t="n">
-        <v>979398.59</v>
+        <v>976210.29</v>
       </c>
       <c r="G3" t="n">
-        <v>979398.59</v>
+        <v>976210.29</v>
       </c>
       <c r="H3" t="n">
-        <v>83232.7</v>
+        <v>85028.41</v>
       </c>
       <c r="I3" t="n">
-        <v>83232.7</v>
+        <v>85028.41</v>
       </c>
       <c r="J3" t="n">
-        <v>83232.7</v>
+        <v>85028.41</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -15776,25 +15776,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>41053.76</v>
+        <v>41062.23</v>
       </c>
       <c r="E4" t="n">
-        <v>41053.76</v>
+        <v>41062.23</v>
       </c>
       <c r="F4" t="n">
-        <v>41053.76</v>
+        <v>41062.23</v>
       </c>
       <c r="G4" t="n">
-        <v>41053.76</v>
+        <v>41062.23</v>
       </c>
       <c r="H4" t="n">
-        <v>56740.29</v>
+        <v>56890.51</v>
       </c>
       <c r="I4" t="n">
-        <v>56740.29</v>
+        <v>56890.51</v>
       </c>
       <c r="J4" t="n">
-        <v>56740.29</v>
+        <v>56890.51</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -15878,16 +15878,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7551.98</v>
+        <v>7488.02</v>
       </c>
       <c r="E6" t="n">
-        <v>7551.98</v>
+        <v>7488.02</v>
       </c>
       <c r="F6" t="n">
-        <v>7551.98</v>
+        <v>7488.02</v>
       </c>
       <c r="G6" t="n">
-        <v>7551.98</v>
+        <v>7488.02</v>
       </c>
       <c r="H6" t="n">
         <v>576259.42</v>
@@ -15929,25 +15929,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52987.33</v>
+        <v>52422.07</v>
       </c>
       <c r="E7" t="n">
-        <v>52987.33</v>
+        <v>52422.07</v>
       </c>
       <c r="F7" t="n">
-        <v>52987.33</v>
+        <v>52422.07</v>
       </c>
       <c r="G7" t="n">
-        <v>52987.33</v>
+        <v>52422.07</v>
       </c>
       <c r="H7" t="n">
-        <v>149501</v>
+        <v>149544.88</v>
       </c>
       <c r="I7" t="n">
-        <v>149501</v>
+        <v>149544.88</v>
       </c>
       <c r="J7" t="n">
-        <v>149501</v>
+        <v>149544.88</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -15980,25 +15980,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>151000.53</v>
+        <v>150986.82</v>
       </c>
       <c r="E8" t="n">
-        <v>151000.53</v>
+        <v>150986.82</v>
       </c>
       <c r="F8" t="n">
-        <v>151000.53</v>
+        <v>150986.82</v>
       </c>
       <c r="G8" t="n">
-        <v>151000.53</v>
+        <v>150986.82</v>
       </c>
       <c r="H8" t="n">
-        <v>53430.12</v>
+        <v>53559.09</v>
       </c>
       <c r="I8" t="n">
-        <v>53430.12</v>
+        <v>53559.09</v>
       </c>
       <c r="J8" t="n">
-        <v>53430.12</v>
+        <v>53559.09</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -16133,16 +16133,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1592.82</v>
+        <v>1020.19</v>
       </c>
       <c r="E11" t="n">
-        <v>1592.82</v>
+        <v>1020.19</v>
       </c>
       <c r="F11" t="n">
-        <v>1592.82</v>
+        <v>1020.19</v>
       </c>
       <c r="G11" t="n">
-        <v>1592.82</v>
+        <v>1020.19</v>
       </c>
       <c r="H11" t="n">
         <v>24287.67</v>
@@ -16235,25 +16235,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35912.32</v>
+        <v>35936.28</v>
       </c>
       <c r="E13" t="n">
-        <v>35912.32</v>
+        <v>35936.28</v>
       </c>
       <c r="F13" t="n">
-        <v>35912.32</v>
+        <v>35936.28</v>
       </c>
       <c r="G13" t="n">
-        <v>35912.32</v>
+        <v>35936.28</v>
       </c>
       <c r="H13" t="n">
-        <v>180047.48</v>
+        <v>180279.17</v>
       </c>
       <c r="I13" t="n">
-        <v>180047.48</v>
+        <v>180279.17</v>
       </c>
       <c r="J13" t="n">
-        <v>180047.48</v>
+        <v>180279.17</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -16388,25 +16388,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6314.15</v>
+        <v>6315.34</v>
       </c>
       <c r="E16" t="n">
-        <v>6314.15</v>
+        <v>6315.34</v>
       </c>
       <c r="F16" t="n">
-        <v>6314.15</v>
+        <v>6315.34</v>
       </c>
       <c r="G16" t="n">
-        <v>6314.15</v>
+        <v>6315.34</v>
       </c>
       <c r="H16" t="n">
-        <v>9452.41</v>
+        <v>9454.799999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>9452.41</v>
+        <v>9454.799999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>9452.41</v>
+        <v>9454.799999999999</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -16541,16 +16541,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>82202</v>
+        <v>82111.67999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>82202</v>
+        <v>82111.67999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>82202</v>
+        <v>82111.67999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>82202</v>
+        <v>82111.67999999999</v>
       </c>
       <c r="H19" t="n">
         <v>2110607.3</v>
@@ -16592,16 +16592,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>39570.21</v>
+        <v>39448.57</v>
       </c>
       <c r="E20" t="n">
-        <v>39570.21</v>
+        <v>39448.57</v>
       </c>
       <c r="F20" t="n">
-        <v>39570.21</v>
+        <v>39448.57</v>
       </c>
       <c r="G20" t="n">
-        <v>39570.21</v>
+        <v>39448.57</v>
       </c>
       <c r="H20" t="n">
         <v>72811.57000000001</v>
@@ -16643,25 +16643,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2697.91</v>
+        <v>3222.22</v>
       </c>
       <c r="E21" t="n">
-        <v>2697.91</v>
+        <v>3222.22</v>
       </c>
       <c r="F21" t="n">
-        <v>2697.91</v>
+        <v>3222.22</v>
       </c>
       <c r="G21" t="n">
-        <v>2697.91</v>
+        <v>3222.22</v>
       </c>
       <c r="H21" t="n">
-        <v>15181.74</v>
+        <v>16211.15</v>
       </c>
       <c r="I21" t="n">
-        <v>15181.74</v>
+        <v>16211.15</v>
       </c>
       <c r="J21" t="n">
-        <v>15181.74</v>
+        <v>16211.15</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -17000,25 +17000,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>271917.29</v>
+        <v>272088.97</v>
       </c>
       <c r="E28" t="n">
-        <v>271917.29</v>
+        <v>272088.97</v>
       </c>
       <c r="F28" t="n">
-        <v>271917.29</v>
+        <v>272088.97</v>
       </c>
       <c r="G28" t="n">
-        <v>271917.29</v>
+        <v>272088.97</v>
       </c>
       <c r="H28" t="n">
-        <v>501076.47</v>
+        <v>504801.95</v>
       </c>
       <c r="I28" t="n">
-        <v>501076.47</v>
+        <v>504801.95</v>
       </c>
       <c r="J28" t="n">
-        <v>501076.47</v>
+        <v>504801.95</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -17102,25 +17102,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>103303.9</v>
+        <v>106814.34</v>
       </c>
       <c r="E30" t="n">
-        <v>103303.9</v>
+        <v>106814.34</v>
       </c>
       <c r="F30" t="n">
-        <v>103303.9</v>
+        <v>106814.34</v>
       </c>
       <c r="G30" t="n">
-        <v>103303.9</v>
+        <v>106814.34</v>
       </c>
       <c r="H30" t="n">
-        <v>190853.78</v>
+        <v>190891.34</v>
       </c>
       <c r="I30" t="n">
-        <v>190853.78</v>
+        <v>190891.34</v>
       </c>
       <c r="J30" t="n">
-        <v>190853.78</v>
+        <v>190891.34</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -17153,25 +17153,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>60840.08</v>
+        <v>61650.22</v>
       </c>
       <c r="E31" t="n">
-        <v>60840.08</v>
+        <v>61650.22</v>
       </c>
       <c r="F31" t="n">
-        <v>60840.08</v>
+        <v>61650.22</v>
       </c>
       <c r="G31" t="n">
-        <v>60840.08</v>
+        <v>61650.22</v>
       </c>
       <c r="H31" t="n">
-        <v>74592.92999999999</v>
+        <v>73460.12</v>
       </c>
       <c r="I31" t="n">
-        <v>74592.92999999999</v>
+        <v>73460.12</v>
       </c>
       <c r="J31" t="n">
-        <v>74592.92999999999</v>
+        <v>73460.12</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -17204,16 +17204,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>65937.16</v>
+        <v>65509.42</v>
       </c>
       <c r="E32" t="n">
-        <v>65937.16</v>
+        <v>65509.42</v>
       </c>
       <c r="F32" t="n">
-        <v>65937.16</v>
+        <v>65509.42</v>
       </c>
       <c r="G32" t="n">
-        <v>65937.16</v>
+        <v>65509.42</v>
       </c>
       <c r="H32" t="n">
         <v>138661.32</v>
@@ -17255,25 +17255,25 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>185563.84</v>
+        <v>185611.75</v>
       </c>
       <c r="E33" t="n">
-        <v>185563.84</v>
+        <v>185611.75</v>
       </c>
       <c r="F33" t="n">
-        <v>185563.84</v>
+        <v>185611.75</v>
       </c>
       <c r="G33" t="n">
-        <v>185563.84</v>
+        <v>185611.75</v>
       </c>
       <c r="H33" t="n">
-        <v>124317.64</v>
+        <v>124359.03</v>
       </c>
       <c r="I33" t="n">
-        <v>124317.64</v>
+        <v>124359.03</v>
       </c>
       <c r="J33" t="n">
-        <v>124317.64</v>
+        <v>124359.03</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -17357,25 +17357,25 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>383498.04</v>
+        <v>383480.75</v>
       </c>
       <c r="E35" t="n">
-        <v>383498.04</v>
+        <v>383480.75</v>
       </c>
       <c r="F35" t="n">
-        <v>383498.04</v>
+        <v>383480.75</v>
       </c>
       <c r="G35" t="n">
-        <v>383498.04</v>
+        <v>383480.75</v>
       </c>
       <c r="H35" t="n">
-        <v>221116.95</v>
+        <v>221866.62</v>
       </c>
       <c r="I35" t="n">
-        <v>221116.95</v>
+        <v>221866.62</v>
       </c>
       <c r="J35" t="n">
-        <v>221116.95</v>
+        <v>221866.62</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -17408,25 +17408,25 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11406.34</v>
+        <v>8821.809999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>11406.34</v>
+        <v>8821.809999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>11406.34</v>
+        <v>8821.809999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>11406.34</v>
+        <v>8821.809999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>31664.06</v>
+        <v>31606.26</v>
       </c>
       <c r="I36" t="n">
-        <v>31664.06</v>
+        <v>31606.26</v>
       </c>
       <c r="J36" t="n">
-        <v>31664.06</v>
+        <v>31606.26</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -17459,16 +17459,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>90657.73</v>
+        <v>88959.64999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>90657.73</v>
+        <v>88959.64999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>90657.73</v>
+        <v>88959.64999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>90657.73</v>
+        <v>88959.64999999999</v>
       </c>
       <c r="H37" t="n">
         <v>58993.73</v>
@@ -17612,25 +17612,25 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>122958.31</v>
+        <v>123916.91</v>
       </c>
       <c r="E40" t="n">
-        <v>122958.31</v>
+        <v>123916.91</v>
       </c>
       <c r="F40" t="n">
-        <v>122958.31</v>
+        <v>123916.91</v>
       </c>
       <c r="G40" t="n">
-        <v>122958.31</v>
+        <v>123916.91</v>
       </c>
       <c r="H40" t="n">
-        <v>201193.35</v>
+        <v>199695.46</v>
       </c>
       <c r="I40" t="n">
-        <v>201193.35</v>
+        <v>199695.46</v>
       </c>
       <c r="J40" t="n">
-        <v>201193.35</v>
+        <v>199695.46</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -17714,16 +17714,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2431.43</v>
+        <v>2248.87</v>
       </c>
       <c r="E42" t="n">
-        <v>2431.43</v>
+        <v>2248.87</v>
       </c>
       <c r="F42" t="n">
-        <v>2431.43</v>
+        <v>2248.87</v>
       </c>
       <c r="G42" t="n">
-        <v>2431.43</v>
+        <v>2248.87</v>
       </c>
       <c r="H42" t="n">
         <v>23502.49</v>
@@ -17765,25 +17765,25 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10622.28</v>
+        <v>10644.12</v>
       </c>
       <c r="E43" t="n">
-        <v>10622.28</v>
+        <v>10644.12</v>
       </c>
       <c r="F43" t="n">
-        <v>10622.28</v>
+        <v>10644.12</v>
       </c>
       <c r="G43" t="n">
-        <v>10622.28</v>
+        <v>10644.12</v>
       </c>
       <c r="H43" t="n">
-        <v>22208.56</v>
+        <v>22252.23</v>
       </c>
       <c r="I43" t="n">
-        <v>22208.56</v>
+        <v>22252.23</v>
       </c>
       <c r="J43" t="n">
-        <v>22208.56</v>
+        <v>22252.23</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -17816,16 +17816,16 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>79747.96000000001</v>
+        <v>79743.96000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>79747.96000000001</v>
+        <v>79743.96000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>79747.96000000001</v>
+        <v>79743.96000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>79747.96000000001</v>
+        <v>79743.96000000001</v>
       </c>
       <c r="H44" t="n">
         <v>166013.41</v>
@@ -17918,16 +17918,16 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1749.36</v>
+        <v>1731.53</v>
       </c>
       <c r="E46" t="n">
-        <v>1749.36</v>
+        <v>1731.53</v>
       </c>
       <c r="F46" t="n">
-        <v>1749.36</v>
+        <v>1731.53</v>
       </c>
       <c r="G46" t="n">
-        <v>1749.36</v>
+        <v>1731.53</v>
       </c>
       <c r="H46" t="n">
         <v>21416.84</v>
@@ -18071,25 +18071,25 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>270563366.83</v>
+        <v>268905732.95</v>
       </c>
       <c r="E49" t="n">
-        <v>270563366.83</v>
+        <v>268905732.95</v>
       </c>
       <c r="F49" t="n">
-        <v>270563366.83</v>
+        <v>268905732.95</v>
       </c>
       <c r="G49" t="n">
-        <v>270563366.83</v>
+        <v>268905732.95</v>
       </c>
       <c r="H49" t="n">
-        <v>55374839.99</v>
+        <v>55389488.16</v>
       </c>
       <c r="I49" t="n">
-        <v>55374839.99</v>
+        <v>55389488.16</v>
       </c>
       <c r="J49" t="n">
-        <v>55374839.99</v>
+        <v>55389488.16</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -18122,16 +18122,16 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5980.47</v>
+        <v>5979.31</v>
       </c>
       <c r="E50" t="n">
-        <v>5980.47</v>
+        <v>5979.31</v>
       </c>
       <c r="F50" t="n">
-        <v>5980.47</v>
+        <v>5979.31</v>
       </c>
       <c r="G50" t="n">
-        <v>5980.47</v>
+        <v>5979.31</v>
       </c>
       <c r="H50" t="n">
         <v>59068.31</v>

--- a/sol_master_LIVE.xlsx
+++ b/sol_master_LIVE.xlsx
@@ -532,13 +532,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>217.76</v>
+        <v>216.63</v>
       </c>
       <c r="F2" t="n">
-        <v>268905732.95</v>
+        <v>270236433.6</v>
       </c>
       <c r="G2" t="n">
-        <v>55389488.16</v>
+        <v>55067985.4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.0001733</v>
+        <v>0.0001975</v>
       </c>
       <c r="F3" t="n">
-        <v>976210.29</v>
+        <v>934131.58</v>
       </c>
       <c r="G3" t="n">
-        <v>85028.41</v>
+        <v>88902.07000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>173339</v>
+        <v>197525</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.00161</v>
+        <v>0.001612</v>
       </c>
       <c r="F4" t="n">
-        <v>383480.75</v>
+        <v>384039.09</v>
       </c>
       <c r="G4" t="n">
-        <v>221866.62</v>
+        <v>221317.89</v>
       </c>
       <c r="H4" t="n">
-        <v>1251250</v>
+        <v>1253494</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.002727</v>
+        <v>0.002671</v>
       </c>
       <c r="F5" t="n">
-        <v>272088.97</v>
+        <v>268604.05</v>
       </c>
       <c r="G5" t="n">
-        <v>504801.95</v>
+        <v>497813.53</v>
       </c>
       <c r="H5" t="n">
-        <v>2725908</v>
+        <v>2669984</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0004247</v>
+        <v>0.0004227</v>
       </c>
       <c r="F6" t="n">
-        <v>185611.75</v>
+        <v>182196.92</v>
       </c>
       <c r="G6" t="n">
-        <v>124359.03</v>
+        <v>123715.84</v>
       </c>
       <c r="H6" t="n">
-        <v>424713</v>
+        <v>422713</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -767,16 +767,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0001825</v>
+        <v>0.000178</v>
       </c>
       <c r="F7" t="n">
-        <v>150986.82</v>
+        <v>153549.11</v>
       </c>
       <c r="G7" t="n">
-        <v>53559.09</v>
+        <v>52900.9</v>
       </c>
       <c r="H7" t="n">
-        <v>182571</v>
+        <v>178010</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -800,30 +800,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FARTLESS</t>
+          <t>DREAM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FARTLESS COIN</t>
+          <t>Dreamsync</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0008677</v>
+        <v>0.001938</v>
       </c>
       <c r="F8" t="n">
-        <v>123916.91</v>
+        <v>129206.27</v>
       </c>
       <c r="G8" t="n">
-        <v>199695.46</v>
+        <v>195858.88</v>
       </c>
       <c r="H8" t="n">
-        <v>867763</v>
+        <v>1938765</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -847,30 +847,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DREAM</t>
+          <t>FARTLESS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dreamsync</t>
+          <t>FARTLESS COIN</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.00183</v>
+        <v>0.000849</v>
       </c>
       <c r="F9" t="n">
-        <v>106814.34</v>
+        <v>124523.15</v>
       </c>
       <c r="G9" t="n">
-        <v>190891.34</v>
+        <v>196862.69</v>
       </c>
       <c r="H9" t="n">
-        <v>1830054</v>
+        <v>849067</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -894,30 +894,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>RAGEGUY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BullArena</t>
+          <t>Rage Guy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0002214</v>
+        <v>0.001092</v>
       </c>
       <c r="F10" t="n">
-        <v>88959.64999999999</v>
+        <v>79712.00999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>58993.73</v>
+        <v>164363.47</v>
       </c>
       <c r="H10" t="n">
-        <v>221404</v>
+        <v>1092665</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -955,16 +955,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.01623</v>
+        <v>0.0161</v>
       </c>
       <c r="F11" t="n">
-        <v>82111.67999999999</v>
+        <v>77523.11</v>
       </c>
       <c r="G11" t="n">
-        <v>2110607.3</v>
+        <v>2096062.44</v>
       </c>
       <c r="H11" t="n">
-        <v>81173576</v>
+        <v>80506003</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -988,30 +988,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RAGEGUY</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rage Guy</t>
+          <t>BullArena</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.00111</v>
+        <v>0.0002191</v>
       </c>
       <c r="F12" t="n">
-        <v>79743.96000000001</v>
+        <v>69349.24000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>166013.41</v>
+        <v>58688.79</v>
       </c>
       <c r="H12" t="n">
-        <v>1109964</v>
+        <v>219117</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1035,30 +1035,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RUECAT</t>
+          <t>CHARLIE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rue Cat</t>
+          <t>RIP CHARLIE KIRK</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.0006933</v>
+        <v>0.0004805</v>
       </c>
       <c r="F13" t="n">
-        <v>66691.25999999999</v>
+        <v>66530.35000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>104294.04</v>
+        <v>141068.83</v>
       </c>
       <c r="H13" t="n">
-        <v>495120</v>
+        <v>480494</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1082,30 +1082,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHARLIE</t>
+          <t>RUECAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RIP CHARLIE KIRK</t>
+          <t>Rue Cat</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0004622</v>
+        <v>0.0006709</v>
       </c>
       <c r="F14" t="n">
-        <v>65509.42</v>
+        <v>65632.58</v>
       </c>
       <c r="G14" t="n">
-        <v>138661.32</v>
+        <v>102337.73</v>
       </c>
       <c r="H14" t="n">
-        <v>462204</v>
+        <v>479170</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1143,16 +1143,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0002126</v>
+        <v>0.0002125</v>
       </c>
       <c r="F15" t="n">
-        <v>61650.22</v>
+        <v>61046.29</v>
       </c>
       <c r="G15" t="n">
-        <v>73460.12</v>
+        <v>73151.61</v>
       </c>
       <c r="H15" t="n">
-        <v>211946</v>
+        <v>211808</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1190,16 +1190,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.0005285999999999999</v>
+        <v>0.0005185</v>
       </c>
       <c r="F16" t="n">
-        <v>52422.07</v>
+        <v>51905.63</v>
       </c>
       <c r="G16" t="n">
-        <v>149544.88</v>
+        <v>147633.73</v>
       </c>
       <c r="H16" t="n">
-        <v>528510</v>
+        <v>518429</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1223,30 +1223,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>early</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>67coin</t>
+          <t>not wrong just early</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.0001121</v>
+        <v>0.0002801</v>
       </c>
       <c r="F17" t="n">
-        <v>41062.23</v>
+        <v>41965.32</v>
       </c>
       <c r="G17" t="n">
-        <v>56890.51</v>
+        <v>69940.09</v>
       </c>
       <c r="H17" t="n">
-        <v>111948</v>
+        <v>280090</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1270,30 +1270,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>not wrong just early</t>
+          <t>67coin</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
+          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.0003025</v>
+        <v>0.0001091</v>
       </c>
       <c r="F18" t="n">
-        <v>39448.57</v>
+        <v>40120.13</v>
       </c>
       <c r="G18" t="n">
-        <v>72811.57000000001</v>
+        <v>56000.45</v>
       </c>
       <c r="H18" t="n">
-        <v>302512</v>
+        <v>108989</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1331,16 +1331,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.0004973</v>
+        <v>0.0004648</v>
       </c>
       <c r="F19" t="n">
-        <v>35936.28</v>
+        <v>37725.1</v>
       </c>
       <c r="G19" t="n">
-        <v>180279.17</v>
+        <v>173611</v>
       </c>
       <c r="H19" t="n">
-        <v>497306</v>
+        <v>464809</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>6.567999999999999e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>18606.34</v>
+        <v>18428.08</v>
       </c>
       <c r="G20" t="n">
         <v>38871.85</v>
@@ -1425,16 +1425,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.773e-05</v>
+        <v>8.313999999999999e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>17207.7</v>
+        <v>18032.17</v>
       </c>
       <c r="G21" t="n">
-        <v>38711.88</v>
+        <v>40036.37</v>
       </c>
       <c r="H21" t="n">
-        <v>77734</v>
+        <v>83145</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1472,16 +1472,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.0001341</v>
+        <v>0.0001336</v>
       </c>
       <c r="F22" t="n">
-        <v>17176.84</v>
+        <v>17149.19</v>
       </c>
       <c r="G22" t="n">
-        <v>53854.17</v>
+        <v>53710.37</v>
       </c>
       <c r="H22" t="n">
-        <v>130146</v>
+        <v>129685</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.703e-05</v>
+        <v>2.644e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>10644.12</v>
+        <v>10710.1</v>
       </c>
       <c r="G23" t="n">
-        <v>22252.23</v>
+        <v>22038.08</v>
       </c>
       <c r="H23" t="n">
-        <v>27040</v>
+        <v>26442</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1566,16 +1566,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.000151</v>
+        <v>0.0001565</v>
       </c>
       <c r="F24" t="n">
-        <v>9129.09</v>
+        <v>9967.629999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>86166.2</v>
+        <v>87611.03</v>
       </c>
       <c r="H24" t="n">
-        <v>151047</v>
+        <v>156560</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1613,16 +1613,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.018e-05</v>
+        <v>6.134000000000001e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>8821.809999999999</v>
+        <v>8637.92</v>
       </c>
       <c r="G25" t="n">
-        <v>31606.26</v>
+        <v>31790.23</v>
       </c>
       <c r="H25" t="n">
-        <v>60177</v>
+        <v>61340</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>0.003962</v>
       </c>
       <c r="F26" t="n">
-        <v>7488.02</v>
+        <v>7423.97</v>
       </c>
       <c r="G26" t="n">
         <v>576259.42</v>
@@ -1707,16 +1707,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.048e-05</v>
+        <v>2.032e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>6315.34</v>
+        <v>6318.92</v>
       </c>
       <c r="G27" t="n">
-        <v>9454.799999999999</v>
+        <v>9385.190000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>20483</v>
+        <v>20326</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1754,16 +1754,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.0001337</v>
+        <v>0.0001329</v>
       </c>
       <c r="F28" t="n">
-        <v>5979.31</v>
+        <v>5865.58</v>
       </c>
       <c r="G28" t="n">
-        <v>59068.31</v>
+        <v>58715</v>
       </c>
       <c r="H28" t="n">
-        <v>133707</v>
+        <v>132913</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1801,16 +1801,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.067e-05</v>
+        <v>2.238e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>4616.94</v>
+        <v>5196.35</v>
       </c>
       <c r="G29" t="n">
-        <v>18886.56</v>
+        <v>19621.24</v>
       </c>
       <c r="H29" t="n">
-        <v>20468</v>
+        <v>22154</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1834,30 +1834,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>1dog</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>1 dog can change your life</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.243e-05</v>
+        <v>1.326e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>3906.88</v>
+        <v>4567.17</v>
       </c>
       <c r="G30" t="n">
-        <v>12272.48</v>
+        <v>15289.76</v>
       </c>
       <c r="H30" t="n">
-        <v>12434</v>
+        <v>13223</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1881,30 +1881,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1dog</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1 dog can change your life</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.48e-05</v>
+        <v>1.243e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>3222.22</v>
+        <v>3703.25</v>
       </c>
       <c r="G31" t="n">
-        <v>16211.15</v>
+        <v>12272.48</v>
       </c>
       <c r="H31" t="n">
-        <v>14764</v>
+        <v>12434</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2036,16 +2036,16 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1646.86</v>
+        <v>1616.48</v>
       </c>
       <c r="F34" t="n">
-        <v>2306.05</v>
+        <v>2373.73</v>
       </c>
       <c r="G34" t="n">
-        <v>14826.8</v>
+        <v>14644.55</v>
       </c>
       <c r="H34" t="n">
-        <v>26596804</v>
+        <v>26106242</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>2.909e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>2248.87</v>
+        <v>2201.13</v>
       </c>
       <c r="G36" t="n">
         <v>23502.49</v>
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.96e-05</v>
+        <v>2.954e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>1731.53</v>
+        <v>1749.28</v>
       </c>
       <c r="G37" t="n">
-        <v>21416.84</v>
+        <v>21344.44</v>
       </c>
       <c r="H37" t="n">
-        <v>29604</v>
+        <v>29539</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2224,16 +2224,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.036e-05</v>
+        <v>1.113e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>1376.56</v>
+        <v>1463.01</v>
       </c>
       <c r="G38" t="n">
-        <v>13472.6</v>
+        <v>13948.25</v>
       </c>
       <c r="H38" t="n">
-        <v>10363</v>
+        <v>11138</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2257,30 +2257,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AUSBAGWORK</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AUSSIE BAG WORKERS</t>
+          <t>MOCHI CULT</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.326e-05</v>
+        <v>1.67e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>1093.82</v>
+        <v>1023.53</v>
       </c>
       <c r="G39" t="n">
-        <v>23013.57</v>
+        <v>24263.84</v>
       </c>
       <c r="H39" t="n">
-        <v>23265</v>
+        <v>16697</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2304,30 +2304,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>AUSBAGWORK</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MOCHI CULT</t>
+          <t>AUSSIE BAG WORKERS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.671e-05</v>
+        <v>2.343e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>1020.19</v>
+        <v>922.02</v>
       </c>
       <c r="G40" t="n">
-        <v>24287.67</v>
+        <v>23045.01</v>
       </c>
       <c r="H40" t="n">
-        <v>16716</v>
+        <v>23428</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>8.955e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>649.3</v>
+        <v>643.46</v>
       </c>
       <c r="G41" t="n">
         <v>13436.27</v>
@@ -2821,30 +2821,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>AI20X</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>101 Year Old Pumpfun Livestreamr</t>
+          <t>Ai20x.ai</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.323e-05</v>
+        <v>1.24</v>
       </c>
       <c r="F51" t="n">
-        <v>54.86</v>
+        <v>64.11</v>
       </c>
       <c r="G51" t="n">
-        <v>16735.19</v>
+        <v>2817030.53</v>
       </c>
       <c r="H51" t="n">
-        <v>13005</v>
+        <v>26192524</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -7514,22 +7514,22 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>217.76</v>
+        <v>216.63</v>
       </c>
       <c r="H2" t="n">
-        <v>268905732.95</v>
+        <v>270236433.6</v>
       </c>
       <c r="I2" t="n">
-        <v>55389488.16</v>
+        <v>55067985.4</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>268905732.95</v>
+        <v>270236433.6</v>
       </c>
       <c r="L2" t="n">
-        <v>55389488.16</v>
+        <v>55067985.4</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -7567,22 +7567,22 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001733</v>
+        <v>0.0001975</v>
       </c>
       <c r="H3" t="n">
-        <v>976210.29</v>
+        <v>934131.58</v>
       </c>
       <c r="I3" t="n">
-        <v>85028.41</v>
+        <v>88902.07000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>173339</v>
+        <v>197525</v>
       </c>
       <c r="K3" t="n">
-        <v>976210.29</v>
+        <v>934131.58</v>
       </c>
       <c r="L3" t="n">
-        <v>85028.41</v>
+        <v>88902.07000000001</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -7620,22 +7620,22 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00161</v>
+        <v>0.001612</v>
       </c>
       <c r="H4" t="n">
-        <v>383480.75</v>
+        <v>384039.09</v>
       </c>
       <c r="I4" t="n">
-        <v>221866.62</v>
+        <v>221317.89</v>
       </c>
       <c r="J4" t="n">
-        <v>1251250</v>
+        <v>1253494</v>
       </c>
       <c r="K4" t="n">
-        <v>383480.75</v>
+        <v>384039.09</v>
       </c>
       <c r="L4" t="n">
-        <v>221866.62</v>
+        <v>221317.89</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -7673,22 +7673,22 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002727</v>
+        <v>0.002671</v>
       </c>
       <c r="H5" t="n">
-        <v>272088.97</v>
+        <v>268604.05</v>
       </c>
       <c r="I5" t="n">
-        <v>504801.95</v>
+        <v>497813.53</v>
       </c>
       <c r="J5" t="n">
-        <v>2725908</v>
+        <v>2669984</v>
       </c>
       <c r="K5" t="n">
-        <v>272088.97</v>
+        <v>268604.05</v>
       </c>
       <c r="L5" t="n">
-        <v>504801.95</v>
+        <v>497813.53</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -7726,22 +7726,22 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0004247</v>
+        <v>0.0004227</v>
       </c>
       <c r="H6" t="n">
-        <v>185611.75</v>
+        <v>182196.92</v>
       </c>
       <c r="I6" t="n">
-        <v>124359.03</v>
+        <v>123715.84</v>
       </c>
       <c r="J6" t="n">
-        <v>424713</v>
+        <v>422713</v>
       </c>
       <c r="K6" t="n">
-        <v>185611.75</v>
+        <v>182196.92</v>
       </c>
       <c r="L6" t="n">
-        <v>124359.03</v>
+        <v>123715.84</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -7779,22 +7779,22 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001825</v>
+        <v>0.000178</v>
       </c>
       <c r="H7" t="n">
-        <v>150986.82</v>
+        <v>153549.11</v>
       </c>
       <c r="I7" t="n">
-        <v>53559.09</v>
+        <v>52900.9</v>
       </c>
       <c r="J7" t="n">
-        <v>182571</v>
+        <v>178010</v>
       </c>
       <c r="K7" t="n">
-        <v>150986.82</v>
+        <v>153549.11</v>
       </c>
       <c r="L7" t="n">
-        <v>53559.09</v>
+        <v>52900.9</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -7809,17 +7809,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FARTLESS</t>
+          <t>DREAM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FARTLESS COIN</t>
+          <t>Dreamsync</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
@@ -7832,22 +7832,22 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0008677</v>
+        <v>0.001938</v>
       </c>
       <c r="H8" t="n">
-        <v>123916.91</v>
+        <v>129206.27</v>
       </c>
       <c r="I8" t="n">
-        <v>199695.46</v>
+        <v>195858.88</v>
       </c>
       <c r="J8" t="n">
-        <v>867763</v>
+        <v>1938765</v>
       </c>
       <c r="K8" t="n">
-        <v>123916.91</v>
+        <v>129206.27</v>
       </c>
       <c r="L8" t="n">
-        <v>199695.46</v>
+        <v>195858.88</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -7862,17 +7862,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DREAM</t>
+          <t>FARTLESS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dreamsync</t>
+          <t>FARTLESS COIN</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -7885,22 +7885,22 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00183</v>
+        <v>0.000849</v>
       </c>
       <c r="H9" t="n">
-        <v>106814.34</v>
+        <v>124523.15</v>
       </c>
       <c r="I9" t="n">
-        <v>190891.34</v>
+        <v>196862.69</v>
       </c>
       <c r="J9" t="n">
-        <v>1830054</v>
+        <v>849067</v>
       </c>
       <c r="K9" t="n">
-        <v>106814.34</v>
+        <v>124523.15</v>
       </c>
       <c r="L9" t="n">
-        <v>190891.34</v>
+        <v>196862.69</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -7915,17 +7915,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>RAGEGUY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BullArena</t>
+          <t>Rage Guy</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -7938,22 +7938,22 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0002214</v>
+        <v>0.001092</v>
       </c>
       <c r="H10" t="n">
-        <v>88959.64999999999</v>
+        <v>79712.00999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>58993.73</v>
+        <v>164363.47</v>
       </c>
       <c r="J10" t="n">
-        <v>221404</v>
+        <v>1092665</v>
       </c>
       <c r="K10" t="n">
-        <v>88959.64999999999</v>
+        <v>79712.00999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>58993.73</v>
+        <v>164363.47</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -7991,22 +7991,22 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01623</v>
+        <v>0.0161</v>
       </c>
       <c r="H11" t="n">
-        <v>82111.67999999999</v>
+        <v>77523.11</v>
       </c>
       <c r="I11" t="n">
-        <v>2110607.3</v>
+        <v>2096062.44</v>
       </c>
       <c r="J11" t="n">
-        <v>81173576</v>
+        <v>80506003</v>
       </c>
       <c r="K11" t="n">
-        <v>82111.67999999999</v>
+        <v>77523.11</v>
       </c>
       <c r="L11" t="n">
-        <v>2110607.3</v>
+        <v>2096062.44</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -8021,17 +8021,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RAGEGUY</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rage Guy</t>
+          <t>BullArena</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -8044,22 +8044,22 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00111</v>
+        <v>0.0002191</v>
       </c>
       <c r="H12" t="n">
-        <v>79743.96000000001</v>
+        <v>69349.24000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>166013.41</v>
+        <v>58688.79</v>
       </c>
       <c r="J12" t="n">
-        <v>1109964</v>
+        <v>219117</v>
       </c>
       <c r="K12" t="n">
-        <v>79743.96000000001</v>
+        <v>69349.24000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>166013.41</v>
+        <v>58688.79</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -8074,17 +8074,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RUECAT</t>
+          <t>CHARLIE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rue Cat</t>
+          <t>RIP CHARLIE KIRK</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -8097,22 +8097,22 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0006933</v>
+        <v>0.0004805</v>
       </c>
       <c r="H13" t="n">
-        <v>66691.25999999999</v>
+        <v>66530.35000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>104294.04</v>
+        <v>141068.83</v>
       </c>
       <c r="J13" t="n">
-        <v>495120</v>
+        <v>480494</v>
       </c>
       <c r="K13" t="n">
-        <v>66691.25999999999</v>
+        <v>66530.35000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>104294.04</v>
+        <v>141068.83</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -8127,17 +8127,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHARLIE</t>
+          <t>RUECAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RIP CHARLIE KIRK</t>
+          <t>Rue Cat</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -8150,22 +8150,22 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0004622</v>
+        <v>0.0006709</v>
       </c>
       <c r="H14" t="n">
-        <v>65509.42</v>
+        <v>65632.58</v>
       </c>
       <c r="I14" t="n">
-        <v>138661.32</v>
+        <v>102337.73</v>
       </c>
       <c r="J14" t="n">
-        <v>462204</v>
+        <v>479170</v>
       </c>
       <c r="K14" t="n">
-        <v>65509.42</v>
+        <v>65632.58</v>
       </c>
       <c r="L14" t="n">
-        <v>138661.32</v>
+        <v>102337.73</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -8203,22 +8203,22 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002126</v>
+        <v>0.0002125</v>
       </c>
       <c r="H15" t="n">
-        <v>61650.22</v>
+        <v>61046.29</v>
       </c>
       <c r="I15" t="n">
-        <v>73460.12</v>
+        <v>73151.61</v>
       </c>
       <c r="J15" t="n">
-        <v>211946</v>
+        <v>211808</v>
       </c>
       <c r="K15" t="n">
-        <v>61650.22</v>
+        <v>61046.29</v>
       </c>
       <c r="L15" t="n">
-        <v>73460.12</v>
+        <v>73151.61</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -8256,22 +8256,22 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0005285999999999999</v>
+        <v>0.0005185</v>
       </c>
       <c r="H16" t="n">
-        <v>52422.07</v>
+        <v>51905.63</v>
       </c>
       <c r="I16" t="n">
-        <v>149544.88</v>
+        <v>147633.73</v>
       </c>
       <c r="J16" t="n">
-        <v>528510</v>
+        <v>518429</v>
       </c>
       <c r="K16" t="n">
-        <v>52422.07</v>
+        <v>51905.63</v>
       </c>
       <c r="L16" t="n">
-        <v>149544.88</v>
+        <v>147633.73</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -8286,17 +8286,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>early</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>67coin</t>
+          <t>not wrong just early</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -8309,22 +8309,22 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001121</v>
+        <v>0.0002801</v>
       </c>
       <c r="H17" t="n">
-        <v>41062.23</v>
+        <v>41965.32</v>
       </c>
       <c r="I17" t="n">
-        <v>56890.51</v>
+        <v>69940.09</v>
       </c>
       <c r="J17" t="n">
-        <v>111948</v>
+        <v>280090</v>
       </c>
       <c r="K17" t="n">
-        <v>41062.23</v>
+        <v>41965.32</v>
       </c>
       <c r="L17" t="n">
-        <v>56890.51</v>
+        <v>69940.09</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -8339,17 +8339,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
+          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>not wrong just early</t>
+          <t>67coin</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -8362,22 +8362,22 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0003025</v>
+        <v>0.0001091</v>
       </c>
       <c r="H18" t="n">
-        <v>39448.57</v>
+        <v>40120.13</v>
       </c>
       <c r="I18" t="n">
-        <v>72811.57000000001</v>
+        <v>56000.45</v>
       </c>
       <c r="J18" t="n">
-        <v>302512</v>
+        <v>108989</v>
       </c>
       <c r="K18" t="n">
-        <v>39448.57</v>
+        <v>40120.13</v>
       </c>
       <c r="L18" t="n">
-        <v>72811.57000000001</v>
+        <v>56000.45</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -8415,22 +8415,22 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0004973</v>
+        <v>0.0004648</v>
       </c>
       <c r="H19" t="n">
-        <v>35936.28</v>
+        <v>37725.1</v>
       </c>
       <c r="I19" t="n">
-        <v>180279.17</v>
+        <v>173611</v>
       </c>
       <c r="J19" t="n">
-        <v>497306</v>
+        <v>464809</v>
       </c>
       <c r="K19" t="n">
-        <v>35936.28</v>
+        <v>37725.1</v>
       </c>
       <c r="L19" t="n">
-        <v>180279.17</v>
+        <v>173611</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -8471,7 +8471,7 @@
         <v>6.567999999999999e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>18606.34</v>
+        <v>18428.08</v>
       </c>
       <c r="I20" t="n">
         <v>38871.85</v>
@@ -8480,7 +8480,7 @@
         <v>65683</v>
       </c>
       <c r="K20" t="n">
-        <v>18606.34</v>
+        <v>18428.08</v>
       </c>
       <c r="L20" t="n">
         <v>38871.85</v>
@@ -8521,22 +8521,22 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>7.773e-05</v>
+        <v>8.313999999999999e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>17207.7</v>
+        <v>18032.17</v>
       </c>
       <c r="I21" t="n">
-        <v>38711.88</v>
+        <v>40036.37</v>
       </c>
       <c r="J21" t="n">
-        <v>77734</v>
+        <v>83145</v>
       </c>
       <c r="K21" t="n">
-        <v>17207.7</v>
+        <v>18032.17</v>
       </c>
       <c r="L21" t="n">
-        <v>38711.88</v>
+        <v>40036.37</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -8574,22 +8574,22 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001341</v>
+        <v>0.0001336</v>
       </c>
       <c r="H22" t="n">
-        <v>17176.84</v>
+        <v>17149.19</v>
       </c>
       <c r="I22" t="n">
-        <v>53854.17</v>
+        <v>53710.37</v>
       </c>
       <c r="J22" t="n">
-        <v>130146</v>
+        <v>129685</v>
       </c>
       <c r="K22" t="n">
-        <v>17176.84</v>
+        <v>17149.19</v>
       </c>
       <c r="L22" t="n">
-        <v>53854.17</v>
+        <v>53710.37</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
@@ -8627,22 +8627,22 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>2.703e-05</v>
+        <v>2.644e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>10644.12</v>
+        <v>10710.1</v>
       </c>
       <c r="I23" t="n">
-        <v>22252.23</v>
+        <v>22038.08</v>
       </c>
       <c r="J23" t="n">
-        <v>27040</v>
+        <v>26442</v>
       </c>
       <c r="K23" t="n">
-        <v>10644.12</v>
+        <v>10710.1</v>
       </c>
       <c r="L23" t="n">
-        <v>22252.23</v>
+        <v>22038.08</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -8680,22 +8680,22 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.000151</v>
+        <v>0.0001565</v>
       </c>
       <c r="H24" t="n">
-        <v>9129.09</v>
+        <v>9967.629999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>86166.2</v>
+        <v>87611.03</v>
       </c>
       <c r="J24" t="n">
-        <v>151047</v>
+        <v>156560</v>
       </c>
       <c r="K24" t="n">
-        <v>9129.09</v>
+        <v>9967.629999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>86166.2</v>
+        <v>87611.03</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -8733,22 +8733,22 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>6.018e-05</v>
+        <v>6.134000000000001e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>8821.809999999999</v>
+        <v>8637.92</v>
       </c>
       <c r="I25" t="n">
-        <v>31606.26</v>
+        <v>31790.23</v>
       </c>
       <c r="J25" t="n">
-        <v>60177</v>
+        <v>61340</v>
       </c>
       <c r="K25" t="n">
-        <v>8821.809999999999</v>
+        <v>8637.92</v>
       </c>
       <c r="L25" t="n">
-        <v>31606.26</v>
+        <v>31790.23</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
@@ -8789,7 +8789,7 @@
         <v>0.003962</v>
       </c>
       <c r="H26" t="n">
-        <v>7488.02</v>
+        <v>7423.97</v>
       </c>
       <c r="I26" t="n">
         <v>576259.42</v>
@@ -8798,7 +8798,7 @@
         <v>3962041</v>
       </c>
       <c r="K26" t="n">
-        <v>7488.02</v>
+        <v>7423.97</v>
       </c>
       <c r="L26" t="n">
         <v>576259.42</v>
@@ -8839,22 +8839,22 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>2.048e-05</v>
+        <v>2.032e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>6315.34</v>
+        <v>6318.92</v>
       </c>
       <c r="I27" t="n">
-        <v>9454.799999999999</v>
+        <v>9385.190000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>20483</v>
+        <v>20326</v>
       </c>
       <c r="K27" t="n">
-        <v>6315.34</v>
+        <v>6318.92</v>
       </c>
       <c r="L27" t="n">
-        <v>9454.799999999999</v>
+        <v>9385.190000000001</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -8892,22 +8892,22 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0001337</v>
+        <v>0.0001329</v>
       </c>
       <c r="H28" t="n">
-        <v>5979.31</v>
+        <v>5865.58</v>
       </c>
       <c r="I28" t="n">
-        <v>59068.31</v>
+        <v>58715</v>
       </c>
       <c r="J28" t="n">
-        <v>133707</v>
+        <v>132913</v>
       </c>
       <c r="K28" t="n">
-        <v>5979.31</v>
+        <v>5865.58</v>
       </c>
       <c r="L28" t="n">
-        <v>59068.31</v>
+        <v>58715</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -8945,22 +8945,22 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>2.067e-05</v>
+        <v>2.238e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>4616.94</v>
+        <v>5196.35</v>
       </c>
       <c r="I29" t="n">
-        <v>18886.56</v>
+        <v>19621.24</v>
       </c>
       <c r="J29" t="n">
-        <v>20468</v>
+        <v>22154</v>
       </c>
       <c r="K29" t="n">
-        <v>4616.94</v>
+        <v>5196.35</v>
       </c>
       <c r="L29" t="n">
-        <v>18886.56</v>
+        <v>19621.24</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -8975,17 +8975,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>1dog</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>1 dog can change your life</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -8998,22 +8998,22 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>1.243e-05</v>
+        <v>1.326e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>3906.88</v>
+        <v>4567.17</v>
       </c>
       <c r="I30" t="n">
-        <v>12272.48</v>
+        <v>15289.76</v>
       </c>
       <c r="J30" t="n">
-        <v>12434</v>
+        <v>13223</v>
       </c>
       <c r="K30" t="n">
-        <v>3906.88</v>
+        <v>4567.17</v>
       </c>
       <c r="L30" t="n">
-        <v>12272.48</v>
+        <v>15289.76</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
@@ -9028,17 +9028,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1dog</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1 dog can change your life</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
@@ -9051,22 +9051,22 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1.48e-05</v>
+        <v>1.243e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>3222.22</v>
+        <v>3703.25</v>
       </c>
       <c r="I31" t="n">
-        <v>16211.15</v>
+        <v>12272.48</v>
       </c>
       <c r="J31" t="n">
-        <v>14764</v>
+        <v>12434</v>
       </c>
       <c r="K31" t="n">
-        <v>3222.22</v>
+        <v>3703.25</v>
       </c>
       <c r="L31" t="n">
-        <v>16211.15</v>
+        <v>12272.48</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
@@ -9210,22 +9210,22 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>1646.86</v>
+        <v>1616.48</v>
       </c>
       <c r="H34" t="n">
-        <v>2306.05</v>
+        <v>2373.73</v>
       </c>
       <c r="I34" t="n">
-        <v>14826.8</v>
+        <v>14644.55</v>
       </c>
       <c r="J34" t="n">
-        <v>26596804</v>
+        <v>26106242</v>
       </c>
       <c r="K34" t="n">
-        <v>2306.05</v>
+        <v>2373.73</v>
       </c>
       <c r="L34" t="n">
-        <v>14826.8</v>
+        <v>14644.55</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
@@ -9319,7 +9319,7 @@
         <v>2.909e-05</v>
       </c>
       <c r="H36" t="n">
-        <v>2248.87</v>
+        <v>2201.13</v>
       </c>
       <c r="I36" t="n">
         <v>23502.49</v>
@@ -9328,7 +9328,7 @@
         <v>29094</v>
       </c>
       <c r="K36" t="n">
-        <v>2248.87</v>
+        <v>2201.13</v>
       </c>
       <c r="L36" t="n">
         <v>23502.49</v>
@@ -9369,22 +9369,22 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>2.96e-05</v>
+        <v>2.954e-05</v>
       </c>
       <c r="H37" t="n">
-        <v>1731.53</v>
+        <v>1749.28</v>
       </c>
       <c r="I37" t="n">
-        <v>21416.84</v>
+        <v>21344.44</v>
       </c>
       <c r="J37" t="n">
-        <v>29604</v>
+        <v>29539</v>
       </c>
       <c r="K37" t="n">
-        <v>1731.53</v>
+        <v>1749.28</v>
       </c>
       <c r="L37" t="n">
-        <v>21416.84</v>
+        <v>21344.44</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
@@ -9422,22 +9422,22 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1.036e-05</v>
+        <v>1.113e-05</v>
       </c>
       <c r="H38" t="n">
-        <v>1376.56</v>
+        <v>1463.01</v>
       </c>
       <c r="I38" t="n">
-        <v>13472.6</v>
+        <v>13948.25</v>
       </c>
       <c r="J38" t="n">
-        <v>10363</v>
+        <v>11138</v>
       </c>
       <c r="K38" t="n">
-        <v>1376.56</v>
+        <v>1463.01</v>
       </c>
       <c r="L38" t="n">
-        <v>13472.6</v>
+        <v>13948.25</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -9452,17 +9452,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AUSBAGWORK</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AUSSIE BAG WORKERS</t>
+          <t>MOCHI CULT</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
@@ -9475,22 +9475,22 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>2.326e-05</v>
+        <v>1.67e-05</v>
       </c>
       <c r="H39" t="n">
-        <v>1093.82</v>
+        <v>1023.53</v>
       </c>
       <c r="I39" t="n">
-        <v>23013.57</v>
+        <v>24263.84</v>
       </c>
       <c r="J39" t="n">
-        <v>23265</v>
+        <v>16697</v>
       </c>
       <c r="K39" t="n">
-        <v>1093.82</v>
+        <v>1023.53</v>
       </c>
       <c r="L39" t="n">
-        <v>23013.57</v>
+        <v>24263.84</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
@@ -9505,17 +9505,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>AUSBAGWORK</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MOCHI CULT</t>
+          <t>AUSSIE BAG WORKERS</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
@@ -9528,22 +9528,22 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1.671e-05</v>
+        <v>2.343e-05</v>
       </c>
       <c r="H40" t="n">
-        <v>1020.19</v>
+        <v>922.02</v>
       </c>
       <c r="I40" t="n">
-        <v>24287.67</v>
+        <v>23045.01</v>
       </c>
       <c r="J40" t="n">
-        <v>16716</v>
+        <v>23428</v>
       </c>
       <c r="K40" t="n">
-        <v>1020.19</v>
+        <v>922.02</v>
       </c>
       <c r="L40" t="n">
-        <v>24287.67</v>
+        <v>23045.01</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -9584,7 +9584,7 @@
         <v>8.955e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>649.3</v>
+        <v>643.46</v>
       </c>
       <c r="I41" t="n">
         <v>13436.27</v>
@@ -9593,7 +9593,7 @@
         <v>8866</v>
       </c>
       <c r="K41" t="n">
-        <v>649.3</v>
+        <v>643.46</v>
       </c>
       <c r="L41" t="n">
         <v>13436.27</v>
@@ -10088,17 +10088,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>AI20X</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>101 Year Old Pumpfun Livestreamr</t>
+          <t>Ai20x.ai</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
@@ -10111,22 +10111,22 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>1.323e-05</v>
+        <v>1.24</v>
       </c>
       <c r="H51" t="n">
-        <v>54.86</v>
+        <v>64.11</v>
       </c>
       <c r="I51" t="n">
-        <v>16735.19</v>
+        <v>2817030.53</v>
       </c>
       <c r="J51" t="n">
-        <v>13005</v>
+        <v>26192524</v>
       </c>
       <c r="K51" t="n">
-        <v>54.86</v>
+        <v>64.11</v>
       </c>
       <c r="L51" t="n">
-        <v>16735.19</v>
+        <v>2817030.53</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
@@ -10351,13 +10351,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>217.76</v>
+        <v>216.63</v>
       </c>
       <c r="F2" t="n">
-        <v>268905732.95</v>
+        <v>270236433.6</v>
       </c>
       <c r="G2" t="n">
-        <v>55389488.16</v>
+        <v>55067985.4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -10398,16 +10398,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.0001733</v>
+        <v>0.0001975</v>
       </c>
       <c r="F3" t="n">
-        <v>976210.29</v>
+        <v>934131.58</v>
       </c>
       <c r="G3" t="n">
-        <v>85028.41</v>
+        <v>88902.07000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>173339</v>
+        <v>197525</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -10445,16 +10445,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.00161</v>
+        <v>0.001612</v>
       </c>
       <c r="F4" t="n">
-        <v>383480.75</v>
+        <v>384039.09</v>
       </c>
       <c r="G4" t="n">
-        <v>221866.62</v>
+        <v>221317.89</v>
       </c>
       <c r="H4" t="n">
-        <v>1251250</v>
+        <v>1253494</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -10492,16 +10492,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.002727</v>
+        <v>0.002671</v>
       </c>
       <c r="F5" t="n">
-        <v>272088.97</v>
+        <v>268604.05</v>
       </c>
       <c r="G5" t="n">
-        <v>504801.95</v>
+        <v>497813.53</v>
       </c>
       <c r="H5" t="n">
-        <v>2725908</v>
+        <v>2669984</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -10539,16 +10539,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0004247</v>
+        <v>0.0004227</v>
       </c>
       <c r="F6" t="n">
-        <v>185611.75</v>
+        <v>182196.92</v>
       </c>
       <c r="G6" t="n">
-        <v>124359.03</v>
+        <v>123715.84</v>
       </c>
       <c r="H6" t="n">
-        <v>424713</v>
+        <v>422713</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -10586,16 +10586,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0001825</v>
+        <v>0.000178</v>
       </c>
       <c r="F7" t="n">
-        <v>150986.82</v>
+        <v>153549.11</v>
       </c>
       <c r="G7" t="n">
-        <v>53559.09</v>
+        <v>52900.9</v>
       </c>
       <c r="H7" t="n">
-        <v>182571</v>
+        <v>178010</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -10619,30 +10619,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FARTLESS</t>
+          <t>DREAM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FARTLESS COIN</t>
+          <t>Dreamsync</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
+          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0008677</v>
+        <v>0.001938</v>
       </c>
       <c r="F8" t="n">
-        <v>123916.91</v>
+        <v>129206.27</v>
       </c>
       <c r="G8" t="n">
-        <v>199695.46</v>
+        <v>195858.88</v>
       </c>
       <c r="H8" t="n">
-        <v>867763</v>
+        <v>1938765</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -10666,30 +10666,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DREAM</t>
+          <t>FARTLESS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dreamsync</t>
+          <t>FARTLESS COIN</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
+          <t>FyrBf5xKg5EwKZ9pHvSpJeLLuCWBicTpm3VvZcsibonk</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.00183</v>
+        <v>0.000849</v>
       </c>
       <c r="F9" t="n">
-        <v>106814.34</v>
+        <v>124523.15</v>
       </c>
       <c r="G9" t="n">
-        <v>190891.34</v>
+        <v>196862.69</v>
       </c>
       <c r="H9" t="n">
-        <v>1830054</v>
+        <v>849067</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -10713,30 +10713,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>RAGEGUY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BullArena</t>
+          <t>Rage Guy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
+          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0002214</v>
+        <v>0.001092</v>
       </c>
       <c r="F10" t="n">
-        <v>88959.64999999999</v>
+        <v>79712.00999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>58993.73</v>
+        <v>164363.47</v>
       </c>
       <c r="H10" t="n">
-        <v>221404</v>
+        <v>1092665</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -10774,16 +10774,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.01623</v>
+        <v>0.0161</v>
       </c>
       <c r="F11" t="n">
-        <v>82111.67999999999</v>
+        <v>77523.11</v>
       </c>
       <c r="G11" t="n">
-        <v>2110607.3</v>
+        <v>2096062.44</v>
       </c>
       <c r="H11" t="n">
-        <v>81173576</v>
+        <v>80506003</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -10807,30 +10807,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RAGEGUY</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rage Guy</t>
+          <t>BullArena</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GvV7sFu6FHJsSVXfpG7xqFnWar3c7YkcC74rqe7Bpump</t>
+          <t>Et2bFLuPCW77hGW2g7UdrboPVuxatFZt4BaCzhCqpump</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.00111</v>
+        <v>0.0002191</v>
       </c>
       <c r="F12" t="n">
-        <v>79743.96000000001</v>
+        <v>69349.24000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>166013.41</v>
+        <v>58688.79</v>
       </c>
       <c r="H12" t="n">
-        <v>1109964</v>
+        <v>219117</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -10854,30 +10854,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RUECAT</t>
+          <t>CHARLIE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rue Cat</t>
+          <t>RIP CHARLIE KIRK</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.0006933</v>
+        <v>0.0004805</v>
       </c>
       <c r="F13" t="n">
-        <v>66691.25999999999</v>
+        <v>66530.35000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>104294.04</v>
+        <v>141068.83</v>
       </c>
       <c r="H13" t="n">
-        <v>495120</v>
+        <v>480494</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -10901,30 +10901,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHARLIE</t>
+          <t>RUECAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RIP CHARLIE KIRK</t>
+          <t>Rue Cat</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0004622</v>
+        <v>0.0006709</v>
       </c>
       <c r="F14" t="n">
-        <v>65509.42</v>
+        <v>65632.58</v>
       </c>
       <c r="G14" t="n">
-        <v>138661.32</v>
+        <v>102337.73</v>
       </c>
       <c r="H14" t="n">
-        <v>462204</v>
+        <v>479170</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -10962,16 +10962,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0002126</v>
+        <v>0.0002125</v>
       </c>
       <c r="F15" t="n">
-        <v>61650.22</v>
+        <v>61046.29</v>
       </c>
       <c r="G15" t="n">
-        <v>73460.12</v>
+        <v>73151.61</v>
       </c>
       <c r="H15" t="n">
-        <v>211946</v>
+        <v>211808</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -11009,16 +11009,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.0005285999999999999</v>
+        <v>0.0005185</v>
       </c>
       <c r="F16" t="n">
-        <v>52422.07</v>
+        <v>51905.63</v>
       </c>
       <c r="G16" t="n">
-        <v>149544.88</v>
+        <v>147633.73</v>
       </c>
       <c r="H16" t="n">
-        <v>528510</v>
+        <v>518429</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -11042,30 +11042,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>early</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>67coin</t>
+          <t>not wrong just early</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.0001121</v>
+        <v>0.0002801</v>
       </c>
       <c r="F17" t="n">
-        <v>41062.23</v>
+        <v>41965.32</v>
       </c>
       <c r="G17" t="n">
-        <v>56890.51</v>
+        <v>69940.09</v>
       </c>
       <c r="H17" t="n">
-        <v>111948</v>
+        <v>280090</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -11089,30 +11089,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>not wrong just early</t>
+          <t>67coin</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
+          <t>2sjdF9vLNWkTpK2XgY2kVWCL4YTMu6vaVA4VxrzUpump</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.0003025</v>
+        <v>0.0001091</v>
       </c>
       <c r="F18" t="n">
-        <v>39448.57</v>
+        <v>40120.13</v>
       </c>
       <c r="G18" t="n">
-        <v>72811.57000000001</v>
+        <v>56000.45</v>
       </c>
       <c r="H18" t="n">
-        <v>302512</v>
+        <v>108989</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -11150,16 +11150,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.0004973</v>
+        <v>0.0004648</v>
       </c>
       <c r="F19" t="n">
-        <v>35936.28</v>
+        <v>37725.1</v>
       </c>
       <c r="G19" t="n">
-        <v>180279.17</v>
+        <v>173611</v>
       </c>
       <c r="H19" t="n">
-        <v>497306</v>
+        <v>464809</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>6.567999999999999e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>18606.34</v>
+        <v>18428.08</v>
       </c>
       <c r="G20" t="n">
         <v>38871.85</v>
@@ -11244,16 +11244,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.773e-05</v>
+        <v>8.313999999999999e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>17207.7</v>
+        <v>18032.17</v>
       </c>
       <c r="G21" t="n">
-        <v>38711.88</v>
+        <v>40036.37</v>
       </c>
       <c r="H21" t="n">
-        <v>77734</v>
+        <v>83145</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -11291,16 +11291,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.0001341</v>
+        <v>0.0001336</v>
       </c>
       <c r="F22" t="n">
-        <v>17176.84</v>
+        <v>17149.19</v>
       </c>
       <c r="G22" t="n">
-        <v>53854.17</v>
+        <v>53710.37</v>
       </c>
       <c r="H22" t="n">
-        <v>130146</v>
+        <v>129685</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -11338,16 +11338,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.703e-05</v>
+        <v>2.644e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>10644.12</v>
+        <v>10710.1</v>
       </c>
       <c r="G23" t="n">
-        <v>22252.23</v>
+        <v>22038.08</v>
       </c>
       <c r="H23" t="n">
-        <v>27040</v>
+        <v>26442</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -11385,16 +11385,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.000151</v>
+        <v>0.0001565</v>
       </c>
       <c r="F24" t="n">
-        <v>9129.09</v>
+        <v>9967.629999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>86166.2</v>
+        <v>87611.03</v>
       </c>
       <c r="H24" t="n">
-        <v>151047</v>
+        <v>156560</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -11432,16 +11432,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.018e-05</v>
+        <v>6.134000000000001e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>8821.809999999999</v>
+        <v>8637.92</v>
       </c>
       <c r="G25" t="n">
-        <v>31606.26</v>
+        <v>31790.23</v>
       </c>
       <c r="H25" t="n">
-        <v>60177</v>
+        <v>61340</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>0.003962</v>
       </c>
       <c r="F26" t="n">
-        <v>7488.02</v>
+        <v>7423.97</v>
       </c>
       <c r="G26" t="n">
         <v>576259.42</v>
@@ -11526,16 +11526,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.048e-05</v>
+        <v>2.032e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>6315.34</v>
+        <v>6318.92</v>
       </c>
       <c r="G27" t="n">
-        <v>9454.799999999999</v>
+        <v>9385.190000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>20483</v>
+        <v>20326</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -11573,16 +11573,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.0001337</v>
+        <v>0.0001329</v>
       </c>
       <c r="F28" t="n">
-        <v>5979.31</v>
+        <v>5865.58</v>
       </c>
       <c r="G28" t="n">
-        <v>59068.31</v>
+        <v>58715</v>
       </c>
       <c r="H28" t="n">
-        <v>133707</v>
+        <v>132913</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -11620,16 +11620,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.067e-05</v>
+        <v>2.238e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>4616.94</v>
+        <v>5196.35</v>
       </c>
       <c r="G29" t="n">
-        <v>18886.56</v>
+        <v>19621.24</v>
       </c>
       <c r="H29" t="n">
-        <v>20468</v>
+        <v>22154</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -11653,30 +11653,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>1dog</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>pibble</t>
+          <t>1 dog can change your life</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.243e-05</v>
+        <v>1.326e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>3906.88</v>
+        <v>4567.17</v>
       </c>
       <c r="G30" t="n">
-        <v>12272.48</v>
+        <v>15289.76</v>
       </c>
       <c r="H30" t="n">
-        <v>12434</v>
+        <v>13223</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -11700,30 +11700,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1dog</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1 dog can change your life</t>
+          <t>pibble</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+          <t>GS3pHMUtYSu5PPuDFey74frkiRQhPdvx8jEeN6Qzbonk</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.48e-05</v>
+        <v>1.243e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>3222.22</v>
+        <v>3703.25</v>
       </c>
       <c r="G31" t="n">
-        <v>16211.15</v>
+        <v>12272.48</v>
       </c>
       <c r="H31" t="n">
-        <v>14764</v>
+        <v>12434</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -11855,16 +11855,16 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1646.86</v>
+        <v>1616.48</v>
       </c>
       <c r="F34" t="n">
-        <v>2306.05</v>
+        <v>2373.73</v>
       </c>
       <c r="G34" t="n">
-        <v>14826.8</v>
+        <v>14644.55</v>
       </c>
       <c r="H34" t="n">
-        <v>26596804</v>
+        <v>26106242</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>2.909e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>2248.87</v>
+        <v>2201.13</v>
       </c>
       <c r="G36" t="n">
         <v>23502.49</v>
@@ -11996,16 +11996,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.96e-05</v>
+        <v>2.954e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>1731.53</v>
+        <v>1749.28</v>
       </c>
       <c r="G37" t="n">
-        <v>21416.84</v>
+        <v>21344.44</v>
       </c>
       <c r="H37" t="n">
-        <v>29604</v>
+        <v>29539</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -12043,16 +12043,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.036e-05</v>
+        <v>1.113e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>1376.56</v>
+        <v>1463.01</v>
       </c>
       <c r="G38" t="n">
-        <v>13472.6</v>
+        <v>13948.25</v>
       </c>
       <c r="H38" t="n">
-        <v>10363</v>
+        <v>11138</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -12076,30 +12076,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AUSBAGWORK</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AUSSIE BAG WORKERS</t>
+          <t>MOCHI CULT</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.326e-05</v>
+        <v>1.67e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>1093.82</v>
+        <v>1023.53</v>
       </c>
       <c r="G39" t="n">
-        <v>23013.57</v>
+        <v>24263.84</v>
       </c>
       <c r="H39" t="n">
-        <v>23265</v>
+        <v>16697</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -12123,30 +12123,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>AUSBAGWORK</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MOCHI CULT</t>
+          <t>AUSSIE BAG WORKERS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.671e-05</v>
+        <v>2.343e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>1020.19</v>
+        <v>922.02</v>
       </c>
       <c r="G40" t="n">
-        <v>24287.67</v>
+        <v>23045.01</v>
       </c>
       <c r="H40" t="n">
-        <v>16716</v>
+        <v>23428</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>8.955e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>649.3</v>
+        <v>643.46</v>
       </c>
       <c r="G41" t="n">
         <v>13436.27</v>
@@ -12640,30 +12640,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>AI20X</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>101 Year Old Pumpfun Livestreamr</t>
+          <t>Ai20x.ai</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.323e-05</v>
+        <v>1.24</v>
       </c>
       <c r="F51" t="n">
-        <v>54.86</v>
+        <v>64.11</v>
       </c>
       <c r="G51" t="n">
-        <v>16735.19</v>
+        <v>2817030.53</v>
       </c>
       <c r="H51" t="n">
-        <v>13005</v>
+        <v>26192524</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -15674,25 +15674,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4616.94</v>
+        <v>5196.35</v>
       </c>
       <c r="E2" t="n">
-        <v>4616.94</v>
+        <v>5196.35</v>
       </c>
       <c r="F2" t="n">
-        <v>4616.94</v>
+        <v>5196.35</v>
       </c>
       <c r="G2" t="n">
-        <v>4616.94</v>
+        <v>5196.35</v>
       </c>
       <c r="H2" t="n">
-        <v>18886.56</v>
+        <v>19621.24</v>
       </c>
       <c r="I2" t="n">
-        <v>18886.56</v>
+        <v>19621.24</v>
       </c>
       <c r="J2" t="n">
-        <v>18886.56</v>
+        <v>19621.24</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -15725,25 +15725,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>976210.29</v>
+        <v>934131.58</v>
       </c>
       <c r="E3" t="n">
-        <v>976210.29</v>
+        <v>934131.58</v>
       </c>
       <c r="F3" t="n">
-        <v>976210.29</v>
+        <v>934131.58</v>
       </c>
       <c r="G3" t="n">
-        <v>976210.29</v>
+        <v>934131.58</v>
       </c>
       <c r="H3" t="n">
-        <v>85028.41</v>
+        <v>88902.07000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>85028.41</v>
+        <v>88902.07000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>85028.41</v>
+        <v>88902.07000000001</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -15776,25 +15776,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>41062.23</v>
+        <v>40120.13</v>
       </c>
       <c r="E4" t="n">
-        <v>41062.23</v>
+        <v>40120.13</v>
       </c>
       <c r="F4" t="n">
-        <v>41062.23</v>
+        <v>40120.13</v>
       </c>
       <c r="G4" t="n">
-        <v>41062.23</v>
+        <v>40120.13</v>
       </c>
       <c r="H4" t="n">
-        <v>56890.51</v>
+        <v>56000.45</v>
       </c>
       <c r="I4" t="n">
-        <v>56890.51</v>
+        <v>56000.45</v>
       </c>
       <c r="J4" t="n">
-        <v>56890.51</v>
+        <v>56000.45</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -15827,25 +15827,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17207.7</v>
+        <v>18032.17</v>
       </c>
       <c r="E5" t="n">
-        <v>17207.7</v>
+        <v>18032.17</v>
       </c>
       <c r="F5" t="n">
-        <v>17207.7</v>
+        <v>18032.17</v>
       </c>
       <c r="G5" t="n">
-        <v>17207.7</v>
+        <v>18032.17</v>
       </c>
       <c r="H5" t="n">
-        <v>38711.88</v>
+        <v>40036.37</v>
       </c>
       <c r="I5" t="n">
-        <v>38711.88</v>
+        <v>40036.37</v>
       </c>
       <c r="J5" t="n">
-        <v>38711.88</v>
+        <v>40036.37</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -15878,16 +15878,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7488.02</v>
+        <v>7423.97</v>
       </c>
       <c r="E6" t="n">
-        <v>7488.02</v>
+        <v>7423.97</v>
       </c>
       <c r="F6" t="n">
-        <v>7488.02</v>
+        <v>7423.97</v>
       </c>
       <c r="G6" t="n">
-        <v>7488.02</v>
+        <v>7423.97</v>
       </c>
       <c r="H6" t="n">
         <v>576259.42</v>
@@ -15929,25 +15929,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52422.07</v>
+        <v>51905.63</v>
       </c>
       <c r="E7" t="n">
-        <v>52422.07</v>
+        <v>51905.63</v>
       </c>
       <c r="F7" t="n">
-        <v>52422.07</v>
+        <v>51905.63</v>
       </c>
       <c r="G7" t="n">
-        <v>52422.07</v>
+        <v>51905.63</v>
       </c>
       <c r="H7" t="n">
-        <v>149544.88</v>
+        <v>147633.73</v>
       </c>
       <c r="I7" t="n">
-        <v>149544.88</v>
+        <v>147633.73</v>
       </c>
       <c r="J7" t="n">
-        <v>149544.88</v>
+        <v>147633.73</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -15980,25 +15980,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>150986.82</v>
+        <v>153549.11</v>
       </c>
       <c r="E8" t="n">
-        <v>150986.82</v>
+        <v>153549.11</v>
       </c>
       <c r="F8" t="n">
-        <v>150986.82</v>
+        <v>153549.11</v>
       </c>
       <c r="G8" t="n">
-        <v>150986.82</v>
+        <v>153549.11</v>
       </c>
       <c r="H8" t="n">
-        <v>53559.09</v>
+        <v>52900.9</v>
       </c>
       <c r="I8" t="n">
-        <v>53559.09</v>
+        <v>52900.9</v>
       </c>
       <c r="J8" t="n">
-        <v>53559.09</v>
+        <v>52900.9</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -16022,34 +16022,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4CBToKTRKfBsv8RMfzMr6VfKQ8PLRYeG6RFGZmq4pump</t>
+          <t>4bLnK5YuJaqkVX4uWtJ1Qtx3XoZ8eHH37STXSwujpump</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>DARE</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>54.86</v>
+        <v>643.46</v>
       </c>
       <c r="E9" t="n">
-        <v>54.86</v>
+        <v>643.46</v>
       </c>
       <c r="F9" t="n">
-        <v>54.86</v>
+        <v>643.46</v>
       </c>
       <c r="G9" t="n">
-        <v>54.86</v>
+        <v>643.46</v>
       </c>
       <c r="H9" t="n">
-        <v>16735.19</v>
+        <v>13436.27</v>
       </c>
       <c r="I9" t="n">
-        <v>16735.19</v>
+        <v>13436.27</v>
       </c>
       <c r="J9" t="n">
-        <v>16735.19</v>
+        <v>13436.27</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -16073,34 +16073,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4bLnK5YuJaqkVX4uWtJ1Qtx3XoZ8eHH37STXSwujpump</t>
+          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DARE</t>
+          <t>MOCHI</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>649.3</v>
+        <v>1023.53</v>
       </c>
       <c r="E10" t="n">
-        <v>649.3</v>
+        <v>1023.53</v>
       </c>
       <c r="F10" t="n">
-        <v>649.3</v>
+        <v>1023.53</v>
       </c>
       <c r="G10" t="n">
-        <v>649.3</v>
+        <v>1023.53</v>
       </c>
       <c r="H10" t="n">
-        <v>13436.27</v>
+        <v>24263.84</v>
       </c>
       <c r="I10" t="n">
-        <v>13436.27</v>
+        <v>24263.84</v>
       </c>
       <c r="J10" t="n">
-        <v>13436.27</v>
+        <v>24263.84</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -16124,34 +16124,34 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4ky1REfghVawQ6EPZGdx7zss5KNKStwE8swjii3uU5sD</t>
+          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MOCHI</t>
+          <t>Useless</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1020.19</v>
+        <v>18428.08</v>
       </c>
       <c r="E11" t="n">
-        <v>1020.19</v>
+        <v>18428.08</v>
       </c>
       <c r="F11" t="n">
-        <v>1020.19</v>
+        <v>18428.08</v>
       </c>
       <c r="G11" t="n">
-        <v>1020.19</v>
+        <v>18428.08</v>
       </c>
       <c r="H11" t="n">
-        <v>24287.67</v>
+        <v>38871.85</v>
       </c>
       <c r="I11" t="n">
-        <v>24287.67</v>
+        <v>38871.85</v>
       </c>
       <c r="J11" t="n">
-        <v>24287.67</v>
+        <v>38871.85</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -16175,34 +16175,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5NnL7oRMtVW3ZqAt95gJQs12Fbz2caCYh9rgy1kQpump</t>
+          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Useless</t>
+          <t>gib</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18606.34</v>
+        <v>37725.1</v>
       </c>
       <c r="E12" t="n">
-        <v>18606.34</v>
+        <v>37725.1</v>
       </c>
       <c r="F12" t="n">
-        <v>18606.34</v>
+        <v>37725.1</v>
       </c>
       <c r="G12" t="n">
-        <v>18606.34</v>
+        <v>37725.1</v>
       </c>
       <c r="H12" t="n">
-        <v>38871.85</v>
+        <v>173611</v>
       </c>
       <c r="I12" t="n">
-        <v>38871.85</v>
+        <v>173611</v>
       </c>
       <c r="J12" t="n">
-        <v>38871.85</v>
+        <v>173611</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -16226,34 +16226,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6FtbGaqgZzti1TxJksBV4PSya5of9VqA9vJNDxPwbonk</t>
+          <t>6NVo6X8ouYRVoKRWe7Y9J6CT4pWZXDthSJCBZ3vgUg8z</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gib</t>
+          <t>Bagwork</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35936.28</v>
+        <v>114.4</v>
       </c>
       <c r="E13" t="n">
-        <v>35936.28</v>
+        <v>114.4</v>
       </c>
       <c r="F13" t="n">
-        <v>35936.28</v>
+        <v>114.4</v>
       </c>
       <c r="G13" t="n">
-        <v>35936.28</v>
+        <v>114.4</v>
       </c>
       <c r="H13" t="n">
-        <v>180279.17</v>
+        <v>8930.35</v>
       </c>
       <c r="I13" t="n">
-        <v>180279.17</v>
+        <v>8930.35</v>
       </c>
       <c r="J13" t="n">
-        <v>180279.17</v>
+        <v>8930.35</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -16277,34 +16277,34 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6NVo6X8ouYRVoKRWe7Y9J6CT4pWZXDthSJCBZ3vgUg8z</t>
+          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bagwork</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>114.4</v>
+        <v>134.48</v>
       </c>
       <c r="E14" t="n">
-        <v>114.4</v>
+        <v>134.48</v>
       </c>
       <c r="F14" t="n">
-        <v>114.4</v>
+        <v>134.48</v>
       </c>
       <c r="G14" t="n">
-        <v>114.4</v>
+        <v>134.48</v>
       </c>
       <c r="H14" t="n">
-        <v>8930.35</v>
+        <v>8042.59</v>
       </c>
       <c r="I14" t="n">
-        <v>8930.35</v>
+        <v>8042.59</v>
       </c>
       <c r="J14" t="n">
-        <v>8930.35</v>
+        <v>8042.59</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -16328,34 +16328,34 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6jPg6gSrwtJyHWGTs7tUh2Zs1GzfKzHQNUGfAK1xpump</t>
+          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>APOLLO</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>134.48</v>
+        <v>6318.92</v>
       </c>
       <c r="E15" t="n">
-        <v>134.48</v>
+        <v>6318.92</v>
       </c>
       <c r="F15" t="n">
-        <v>134.48</v>
+        <v>6318.92</v>
       </c>
       <c r="G15" t="n">
-        <v>134.48</v>
+        <v>6318.92</v>
       </c>
       <c r="H15" t="n">
-        <v>8042.59</v>
+        <v>9385.190000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>8042.59</v>
+        <v>9385.190000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>8042.59</v>
+        <v>9385.190000000001</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -16379,34 +16379,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6k1rwsNMBwbRJrWck3sEVCjn4MvF9ty8A6iSGfxjxREV</t>
+          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>APOLLO</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6315.34</v>
+        <v>2279.84</v>
       </c>
       <c r="E16" t="n">
-        <v>6315.34</v>
+        <v>2279.84</v>
       </c>
       <c r="F16" t="n">
-        <v>6315.34</v>
+        <v>2279.84</v>
       </c>
       <c r="G16" t="n">
-        <v>6315.34</v>
+        <v>2279.84</v>
       </c>
       <c r="H16" t="n">
-        <v>9454.799999999999</v>
+        <v>9007.809999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>9454.799999999999</v>
+        <v>9007.809999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>9454.799999999999</v>
+        <v>9007.809999999999</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -16430,34 +16430,34 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7N8qk43L1PCcaqudkEasGpKqcunX1ChXYo2VB1g8bonk</t>
+          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>VIBECODER</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2279.84</v>
+        <v>17149.19</v>
       </c>
       <c r="E17" t="n">
-        <v>2279.84</v>
+        <v>17149.19</v>
       </c>
       <c r="F17" t="n">
-        <v>2279.84</v>
+        <v>17149.19</v>
       </c>
       <c r="G17" t="n">
-        <v>2279.84</v>
+        <v>17149.19</v>
       </c>
       <c r="H17" t="n">
-        <v>9007.809999999999</v>
+        <v>53710.37</v>
       </c>
       <c r="I17" t="n">
-        <v>9007.809999999999</v>
+        <v>53710.37</v>
       </c>
       <c r="J17" t="n">
-        <v>9007.809999999999</v>
+        <v>53710.37</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -16481,34 +16481,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7PzU4m13VqkdgWcserfBdxX4cAPQXaZuFNuKarnT1deV</t>
+          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>VIBECODER</t>
+          <t>LION</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17176.84</v>
+        <v>77523.11</v>
       </c>
       <c r="E18" t="n">
-        <v>17176.84</v>
+        <v>77523.11</v>
       </c>
       <c r="F18" t="n">
-        <v>17176.84</v>
+        <v>77523.11</v>
       </c>
       <c r="G18" t="n">
-        <v>17176.84</v>
+        <v>77523.11</v>
       </c>
       <c r="H18" t="n">
-        <v>53854.17</v>
+        <v>2096062.44</v>
       </c>
       <c r="I18" t="n">
-        <v>53854.17</v>
+        <v>2096062.44</v>
       </c>
       <c r="J18" t="n">
-        <v>53854.17</v>
+        <v>2096062.44</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -16532,34 +16532,34 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7kN5FQMD8ja4bzysEgc5FXmryKd6gCgjiWnhksjHCFb3</t>
+          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LION</t>
+          <t>early</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>82111.67999999999</v>
+        <v>41965.32</v>
       </c>
       <c r="E19" t="n">
-        <v>82111.67999999999</v>
+        <v>41965.32</v>
       </c>
       <c r="F19" t="n">
-        <v>82111.67999999999</v>
+        <v>41965.32</v>
       </c>
       <c r="G19" t="n">
-        <v>82111.67999999999</v>
+        <v>41965.32</v>
       </c>
       <c r="H19" t="n">
-        <v>2110607.3</v>
+        <v>69940.09</v>
       </c>
       <c r="I19" t="n">
-        <v>2110607.3</v>
+        <v>69940.09</v>
       </c>
       <c r="J19" t="n">
-        <v>2110607.3</v>
+        <v>69940.09</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -16583,34 +16583,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7ukFzJA7V6f28YieCjXcEXqiK8tAfbyXyvK6b36pump</t>
+          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>1dog</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>39448.57</v>
+        <v>4567.17</v>
       </c>
       <c r="E20" t="n">
-        <v>39448.57</v>
+        <v>4567.17</v>
       </c>
       <c r="F20" t="n">
-        <v>39448.57</v>
+        <v>4567.17</v>
       </c>
       <c r="G20" t="n">
-        <v>39448.57</v>
+        <v>4567.17</v>
       </c>
       <c r="H20" t="n">
-        <v>72811.57000000001</v>
+        <v>15289.76</v>
       </c>
       <c r="I20" t="n">
-        <v>72811.57000000001</v>
+        <v>15289.76</v>
       </c>
       <c r="J20" t="n">
-        <v>72811.57000000001</v>
+        <v>15289.76</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -16634,34 +16634,34 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8erRtd8mLgNcNoWy2bhMdTgZyXaRR6u7t2hyXRc1pump</t>
+          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1dog</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3222.22</v>
+        <v>2456.3</v>
       </c>
       <c r="E21" t="n">
-        <v>3222.22</v>
+        <v>2456.3</v>
       </c>
       <c r="F21" t="n">
-        <v>3222.22</v>
+        <v>2456.3</v>
       </c>
       <c r="G21" t="n">
-        <v>3222.22</v>
+        <v>2456.3</v>
       </c>
       <c r="H21" t="n">
-        <v>16211.15</v>
+        <v>11616.2</v>
       </c>
       <c r="I21" t="n">
-        <v>16211.15</v>
+        <v>11616.2</v>
       </c>
       <c r="J21" t="n">
-        <v>16211.15</v>
+        <v>11616.2</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -16685,34 +16685,34 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8wbfBYthc9fC4GsHgCtznZP1PAoXaZ8tnUGBtGMgpump</t>
+          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>PILL</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2456.3</v>
+        <v>97.42</v>
       </c>
       <c r="E22" t="n">
-        <v>2456.3</v>
+        <v>97.42</v>
       </c>
       <c r="F22" t="n">
-        <v>2456.3</v>
+        <v>97.42</v>
       </c>
       <c r="G22" t="n">
-        <v>2456.3</v>
+        <v>97.42</v>
       </c>
       <c r="H22" t="n">
-        <v>11616.2</v>
+        <v>10687.28</v>
       </c>
       <c r="I22" t="n">
-        <v>11616.2</v>
+        <v>10687.28</v>
       </c>
       <c r="J22" t="n">
-        <v>11616.2</v>
+        <v>10687.28</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -16736,34 +16736,34 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8z55m3BmsPkmDfi5b5dAomBvYi1cDmW92hrEJTLdpump</t>
+          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PILL</t>
+          <t>MOON</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>97.42</v>
+        <v>1463.01</v>
       </c>
       <c r="E23" t="n">
-        <v>97.42</v>
+        <v>1463.01</v>
       </c>
       <c r="F23" t="n">
-        <v>97.42</v>
+        <v>1463.01</v>
       </c>
       <c r="G23" t="n">
-        <v>97.42</v>
+        <v>1463.01</v>
       </c>
       <c r="H23" t="n">
-        <v>10687.28</v>
+        <v>13948.25</v>
       </c>
       <c r="I23" t="n">
-        <v>10687.28</v>
+        <v>13948.25</v>
       </c>
       <c r="J23" t="n">
-        <v>10687.28</v>
+        <v>13948.25</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -16787,34 +16787,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>99YFbXS6iA7s1qkRDTMBXEywtLNmrRtHtGKvNxpKWcdT</t>
+          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MOON</t>
+          <t>AUSBAGWORK</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1376.56</v>
+        <v>922.02</v>
       </c>
       <c r="E24" t="n">
-        <v>1376.56</v>
+        <v>922.02</v>
       </c>
       <c r="F24" t="n">
-        <v>1376.56</v>
+        <v>922.02</v>
       </c>
       <c r="G24" t="n">
-        <v>1376.56</v>
+        <v>922.02</v>
       </c>
       <c r="H24" t="n">
-        <v>13472.6</v>
+        <v>23045.01</v>
       </c>
       <c r="I24" t="n">
-        <v>13472.6</v>
+        <v>23045.01</v>
       </c>
       <c r="J24" t="n">
-        <v>13472.6</v>
+        <v>23045.01</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -16838,34 +16838,34 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9h5y3WCqfeNt2fiAP7iM2ZRp9apFb58ipvTzcWi9pump</t>
+          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AUSBAGWORK</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1093.82</v>
+        <v>2373.73</v>
       </c>
       <c r="E25" t="n">
-        <v>1093.82</v>
+        <v>2373.73</v>
       </c>
       <c r="F25" t="n">
-        <v>1093.82</v>
+        <v>2373.73</v>
       </c>
       <c r="G25" t="n">
-        <v>1093.82</v>
+        <v>2373.73</v>
       </c>
       <c r="H25" t="n">
-        <v>23013.57</v>
+        <v>14644.55</v>
       </c>
       <c r="I25" t="n">
-        <v>23013.57</v>
+        <v>14644.55</v>
       </c>
       <c r="J25" t="n">
-        <v>23013.57</v>
+        <v>14644.55</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -16889,34 +16889,34 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9n4nbM75f5Ui33ZbPYXn59EwSgE8CGsHtAeTH5YFeJ9E</t>
+          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>FARTWORM</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2306.05</v>
+        <v>2575.06</v>
       </c>
       <c r="E26" t="n">
-        <v>2306.05</v>
+        <v>2575.06</v>
       </c>
       <c r="F26" t="n">
-        <v>2306.05</v>
+        <v>2575.06</v>
       </c>
       <c r="G26" t="n">
-        <v>2306.05</v>
+        <v>2575.06</v>
       </c>
       <c r="H26" t="n">
-        <v>14826.8</v>
+        <v>19038.67</v>
       </c>
       <c r="I26" t="n">
-        <v>14826.8</v>
+        <v>19038.67</v>
       </c>
       <c r="J26" t="n">
-        <v>14826.8</v>
+        <v>19038.67</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -16940,34 +16940,34 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9zFU5vR7YNBzZU8HwJLUKjoDEonpgvHUdLbMgBa7pump</t>
+          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FARTWORM</t>
+          <t>XBT</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2575.06</v>
+        <v>268604.05</v>
       </c>
       <c r="E27" t="n">
-        <v>2575.06</v>
+        <v>268604.05</v>
       </c>
       <c r="F27" t="n">
-        <v>2575.06</v>
+        <v>268604.05</v>
       </c>
       <c r="G27" t="n">
-        <v>2575.06</v>
+        <v>268604.05</v>
       </c>
       <c r="H27" t="n">
-        <v>19038.67</v>
+        <v>497813.53</v>
       </c>
       <c r="I27" t="n">
-        <v>19038.67</v>
+        <v>497813.53</v>
       </c>
       <c r="J27" t="n">
-        <v>19038.67</v>
+        <v>497813.53</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -16991,34 +16991,34 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A8YHuvQBMAxXoZAZE72FyC8B7jKHo8RJyByXRRffpump</t>
+          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>XBT</t>
+          <t>RUECAT</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>272088.97</v>
+        <v>65632.58</v>
       </c>
       <c r="E28" t="n">
-        <v>272088.97</v>
+        <v>65632.58</v>
       </c>
       <c r="F28" t="n">
-        <v>272088.97</v>
+        <v>65632.58</v>
       </c>
       <c r="G28" t="n">
-        <v>272088.97</v>
+        <v>65632.58</v>
       </c>
       <c r="H28" t="n">
-        <v>504801.95</v>
+        <v>102337.73</v>
       </c>
       <c r="I28" t="n">
-        <v>504801.95</v>
+        <v>102337.73</v>
       </c>
       <c r="J28" t="n">
-        <v>504801.95</v>
+        <v>102337.73</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -17042,34 +17042,34 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AMKKkovbUqr5cxmsg22KxTgaRXq6z4f8umrze4JKpump</t>
+          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RUECAT</t>
+          <t>DREAM</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>66691.25999999999</v>
+        <v>129206.27</v>
       </c>
       <c r="E29" t="n">
-        <v>66691.25999999999</v>
+        <v>129206.27</v>
       </c>
       <c r="F29" t="n">
-        <v>66691.25999999999</v>
+        <v>129206.27</v>
       </c>
       <c r="G29" t="n">
-        <v>66691.25999999999</v>
+        <v>129206.27</v>
       </c>
       <c r="H29" t="n">
-        <v>104294.04</v>
+        <v>195858.88</v>
       </c>
       <c r="I29" t="n">
-        <v>104294.04</v>
+        <v>195858.88</v>
       </c>
       <c r="J29" t="n">
-        <v>104294.04</v>
+        <v>195858.88</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -17093,34 +17093,34 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B9zze29or7CJs1nBrigSCWSibfxvkmieFXcGg5cxbonk</t>
+          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DREAM</t>
+          <t>CRND</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>106814.34</v>
+        <v>61046.29</v>
       </c>
       <c r="E30" t="n">
-        <v>106814.34</v>
+        <v>61046.29</v>
       </c>
       <c r="F30" t="n">
-        <v>106814.34</v>
+        <v>61046.29</v>
       </c>
       <c r="G30" t="n">
-        <v>106814.34</v>
+        <v>61046.29</v>
       </c>
       <c r="H30" t="n">
-        <v>190891.34</v>
+        <v>73151.61</v>
       </c>
       <c r="I30" t="n">
-        <v>190891.34</v>
+        <v>73151.61</v>
       </c>
       <c r="J30" t="n">
-        <v>190891.34</v>
+        <v>73151.61</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -17144,34 +17144,34 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BVvSqvTb9ZVNEkP5UsamR1egAWSGEZiQDU42FS7mmoon</t>
+          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CRND</t>
+          <t>CHARLIE</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>61650.22</v>
+        <v>66530.35000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>61650.22</v>
+        <v>66530.35000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>61650.22</v>
+        <v>66530.35000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>61650.22</v>
+        <v>66530.35000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>73460.12</v>
+        <v>141068.83</v>
       </c>
       <c r="I31" t="n">
-        <v>73460.12</v>
+        <v>141068.83</v>
       </c>
       <c r="J31" t="n">
-        <v>73460.12</v>
+        <v>141068.83</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -17195,34 +17195,34 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CEqFiJoB6HLncfeieBw3PKKm9wyqrpSHV3VH4qZApump</t>
+          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CHARLIE</t>
+          <t>AI4</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>65509.42</v>
+        <v>182196.92</v>
       </c>
       <c r="E32" t="n">
-        <v>65509.42</v>
+        <v>182196.92</v>
       </c>
       <c r="F32" t="n">
-        <v>65509.42</v>
+        <v>182196.92</v>
       </c>
       <c r="G32" t="n">
-        <v>65509.42</v>
+        <v>182196.92</v>
       </c>
       <c r="H32" t="n">
-        <v>138661.32</v>
+        <v>123715.84</v>
       </c>
       <c r="I32" t="n">
-        <v>138661.32</v>
+        <v>123715.84</v>
       </c>
       <c r="J32" t="n">
-        <v>138661.32</v>
+        <v>123715.84</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -17246,34 +17246,34 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CZkxnM5PNPak31JSFNzJ76CWcYRu4mgxvBwcHaBJpump</t>
+          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AI4</t>
+          <t>Pochita</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>185611.75</v>
+        <v>150.87</v>
       </c>
       <c r="E33" t="n">
-        <v>185611.75</v>
+        <v>150.87</v>
       </c>
       <c r="F33" t="n">
-        <v>185611.75</v>
+        <v>150.87</v>
       </c>
       <c r="G33" t="n">
-        <v>185611.75</v>
+        <v>150.87</v>
       </c>
       <c r="H33" t="n">
-        <v>124359.03</v>
+        <v>9578.73</v>
       </c>
       <c r="I33" t="n">
-        <v>124359.03</v>
+        <v>9578.73</v>
       </c>
       <c r="J33" t="n">
-        <v>124359.03</v>
+        <v>9578.73</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -17297,34 +17297,34 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CmLrhRd762bfytq6f3ZV5iuivN1Q8oyPw4evyW4Mbonk</t>
+          <t>DKffyw1oEVWR3ik7q7tb2shhmZ3jbTkRzT6R5banCxai</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pochita</t>
+          <t>AI20X</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>150.87</v>
+        <v>64.11</v>
       </c>
       <c r="E34" t="n">
-        <v>150.87</v>
+        <v>64.11</v>
       </c>
       <c r="F34" t="n">
-        <v>150.87</v>
+        <v>64.11</v>
       </c>
       <c r="G34" t="n">
-        <v>150.87</v>
+        <v>64.11</v>
       </c>
       <c r="H34" t="n">
-        <v>9578.73</v>
+        <v>2817030.53</v>
       </c>
       <c r="I34" t="n">
-        <v>9578.73</v>
+        <v>2817030.53</v>
       </c>
       <c r="J34" t="n">
-        <v>9578.73</v>
+        <v>2817030.53</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -17357,25 +17357,25 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>383480.75</v>
+        <v>384039.09</v>
       </c>
       <c r="E35" t="n">
-        <v>383480.75</v>
+        <v>384039.09</v>
       </c>
       <c r="F35" t="n">
-        <v>383480.75</v>
+        <v>384039.09</v>
       </c>
       <c r="G35" t="n">
-        <v>383480.75</v>
+        <v>384039.09</v>
       </c>
       <c r="H35" t="n">
-        <v>221866.62</v>
+        <v>221317.89</v>
       </c>
       <c r="I35" t="n">
-        <v>221866.62</v>
+        <v>221317.89</v>
       </c>
       <c r="J35" t="n">
-        <v>221866.62</v>
+        <v>221317.89</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -17408,25 +17408,25 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8821.809999999999</v>
+        <v>8637.92</v>
       </c>
       <c r="E36" t="n">
-        <v>8821.809999999999</v>
+        <v>8637.92</v>
       </c>
       <c r="F36" t="n">
-        <v>8821.809999999999</v>
+        <v>8637.92</v>
       </c>
       <c r="G36" t="n">
-        <v>8821.809999999999</v>
+        <v>8637.92</v>
       </c>
       <c r="H36" t="n">
-        <v>31606.26</v>
+        <v>31790.23</v>
       </c>
       <c r="I36" t="n">
-        <v>31606.26</v>
+        <v>31790.23</v>
       </c>
       <c r="J36" t="n">
-        <v>31606.26</v>
+        <v>31790.23</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -17459,25 +17459,25 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>88959.64999999999</v>
+        <v>69349.24000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>88959.64999999999</v>
+        <v>69349.24000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>88959.64999999999</v>
+        <v>69349.24000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>88959.64999999999</v>
+        <v>69349.24000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>58993.73</v>
+        <v>58688.79</v>
       </c>
       <c r="I37" t="n">
-        <v>58993.73</v>
+        <v>58688.79</v>
       </c>
       <c r="J37" t="n">
-        <v>58993.73</v>
+        <v>58688.79</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -17612,25 +17612,25 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>123916.91</v>
+        <v>124523.15</v>
       </c>
       <c r="E40" t="n">
-        <v>123916.91</v>
+        <v>124523.15</v>
       </c>
       <c r="F40" t="n">
-        <v>123916.91</v>
+        <v>124523.15</v>
       </c>
       <c r="G40" t="n">
-        <v>123916.91</v>
+        <v>124523.15</v>
       </c>
       <c r="H40" t="n">
-        <v>199695.46</v>
+        <v>196862.69</v>
       </c>
       <c r="I40" t="n">
-        <v>199695.46</v>
+        <v>196862.69</v>
       </c>
       <c r="J40" t="n">
-        <v>199695.46</v>
+        <v>196862.69</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -17663,16 +17663,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3906.88</v>
+        <v>3703.25</v>
       </c>
       <c r="E41" t="n">
-        <v>3906.88</v>
+        <v>3703.25</v>
       </c>
       <c r="F41" t="n">
-        <v>3906.88</v>
+        <v>3703.25</v>
       </c>
       <c r="G41" t="n">
-        <v>3906.88</v>
+        <v>3703.25</v>
       </c>
       <c r="H41" t="n">
         <v>12272.48</v>
@@ -17714,16 +17714,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2248.87</v>
+        <v>2201.13</v>
       </c>
       <c r="E42" t="n">
-        <v>2248.87</v>
+        <v>2201.13</v>
       </c>
       <c r="F42" t="n">
-        <v>2248.87</v>
+        <v>2201.13</v>
       </c>
       <c r="G42" t="n">
-        <v>2248.87</v>
+        <v>2201.13</v>
       </c>
       <c r="H42" t="n">
         <v>23502.49</v>
@@ -17765,25 +17765,25 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10644.12</v>
+        <v>10710.1</v>
       </c>
       <c r="E43" t="n">
-        <v>10644.12</v>
+        <v>10710.1</v>
       </c>
       <c r="F43" t="n">
-        <v>10644.12</v>
+        <v>10710.1</v>
       </c>
       <c r="G43" t="n">
-        <v>10644.12</v>
+        <v>10710.1</v>
       </c>
       <c r="H43" t="n">
-        <v>22252.23</v>
+        <v>22038.08</v>
       </c>
       <c r="I43" t="n">
-        <v>22252.23</v>
+        <v>22038.08</v>
       </c>
       <c r="J43" t="n">
-        <v>22252.23</v>
+        <v>22038.08</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -17816,25 +17816,25 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>79743.96000000001</v>
+        <v>79712.00999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>79743.96000000001</v>
+        <v>79712.00999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>79743.96000000001</v>
+        <v>79712.00999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>79743.96000000001</v>
+        <v>79712.00999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>166013.41</v>
+        <v>164363.47</v>
       </c>
       <c r="I44" t="n">
-        <v>166013.41</v>
+        <v>164363.47</v>
       </c>
       <c r="J44" t="n">
-        <v>166013.41</v>
+        <v>164363.47</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -17867,25 +17867,25 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9129.09</v>
+        <v>9967.629999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>9129.09</v>
+        <v>9967.629999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>9129.09</v>
+        <v>9967.629999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>9129.09</v>
+        <v>9967.629999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>86166.2</v>
+        <v>87611.03</v>
       </c>
       <c r="I45" t="n">
-        <v>86166.2</v>
+        <v>87611.03</v>
       </c>
       <c r="J45" t="n">
-        <v>86166.2</v>
+        <v>87611.03</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -17918,25 +17918,25 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1731.53</v>
+        <v>1749.28</v>
       </c>
       <c r="E46" t="n">
-        <v>1731.53</v>
+        <v>1749.28</v>
       </c>
       <c r="F46" t="n">
-        <v>1731.53</v>
+        <v>1749.28</v>
       </c>
       <c r="G46" t="n">
-        <v>1731.53</v>
+        <v>1749.28</v>
       </c>
       <c r="H46" t="n">
-        <v>21416.84</v>
+        <v>21344.44</v>
       </c>
       <c r="I46" t="n">
-        <v>21416.84</v>
+        <v>21344.44</v>
       </c>
       <c r="J46" t="n">
-        <v>21416.84</v>
+        <v>21344.44</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -18071,25 +18071,25 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>268905732.95</v>
+        <v>270236433.6</v>
       </c>
       <c r="E49" t="n">
-        <v>268905732.95</v>
+        <v>270236433.6</v>
       </c>
       <c r="F49" t="n">
-        <v>268905732.95</v>
+        <v>270236433.6</v>
       </c>
       <c r="G49" t="n">
-        <v>268905732.95</v>
+        <v>270236433.6</v>
       </c>
       <c r="H49" t="n">
-        <v>55389488.16</v>
+        <v>55067985.4</v>
       </c>
       <c r="I49" t="n">
-        <v>55389488.16</v>
+        <v>55067985.4</v>
       </c>
       <c r="J49" t="n">
-        <v>55389488.16</v>
+        <v>55067985.4</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -18122,25 +18122,25 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5979.31</v>
+        <v>5865.58</v>
       </c>
       <c r="E50" t="n">
-        <v>5979.31</v>
+        <v>5865.58</v>
       </c>
       <c r="F50" t="n">
-        <v>5979.31</v>
+        <v>5865.58</v>
       </c>
       <c r="G50" t="n">
-        <v>5979.31</v>
+        <v>5865.58</v>
       </c>
       <c r="H50" t="n">
-        <v>59068.31</v>
+        <v>58715</v>
       </c>
       <c r="I50" t="n">
-        <v>59068.31</v>
+        <v>58715</v>
       </c>
       <c r="J50" t="n">
-        <v>59068.31</v>
+        <v>58715</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
